--- a/tabular/hiv-reference-data.xlsx
+++ b/tabular/hiv-reference-data.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="120">
   <si>
-    <t xml:space="preserve">Subtype </t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Country of Origin</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
@@ -379,6 +373,12 @@
   </si>
   <si>
     <t>Isolate</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
+  <si>
+    <t>Country</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1162,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1177,44 +1177,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="11" customFormat="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>22</v>
       </c>
       <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>2</v>
       </c>
       <c r="D2" s="15">
         <v>1983</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="23">
         <v>9181</v>
@@ -1226,19 +1226,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>1</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>2</v>
       </c>
       <c r="D3" s="15">
         <v>1983</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="24">
         <v>9719</v>
@@ -1250,19 +1250,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F4" s="25">
         <v>9000</v>
@@ -1274,19 +1274,19 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F5" s="25">
         <v>14825</v>
@@ -1298,43 +1298,43 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="12">
         <v>2014</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" s="25">
         <v>9709</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9">
         <v>1990</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="26">
         <v>8996</v>
@@ -1346,10 +1346,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="6">
         <v>671</v>
@@ -1358,7 +1358,7 @@
         <v>2000</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F8" s="26">
         <v>9359</v>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="6">
         <v>1058</v>
@@ -1382,7 +1382,7 @@
         <v>1998</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F9" s="26">
         <v>8834</v>
@@ -1394,19 +1394,19 @@
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D10" s="8">
         <v>1992</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F10" s="28">
         <v>8999</v>
@@ -1418,19 +1418,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="8">
         <v>1994</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="28">
         <v>9160</v>
@@ -1442,19 +1442,19 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="9">
         <v>1994</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F12" s="26">
         <v>8813</v>
@@ -1466,19 +1466,19 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D13" s="9">
         <v>1998</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" s="26">
         <v>8807</v>
@@ -1490,19 +1490,19 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14" s="9">
         <v>1997</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="26">
         <v>8972</v>
@@ -1514,19 +1514,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D15" s="9">
         <v>1994</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="26">
         <v>9060</v>
@@ -1538,19 +1538,19 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="9">
         <v>1986</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" s="26">
         <v>9031</v>
@@ -1562,19 +1562,19 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D17" s="9">
         <v>1992</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" s="26">
         <v>8959</v>
@@ -1586,19 +1586,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="8">
         <v>1995</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18" s="26">
         <v>9002</v>
@@ -1610,19 +1610,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="8">
         <v>2004</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F19" s="26">
         <v>9011</v>
@@ -1634,19 +1634,19 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D20" s="8">
         <v>1983</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" s="26">
         <v>9176</v>
@@ -1658,19 +1658,19 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" s="8">
         <v>1994</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21" s="26">
         <v>8952</v>
@@ -1682,19 +1682,19 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" s="8">
         <v>2001</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F22" s="26">
         <v>8379</v>
@@ -1706,19 +1706,19 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" s="8">
         <v>2001</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F23" s="26">
         <v>8775</v>
@@ -1730,19 +1730,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" s="8">
         <v>1993</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F24" s="26">
         <v>8968</v>
@@ -1754,19 +1754,19 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D25" s="8">
         <v>1993</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" s="26">
         <v>8903</v>
@@ -1778,19 +1778,19 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" s="8">
         <v>1993</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F26" s="26">
         <v>8925</v>
@@ -1802,19 +1802,19 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" s="8">
         <v>1996</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F27" s="26">
         <v>8614</v>
@@ -1826,19 +1826,19 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="8">
         <v>1995</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F28" s="26">
         <v>8555</v>
@@ -1850,19 +1850,19 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29" s="8">
         <v>1995</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F29" s="26">
         <v>8589</v>
@@ -1874,19 +1874,19 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="8">
         <v>2002</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F30" s="26">
         <v>8349</v>
@@ -1898,19 +1898,19 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D31" s="8">
         <v>1997</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F31" s="26">
         <v>8782</v>
@@ -1922,19 +1922,19 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D32" s="8">
         <v>1993</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F32" s="26">
         <v>9074</v>
@@ -1946,19 +1946,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D33" s="8">
         <v>1993</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F33" s="26">
         <v>9048</v>
@@ -1970,19 +1970,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D34" s="8">
         <v>1996</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F34" s="26">
         <v>9707</v>
@@ -1994,19 +1994,19 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D35" s="8">
         <v>1992</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F35" s="26">
         <v>8987</v>
@@ -2018,19 +2018,19 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8">
         <v>1990</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F36" s="26">
         <v>8953</v>
@@ -2042,19 +2042,19 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D37" s="8">
         <v>1994</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F37" s="26">
         <v>9056</v>
@@ -2066,19 +2066,19 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D38" s="8">
         <v>1993</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F38" s="26">
         <v>8955</v>
@@ -2090,19 +2090,19 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D39" s="8">
         <v>1994</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F39" s="26">
         <v>8943</v>
@@ -2114,19 +2114,19 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D40" s="8">
         <v>1993</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F40" s="26">
         <v>8953</v>
@@ -2138,19 +2138,19 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D41" s="8">
         <v>1997</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F41" s="26">
         <v>8600</v>
@@ -2162,19 +2162,19 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D42" s="8">
         <v>1996</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F42" s="26">
         <v>8604</v>

--- a/tabular/hiv-reference-data.xlsx
+++ b/tabular/hiv-reference-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="0" windowWidth="22380" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="16540" yWindow="4660" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="141">
   <si>
     <t>B</t>
   </si>
@@ -379,6 +379,69 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>01_AE</t>
+  </si>
+  <si>
+    <t>CM240</t>
+  </si>
+  <si>
+    <t>U54771</t>
+  </si>
+  <si>
+    <t>02_AG</t>
+  </si>
+  <si>
+    <t>IBNG</t>
+  </si>
+  <si>
+    <t>L39106</t>
+  </si>
+  <si>
+    <t>06_AGJK</t>
+  </si>
+  <si>
+    <t>BFP90</t>
+  </si>
+  <si>
+    <t>AF064699</t>
+  </si>
+  <si>
+    <t>Australia (Burkina Faso)</t>
+  </si>
+  <si>
+    <t>07_BC</t>
+  </si>
+  <si>
+    <t>CN54</t>
+  </si>
+  <si>
+    <t>AX149771</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>08_BC</t>
+  </si>
+  <si>
+    <t>GX-6F</t>
+  </si>
+  <si>
+    <t>AY008715</t>
+  </si>
+  <si>
+    <t>12_BF</t>
+  </si>
+  <si>
+    <t>ARMA159</t>
+  </si>
+  <si>
+    <t>AF385936</t>
+  </si>
+  <si>
+    <t>Argentina</t>
   </si>
 </sst>
 </file>
@@ -499,7 +562,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -629,8 +692,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -656,9 +749,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,29 +769,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="159">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -829,7 +912,37 @@
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1159,96 +1272,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="28.83203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="11" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="11" customFormat="1">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" s="11" customFormat="1">
+      <c r="A1" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>117</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="14" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>1983</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="28">
         <v>9181</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <v>9362478</v>
       </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="16" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>1983</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="29">
         <v>9719</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>2578615</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1261,18 +1370,17 @@
       <c r="D4" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="25" t="s">
         <v>111</v>
       </c>
       <c r="F4" s="25">
         <v>9000</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>7483282</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1285,18 +1393,17 @@
       <c r="D5" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="25" t="s">
         <v>111</v>
       </c>
       <c r="F5" s="25">
         <v>14825</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>3016298</v>
       </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1309,18 +1416,17 @@
       <c r="D6" s="12">
         <v>2014</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="25" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="25">
         <v>9709</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
@@ -1333,7 +1439,7 @@
       <c r="D7" s="9">
         <v>1990</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="26" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="26">
@@ -1342,9 +1448,8 @@
       <c r="G7" s="6">
         <v>12487805</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>44</v>
       </c>
@@ -1357,7 +1462,7 @@
       <c r="D8" s="9">
         <v>2000</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="26" t="s">
         <v>48</v>
       </c>
       <c r="F8" s="26">
@@ -1366,9 +1471,8 @@
       <c r="G8" s="6">
         <v>14610167</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>45</v>
       </c>
@@ -1381,7 +1485,7 @@
       <c r="D9" s="9">
         <v>1998</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="26" t="s">
         <v>49</v>
       </c>
       <c r="F9" s="26">
@@ -1390,9 +1494,8 @@
       <c r="G9" s="6">
         <v>16103205</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1">
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1405,18 +1508,17 @@
       <c r="D10" s="8">
         <v>1992</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>8999</v>
       </c>
       <c r="G10" s="6">
         <v>8794346</v>
       </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1429,18 +1531,17 @@
       <c r="D11" s="8">
         <v>1994</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <v>9160</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>10364271</v>
       </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -1453,7 +1554,7 @@
       <c r="D12" s="9">
         <v>1994</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="26" t="s">
         <v>107</v>
       </c>
       <c r="F12" s="26">
@@ -1462,9 +1563,8 @@
       <c r="G12" s="6">
         <v>10513639</v>
       </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1477,7 +1577,7 @@
       <c r="D13" s="9">
         <v>1998</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="26" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="26">
@@ -1486,9 +1586,8 @@
       <c r="G13" s="6">
         <v>12487816</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1501,7 +1600,7 @@
       <c r="D14" s="9">
         <v>1997</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="26" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="26">
@@ -1510,9 +1609,8 @@
       <c r="G14" s="6">
         <v>11429108</v>
       </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
@@ -1525,7 +1623,7 @@
       <c r="D15" s="9">
         <v>1994</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="26" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="26">
@@ -1534,9 +1632,8 @@
       <c r="G15" s="6">
         <v>11429108</v>
       </c>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
@@ -1549,7 +1646,7 @@
       <c r="D16" s="9">
         <v>1986</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="26" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="26">
@@ -1558,9 +1655,8 @@
       <c r="G16" s="6">
         <v>8891112</v>
       </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -1573,7 +1669,7 @@
       <c r="D17" s="9">
         <v>1992</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="26" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="26">
@@ -1582,9 +1678,8 @@
       <c r="G17" s="6">
         <v>8627686</v>
       </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -1597,7 +1692,7 @@
       <c r="D18" s="8">
         <v>1995</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="27" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="26">
@@ -1606,9 +1701,8 @@
       <c r="G18" s="6">
         <v>9847317</v>
       </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
@@ -1621,7 +1715,7 @@
       <c r="D19" s="8">
         <v>2004</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="27" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="26">
@@ -1630,9 +1724,8 @@
       <c r="G19" s="6">
         <v>15592417</v>
       </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>58</v>
       </c>
@@ -1645,7 +1738,7 @@
       <c r="D20" s="8">
         <v>1983</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="26">
@@ -1654,9 +1747,8 @@
       <c r="G20" s="6">
         <v>2424612</v>
       </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
@@ -1669,7 +1761,7 @@
       <c r="D21" s="8">
         <v>1994</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="27" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="26">
@@ -1678,9 +1770,8 @@
       <c r="G21" s="6">
         <v>9621027</v>
       </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>60</v>
       </c>
@@ -1693,7 +1784,7 @@
       <c r="D22" s="8">
         <v>2001</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F22" s="26">
@@ -1702,9 +1793,8 @@
       <c r="G22" s="6">
         <v>15186527</v>
       </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
         <v>61</v>
       </c>
@@ -1717,7 +1807,7 @@
       <c r="D23" s="8">
         <v>2001</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="27" t="s">
         <v>63</v>
       </c>
       <c r="F23" s="26">
@@ -1726,9 +1816,8 @@
       <c r="G23" s="6">
         <v>15320994</v>
       </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>68</v>
       </c>
@@ -1741,7 +1830,7 @@
       <c r="D24" s="8">
         <v>1993</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="27" t="s">
         <v>55</v>
       </c>
       <c r="F24" s="26">
@@ -1750,9 +1839,8 @@
       <c r="G24" s="6">
         <v>9621027</v>
       </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>69</v>
       </c>
@@ -1765,7 +1853,7 @@
       <c r="D25" s="8">
         <v>1993</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F25" s="26">
@@ -1774,9 +1862,8 @@
       <c r="G25" s="6">
         <v>10725202</v>
       </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>70</v>
       </c>
@@ -1789,7 +1876,7 @@
       <c r="D26" s="8">
         <v>1993</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="27" t="s">
         <v>72</v>
       </c>
       <c r="F26" s="26">
@@ -1798,9 +1885,8 @@
       <c r="G26" s="6">
         <v>10725203</v>
       </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>71</v>
       </c>
@@ -1813,7 +1899,7 @@
       <c r="D27" s="8">
         <v>1996</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="27" t="s">
         <v>46</v>
       </c>
       <c r="F27" s="26">
@@ -1822,9 +1908,8 @@
       <c r="G27" s="6">
         <v>10659053</v>
       </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
         <v>74</v>
       </c>
@@ -1837,7 +1922,7 @@
       <c r="D28" s="8">
         <v>1995</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F28" s="26">
@@ -1846,9 +1931,8 @@
       <c r="G28" s="6">
         <v>10659054</v>
       </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8">
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>77</v>
       </c>
@@ -1861,7 +1945,7 @@
       <c r="D29" s="8">
         <v>1995</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F29" s="26">
@@ -1870,9 +1954,8 @@
       <c r="G29" s="6">
         <v>10659055</v>
       </c>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8">
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>78</v>
       </c>
@@ -1885,7 +1968,7 @@
       <c r="D30" s="8">
         <v>2002</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F30" s="26">
@@ -1894,9 +1977,8 @@
       <c r="G30" s="6">
         <v>15186527</v>
       </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>80</v>
       </c>
@@ -1909,7 +1991,7 @@
       <c r="D31" s="8">
         <v>1997</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F31" s="26">
@@ -1918,9 +2000,8 @@
       <c r="G31" s="6">
         <v>11448170</v>
       </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>82</v>
       </c>
@@ -1933,7 +2014,7 @@
       <c r="D32" s="8">
         <v>1993</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="27" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="26">
@@ -1942,9 +2023,8 @@
       <c r="G32" s="6">
         <v>9683568</v>
       </c>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8">
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>84</v>
       </c>
@@ -1957,7 +2037,7 @@
       <c r="D33" s="8">
         <v>1993</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="27" t="s">
         <v>85</v>
       </c>
       <c r="F33" s="26">
@@ -1966,9 +2046,8 @@
       <c r="G33" s="6">
         <v>9683569</v>
       </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8">
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="3" t="s">
         <v>88</v>
       </c>
@@ -1981,7 +2060,7 @@
       <c r="D34" s="8">
         <v>1996</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F34" s="26">
@@ -1990,9 +2069,8 @@
       <c r="G34" s="6">
         <v>10221535</v>
       </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8">
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
         <v>90</v>
       </c>
@@ -2005,7 +2083,7 @@
       <c r="D35" s="8">
         <v>1992</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="27" t="s">
         <v>91</v>
       </c>
       <c r="F35" s="26">
@@ -2014,9 +2092,8 @@
       <c r="G35" s="6">
         <v>9621027</v>
       </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8">
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
         <v>92</v>
       </c>
@@ -2029,7 +2106,7 @@
       <c r="D36" s="8">
         <v>1990</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="27" t="s">
         <v>93</v>
       </c>
       <c r="F36" s="26">
@@ -2038,9 +2115,8 @@
       <c r="G36" s="6">
         <v>9621028</v>
       </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8">
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
         <v>95</v>
       </c>
@@ -2053,7 +2129,7 @@
       <c r="D37" s="8">
         <v>1994</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="27" t="s">
         <v>113</v>
       </c>
       <c r="F37" s="26">
@@ -2062,9 +2138,8 @@
       <c r="G37" s="6">
         <v>10983640</v>
       </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8">
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
         <v>97</v>
       </c>
@@ -2077,7 +2152,7 @@
       <c r="D38" s="8">
         <v>1993</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="27" t="s">
         <v>113</v>
       </c>
       <c r="F38" s="26">
@@ -2086,9 +2161,8 @@
       <c r="G38" s="6">
         <v>10983641</v>
       </c>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8">
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
         <v>99</v>
       </c>
@@ -2101,7 +2175,7 @@
       <c r="D39" s="8">
         <v>1994</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="27" t="s">
         <v>86</v>
       </c>
       <c r="F39" s="26">
@@ -2110,9 +2184,8 @@
       <c r="G39" s="6">
         <v>10052760</v>
       </c>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8">
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
         <v>101</v>
       </c>
@@ -2125,7 +2198,7 @@
       <c r="D40" s="8">
         <v>1993</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="27" t="s">
         <v>86</v>
       </c>
       <c r="F40" s="26">
@@ -2134,9 +2207,8 @@
       <c r="G40" s="6">
         <v>10052761</v>
       </c>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8">
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="3" t="s">
         <v>103</v>
       </c>
@@ -2149,7 +2221,7 @@
       <c r="D41" s="8">
         <v>1997</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F41" s="26">
@@ -2158,9 +2230,8 @@
       <c r="G41" s="6">
         <v>10659053</v>
       </c>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8">
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
         <v>105</v>
       </c>
@@ -2173,7 +2244,7 @@
       <c r="D42" s="8">
         <v>1996</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="27" t="s">
         <v>62</v>
       </c>
       <c r="F42" s="26">
@@ -2182,7 +2253,142 @@
       <c r="G42" s="6">
         <v>10659054</v>
       </c>
-      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1990</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="27">
+        <v>9203</v>
+      </c>
+      <c r="G43" s="21">
+        <v>8709215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="27">
+        <v>9201</v>
+      </c>
+      <c r="G44" s="21">
+        <v>7888238</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1996</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F45" s="27">
+        <v>9775</v>
+      </c>
+      <c r="G45" s="21">
+        <v>9824329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1997</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="27">
+        <v>9078</v>
+      </c>
+      <c r="G46" s="21"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1997</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F47" s="27">
+        <v>8802</v>
+      </c>
+      <c r="G47" s="21">
+        <v>11070028</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="8">
+        <v>1991</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="27">
+        <v>9704</v>
+      </c>
+      <c r="G48" s="21">
+        <v>11600844</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tabular/hiv-reference-data.xlsx
+++ b/tabular/hiv-reference-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/HIV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F133DC3-118C-4F4E-94C0-09FDD8B2139E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B23E036-04F7-2B49-A9F6-955A54F85EA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4360" yWindow="460" windowWidth="23660" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="unclassified" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4854" uniqueCount="3811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4854" uniqueCount="3803">
   <si>
     <t>Accession</t>
   </si>
@@ -43633,12 +43633,6 @@
     <t>Pbt_05GM_X02</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
     <t>Homo sapiens</t>
   </si>
   <si>
@@ -43774,45 +43768,12 @@
     <t>SIVrcmNg409</t>
   </si>
   <si>
-    <t>congo</t>
-  </si>
-  <si>
-    <t>uganda</t>
-  </si>
-  <si>
     <t>Gabon</t>
   </si>
   <si>
-    <t>kenya</t>
-  </si>
-  <si>
     <t>Zambia</t>
   </si>
   <si>
-    <t>gabon</t>
-  </si>
-  <si>
-    <t>usa</t>
-  </si>
-  <si>
-    <t>cameroon</t>
-  </si>
-  <si>
-    <t>senegal</t>
-  </si>
-  <si>
-    <t>cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>sierra leone</t>
-  </si>
-  <si>
-    <t>zambia</t>
-  </si>
-  <si>
-    <t>gambia</t>
-  </si>
-  <si>
     <t>pig-tailed macaque</t>
   </si>
   <si>
@@ -43897,18 +43858,9 @@
     <t>cattle</t>
   </si>
   <si>
-    <t>cats</t>
-  </si>
-  <si>
     <t>Felis concolor coryi</t>
   </si>
   <si>
-    <t>horses</t>
-  </si>
-  <si>
-    <t>goats</t>
-  </si>
-  <si>
     <t>chimpanzee</t>
   </si>
   <si>
@@ -44051,6 +44003,30 @@
   </si>
   <si>
     <t>Host_common_name</t>
+  </si>
+  <si>
+    <t>goat</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Usa</t>
+  </si>
+  <si>
+    <t>Cote D'Ivoire</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Gambia</t>
   </si>
 </sst>
 </file>
@@ -44200,31 +44176,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE4DFEC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE4DFEC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE4DFEC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -44571,7 +44523,7 @@
   <dimension ref="A1:T158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection sqref="A1:K158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -44591,10 +44543,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>3746</v>
+        <v>3733</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>3741</v>
+        <v>3728</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
@@ -44609,7 +44561,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>3810</v>
+        <v>3794</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>3493</v>
@@ -44626,10 +44578,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>8</v>
@@ -44644,10 +44596,10 @@
         <v>10</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J2" s="12">
         <v>9181</v>
@@ -44661,10 +44613,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>8</v>
@@ -44679,10 +44631,10 @@
         <v>10</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J3" s="12">
         <v>9719</v>
@@ -44696,10 +44648,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>8</v>
@@ -44714,10 +44666,10 @@
         <v>14</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J4" s="12">
         <v>9000</v>
@@ -44731,10 +44683,10 @@
         <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>8</v>
@@ -44749,10 +44701,10 @@
         <v>14</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J5" s="12">
         <v>14825</v>
@@ -44766,10 +44718,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>8</v>
@@ -44784,10 +44736,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J6" s="12">
         <v>9709</v>
@@ -44801,10 +44753,10 @@
         <v>21</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>8</v>
@@ -44819,10 +44771,10 @@
         <v>23</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J7" s="12">
         <v>8996</v>
@@ -44836,10 +44788,10 @@
         <v>24</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>8</v>
@@ -44854,10 +44806,10 @@
         <v>25</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J8" s="12">
         <v>9359</v>
@@ -44871,10 +44823,10 @@
         <v>26</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>8</v>
@@ -44889,10 +44841,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J9" s="12">
         <v>8834</v>
@@ -44906,10 +44858,10 @@
         <v>27</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>28</v>
@@ -44924,10 +44876,10 @@
         <v>30</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J10" s="12">
         <v>8999</v>
@@ -44941,10 +44893,10 @@
         <v>31</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>28</v>
@@ -44959,10 +44911,10 @@
         <v>33</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J11" s="12">
         <v>9160</v>
@@ -44976,10 +44928,10 @@
         <v>34</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>28</v>
@@ -44994,10 +44946,10 @@
         <v>36</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J12" s="12">
         <v>8813</v>
@@ -45011,10 +44963,10 @@
         <v>37</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>28</v>
@@ -45029,10 +44981,10 @@
         <v>30</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J13" s="12">
         <v>8807</v>
@@ -45046,10 +44998,10 @@
         <v>39</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>40</v>
@@ -45064,10 +45016,10 @@
         <v>42</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J14" s="12">
         <v>8972</v>
@@ -45090,10 +45042,10 @@
         <v>43</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>40</v>
@@ -45108,10 +45060,10 @@
         <v>45</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J15" s="12">
         <v>9060</v>
@@ -45134,10 +45086,10 @@
         <v>46</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>47</v>
@@ -45152,10 +45104,10 @@
         <v>49</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J16" s="12">
         <v>9031</v>
@@ -45178,10 +45130,10 @@
         <v>50</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>47</v>
@@ -45196,10 +45148,10 @@
         <v>52</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J17" s="12">
         <v>8959</v>
@@ -45222,10 +45174,10 @@
         <v>53</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>47</v>
@@ -45240,10 +45192,10 @@
         <v>55</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J18" s="12">
         <v>9002</v>
@@ -45266,10 +45218,10 @@
         <v>56</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>47</v>
@@ -45284,10 +45236,10 @@
         <v>58</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J19" s="12">
         <v>9011</v>
@@ -45310,10 +45262,10 @@
         <v>59</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>60</v>
@@ -45328,10 +45280,10 @@
         <v>42</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J20" s="12">
         <v>9176</v>
@@ -45354,10 +45306,10 @@
         <v>62</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>60</v>
@@ -45372,10 +45324,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J21" s="12">
         <v>8952</v>
@@ -45398,10 +45350,10 @@
         <v>64</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>60</v>
@@ -45416,10 +45368,10 @@
         <v>66</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J22" s="12">
         <v>8379</v>
@@ -45442,10 +45394,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>60</v>
@@ -45460,10 +45412,10 @@
         <v>69</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J23" s="12">
         <v>8775</v>
@@ -45486,10 +45438,10 @@
         <v>70</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>71</v>
@@ -45504,10 +45456,10 @@
         <v>52</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J24" s="12">
         <v>8968</v>
@@ -45530,10 +45482,10 @@
         <v>73</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>71</v>
@@ -45548,10 +45500,10 @@
         <v>42</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J25" s="12">
         <v>8903</v>
@@ -45574,10 +45526,10 @@
         <v>75</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>71</v>
@@ -45592,10 +45544,10 @@
         <v>77</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J26" s="12">
         <v>8925</v>
@@ -45618,10 +45570,10 @@
         <v>78</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>71</v>
@@ -45636,10 +45588,10 @@
         <v>10</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J27" s="12">
         <v>8614</v>
@@ -45662,10 +45614,10 @@
         <v>80</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>71</v>
@@ -45680,10 +45632,10 @@
         <v>66</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J28" s="12">
         <v>8555</v>
@@ -45697,10 +45649,10 @@
         <v>82</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>71</v>
@@ -45715,10 +45667,10 @@
         <v>66</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J29" s="12">
         <v>8589</v>
@@ -45732,10 +45684,10 @@
         <v>84</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>71</v>
@@ -45750,10 +45702,10 @@
         <v>66</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J30" s="12">
         <v>8349</v>
@@ -45767,10 +45719,10 @@
         <v>86</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>71</v>
@@ -45785,10 +45737,10 @@
         <v>66</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J31" s="12">
         <v>8782</v>
@@ -45802,10 +45754,10 @@
         <v>88</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>89</v>
@@ -45820,10 +45772,10 @@
         <v>91</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J32" s="12">
         <v>9074</v>
@@ -45837,10 +45789,10 @@
         <v>92</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>89</v>
@@ -45855,10 +45807,10 @@
         <v>94</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J33" s="12">
         <v>9048</v>
@@ -45872,10 +45824,10 @@
         <v>95</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>89</v>
@@ -45890,10 +45842,10 @@
         <v>42</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J34" s="12">
         <v>9707</v>
@@ -45907,10 +45859,10 @@
         <v>97</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>89</v>
@@ -45925,10 +45877,10 @@
         <v>99</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J35" s="12">
         <v>8987</v>
@@ -45942,10 +45894,10 @@
         <v>100</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>101</v>
@@ -45960,10 +45912,10 @@
         <v>103</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J36" s="12">
         <v>8953</v>
@@ -45977,10 +45929,10 @@
         <v>104</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>101</v>
@@ -45995,10 +45947,10 @@
         <v>106</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J37" s="12">
         <v>9056</v>
@@ -46012,10 +45964,10 @@
         <v>107</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>101</v>
@@ -46030,10 +45982,10 @@
         <v>106</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J38" s="12">
         <v>8955</v>
@@ -46047,10 +45999,10 @@
         <v>109</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>110</v>
@@ -46065,10 +46017,10 @@
         <v>91</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J39" s="12">
         <v>8943</v>
@@ -46082,10 +46034,10 @@
         <v>112</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>110</v>
@@ -46100,10 +46052,10 @@
         <v>91</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J40" s="12">
         <v>8953</v>
@@ -46117,10 +46069,10 @@
         <v>114</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>115</v>
@@ -46135,10 +46087,10 @@
         <v>42</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J41" s="12">
         <v>8600</v>
@@ -46152,10 +46104,10 @@
         <v>117</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>115</v>
@@ -46170,10 +46122,10 @@
         <v>66</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J42" s="12">
         <v>8604</v>
@@ -46187,10 +46139,10 @@
         <v>119</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>120</v>
@@ -46205,10 +46157,10 @@
         <v>23</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J43" s="12">
         <v>9203</v>
@@ -46222,10 +46174,10 @@
         <v>122</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>123</v>
@@ -46240,10 +46192,10 @@
         <v>99</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J44" s="12">
         <v>9201</v>
@@ -46257,10 +46209,10 @@
         <v>125</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>126</v>
@@ -46275,10 +46227,10 @@
         <v>128</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J45" s="12">
         <v>9775</v>
@@ -46292,10 +46244,10 @@
         <v>129</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>130</v>
@@ -46310,10 +46262,10 @@
         <v>132</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J46" s="12">
         <v>9078</v>
@@ -46325,10 +46277,10 @@
         <v>133</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>47</v>
@@ -46343,10 +46295,10 @@
         <v>132</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J47" s="12">
         <v>8802</v>
@@ -46360,10 +46312,10 @@
         <v>135</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>3742</v>
+        <v>3729</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>71</v>
@@ -46378,10 +46330,10 @@
         <v>137</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J48" s="12">
         <v>9704</v>
@@ -46395,10 +46347,10 @@
         <v>3528</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>3744</v>
+        <v>3731</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="s">
@@ -46411,10 +46363,10 @@
         <v>66</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
@@ -46424,10 +46376,10 @@
         <v>3529</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>3744</v>
+        <v>3731</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13" t="s">
@@ -46440,10 +46392,10 @@
         <v>66</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
@@ -46453,10 +46405,10 @@
         <v>3530</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>3744</v>
+        <v>3731</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
@@ -46469,10 +46421,10 @@
         <v>66</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
@@ -46482,10 +46434,10 @@
         <v>3531</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>3744</v>
+        <v>3731</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13" t="s">
@@ -46498,10 +46450,10 @@
         <v>66</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
@@ -46511,10 +46463,10 @@
         <v>3533</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>3745</v>
+        <v>3732</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13" t="s">
@@ -46527,10 +46479,10 @@
         <v>66</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
@@ -46540,10 +46492,10 @@
         <v>3534</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>3745</v>
+        <v>3732</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13" t="s">
@@ -46556,10 +46508,10 @@
         <v>66</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -46569,10 +46521,10 @@
         <v>3535</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>3745</v>
+        <v>3732</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13" t="s">
@@ -46585,10 +46537,10 @@
         <v>66</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
@@ -46598,10 +46550,10 @@
         <v>3536</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>3745</v>
+        <v>3732</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13" t="s">
@@ -46611,13 +46563,13 @@
         <v>1999</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>3674</v>
+        <v>3672</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
@@ -46627,10 +46579,10 @@
         <v>3537</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>3745</v>
+        <v>3732</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13" t="s">
@@ -46643,10 +46595,10 @@
         <v>19</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
@@ -46656,10 +46608,10 @@
         <v>3538</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>3748</v>
+        <v>3735</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13" t="s">
@@ -46672,10 +46624,10 @@
         <v>66</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -46685,7 +46637,7 @@
         <v>3546</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>3747</v>
+        <v>3734</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -46699,10 +46651,10 @@
         <v>10</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
@@ -46712,7 +46664,7 @@
         <v>3539</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>3747</v>
+        <v>3734</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -46723,13 +46675,13 @@
         <v>14</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>3675</v>
+        <v>3673</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
@@ -46739,7 +46691,7 @@
         <v>3540</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>3747</v>
+        <v>3734</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -46750,13 +46702,13 @@
         <v>14</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>3676</v>
+        <v>3674</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
@@ -46766,7 +46718,7 @@
         <v>3541</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>3747</v>
+        <v>3734</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -46777,13 +46729,13 @@
         <v>1986</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>3674</v>
+        <v>3672</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
@@ -46793,7 +46745,7 @@
         <v>3542</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>3747</v>
+        <v>3734</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -46804,13 +46756,13 @@
         <v>14</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
@@ -46820,7 +46772,7 @@
         <v>3543</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>3747</v>
+        <v>3734</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -46831,13 +46783,13 @@
         <v>1986</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
@@ -46847,7 +46799,7 @@
         <v>3544</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>3747</v>
+        <v>3734</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -46858,13 +46810,13 @@
         <v>1992</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
@@ -46874,7 +46826,7 @@
         <v>3545</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>3747</v>
+        <v>3734</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -46885,287 +46837,287 @@
         <v>2007</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>3809</v>
+        <v>3793</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="16" t="s">
-        <v>3681</v>
+        <v>3679</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
       <c r="C67" s="16"/>
       <c r="D67" s="16"/>
       <c r="E67" s="16" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
       <c r="H67" s="16" t="s">
-        <v>3758</v>
+        <v>3745</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>3807</v>
+        <v>3791</v>
       </c>
       <c r="J67" s="16"/>
       <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
+      <c r="L67" s="14"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="16" t="s">
-        <v>3697</v>
+        <v>3695</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>3753</v>
+        <v>3740</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
       <c r="E68" s="16" t="s">
-        <v>3698</v>
+        <v>3696</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
       <c r="H68" s="16" t="s">
-        <v>3762</v>
+        <v>3795</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>3803</v>
+        <v>3787</v>
       </c>
       <c r="J68" s="16"/>
       <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
+      <c r="L68" s="14"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="16" t="s">
-        <v>3693</v>
+        <v>3691</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>3694</v>
+        <v>3692</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="16"/>
       <c r="E69" s="16" t="s">
-        <v>3694</v>
+        <v>3692</v>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="16"/>
       <c r="H69" s="16" t="s">
-        <v>3761</v>
+        <v>3796</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>3804</v>
+        <v>3788</v>
       </c>
       <c r="J69" s="16"/>
       <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
+      <c r="L69" s="14"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="16" t="s">
-        <v>3695</v>
+        <v>3693</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>3694</v>
+        <v>3692</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
       <c r="E70" s="16" t="s">
-        <v>3696</v>
+        <v>3694</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
       <c r="H70" s="16" t="s">
-        <v>3761</v>
+        <v>3796</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>3804</v>
+        <v>3788</v>
       </c>
       <c r="J70" s="16"/>
       <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
+      <c r="L70" s="14"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="16" t="s">
-        <v>3685</v>
+        <v>3683</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>3751</v>
+        <v>3738</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16" t="s">
-        <v>3686</v>
+        <v>3684</v>
       </c>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
       <c r="H71" s="16" t="s">
-        <v>3759</v>
+        <v>3797</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>3805</v>
+        <v>3789</v>
       </c>
       <c r="J71" s="16"/>
       <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
+      <c r="L71" s="14"/>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="16" t="s">
-        <v>3687</v>
+        <v>3685</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>3751</v>
+        <v>3738</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="16" t="s">
-        <v>3688</v>
+        <v>3686</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
       <c r="H72" s="16" t="s">
-        <v>3759</v>
+        <v>3797</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>3805</v>
+        <v>3789</v>
       </c>
       <c r="J72" s="16"/>
       <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
+      <c r="L72" s="14"/>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="16" t="s">
-        <v>3689</v>
+        <v>3687</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>3751</v>
+        <v>3738</v>
       </c>
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16" t="s">
-        <v>3690</v>
+        <v>3688</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
       <c r="H73" s="16" t="s">
-        <v>3759</v>
+        <v>3797</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>3805</v>
+        <v>3789</v>
       </c>
       <c r="J73" s="16"/>
       <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
+      <c r="L73" s="14"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="16" t="s">
-        <v>3683</v>
+        <v>3681</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>3757</v>
+        <v>3744</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16" t="s">
-        <v>3684</v>
+        <v>3682</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
       <c r="H74" s="16" t="s">
-        <v>3806</v>
+        <v>3790</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>3765</v>
+        <v>3749</v>
       </c>
       <c r="J74" s="16"/>
       <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
+      <c r="L74" s="14"/>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="16" t="s">
-        <v>3699</v>
+        <v>3697</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>3754</v>
+        <v>3741</v>
       </c>
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16" t="s">
-        <v>3700</v>
+        <v>3698</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="16"/>
       <c r="H75" s="16" t="s">
-        <v>3762</v>
+        <v>3795</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>3803</v>
+        <v>3787</v>
       </c>
       <c r="J75" s="16"/>
       <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
+      <c r="L75" s="14"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="16" t="s">
-        <v>3701</v>
+        <v>3699</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>3754</v>
+        <v>3741</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16" t="s">
-        <v>3700</v>
+        <v>3698</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
       <c r="H76" s="16" t="s">
-        <v>3762</v>
+        <v>3795</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>3803</v>
+        <v>3787</v>
       </c>
       <c r="J76" s="16"/>
       <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
+      <c r="L76" s="14"/>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="16" t="s">
-        <v>3691</v>
+        <v>3689</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>3752</v>
+        <v>3739</v>
       </c>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16" t="s">
-        <v>3692</v>
+        <v>3690</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="16"/>
       <c r="H77" s="16" t="s">
-        <v>3797</v>
+        <v>3781</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>3760</v>
+        <v>3746</v>
       </c>
       <c r="J77" s="16"/>
       <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
+      <c r="L77" s="14"/>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="16" t="s">
         <v>3494</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -47176,24 +47128,24 @@
         <v>2013</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>3718</v>
+        <v>3798</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>3785</v>
+        <v>3769</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>3766</v>
+        <v>3750</v>
       </c>
       <c r="J78" s="16"/>
       <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
+      <c r="L78" s="14"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="16" t="s">
         <v>3495</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
@@ -47204,24 +47156,24 @@
         <v>2010</v>
       </c>
       <c r="G79" s="17" t="s">
-        <v>3719</v>
+        <v>30</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>3785</v>
+        <v>3769</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>3766</v>
+        <v>3750</v>
       </c>
       <c r="J79" s="16"/>
       <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="14"/>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="16" t="s">
         <v>3496</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
@@ -47232,24 +47184,24 @@
         <v>2010</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>3719</v>
+        <v>30</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>3785</v>
+        <v>3769</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>3766</v>
+        <v>3750</v>
       </c>
       <c r="J80" s="16"/>
       <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="14"/>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="16" t="s">
         <v>3497</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
@@ -47260,24 +47212,24 @@
         <v>2010</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>3719</v>
+        <v>30</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>3785</v>
+        <v>3769</v>
       </c>
       <c r="I81" s="16" t="s">
-        <v>3766</v>
+        <v>3750</v>
       </c>
       <c r="J81" s="16"/>
       <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="14"/>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="16" t="s">
         <v>3498</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -47288,24 +47240,24 @@
         <v>14</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>3672</v>
+        <v>66</v>
       </c>
       <c r="H82" s="16" t="s">
-        <v>3786</v>
+        <v>3770</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>3767</v>
+        <v>3751</v>
       </c>
       <c r="J82" s="16"/>
       <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
+      <c r="L82" s="14"/>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="16" t="s">
         <v>3499</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
@@ -47316,24 +47268,24 @@
         <v>2010</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>3719</v>
+        <v>30</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>3786</v>
+        <v>3770</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>3767</v>
+        <v>3751</v>
       </c>
       <c r="J83" s="16"/>
       <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="14"/>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="16" t="s">
         <v>3500</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -47344,24 +47296,24 @@
         <v>2010</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>3719</v>
+        <v>30</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>3786</v>
+        <v>3770</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>3767</v>
+        <v>3751</v>
       </c>
       <c r="J84" s="16"/>
       <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
+      <c r="L84" s="14"/>
     </row>
     <row r="85" spans="1:12" ht="13" customHeight="1">
       <c r="A85" s="16" t="s">
         <v>3501</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
@@ -47372,24 +47324,24 @@
         <v>2006</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>3718</v>
+        <v>3798</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>3787</v>
+        <v>3771</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
       <c r="J85" s="16"/>
       <c r="K85" s="16"/>
-      <c r="L85" s="16"/>
+      <c r="L85" s="14"/>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="16" t="s">
         <v>3502</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
@@ -47400,24 +47352,24 @@
         <v>1990</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>3718</v>
+        <v>3798</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>3787</v>
+        <v>3771</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
       <c r="J86" s="16"/>
       <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
+      <c r="L86" s="14"/>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="16" t="s">
         <v>3503</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
@@ -47431,21 +47383,21 @@
         <v>66</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>3787</v>
+        <v>3771</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
       <c r="J87" s="16"/>
       <c r="K87" s="16"/>
-      <c r="L87" s="16"/>
+      <c r="L87" s="14"/>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="16" t="s">
         <v>3504</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
@@ -47459,21 +47411,21 @@
         <v>66</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>3787</v>
+        <v>3771</v>
       </c>
       <c r="I88" s="16" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
       <c r="J88" s="16"/>
       <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
+      <c r="L88" s="14"/>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="16" t="s">
         <v>3505</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
@@ -47487,21 +47439,21 @@
         <v>66</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>3787</v>
+        <v>3771</v>
       </c>
       <c r="I89" s="16" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
       <c r="J89" s="16"/>
       <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
+      <c r="L89" s="14"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="16" t="s">
         <v>3506</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
@@ -47515,21 +47467,21 @@
         <v>66</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>3787</v>
+        <v>3771</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
       <c r="J90" s="16"/>
       <c r="K90" s="16"/>
-      <c r="L90" s="16"/>
+      <c r="L90" s="14"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="16" t="s">
         <v>3507</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
@@ -47543,21 +47495,21 @@
         <v>66</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>3787</v>
+        <v>3771</v>
       </c>
       <c r="I91" s="16" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
       <c r="J91" s="16"/>
       <c r="K91" s="16"/>
-      <c r="L91" s="16"/>
+      <c r="L91" s="14"/>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="16" t="s">
         <v>3508</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
@@ -47571,21 +47523,21 @@
         <v>66</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>3787</v>
+        <v>3771</v>
       </c>
       <c r="I92" s="16" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
       <c r="J92" s="16"/>
       <c r="K92" s="16"/>
-      <c r="L92" s="16"/>
+      <c r="L92" s="14"/>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="16" t="s">
         <v>3509</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
@@ -47599,21 +47551,21 @@
         <v>66</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>3787</v>
+        <v>3771</v>
       </c>
       <c r="I93" s="16" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
       <c r="J93" s="16"/>
       <c r="K93" s="16"/>
-      <c r="L93" s="16"/>
+      <c r="L93" s="14"/>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="16" t="s">
         <v>3510</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
@@ -47624,24 +47576,24 @@
         <v>1988</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>3720</v>
+        <v>3716</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>3787</v>
+        <v>3771</v>
       </c>
       <c r="I94" s="16" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
       <c r="J94" s="16"/>
       <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
+      <c r="L94" s="14"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="16" t="s">
         <v>3511</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
@@ -47655,21 +47607,21 @@
         <v>69</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>3787</v>
+        <v>3771</v>
       </c>
       <c r="I95" s="16" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
       <c r="J95" s="16"/>
       <c r="K95" s="16"/>
-      <c r="L95" s="16"/>
+      <c r="L95" s="14"/>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="16" t="s">
         <v>3512</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
@@ -47683,21 +47635,21 @@
         <v>69</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>3787</v>
+        <v>3771</v>
       </c>
       <c r="I96" s="16" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
       <c r="J96" s="16"/>
       <c r="K96" s="16"/>
-      <c r="L96" s="16"/>
+      <c r="L96" s="14"/>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="16" t="s">
         <v>3513</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
@@ -47711,21 +47663,21 @@
         <v>69</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>3787</v>
+        <v>3771</v>
       </c>
       <c r="I97" s="16" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
       <c r="J97" s="16"/>
       <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
+      <c r="L97" s="14"/>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="16" t="s">
         <v>3514</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
@@ -47736,24 +47688,24 @@
         <v>1985</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>19</v>
+        <v>3799</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>3787</v>
+        <v>3771</v>
       </c>
       <c r="I98" s="16" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
       <c r="J98" s="16"/>
       <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
+      <c r="L98" s="14"/>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="16" t="s">
         <v>3515</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
@@ -47767,21 +47719,21 @@
         <v>66</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>3788</v>
+        <v>3772</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>3768</v>
+        <v>3752</v>
       </c>
       <c r="J99" s="16"/>
       <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
+      <c r="L99" s="14"/>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="16" t="s">
         <v>3516</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
@@ -47795,21 +47747,21 @@
         <v>66</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>3788</v>
+        <v>3772</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>3768</v>
+        <v>3752</v>
       </c>
       <c r="J100" s="16"/>
       <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
+      <c r="L100" s="14"/>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="16" t="s">
         <v>3517</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
@@ -47823,21 +47775,21 @@
         <v>66</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>3788</v>
+        <v>3772</v>
       </c>
       <c r="I101" s="16" t="s">
-        <v>3768</v>
+        <v>3752</v>
       </c>
       <c r="J101" s="16"/>
       <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
+      <c r="L101" s="14"/>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="16" t="s">
         <v>3518</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
@@ -47851,21 +47803,21 @@
         <v>66</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>3789</v>
+        <v>3773</v>
       </c>
       <c r="I102" s="16" t="s">
-        <v>3769</v>
+        <v>3753</v>
       </c>
       <c r="J102" s="16"/>
       <c r="K102" s="16"/>
-      <c r="L102" s="16"/>
+      <c r="L102" s="14"/>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="16" t="s">
         <v>3519</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
@@ -47879,21 +47831,21 @@
         <v>66</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>3789</v>
+        <v>3773</v>
       </c>
       <c r="I103" s="16" t="s">
-        <v>3769</v>
+        <v>3753</v>
       </c>
       <c r="J103" s="16"/>
       <c r="K103" s="16"/>
-      <c r="L103" s="16"/>
+      <c r="L103" s="14"/>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" s="16" t="s">
         <v>3520</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
@@ -47907,21 +47859,21 @@
         <v>66</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>3789</v>
+        <v>3773</v>
       </c>
       <c r="I104" s="16" t="s">
-        <v>3769</v>
+        <v>3753</v>
       </c>
       <c r="J104" s="16"/>
       <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
+      <c r="L104" s="14"/>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" s="16" t="s">
         <v>3521</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
@@ -47935,21 +47887,21 @@
         <v>66</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>3789</v>
+        <v>3773</v>
       </c>
       <c r="I105" s="16" t="s">
-        <v>3769</v>
+        <v>3753</v>
       </c>
       <c r="J105" s="16"/>
       <c r="K105" s="16"/>
-      <c r="L105" s="16"/>
+      <c r="L105" s="14"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="16" t="s">
         <v>3522</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
@@ -47963,21 +47915,21 @@
         <v>66</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>3789</v>
+        <v>3773</v>
       </c>
       <c r="I106" s="16" t="s">
-        <v>3769</v>
+        <v>3753</v>
       </c>
       <c r="J106" s="16"/>
       <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
+      <c r="L106" s="14"/>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" s="16" t="s">
         <v>3523</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
@@ -47991,21 +47943,21 @@
         <v>66</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>3789</v>
+        <v>3773</v>
       </c>
       <c r="I107" s="16" t="s">
-        <v>3769</v>
+        <v>3753</v>
       </c>
       <c r="J107" s="16"/>
       <c r="K107" s="16"/>
-      <c r="L107" s="16"/>
+      <c r="L107" s="14"/>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="16" t="s">
         <v>3524</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
@@ -48019,21 +47971,21 @@
         <v>49</v>
       </c>
       <c r="H108" s="16" t="s">
-        <v>3790</v>
+        <v>3774</v>
       </c>
       <c r="I108" s="16" t="s">
-        <v>3770</v>
+        <v>3754</v>
       </c>
       <c r="J108" s="16"/>
       <c r="K108" s="16"/>
-      <c r="L108" s="16"/>
+      <c r="L108" s="14"/>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="16" t="s">
         <v>3525</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
@@ -48047,21 +47999,21 @@
         <v>66</v>
       </c>
       <c r="H109" s="16" t="s">
-        <v>3791</v>
+        <v>3775</v>
       </c>
       <c r="I109" s="16" t="s">
-        <v>3771</v>
+        <v>3755</v>
       </c>
       <c r="J109" s="16"/>
       <c r="K109" s="16"/>
-      <c r="L109" s="16"/>
+      <c r="L109" s="14"/>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="16" t="s">
         <v>3526</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -48075,21 +48027,21 @@
         <v>66</v>
       </c>
       <c r="H110" s="16" t="s">
-        <v>3791</v>
+        <v>3775</v>
       </c>
       <c r="I110" s="16" t="s">
-        <v>3771</v>
+        <v>3755</v>
       </c>
       <c r="J110" s="16"/>
       <c r="K110" s="16"/>
-      <c r="L110" s="16"/>
+      <c r="L110" s="14"/>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" s="16" t="s">
         <v>3547</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
@@ -48100,24 +48052,24 @@
         <v>1988</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>3718</v>
+        <v>3798</v>
       </c>
       <c r="H111" s="16" t="s">
-        <v>3792</v>
+        <v>3776</v>
       </c>
       <c r="I111" s="16" t="s">
-        <v>3772</v>
+        <v>3756</v>
       </c>
       <c r="J111" s="16"/>
       <c r="K111" s="16"/>
-      <c r="L111" s="16"/>
+      <c r="L111" s="14"/>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="16" t="s">
         <v>3548</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -48128,24 +48080,24 @@
         <v>1988</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>3718</v>
+        <v>3798</v>
       </c>
       <c r="H112" s="16" t="s">
-        <v>3792</v>
+        <v>3776</v>
       </c>
       <c r="I112" s="16" t="s">
-        <v>3772</v>
+        <v>3756</v>
       </c>
       <c r="J112" s="16"/>
       <c r="K112" s="16"/>
-      <c r="L112" s="16"/>
+      <c r="L112" s="14"/>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" s="16" t="s">
         <v>3549</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
@@ -48156,24 +48108,24 @@
         <v>14</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>3721</v>
+        <v>33</v>
       </c>
       <c r="H113" s="16" t="s">
-        <v>3792</v>
+        <v>3776</v>
       </c>
       <c r="I113" s="16" t="s">
-        <v>3772</v>
+        <v>3756</v>
       </c>
       <c r="J113" s="16"/>
       <c r="K113" s="16"/>
-      <c r="L113" s="16"/>
+      <c r="L113" s="14"/>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="16" t="s">
         <v>3550</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -48184,24 +48136,24 @@
         <v>14</v>
       </c>
       <c r="G114" s="17" t="s">
-        <v>19</v>
+        <v>3799</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>3793</v>
+        <v>3777</v>
       </c>
       <c r="I114" s="16" t="s">
-        <v>3773</v>
+        <v>3757</v>
       </c>
       <c r="J114" s="16"/>
       <c r="K114" s="16"/>
-      <c r="L114" s="16"/>
+      <c r="L114" s="14"/>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" s="16" t="s">
         <v>3551</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
@@ -48212,24 +48164,24 @@
         <v>2009</v>
       </c>
       <c r="G115" s="17" t="s">
-        <v>3722</v>
+        <v>3717</v>
       </c>
       <c r="H115" s="16" t="s">
-        <v>3794</v>
+        <v>3778</v>
       </c>
       <c r="I115" s="16" t="s">
-        <v>3774</v>
+        <v>3758</v>
       </c>
       <c r="J115" s="16"/>
       <c r="K115" s="16"/>
-      <c r="L115" s="16"/>
+      <c r="L115" s="14"/>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="16" t="s">
         <v>3552</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
@@ -48240,24 +48192,24 @@
         <v>14</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>3723</v>
+        <v>3716</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>3795</v>
+        <v>3779</v>
       </c>
       <c r="I116" s="16" t="s">
-        <v>3775</v>
+        <v>3759</v>
       </c>
       <c r="J116" s="16"/>
       <c r="K116" s="16"/>
-      <c r="L116" s="16"/>
+      <c r="L116" s="14"/>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="16" t="s">
         <v>3553</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
@@ -48271,21 +48223,21 @@
         <v>66</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>3795</v>
+        <v>3779</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>3775</v>
+        <v>3759</v>
       </c>
       <c r="J117" s="16"/>
       <c r="K117" s="16"/>
-      <c r="L117" s="16"/>
+      <c r="L117" s="14"/>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="16" t="s">
         <v>3554</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
@@ -48296,24 +48248,24 @@
         <v>14</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>3723</v>
+        <v>3716</v>
       </c>
       <c r="H118" s="16" t="s">
-        <v>3795</v>
+        <v>3779</v>
       </c>
       <c r="I118" s="16" t="s">
-        <v>3775</v>
+        <v>3759</v>
       </c>
       <c r="J118" s="16"/>
       <c r="K118" s="16"/>
-      <c r="L118" s="16"/>
+      <c r="L118" s="14"/>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="16" t="s">
         <v>3555</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
@@ -48324,24 +48276,24 @@
         <v>14</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>3671</v>
+        <v>14</v>
       </c>
       <c r="H119" s="16" t="s">
-        <v>3795</v>
+        <v>3779</v>
       </c>
       <c r="I119" s="16" t="s">
-        <v>3775</v>
+        <v>3759</v>
       </c>
       <c r="J119" s="16"/>
       <c r="K119" s="16"/>
-      <c r="L119" s="16"/>
+      <c r="L119" s="14"/>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="16" t="s">
         <v>3556</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
@@ -48352,24 +48304,24 @@
         <v>14</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>3724</v>
+        <v>3799</v>
       </c>
       <c r="H120" s="16" t="s">
-        <v>3731</v>
+        <v>3718</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>3776</v>
+        <v>3760</v>
       </c>
       <c r="J120" s="16"/>
       <c r="K120" s="16"/>
-      <c r="L120" s="16"/>
+      <c r="L120" s="14"/>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="16" t="s">
         <v>3557</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
@@ -48383,21 +48335,21 @@
         <v>66</v>
       </c>
       <c r="H121" s="16" t="s">
-        <v>3796</v>
+        <v>3780</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>3777</v>
+        <v>3761</v>
       </c>
       <c r="J121" s="16"/>
       <c r="K121" s="16"/>
-      <c r="L121" s="16"/>
+      <c r="L121" s="14"/>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="16" t="s">
         <v>3558</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
@@ -48408,24 +48360,24 @@
         <v>2001</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>3725</v>
+        <v>66</v>
       </c>
       <c r="H122" s="16" t="s">
-        <v>3740</v>
+        <v>3727</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>3780</v>
+        <v>3764</v>
       </c>
       <c r="J122" s="16"/>
       <c r="K122" s="16"/>
-      <c r="L122" s="16"/>
+      <c r="L122" s="14"/>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="16" t="s">
         <v>3559</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
@@ -48436,24 +48388,24 @@
         <v>2001</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>3725</v>
+        <v>66</v>
       </c>
       <c r="H123" s="16" t="s">
-        <v>3740</v>
+        <v>3727</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>3780</v>
+        <v>3764</v>
       </c>
       <c r="J123" s="16"/>
       <c r="K123" s="16"/>
-      <c r="L123" s="16"/>
+      <c r="L123" s="14"/>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="16" t="s">
         <v>3560</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
@@ -48464,24 +48416,24 @@
         <v>2009</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>3723</v>
+        <v>3716</v>
       </c>
       <c r="H124" s="16" t="s">
-        <v>3740</v>
+        <v>3727</v>
       </c>
       <c r="I124" s="16" t="s">
-        <v>3780</v>
+        <v>3764</v>
       </c>
       <c r="J124" s="16"/>
       <c r="K124" s="16"/>
-      <c r="L124" s="16"/>
+      <c r="L124" s="14"/>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="16" t="s">
         <v>3561</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C125" s="16"/>
       <c r="D125" s="16"/>
@@ -48492,24 +48444,24 @@
         <v>1997</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>3678</v>
+        <v>3800</v>
       </c>
       <c r="H125" s="16" t="s">
-        <v>3732</v>
+        <v>3719</v>
       </c>
       <c r="I125" s="16" t="s">
-        <v>3778</v>
+        <v>3762</v>
       </c>
       <c r="J125" s="16"/>
       <c r="K125" s="16"/>
-      <c r="L125" s="16"/>
+      <c r="L125" s="14"/>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="16" t="s">
         <v>3562</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C126" s="16"/>
       <c r="D126" s="16"/>
@@ -48520,24 +48472,24 @@
         <v>2000</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>3725</v>
+        <v>66</v>
       </c>
       <c r="H126" s="16" t="s">
-        <v>3739</v>
+        <v>3726</v>
       </c>
       <c r="I126" s="16" t="s">
-        <v>3779</v>
+        <v>3763</v>
       </c>
       <c r="J126" s="16"/>
       <c r="K126" s="16"/>
-      <c r="L126" s="16"/>
+      <c r="L126" s="14"/>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" s="16" t="s">
         <v>3563</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C127" s="16"/>
       <c r="D127" s="16"/>
@@ -48548,24 +48500,24 @@
         <v>2002</v>
       </c>
       <c r="G127" s="17" t="s">
-        <v>3725</v>
+        <v>66</v>
       </c>
       <c r="H127" s="16" t="s">
-        <v>3739</v>
+        <v>3726</v>
       </c>
       <c r="I127" s="16" t="s">
-        <v>3779</v>
+        <v>3763</v>
       </c>
       <c r="J127" s="16"/>
       <c r="K127" s="16"/>
-      <c r="L127" s="16"/>
+      <c r="L127" s="14"/>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" s="16" t="s">
         <v>3564</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C128" s="16"/>
       <c r="D128" s="16"/>
@@ -48576,24 +48528,24 @@
         <v>14</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>3723</v>
+        <v>3716</v>
       </c>
       <c r="H128" s="16" t="s">
-        <v>3739</v>
+        <v>3726</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>3779</v>
+        <v>3763</v>
       </c>
       <c r="J128" s="16"/>
       <c r="K128" s="16"/>
-      <c r="L128" s="16"/>
+      <c r="L128" s="14"/>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" s="16" t="s">
         <v>3565</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
@@ -48604,24 +48556,24 @@
         <v>14</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>3726</v>
+        <v>3672</v>
       </c>
       <c r="H129" s="16" t="s">
-        <v>3738</v>
+        <v>3725</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>3777</v>
+        <v>3761</v>
       </c>
       <c r="J129" s="16"/>
       <c r="K129" s="16"/>
-      <c r="L129" s="16"/>
+      <c r="L129" s="14"/>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="16" t="s">
         <v>3566</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C130" s="16"/>
       <c r="D130" s="16"/>
@@ -48632,24 +48584,24 @@
         <v>1979</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>3727</v>
+        <v>3800</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>3801</v>
+        <v>3785</v>
       </c>
       <c r="I130" s="16" t="s">
-        <v>3781</v>
+        <v>3765</v>
       </c>
       <c r="J130" s="16"/>
       <c r="K130" s="16"/>
-      <c r="L130" s="16"/>
+      <c r="L130" s="14"/>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" s="16" t="s">
         <v>3567</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C131" s="16"/>
       <c r="D131" s="16"/>
@@ -48660,24 +48612,24 @@
         <v>1992</v>
       </c>
       <c r="G131" s="17" t="s">
-        <v>3728</v>
+        <v>3801</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>3801</v>
+        <v>3785</v>
       </c>
       <c r="I131" s="16" t="s">
-        <v>3781</v>
+        <v>3765</v>
       </c>
       <c r="J131" s="16"/>
       <c r="K131" s="16"/>
-      <c r="L131" s="16"/>
+      <c r="L131" s="14"/>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="16" t="s">
         <v>3568</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
@@ -48688,24 +48640,24 @@
         <v>1992</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>3728</v>
+        <v>3801</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>3801</v>
+        <v>3785</v>
       </c>
       <c r="I132" s="16" t="s">
-        <v>3781</v>
+        <v>3765</v>
       </c>
       <c r="J132" s="16"/>
       <c r="K132" s="16"/>
-      <c r="L132" s="16"/>
+      <c r="L132" s="14"/>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" s="16" t="s">
         <v>3569</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
@@ -48716,24 +48668,24 @@
         <v>2006</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>3724</v>
+        <v>3799</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>3801</v>
+        <v>3785</v>
       </c>
       <c r="I133" s="16" t="s">
-        <v>3781</v>
+        <v>3765</v>
       </c>
       <c r="J133" s="16"/>
       <c r="K133" s="16"/>
-      <c r="L133" s="16"/>
+      <c r="L133" s="14"/>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" s="16" t="s">
         <v>3570</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C134" s="16"/>
       <c r="D134" s="16"/>
@@ -48744,24 +48696,24 @@
         <v>2011</v>
       </c>
       <c r="G134" s="17" t="s">
-        <v>3724</v>
+        <v>3799</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>3801</v>
+        <v>3785</v>
       </c>
       <c r="I134" s="16" t="s">
-        <v>3781</v>
+        <v>3765</v>
       </c>
       <c r="J134" s="16"/>
       <c r="K134" s="16"/>
-      <c r="L134" s="16"/>
+      <c r="L134" s="14"/>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" s="16" t="s">
         <v>3571</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C135" s="16"/>
       <c r="D135" s="16"/>
@@ -48772,24 +48724,24 @@
         <v>1986</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>3724</v>
+        <v>3799</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>3801</v>
+        <v>3785</v>
       </c>
       <c r="I135" s="16" t="s">
-        <v>3781</v>
+        <v>3765</v>
       </c>
       <c r="J135" s="16"/>
       <c r="K135" s="16"/>
-      <c r="L135" s="16"/>
+      <c r="L135" s="14"/>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="16" t="s">
         <v>3572</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
@@ -48800,24 +48752,24 @@
         <v>14</v>
       </c>
       <c r="G136" s="17" t="s">
-        <v>3724</v>
+        <v>3799</v>
       </c>
       <c r="H136" s="17" t="s">
-        <v>3801</v>
+        <v>3785</v>
       </c>
       <c r="I136" s="16" t="s">
-        <v>3781</v>
+        <v>3765</v>
       </c>
       <c r="J136" s="16"/>
       <c r="K136" s="16"/>
-      <c r="L136" s="16"/>
+      <c r="L136" s="14"/>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" s="16" t="s">
         <v>3573</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
@@ -48828,24 +48780,24 @@
         <v>1998</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>3723</v>
+        <v>3716</v>
       </c>
       <c r="H137" s="16" t="s">
-        <v>3733</v>
+        <v>3720</v>
       </c>
       <c r="I137" s="16" t="s">
-        <v>3782</v>
+        <v>3766</v>
       </c>
       <c r="J137" s="16"/>
       <c r="K137" s="16"/>
-      <c r="L137" s="16"/>
+      <c r="L137" s="14"/>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="16" t="s">
         <v>3574</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
@@ -48856,24 +48808,24 @@
         <v>14</v>
       </c>
       <c r="G138" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H138" s="16" t="s">
         <v>3721</v>
       </c>
-      <c r="H138" s="16" t="s">
-        <v>3734</v>
-      </c>
       <c r="I138" s="16" t="s">
-        <v>3783</v>
+        <v>3767</v>
       </c>
       <c r="J138" s="16"/>
       <c r="K138" s="16"/>
-      <c r="L138" s="16"/>
+      <c r="L138" s="14"/>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" s="16" t="s">
         <v>3575</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
@@ -48884,24 +48836,24 @@
         <v>14</v>
       </c>
       <c r="G139" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H139" s="16" t="s">
         <v>3721</v>
       </c>
-      <c r="H139" s="16" t="s">
-        <v>3734</v>
-      </c>
       <c r="I139" s="16" t="s">
-        <v>3783</v>
+        <v>3767</v>
       </c>
       <c r="J139" s="16"/>
       <c r="K139" s="16"/>
-      <c r="L139" s="16"/>
+      <c r="L139" s="14"/>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" s="16" t="s">
         <v>3576</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
@@ -48912,24 +48864,24 @@
         <v>2000</v>
       </c>
       <c r="G140" s="17" t="s">
-        <v>3725</v>
+        <v>66</v>
       </c>
       <c r="H140" s="16" t="s">
-        <v>3735</v>
+        <v>3722</v>
       </c>
       <c r="I140" s="16" t="s">
-        <v>3784</v>
+        <v>3768</v>
       </c>
       <c r="J140" s="16"/>
       <c r="K140" s="16"/>
-      <c r="L140" s="16"/>
+      <c r="L140" s="14"/>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" s="16" t="s">
         <v>3577</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
@@ -48940,24 +48892,24 @@
         <v>2001</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>3725</v>
+        <v>66</v>
       </c>
       <c r="H141" s="16" t="s">
-        <v>3735</v>
+        <v>3722</v>
       </c>
       <c r="I141" s="16" t="s">
-        <v>3784</v>
+        <v>3768</v>
       </c>
       <c r="J141" s="16"/>
       <c r="K141" s="16"/>
-      <c r="L141" s="16"/>
+      <c r="L141" s="14"/>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" s="16" t="s">
         <v>3578</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
@@ -48968,24 +48920,24 @@
         <v>14</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>3719</v>
+        <v>30</v>
       </c>
       <c r="H142" s="16" t="s">
-        <v>3736</v>
+        <v>3723</v>
       </c>
       <c r="I142" s="16" t="s">
-        <v>3798</v>
+        <v>3782</v>
       </c>
       <c r="J142" s="16"/>
       <c r="K142" s="16"/>
-      <c r="L142" s="16"/>
+      <c r="L142" s="14"/>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" s="16" t="s">
         <v>3579</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C143" s="16"/>
       <c r="D143" s="16"/>
@@ -48996,24 +48948,24 @@
         <v>14</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>3721</v>
+        <v>33</v>
       </c>
       <c r="H143" s="16" t="s">
-        <v>3743</v>
+        <v>3730</v>
       </c>
       <c r="I143" s="16" t="s">
-        <v>3799</v>
+        <v>3783</v>
       </c>
       <c r="J143" s="16"/>
       <c r="K143" s="16"/>
-      <c r="L143" s="16"/>
+      <c r="L143" s="14"/>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" s="16" t="s">
         <v>3580</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C144" s="16"/>
       <c r="D144" s="16"/>
@@ -49024,24 +48976,24 @@
         <v>2010</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>3729</v>
+        <v>3717</v>
       </c>
       <c r="H144" s="16" t="s">
-        <v>3743</v>
+        <v>3730</v>
       </c>
       <c r="I144" s="16" t="s">
-        <v>3799</v>
+        <v>3783</v>
       </c>
       <c r="J144" s="16"/>
       <c r="K144" s="16"/>
-      <c r="L144" s="16"/>
+      <c r="L144" s="14"/>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="16" t="s">
         <v>3581</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C145" s="16"/>
       <c r="D145" s="16"/>
@@ -49052,24 +49004,24 @@
         <v>2010</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>3729</v>
+        <v>3717</v>
       </c>
       <c r="H145" s="16" t="s">
-        <v>3743</v>
+        <v>3730</v>
       </c>
       <c r="I145" s="16" t="s">
-        <v>3799</v>
+        <v>3783</v>
       </c>
       <c r="J145" s="16"/>
       <c r="K145" s="16"/>
-      <c r="L145" s="16"/>
+      <c r="L145" s="14"/>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="16" t="s">
         <v>3582</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C146" s="16"/>
       <c r="D146" s="16"/>
@@ -49080,24 +49032,24 @@
         <v>2010</v>
       </c>
       <c r="G146" s="17" t="s">
-        <v>3729</v>
+        <v>3717</v>
       </c>
       <c r="H146" s="16" t="s">
-        <v>3743</v>
+        <v>3730</v>
       </c>
       <c r="I146" s="16" t="s">
-        <v>3799</v>
+        <v>3783</v>
       </c>
       <c r="J146" s="16"/>
       <c r="K146" s="16"/>
-      <c r="L146" s="16"/>
+      <c r="L146" s="14"/>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" s="16" t="s">
         <v>3583</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C147" s="16"/>
       <c r="D147" s="16"/>
@@ -49108,24 +49060,24 @@
         <v>1998</v>
       </c>
       <c r="G147" s="17" t="s">
-        <v>3727</v>
+        <v>3800</v>
       </c>
       <c r="H147" s="16" t="s">
-        <v>3737</v>
+        <v>3724</v>
       </c>
       <c r="I147" s="16" t="s">
-        <v>3800</v>
+        <v>3784</v>
       </c>
       <c r="J147" s="16"/>
       <c r="K147" s="16"/>
-      <c r="L147" s="16"/>
+      <c r="L147" s="14"/>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" s="16" t="s">
         <v>3584</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C148" s="16"/>
       <c r="D148" s="16"/>
@@ -49136,213 +49088,213 @@
         <v>2005</v>
       </c>
       <c r="G148" s="17" t="s">
-        <v>3730</v>
+        <v>3802</v>
       </c>
       <c r="H148" s="16" t="s">
-        <v>3737</v>
+        <v>3724</v>
       </c>
       <c r="I148" s="16" t="s">
-        <v>3800</v>
+        <v>3784</v>
       </c>
       <c r="J148" s="16"/>
       <c r="K148" s="16"/>
-      <c r="L148" s="16"/>
+      <c r="L148" s="14"/>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" s="16" t="s">
-        <v>3703</v>
+        <v>3701</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C149" s="16"/>
       <c r="D149" s="16"/>
       <c r="E149" s="16" t="s">
-        <v>3704</v>
+        <v>3702</v>
       </c>
       <c r="F149" s="16"/>
       <c r="G149" s="16"/>
       <c r="H149" s="16" t="s">
-        <v>3801</v>
+        <v>3785</v>
       </c>
       <c r="I149" s="16" t="s">
-        <v>3781</v>
+        <v>3765</v>
       </c>
       <c r="J149" s="16"/>
       <c r="K149" s="16"/>
-      <c r="L149" s="16"/>
+      <c r="L149" s="14"/>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" s="16" t="s">
-        <v>3706</v>
+        <v>3704</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C150" s="16"/>
       <c r="D150" s="16"/>
       <c r="E150" s="16" t="s">
-        <v>3707</v>
+        <v>3705</v>
       </c>
       <c r="F150" s="16"/>
       <c r="G150" s="16"/>
       <c r="H150" s="16" t="s">
-        <v>3731</v>
+        <v>3718</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>3776</v>
+        <v>3760</v>
       </c>
       <c r="J150" s="16"/>
       <c r="K150" s="16"/>
-      <c r="L150" s="16"/>
+      <c r="L150" s="14"/>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" s="16" t="s">
-        <v>3708</v>
+        <v>3706</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C151" s="16"/>
       <c r="D151" s="16"/>
       <c r="E151" s="16" t="s">
-        <v>3709</v>
+        <v>3707</v>
       </c>
       <c r="F151" s="16"/>
       <c r="G151" s="16"/>
       <c r="H151" s="16" t="s">
-        <v>3731</v>
+        <v>3718</v>
       </c>
       <c r="I151" s="16" t="s">
-        <v>3776</v>
+        <v>3760</v>
       </c>
       <c r="J151" s="16"/>
       <c r="K151" s="16"/>
-      <c r="L151" s="16"/>
+      <c r="L151" s="14"/>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" s="16" t="s">
-        <v>3710</v>
+        <v>3708</v>
       </c>
       <c r="B152" s="20" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C152" s="16"/>
       <c r="D152" s="16"/>
       <c r="E152" s="16" t="s">
-        <v>3711</v>
+        <v>3709</v>
       </c>
       <c r="F152" s="16"/>
       <c r="G152" s="16"/>
       <c r="H152" s="16" t="s">
-        <v>3763</v>
+        <v>3747</v>
       </c>
       <c r="I152" s="16" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
       <c r="J152" s="16"/>
       <c r="K152" s="16"/>
-      <c r="L152" s="16"/>
+      <c r="L152" s="14"/>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="16" t="s">
-        <v>3712</v>
+        <v>3710</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C153" s="16"/>
       <c r="D153" s="16"/>
       <c r="E153" s="16" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
       <c r="F153" s="16"/>
       <c r="G153" s="16"/>
       <c r="H153" s="16" t="s">
-        <v>3763</v>
+        <v>3747</v>
       </c>
       <c r="I153" s="16" t="s">
-        <v>3808</v>
+        <v>3792</v>
       </c>
       <c r="J153" s="16"/>
       <c r="K153" s="16"/>
-      <c r="L153" s="16"/>
+      <c r="L153" s="14"/>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="16" t="s">
-        <v>3714</v>
+        <v>3712</v>
       </c>
       <c r="B154" s="20" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
       <c r="E154" s="16" t="s">
-        <v>3715</v>
+        <v>3713</v>
       </c>
       <c r="F154" s="16"/>
       <c r="G154" s="16"/>
       <c r="H154" s="16" t="s">
-        <v>3764</v>
+        <v>3748</v>
       </c>
       <c r="I154" s="16" t="s">
-        <v>3802</v>
+        <v>3786</v>
       </c>
       <c r="J154" s="16"/>
       <c r="K154" s="16"/>
-      <c r="L154" s="16"/>
+      <c r="L154" s="14"/>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" s="16" t="s">
-        <v>3716</v>
+        <v>3714</v>
       </c>
       <c r="B155" s="20" t="s">
-        <v>3750</v>
+        <v>3737</v>
       </c>
       <c r="C155" s="16"/>
       <c r="D155" s="16"/>
       <c r="E155" s="16" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="F155" s="16"/>
       <c r="G155" s="16"/>
       <c r="H155" s="16" t="s">
-        <v>3739</v>
+        <v>3726</v>
       </c>
       <c r="I155" s="16" t="s">
-        <v>3779</v>
+        <v>3763</v>
       </c>
       <c r="J155" s="16"/>
       <c r="K155" s="16"/>
-      <c r="L155" s="16"/>
+      <c r="L155" s="14"/>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" s="16" t="s">
-        <v>3755</v>
+        <v>3742</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>3756</v>
+        <v>3743</v>
       </c>
       <c r="C156" s="16"/>
       <c r="D156" s="16"/>
       <c r="E156" s="16" t="s">
-        <v>3702</v>
+        <v>3700</v>
       </c>
       <c r="F156" s="16"/>
       <c r="G156" s="16"/>
       <c r="H156" s="16" t="s">
-        <v>3762</v>
+        <v>3795</v>
       </c>
       <c r="I156" s="16" t="s">
-        <v>3803</v>
+        <v>3787</v>
       </c>
       <c r="J156" s="16"/>
       <c r="K156" s="16"/>
-      <c r="L156" s="16"/>
+      <c r="L156" s="14"/>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" s="16" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
       <c r="B157" s="16"/>
       <c r="C157" s="16"/>
@@ -49354,11 +49306,11 @@
       <c r="I157" s="16"/>
       <c r="J157" s="16"/>
       <c r="K157" s="16"/>
-      <c r="L157" s="16"/>
+      <c r="L157" s="14"/>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" s="16" t="s">
-        <v>3680</v>
+        <v>3678</v>
       </c>
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
@@ -49370,11 +49322,11 @@
       <c r="I158" s="16"/>
       <c r="J158" s="16"/>
       <c r="K158" s="16"/>
-      <c r="L158" s="16"/>
+      <c r="L158" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A2:L160">
-    <sortCondition sortBy="cellColor" ref="B2:B160" dxfId="3"/>
+    <sortCondition sortBy="cellColor" ref="B2:B160" dxfId="0"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -68457,10 +68409,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>3746</v>
+        <v>3733</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>3741</v>
+        <v>3728</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1</v>
@@ -68489,10 +68441,10 @@
         <v>3532</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>3749</v>
+        <v>3736</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
@@ -68505,7 +68457,7 @@
         <v>106</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="13"/>
@@ -68515,10 +68467,10 @@
         <v>3527</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>3749</v>
+        <v>3736</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13" t="s">
@@ -68531,7 +68483,7 @@
         <v>30</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="13"/>

--- a/tabular/hiv-reference-data.xlsx
+++ b/tabular/hiv-reference-data.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/HIV-GLUE/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D5AFDC-EB6D-9A42-9ACB-9DCAB52AC7EC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22360" yWindow="0" windowWidth="24860" windowHeight="17020" tabRatio="500"/>
+    <workbookView xWindow="3940" yWindow="460" windowWidth="24860" windowHeight="17020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edited down" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
     <sheet name="unclassified" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="455">
   <si>
     <t>Accession</t>
   </si>
@@ -1383,12 +1389,15 @@
   </si>
   <si>
     <t>Orcytolagus cuniculus</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1957,14 +1966,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
@@ -1976,7 +1985,7 @@
     <col min="10" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2014,7 +2023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>119</v>
       </c>
@@ -2052,7 +2061,7 @@
         <v>8709215</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>122</v>
       </c>
@@ -2090,7 +2099,7 @@
         <v>7888238</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>125</v>
       </c>
@@ -2128,7 +2137,7 @@
         <v>9824329</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>129</v>
       </c>
@@ -2164,7 +2173,7 @@
       </c>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
@@ -2202,7 +2211,7 @@
         <v>8794346</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>31</v>
       </c>
@@ -2240,7 +2249,7 @@
         <v>10364271</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>34</v>
       </c>
@@ -2278,7 +2287,7 @@
         <v>10513639</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
         <v>37</v>
       </c>
@@ -2316,7 +2325,7 @@
         <v>12487816</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
         <v>39</v>
       </c>
@@ -2354,7 +2363,7 @@
         <v>11429108</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>43</v>
       </c>
@@ -2392,7 +2401,7 @@
         <v>11429108</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>7</v>
       </c>
@@ -2430,7 +2439,7 @@
         <v>9362478</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>12</v>
       </c>
@@ -2468,7 +2477,7 @@
         <v>7483282</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>15</v>
       </c>
@@ -2514,7 +2523,7 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
@@ -2560,7 +2569,7 @@
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>21</v>
       </c>
@@ -2606,7 +2615,7 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>24</v>
       </c>
@@ -2652,7 +2661,7 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>26</v>
       </c>
@@ -2698,7 +2707,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>46</v>
       </c>
@@ -2744,7 +2753,7 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>50</v>
       </c>
@@ -2790,7 +2799,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>53</v>
       </c>
@@ -2836,7 +2845,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>56</v>
       </c>
@@ -2882,7 +2891,7 @@
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>133</v>
       </c>
@@ -2928,7 +2937,7 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>59</v>
       </c>
@@ -2974,7 +2983,7 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>62</v>
       </c>
@@ -3020,7 +3029,7 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>64</v>
       </c>
@@ -3066,7 +3075,7 @@
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>67</v>
       </c>
@@ -3112,7 +3121,7 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>70</v>
       </c>
@@ -3150,7 +3159,7 @@
         <v>9621027</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>73</v>
       </c>
@@ -3188,7 +3197,7 @@
         <v>10725202</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>75</v>
       </c>
@@ -3226,7 +3235,7 @@
         <v>10725203</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>78</v>
       </c>
@@ -3264,7 +3273,7 @@
         <v>10659053</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>80</v>
       </c>
@@ -3302,7 +3311,7 @@
         <v>10659054</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>82</v>
       </c>
@@ -3340,7 +3349,7 @@
         <v>10659055</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>84</v>
       </c>
@@ -3378,7 +3387,7 @@
         <v>15186527</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>86</v>
       </c>
@@ -3416,7 +3425,7 @@
         <v>11448170</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>135</v>
       </c>
@@ -3454,7 +3463,7 @@
         <v>11600844</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
         <v>88</v>
       </c>
@@ -3492,7 +3501,7 @@
         <v>9683568</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
         <v>92</v>
       </c>
@@ -3530,7 +3539,7 @@
         <v>9683569</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
         <v>95</v>
       </c>
@@ -3568,7 +3577,7 @@
         <v>10221535</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
         <v>97</v>
       </c>
@@ -3606,7 +3615,7 @@
         <v>9621027</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
         <v>100</v>
       </c>
@@ -3644,7 +3653,7 @@
         <v>9621028</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
         <v>104</v>
       </c>
@@ -3682,7 +3691,7 @@
         <v>10983640</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
         <v>107</v>
       </c>
@@ -3720,7 +3729,7 @@
         <v>10983641</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
         <v>109</v>
       </c>
@@ -3758,7 +3767,7 @@
         <v>10052760</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
         <v>112</v>
       </c>
@@ -3796,7 +3805,7 @@
         <v>10052761</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
         <v>114</v>
       </c>
@@ -3834,7 +3843,7 @@
         <v>10659053</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
         <v>117</v>
       </c>
@@ -3872,7 +3881,7 @@
         <v>10659054</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
         <v>173</v>
       </c>
@@ -3904,7 +3913,7 @@
       <c r="K48" s="17"/>
       <c r="L48" s="16"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
         <v>174</v>
       </c>
@@ -3936,7 +3945,7 @@
       <c r="K49" s="17"/>
       <c r="L49" s="16"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
         <v>175</v>
       </c>
@@ -3968,7 +3977,7 @@
       <c r="K50" s="17"/>
       <c r="L50" s="16"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
         <v>176</v>
       </c>
@@ -4000,7 +4009,7 @@
       <c r="K51" s="17"/>
       <c r="L51" s="16"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
         <v>178</v>
       </c>
@@ -4032,7 +4041,7 @@
       <c r="K52" s="17"/>
       <c r="L52" s="16"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
         <v>179</v>
       </c>
@@ -4064,7 +4073,7 @@
       <c r="K53" s="17"/>
       <c r="L53" s="16"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
         <v>180</v>
       </c>
@@ -4096,7 +4105,7 @@
       <c r="K54" s="17"/>
       <c r="L54" s="16"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
         <v>181</v>
       </c>
@@ -4128,7 +4137,7 @@
       <c r="K55" s="17"/>
       <c r="L55" s="16"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
         <v>182</v>
       </c>
@@ -4160,7 +4169,7 @@
       <c r="K56" s="17"/>
       <c r="L56" s="16"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
         <v>183</v>
       </c>
@@ -4192,7 +4201,7 @@
       <c r="K57" s="17"/>
       <c r="L57" s="16"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
         <v>191</v>
       </c>
@@ -4202,7 +4211,9 @@
       <c r="C58" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="D58" s="16"/>
+      <c r="D58" s="16" t="s">
+        <v>101</v>
+      </c>
       <c r="E58" s="16"/>
       <c r="F58" s="16">
         <v>12034</v>
@@ -4222,7 +4233,7 @@
       <c r="K58" s="17"/>
       <c r="L58" s="16"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
         <v>184</v>
       </c>
@@ -4232,7 +4243,9 @@
       <c r="C59" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="D59" s="16"/>
+      <c r="D59" s="16" t="s">
+        <v>454</v>
+      </c>
       <c r="E59" s="16"/>
       <c r="F59" s="16" t="s">
         <v>275</v>
@@ -4252,7 +4265,7 @@
       <c r="K59" s="17"/>
       <c r="L59" s="16"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
         <v>185</v>
       </c>
@@ -4262,7 +4275,9 @@
       <c r="C60" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="D60" s="16"/>
+      <c r="D60" s="16" t="s">
+        <v>454</v>
+      </c>
       <c r="E60" s="16"/>
       <c r="F60" s="16" t="s">
         <v>276</v>
@@ -4282,7 +4297,7 @@
       <c r="K60" s="17"/>
       <c r="L60" s="16"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
         <v>186</v>
       </c>
@@ -4292,7 +4307,9 @@
       <c r="C61" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="D61" s="16"/>
+      <c r="D61" s="16" t="s">
+        <v>454</v>
+      </c>
       <c r="E61" s="16"/>
       <c r="F61" s="16" t="s">
         <v>277</v>
@@ -4312,7 +4329,7 @@
       <c r="K61" s="17"/>
       <c r="L61" s="16"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
         <v>187</v>
       </c>
@@ -4322,7 +4339,9 @@
       <c r="C62" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="D62" s="16"/>
+      <c r="D62" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="E62" s="16"/>
       <c r="F62" s="16" t="s">
         <v>278</v>
@@ -4342,7 +4361,7 @@
       <c r="K62" s="17"/>
       <c r="L62" s="16"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
         <v>188</v>
       </c>
@@ -4352,7 +4371,9 @@
       <c r="C63" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="D63" s="16"/>
+      <c r="D63" s="16" t="s">
+        <v>8</v>
+      </c>
       <c r="E63" s="16"/>
       <c r="F63" s="16" t="s">
         <v>279</v>
@@ -4372,7 +4393,7 @@
       <c r="K63" s="17"/>
       <c r="L63" s="16"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
         <v>189</v>
       </c>
@@ -4382,7 +4403,9 @@
       <c r="C64" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="D64" s="16"/>
+      <c r="D64" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="E64" s="16"/>
       <c r="F64" s="16" t="s">
         <v>280</v>
@@ -4402,7 +4425,7 @@
       <c r="K64" s="17"/>
       <c r="L64" s="16"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
         <v>190</v>
       </c>
@@ -4412,7 +4435,9 @@
       <c r="C65" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="D65" s="16"/>
+      <c r="D65" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="E65" s="16"/>
       <c r="F65" s="16" t="s">
         <v>281</v>
@@ -4432,7 +4457,7 @@
       <c r="K65" s="17"/>
       <c r="L65" s="16"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>139</v>
       </c>
@@ -4442,7 +4467,7 @@
       <c r="C66" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="D66" s="17"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="17"/>
       <c r="F66" s="16" t="s">
         <v>230</v>
@@ -4462,7 +4487,7 @@
       <c r="K66" s="17"/>
       <c r="L66" s="17"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>140</v>
       </c>
@@ -4492,7 +4517,7 @@
       <c r="K67" s="17"/>
       <c r="L67" s="17"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
         <v>141</v>
       </c>
@@ -4522,7 +4547,7 @@
       <c r="K68" s="17"/>
       <c r="L68" s="17"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
         <v>142</v>
       </c>
@@ -4552,7 +4577,7 @@
       <c r="K69" s="17"/>
       <c r="L69" s="17"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
         <v>143</v>
       </c>
@@ -4582,7 +4607,7 @@
       <c r="K70" s="17"/>
       <c r="L70" s="17"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
         <v>144</v>
       </c>
@@ -4612,7 +4637,7 @@
       <c r="K71" s="17"/>
       <c r="L71" s="17"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
         <v>145</v>
       </c>
@@ -4642,7 +4667,7 @@
       <c r="K72" s="17"/>
       <c r="L72" s="17"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
         <v>146</v>
       </c>
@@ -4672,7 +4697,7 @@
       <c r="K73" s="17"/>
       <c r="L73" s="17"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
         <v>147</v>
       </c>
@@ -4702,7 +4727,7 @@
       <c r="K74" s="17"/>
       <c r="L74" s="17"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>148</v>
       </c>
@@ -4732,7 +4757,7 @@
       <c r="K75" s="17"/>
       <c r="L75" s="17"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>149</v>
       </c>
@@ -4762,7 +4787,7 @@
       <c r="K76" s="17"/>
       <c r="L76" s="17"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
         <v>150</v>
       </c>
@@ -4792,7 +4817,7 @@
       <c r="K77" s="17"/>
       <c r="L77" s="17"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
         <v>151</v>
       </c>
@@ -4822,7 +4847,7 @@
       <c r="K78" s="17"/>
       <c r="L78" s="17"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
         <v>152</v>
       </c>
@@ -4852,7 +4877,7 @@
       <c r="K79" s="17"/>
       <c r="L79" s="17"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
         <v>153</v>
       </c>
@@ -4882,7 +4907,7 @@
       <c r="K80" s="17"/>
       <c r="L80" s="17"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
         <v>154</v>
       </c>
@@ -4912,7 +4937,7 @@
       <c r="K81" s="17"/>
       <c r="L81" s="17"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
         <v>155</v>
       </c>
@@ -4942,7 +4967,7 @@
       <c r="K82" s="17"/>
       <c r="L82" s="17"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
         <v>156</v>
       </c>
@@ -4972,7 +4997,7 @@
       <c r="K83" s="17"/>
       <c r="L83" s="17"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
         <v>157</v>
       </c>
@@ -5002,7 +5027,7 @@
       <c r="K84" s="17"/>
       <c r="L84" s="17"/>
     </row>
-    <row r="85" spans="1:12" ht="13" customHeight="1">
+    <row r="85" spans="1:12" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
         <v>158</v>
       </c>
@@ -5032,7 +5057,7 @@
       <c r="K85" s="17"/>
       <c r="L85" s="17"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
         <v>159</v>
       </c>
@@ -5062,7 +5087,7 @@
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
         <v>160</v>
       </c>
@@ -5092,7 +5117,7 @@
       <c r="K87" s="17"/>
       <c r="L87" s="17"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
         <v>161</v>
       </c>
@@ -5122,7 +5147,7 @@
       <c r="K88" s="17"/>
       <c r="L88" s="17"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
         <v>162</v>
       </c>
@@ -5152,7 +5177,7 @@
       <c r="K89" s="17"/>
       <c r="L89" s="17"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
         <v>163</v>
       </c>
@@ -5182,7 +5207,7 @@
       <c r="K90" s="17"/>
       <c r="L90" s="17"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
         <v>164</v>
       </c>
@@ -5212,7 +5237,7 @@
       <c r="K91" s="17"/>
       <c r="L91" s="17"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
         <v>165</v>
       </c>
@@ -5242,7 +5267,7 @@
       <c r="K92" s="17"/>
       <c r="L92" s="17"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
         <v>166</v>
       </c>
@@ -5272,7 +5297,7 @@
       <c r="K93" s="17"/>
       <c r="L93" s="17"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
         <v>167</v>
       </c>
@@ -5302,7 +5327,7 @@
       <c r="K94" s="17"/>
       <c r="L94" s="17"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
         <v>168</v>
       </c>
@@ -5332,7 +5357,7 @@
       <c r="K95" s="17"/>
       <c r="L95" s="17"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
         <v>169</v>
       </c>
@@ -5362,7 +5387,7 @@
       <c r="K96" s="17"/>
       <c r="L96" s="17"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
         <v>170</v>
       </c>
@@ -5392,7 +5417,7 @@
       <c r="K97" s="17"/>
       <c r="L97" s="17"/>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
         <v>171</v>
       </c>
@@ -5422,7 +5447,7 @@
       <c r="K98" s="17"/>
       <c r="L98" s="17"/>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="19" t="s">
         <v>192</v>
       </c>
@@ -5452,7 +5477,7 @@
       <c r="K99" s="17"/>
       <c r="L99" s="17"/>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="19" t="s">
         <v>193</v>
       </c>
@@ -5482,7 +5507,7 @@
       <c r="K100" s="17"/>
       <c r="L100" s="17"/>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="s">
         <v>194</v>
       </c>
@@ -5512,7 +5537,7 @@
       <c r="K101" s="17"/>
       <c r="L101" s="17"/>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="19" t="s">
         <v>195</v>
       </c>
@@ -5542,7 +5567,7 @@
       <c r="K102" s="17"/>
       <c r="L102" s="17"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="s">
         <v>196</v>
       </c>
@@ -5572,7 +5597,7 @@
       <c r="K103" s="17"/>
       <c r="L103" s="17"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="19" t="s">
         <v>197</v>
       </c>
@@ -5602,7 +5627,7 @@
       <c r="K104" s="17"/>
       <c r="L104" s="17"/>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="19" t="s">
         <v>198</v>
       </c>
@@ -5632,7 +5657,7 @@
       <c r="K105" s="17"/>
       <c r="L105" s="17"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="19" t="s">
         <v>199</v>
       </c>
@@ -5662,7 +5687,7 @@
       <c r="K106" s="17"/>
       <c r="L106" s="17"/>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
         <v>200</v>
       </c>
@@ -5692,7 +5717,7 @@
       <c r="K107" s="17"/>
       <c r="L107" s="17"/>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="19" t="s">
         <v>201</v>
       </c>
@@ -5722,7 +5747,7 @@
       <c r="K108" s="17"/>
       <c r="L108" s="17"/>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
         <v>202</v>
       </c>
@@ -5752,7 +5777,7 @@
       <c r="K109" s="17"/>
       <c r="L109" s="17"/>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="19" t="s">
         <v>203</v>
       </c>
@@ -5782,7 +5807,7 @@
       <c r="K110" s="17"/>
       <c r="L110" s="17"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="19" t="s">
         <v>204</v>
       </c>
@@ -5812,7 +5837,7 @@
       <c r="K111" s="17"/>
       <c r="L111" s="17"/>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="19" t="s">
         <v>205</v>
       </c>
@@ -5842,7 +5867,7 @@
       <c r="K112" s="17"/>
       <c r="L112" s="17"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="19" t="s">
         <v>206</v>
       </c>
@@ -5872,7 +5897,7 @@
       <c r="K113" s="17"/>
       <c r="L113" s="17"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="19" t="s">
         <v>207</v>
       </c>
@@ -5902,7 +5927,7 @@
       <c r="K114" s="17"/>
       <c r="L114" s="17"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="19" t="s">
         <v>208</v>
       </c>
@@ -5932,7 +5957,7 @@
       <c r="K115" s="17"/>
       <c r="L115" s="17"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="19" t="s">
         <v>209</v>
       </c>
@@ -5962,7 +5987,7 @@
       <c r="K116" s="17"/>
       <c r="L116" s="17"/>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="19" t="s">
         <v>210</v>
       </c>
@@ -5992,7 +6017,7 @@
       <c r="K117" s="17"/>
       <c r="L117" s="17"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="19" t="s">
         <v>211</v>
       </c>
@@ -6022,7 +6047,7 @@
       <c r="K118" s="17"/>
       <c r="L118" s="17"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="s">
         <v>212</v>
       </c>
@@ -6052,7 +6077,7 @@
       <c r="K119" s="17"/>
       <c r="L119" s="17"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="s">
         <v>213</v>
       </c>
@@ -6082,7 +6107,7 @@
       <c r="K120" s="17"/>
       <c r="L120" s="17"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="19" t="s">
         <v>214</v>
       </c>
@@ -6112,7 +6137,7 @@
       <c r="K121" s="17"/>
       <c r="L121" s="17"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
         <v>215</v>
       </c>
@@ -6142,7 +6167,7 @@
       <c r="K122" s="17"/>
       <c r="L122" s="17"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="19" t="s">
         <v>216</v>
       </c>
@@ -6172,7 +6197,7 @@
       <c r="K123" s="17"/>
       <c r="L123" s="17"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="19" t="s">
         <v>217</v>
       </c>
@@ -6202,7 +6227,7 @@
       <c r="K124" s="17"/>
       <c r="L124" s="17"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="19" t="s">
         <v>218</v>
       </c>
@@ -6232,7 +6257,7 @@
       <c r="K125" s="17"/>
       <c r="L125" s="17"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="19" t="s">
         <v>219</v>
       </c>
@@ -6262,7 +6287,7 @@
       <c r="K126" s="17"/>
       <c r="L126" s="17"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="19" t="s">
         <v>220</v>
       </c>
@@ -6292,7 +6317,7 @@
       <c r="K127" s="17"/>
       <c r="L127" s="17"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="19" t="s">
         <v>221</v>
       </c>
@@ -6322,7 +6347,7 @@
       <c r="K128" s="17"/>
       <c r="L128" s="17"/>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="19" t="s">
         <v>222</v>
       </c>
@@ -6352,7 +6377,7 @@
       <c r="K129" s="17"/>
       <c r="L129" s="17"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="19" t="s">
         <v>223</v>
       </c>
@@ -6382,7 +6407,7 @@
       <c r="K130" s="17"/>
       <c r="L130" s="17"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="19" t="s">
         <v>224</v>
       </c>
@@ -6412,7 +6437,7 @@
       <c r="K131" s="17"/>
       <c r="L131" s="17"/>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="19" t="s">
         <v>225</v>
       </c>
@@ -6442,7 +6467,7 @@
       <c r="K132" s="17"/>
       <c r="L132" s="17"/>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="19" t="s">
         <v>226</v>
       </c>
@@ -6472,7 +6497,7 @@
       <c r="K133" s="17"/>
       <c r="L133" s="17"/>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="19" t="s">
         <v>227</v>
       </c>
@@ -6502,7 +6527,7 @@
       <c r="K134" s="17"/>
       <c r="L134" s="17"/>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="19" t="s">
         <v>228</v>
       </c>
@@ -6532,7 +6557,7 @@
       <c r="K135" s="17"/>
       <c r="L135" s="17"/>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="19" t="s">
         <v>229</v>
       </c>
@@ -6562,7 +6587,7 @@
       <c r="K136" s="17"/>
       <c r="L136" s="17"/>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="19" t="s">
         <v>346</v>
       </c>
@@ -6588,7 +6613,7 @@
       <c r="K137" s="17"/>
       <c r="L137" s="17"/>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="19" t="s">
         <v>349</v>
       </c>
@@ -6612,7 +6637,7 @@
       <c r="K138" s="17"/>
       <c r="L138" s="17"/>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="19" t="s">
         <v>351</v>
       </c>
@@ -6638,7 +6663,7 @@
       <c r="K139" s="17"/>
       <c r="L139" s="17"/>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="19" t="s">
         <v>353</v>
       </c>
@@ -6664,7 +6689,7 @@
       <c r="K140" s="17"/>
       <c r="L140" s="17"/>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="19" t="s">
         <v>355</v>
       </c>
@@ -6690,7 +6715,7 @@
       <c r="K141" s="17"/>
       <c r="L141" s="17"/>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="19" t="s">
         <v>357</v>
       </c>
@@ -6716,7 +6741,7 @@
       <c r="K142" s="17"/>
       <c r="L142" s="17"/>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="19" t="s">
         <v>359</v>
       </c>
@@ -6742,7 +6767,7 @@
       <c r="K143" s="17"/>
       <c r="L143" s="17"/>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="21" t="s">
         <v>324</v>
       </c>
@@ -6768,7 +6793,7 @@
       <c r="K144" s="21"/>
       <c r="L144" s="21"/>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="21" t="s">
         <v>336</v>
       </c>
@@ -6794,7 +6819,7 @@
       <c r="K145" s="21"/>
       <c r="L145" s="21"/>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="21" t="s">
         <v>328</v>
       </c>
@@ -6820,7 +6845,7 @@
       <c r="K146" s="21"/>
       <c r="L146" s="21"/>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="21" t="s">
         <v>334</v>
       </c>
@@ -6846,7 +6871,7 @@
       <c r="K147" s="21"/>
       <c r="L147" s="21"/>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="21" t="s">
         <v>326</v>
       </c>
@@ -6872,7 +6897,7 @@
       <c r="K148" s="21"/>
       <c r="L148" s="21"/>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="21" t="s">
         <v>323</v>
       </c>
@@ -6898,7 +6923,7 @@
       <c r="K149" s="21"/>
       <c r="L149" s="21"/>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="21" t="s">
         <v>322</v>
       </c>
@@ -6924,7 +6949,7 @@
       <c r="K150" s="21"/>
       <c r="L150" s="21"/>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="21" t="s">
         <v>340</v>
       </c>
@@ -6950,7 +6975,7 @@
       <c r="K151" s="21"/>
       <c r="L151" s="21"/>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="21" t="s">
         <v>342</v>
       </c>
@@ -6976,27 +7001,27 @@
       <c r="K152" s="21"/>
       <c r="L152" s="21"/>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F153"/>
       <c r="L153" s="9"/>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F154"/>
       <c r="L154" s="9"/>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F155"/>
       <c r="L155" s="9"/>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F156"/>
       <c r="L156" s="9"/>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F157"/>
       <c r="L157" s="9"/>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="F158"/>
       <c r="L158" s="9"/>
     </row>
@@ -7014,14 +7039,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U158"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
+    <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
@@ -7033,7 +7058,7 @@
     <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -7071,7 +7096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>119</v>
       </c>
@@ -7109,7 +7134,7 @@
         <v>8709215</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>122</v>
       </c>
@@ -7147,7 +7172,7 @@
         <v>7888238</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>125</v>
       </c>
@@ -7185,7 +7210,7 @@
         <v>9824329</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>129</v>
       </c>
@@ -7221,7 +7246,7 @@
       </c>
       <c r="L5" s="25"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>27</v>
       </c>
@@ -7259,7 +7284,7 @@
         <v>8794346</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
         <v>31</v>
       </c>
@@ -7297,7 +7322,7 @@
         <v>10364271</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
         <v>34</v>
       </c>
@@ -7335,7 +7360,7 @@
         <v>10513639</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
         <v>37</v>
       </c>
@@ -7373,7 +7398,7 @@
         <v>12487816</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
         <v>39</v>
       </c>
@@ -7411,7 +7436,7 @@
         <v>11429108</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
         <v>43</v>
       </c>
@@ -7449,7 +7474,7 @@
         <v>11429108</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
         <v>7</v>
       </c>
@@ -7487,7 +7512,7 @@
         <v>9362478</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>11</v>
       </c>
@@ -7525,7 +7550,7 @@
         <v>2578615</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>12</v>
       </c>
@@ -7572,7 +7597,7 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>15</v>
       </c>
@@ -7619,7 +7644,7 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
         <v>17</v>
       </c>
@@ -7666,7 +7691,7 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
         <v>21</v>
       </c>
@@ -7713,7 +7738,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
         <v>24</v>
       </c>
@@ -7760,7 +7785,7 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
         <v>26</v>
       </c>
@@ -7807,7 +7832,7 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
         <v>46</v>
       </c>
@@ -7854,7 +7879,7 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
         <v>50</v>
       </c>
@@ -7901,7 +7926,7 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
         <v>53</v>
       </c>
@@ -7948,7 +7973,7 @@
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
         <v>56</v>
       </c>
@@ -7995,7 +8020,7 @@
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
         <v>133</v>
       </c>
@@ -8042,7 +8067,7 @@
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
         <v>59</v>
       </c>
@@ -8089,7 +8114,7 @@
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
         <v>62</v>
       </c>
@@ -8136,7 +8161,7 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
         <v>64</v>
       </c>
@@ -8183,7 +8208,7 @@
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
         <v>67</v>
       </c>
@@ -8221,7 +8246,7 @@
         <v>15320994</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
         <v>70</v>
       </c>
@@ -8259,7 +8284,7 @@
         <v>9621027</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
         <v>73</v>
       </c>
@@ -8297,7 +8322,7 @@
         <v>10725202</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
         <v>75</v>
       </c>
@@ -8335,7 +8360,7 @@
         <v>10725203</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
         <v>78</v>
       </c>
@@ -8373,7 +8398,7 @@
         <v>10659053</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
         <v>80</v>
       </c>
@@ -8411,7 +8436,7 @@
         <v>10659054</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
         <v>82</v>
       </c>
@@ -8449,7 +8474,7 @@
         <v>10659055</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="26" t="s">
         <v>84</v>
       </c>
@@ -8487,7 +8512,7 @@
         <v>15186527</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
         <v>86</v>
       </c>
@@ -8525,7 +8550,7 @@
         <v>11448170</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
         <v>135</v>
       </c>
@@ -8563,7 +8588,7 @@
         <v>11600844</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="26" t="s">
         <v>88</v>
       </c>
@@ -8601,7 +8626,7 @@
         <v>9683568</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="26" t="s">
         <v>92</v>
       </c>
@@ -8639,7 +8664,7 @@
         <v>9683569</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="26" t="s">
         <v>95</v>
       </c>
@@ -8677,7 +8702,7 @@
         <v>10221535</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="26" t="s">
         <v>97</v>
       </c>
@@ -8715,7 +8740,7 @@
         <v>9621027</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="26" t="s">
         <v>100</v>
       </c>
@@ -8753,7 +8778,7 @@
         <v>9621028</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="26" t="s">
         <v>104</v>
       </c>
@@ -8791,7 +8816,7 @@
         <v>10983640</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="26" t="s">
         <v>107</v>
       </c>
@@ -8829,7 +8854,7 @@
         <v>10983641</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="26" t="s">
         <v>109</v>
       </c>
@@ -8867,7 +8892,7 @@
         <v>10052760</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="26" t="s">
         <v>112</v>
       </c>
@@ -8905,7 +8930,7 @@
         <v>10052761</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="26" t="s">
         <v>114</v>
       </c>
@@ -8943,7 +8968,7 @@
         <v>10659053</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="26" t="s">
         <v>117</v>
       </c>
@@ -8981,7 +9006,7 @@
         <v>10659054</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
         <v>173</v>
       </c>
@@ -9013,7 +9038,7 @@
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
         <v>174</v>
       </c>
@@ -9045,7 +9070,7 @@
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
         <v>175</v>
       </c>
@@ -9077,7 +9102,7 @@
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
         <v>176</v>
       </c>
@@ -9109,7 +9134,7 @@
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
         <v>178</v>
       </c>
@@ -9141,7 +9166,7 @@
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
         <v>179</v>
       </c>
@@ -9173,7 +9198,7 @@
       <c r="K54" s="25"/>
       <c r="L54" s="25"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
         <v>180</v>
       </c>
@@ -9205,7 +9230,7 @@
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="25" t="s">
         <v>181</v>
       </c>
@@ -9237,7 +9262,7 @@
       <c r="K56" s="25"/>
       <c r="L56" s="25"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
         <v>182</v>
       </c>
@@ -9269,7 +9294,7 @@
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
         <v>183</v>
       </c>
@@ -9301,7 +9326,7 @@
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
         <v>191</v>
       </c>
@@ -9331,7 +9356,7 @@
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="25" t="s">
         <v>184</v>
       </c>
@@ -9361,7 +9386,7 @@
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="25" t="s">
         <v>185</v>
       </c>
@@ -9391,7 +9416,7 @@
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
         <v>186</v>
       </c>
@@ -9421,7 +9446,7 @@
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
         <v>187</v>
       </c>
@@ -9451,7 +9476,7 @@
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="25" t="s">
         <v>188</v>
       </c>
@@ -9481,7 +9506,7 @@
       <c r="K64" s="25"/>
       <c r="L64" s="25"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="25" t="s">
         <v>189</v>
       </c>
@@ -9511,7 +9536,7 @@
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
         <v>190</v>
       </c>
@@ -9541,7 +9566,7 @@
       <c r="K66" s="25"/>
       <c r="L66" s="25"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="29" t="s">
         <v>139</v>
       </c>
@@ -9572,7 +9597,7 @@
       <c r="L67" s="31"/>
       <c r="M67" s="9"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="29" t="s">
         <v>140</v>
       </c>
@@ -9603,7 +9628,7 @@
       <c r="L68" s="31"/>
       <c r="M68" s="9"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="29" t="s">
         <v>141</v>
       </c>
@@ -9634,7 +9659,7 @@
       <c r="L69" s="31"/>
       <c r="M69" s="9"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="29" t="s">
         <v>142</v>
       </c>
@@ -9665,7 +9690,7 @@
       <c r="L70" s="31"/>
       <c r="M70" s="9"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="29" t="s">
         <v>143</v>
       </c>
@@ -9696,7 +9721,7 @@
       <c r="L71" s="31"/>
       <c r="M71" s="9"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="29" t="s">
         <v>144</v>
       </c>
@@ -9727,7 +9752,7 @@
       <c r="L72" s="31"/>
       <c r="M72" s="9"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="29" t="s">
         <v>145</v>
       </c>
@@ -9758,7 +9783,7 @@
       <c r="L73" s="31"/>
       <c r="M73" s="9"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="29" t="s">
         <v>146</v>
       </c>
@@ -9789,7 +9814,7 @@
       <c r="L74" s="31"/>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="29" t="s">
         <v>147</v>
       </c>
@@ -9820,7 +9845,7 @@
       <c r="L75" s="31"/>
       <c r="M75" s="9"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="29" t="s">
         <v>148</v>
       </c>
@@ -9851,7 +9876,7 @@
       <c r="L76" s="31"/>
       <c r="M76" s="9"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="29" t="s">
         <v>149</v>
       </c>
@@ -9882,7 +9907,7 @@
       <c r="L77" s="31"/>
       <c r="M77" s="9"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="29" t="s">
         <v>150</v>
       </c>
@@ -9913,7 +9938,7 @@
       <c r="L78" s="31"/>
       <c r="M78" s="9"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="29" t="s">
         <v>151</v>
       </c>
@@ -9944,7 +9969,7 @@
       <c r="L79" s="31"/>
       <c r="M79" s="9"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="29" t="s">
         <v>152</v>
       </c>
@@ -9975,7 +10000,7 @@
       <c r="L80" s="31"/>
       <c r="M80" s="9"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="29" t="s">
         <v>153</v>
       </c>
@@ -10006,7 +10031,7 @@
       <c r="L81" s="31"/>
       <c r="M81" s="9"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="29" t="s">
         <v>154</v>
       </c>
@@ -10037,7 +10062,7 @@
       <c r="L82" s="31"/>
       <c r="M82" s="9"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="29" t="s">
         <v>155</v>
       </c>
@@ -10068,7 +10093,7 @@
       <c r="L83" s="31"/>
       <c r="M83" s="9"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="29" t="s">
         <v>156</v>
       </c>
@@ -10099,7 +10124,7 @@
       <c r="L84" s="31"/>
       <c r="M84" s="9"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="29" t="s">
         <v>157</v>
       </c>
@@ -10130,7 +10155,7 @@
       <c r="L85" s="31"/>
       <c r="M85" s="9"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="29" t="s">
         <v>158</v>
       </c>
@@ -10161,7 +10186,7 @@
       <c r="L86" s="31"/>
       <c r="M86" s="9"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="29" t="s">
         <v>159</v>
       </c>
@@ -10192,7 +10217,7 @@
       <c r="L87" s="31"/>
       <c r="M87" s="9"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="29" t="s">
         <v>160</v>
       </c>
@@ -10223,7 +10248,7 @@
       <c r="L88" s="31"/>
       <c r="M88" s="9"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="29" t="s">
         <v>161</v>
       </c>
@@ -10254,7 +10279,7 @@
       <c r="L89" s="31"/>
       <c r="M89" s="9"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="29" t="s">
         <v>162</v>
       </c>
@@ -10285,7 +10310,7 @@
       <c r="L90" s="31"/>
       <c r="M90" s="9"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="29" t="s">
         <v>163</v>
       </c>
@@ -10316,7 +10341,7 @@
       <c r="L91" s="31"/>
       <c r="M91" s="9"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="29" t="s">
         <v>164</v>
       </c>
@@ -10347,7 +10372,7 @@
       <c r="L92" s="31"/>
       <c r="M92" s="9"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="29" t="s">
         <v>165</v>
       </c>
@@ -10378,7 +10403,7 @@
       <c r="L93" s="31"/>
       <c r="M93" s="9"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="29" t="s">
         <v>166</v>
       </c>
@@ -10409,7 +10434,7 @@
       <c r="L94" s="31"/>
       <c r="M94" s="9"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="29" t="s">
         <v>167</v>
       </c>
@@ -10440,7 +10465,7 @@
       <c r="L95" s="31"/>
       <c r="M95" s="9"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="29" t="s">
         <v>168</v>
       </c>
@@ -10471,7 +10496,7 @@
       <c r="L96" s="31"/>
       <c r="M96" s="9"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="29" t="s">
         <v>169</v>
       </c>
@@ -10502,7 +10527,7 @@
       <c r="L97" s="31"/>
       <c r="M97" s="9"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="29" t="s">
         <v>170</v>
       </c>
@@ -10533,7 +10558,7 @@
       <c r="L98" s="31"/>
       <c r="M98" s="9"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="29" t="s">
         <v>171</v>
       </c>
@@ -10564,7 +10589,7 @@
       <c r="L99" s="31"/>
       <c r="M99" s="9"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="29" t="s">
         <v>192</v>
       </c>
@@ -10595,7 +10620,7 @@
       <c r="L100" s="31"/>
       <c r="M100" s="9"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="29" t="s">
         <v>193</v>
       </c>
@@ -10626,7 +10651,7 @@
       <c r="L101" s="31"/>
       <c r="M101" s="9"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="29" t="s">
         <v>194</v>
       </c>
@@ -10657,7 +10682,7 @@
       <c r="L102" s="31"/>
       <c r="M102" s="9"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="29" t="s">
         <v>195</v>
       </c>
@@ -10688,7 +10713,7 @@
       <c r="L103" s="31"/>
       <c r="M103" s="9"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="29" t="s">
         <v>196</v>
       </c>
@@ -10719,7 +10744,7 @@
       <c r="L104" s="31"/>
       <c r="M104" s="9"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="29" t="s">
         <v>197</v>
       </c>
@@ -10750,7 +10775,7 @@
       <c r="L105" s="31"/>
       <c r="M105" s="9"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="29" t="s">
         <v>198</v>
       </c>
@@ -10781,7 +10806,7 @@
       <c r="L106" s="31"/>
       <c r="M106" s="9"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="29" t="s">
         <v>199</v>
       </c>
@@ -10812,7 +10837,7 @@
       <c r="L107" s="31"/>
       <c r="M107" s="9"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="29" t="s">
         <v>200</v>
       </c>
@@ -10843,7 +10868,7 @@
       <c r="L108" s="31"/>
       <c r="M108" s="9"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="29" t="s">
         <v>201</v>
       </c>
@@ -10874,7 +10899,7 @@
       <c r="L109" s="31"/>
       <c r="M109" s="9"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="29" t="s">
         <v>202</v>
       </c>
@@ -10905,7 +10930,7 @@
       <c r="L110" s="31"/>
       <c r="M110" s="9"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="29" t="s">
         <v>203</v>
       </c>
@@ -10936,7 +10961,7 @@
       <c r="L111" s="31"/>
       <c r="M111" s="9"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="29" t="s">
         <v>204</v>
       </c>
@@ -10967,7 +10992,7 @@
       <c r="L112" s="31"/>
       <c r="M112" s="9"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="29" t="s">
         <v>205</v>
       </c>
@@ -10998,7 +11023,7 @@
       <c r="L113" s="31"/>
       <c r="M113" s="9"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="29" t="s">
         <v>206</v>
       </c>
@@ -11029,7 +11054,7 @@
       <c r="L114" s="31"/>
       <c r="M114" s="9"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="29" t="s">
         <v>207</v>
       </c>
@@ -11060,7 +11085,7 @@
       <c r="L115" s="31"/>
       <c r="M115" s="9"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="29" t="s">
         <v>208</v>
       </c>
@@ -11091,7 +11116,7 @@
       <c r="L116" s="31"/>
       <c r="M116" s="9"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="29" t="s">
         <v>209</v>
       </c>
@@ -11122,7 +11147,7 @@
       <c r="L117" s="31"/>
       <c r="M117" s="9"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="29" t="s">
         <v>210</v>
       </c>
@@ -11153,7 +11178,7 @@
       <c r="L118" s="31"/>
       <c r="M118" s="9"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="29" t="s">
         <v>211</v>
       </c>
@@ -11184,7 +11209,7 @@
       <c r="L119" s="31"/>
       <c r="M119" s="9"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="29" t="s">
         <v>212</v>
       </c>
@@ -11215,7 +11240,7 @@
       <c r="L120" s="31"/>
       <c r="M120" s="9"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="29" t="s">
         <v>213</v>
       </c>
@@ -11246,7 +11271,7 @@
       <c r="L121" s="31"/>
       <c r="M121" s="9"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="29" t="s">
         <v>214</v>
       </c>
@@ -11277,7 +11302,7 @@
       <c r="L122" s="31"/>
       <c r="M122" s="9"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="29" t="s">
         <v>215</v>
       </c>
@@ -11308,7 +11333,7 @@
       <c r="L123" s="31"/>
       <c r="M123" s="9"/>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="29" t="s">
         <v>216</v>
       </c>
@@ -11339,7 +11364,7 @@
       <c r="L124" s="31"/>
       <c r="M124" s="9"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="29" t="s">
         <v>217</v>
       </c>
@@ -11370,7 +11395,7 @@
       <c r="L125" s="31"/>
       <c r="M125" s="9"/>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="29" t="s">
         <v>218</v>
       </c>
@@ -11401,7 +11426,7 @@
       <c r="L126" s="31"/>
       <c r="M126" s="9"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="29" t="s">
         <v>219</v>
       </c>
@@ -11432,7 +11457,7 @@
       <c r="L127" s="31"/>
       <c r="M127" s="9"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="29" t="s">
         <v>220</v>
       </c>
@@ -11463,7 +11488,7 @@
       <c r="L128" s="31"/>
       <c r="M128" s="9"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="29" t="s">
         <v>221</v>
       </c>
@@ -11494,7 +11519,7 @@
       <c r="L129" s="31"/>
       <c r="M129" s="9"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="29" t="s">
         <v>222</v>
       </c>
@@ -11525,7 +11550,7 @@
       <c r="L130" s="31"/>
       <c r="M130" s="9"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="29" t="s">
         <v>223</v>
       </c>
@@ -11556,7 +11581,7 @@
       <c r="L131" s="31"/>
       <c r="M131" s="9"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="29" t="s">
         <v>224</v>
       </c>
@@ -11587,7 +11612,7 @@
       <c r="L132" s="31"/>
       <c r="M132" s="9"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="29" t="s">
         <v>225</v>
       </c>
@@ -11618,7 +11643,7 @@
       <c r="L133" s="31"/>
       <c r="M133" s="9"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="29" t="s">
         <v>226</v>
       </c>
@@ -11649,7 +11674,7 @@
       <c r="L134" s="31"/>
       <c r="M134" s="9"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="29" t="s">
         <v>227</v>
       </c>
@@ -11680,7 +11705,7 @@
       <c r="L135" s="31"/>
       <c r="M135" s="9"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="29" t="s">
         <v>228</v>
       </c>
@@ -11711,7 +11736,7 @@
       <c r="L136" s="31"/>
       <c r="M136" s="9"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="29" t="s">
         <v>229</v>
       </c>
@@ -11742,7 +11767,7 @@
       <c r="L137" s="31"/>
       <c r="M137" s="9"/>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="29" t="s">
         <v>346</v>
       </c>
@@ -11769,7 +11794,7 @@
       <c r="L138" s="31"/>
       <c r="M138" s="9"/>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="29" t="s">
         <v>349</v>
       </c>
@@ -11796,7 +11821,7 @@
       <c r="L139" s="31"/>
       <c r="M139" s="9"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="29" t="s">
         <v>351</v>
       </c>
@@ -11823,7 +11848,7 @@
       <c r="L140" s="31"/>
       <c r="M140" s="9"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="29" t="s">
         <v>353</v>
       </c>
@@ -11850,7 +11875,7 @@
       <c r="L141" s="31"/>
       <c r="M141" s="9"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="29" t="s">
         <v>355</v>
       </c>
@@ -11877,7 +11902,7 @@
       <c r="L142" s="31"/>
       <c r="M142" s="9"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="29" t="s">
         <v>357</v>
       </c>
@@ -11904,7 +11929,7 @@
       <c r="L143" s="31"/>
       <c r="M143" s="9"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="29" t="s">
         <v>359</v>
       </c>
@@ -11931,7 +11956,7 @@
       <c r="L144" s="31"/>
       <c r="M144" s="9"/>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="35" t="s">
         <v>324</v>
       </c>
@@ -11958,7 +11983,7 @@
       <c r="L145" s="35"/>
       <c r="M145" s="9"/>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="35" t="s">
         <v>336</v>
       </c>
@@ -11985,7 +12010,7 @@
       <c r="L146" s="35"/>
       <c r="M146" s="9"/>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="35" t="s">
         <v>338</v>
       </c>
@@ -12012,7 +12037,7 @@
       <c r="L147" s="35"/>
       <c r="M147" s="9"/>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="35" t="s">
         <v>328</v>
       </c>
@@ -12039,7 +12064,7 @@
       <c r="L148" s="35"/>
       <c r="M148" s="9"/>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="35" t="s">
         <v>330</v>
       </c>
@@ -12066,7 +12091,7 @@
       <c r="L149" s="35"/>
       <c r="M149" s="9"/>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="35" t="s">
         <v>332</v>
       </c>
@@ -12093,7 +12118,7 @@
       <c r="L150" s="35"/>
       <c r="M150" s="9"/>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="35" t="s">
         <v>334</v>
       </c>
@@ -12120,7 +12145,7 @@
       <c r="L151" s="35"/>
       <c r="M151" s="9"/>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="35" t="s">
         <v>326</v>
       </c>
@@ -12147,7 +12172,7 @@
       <c r="L152" s="35"/>
       <c r="M152" s="9"/>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="35" t="s">
         <v>323</v>
       </c>
@@ -12174,7 +12199,7 @@
       <c r="L153" s="35"/>
       <c r="M153" s="9"/>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="35" t="s">
         <v>322</v>
       </c>
@@ -12201,7 +12226,7 @@
       <c r="L154" s="35"/>
       <c r="M154" s="9"/>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="35" t="s">
         <v>340</v>
       </c>
@@ -12228,7 +12253,7 @@
       <c r="L155" s="35"/>
       <c r="M155" s="9"/>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="35" t="s">
         <v>342</v>
       </c>
@@ -12255,7 +12280,7 @@
       <c r="L156" s="35"/>
       <c r="M156" s="9"/>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="35" t="s">
         <v>344</v>
       </c>
@@ -12282,7 +12307,7 @@
       <c r="L157" s="35"/>
       <c r="M157" s="9"/>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="35" t="s">
         <v>384</v>
       </c>
@@ -12320,16 +12345,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12361,7 +12386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>177</v>
       </c>
@@ -12387,7 +12412,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>172</v>
       </c>

--- a/tabular/hiv-reference-data.xlsx
+++ b/tabular/hiv-reference-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="16380" yWindow="340" windowWidth="24460" windowHeight="25080" tabRatio="500"/>
+    <workbookView xWindow="7600" yWindow="700" windowWidth="25460" windowHeight="25220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="edited down" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2409" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="498">
   <si>
     <t>Accession</t>
   </si>
@@ -1449,6 +1449,72 @@
   </si>
   <si>
     <t>SIVtal</t>
+  </si>
+  <si>
+    <t>DJ048201</t>
+  </si>
+  <si>
+    <t>AF188114</t>
+  </si>
+  <si>
+    <t>SIVlhoest447</t>
+  </si>
+  <si>
+    <t>SIVver</t>
+  </si>
+  <si>
+    <t>pubmedID</t>
+  </si>
+  <si>
+    <t>Pallas' cat</t>
+  </si>
+  <si>
+    <t>Liaoning</t>
+  </si>
+  <si>
+    <t>Equus caballus</t>
+  </si>
+  <si>
+    <t>Ovis aires</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>OVMV</t>
+  </si>
+  <si>
+    <t>FLV</t>
+  </si>
+  <si>
+    <t>OCLV</t>
+  </si>
+  <si>
+    <t>ELV</t>
+  </si>
+  <si>
+    <t>Cork</t>
+  </si>
+  <si>
+    <t>Capra hircus</t>
+  </si>
+  <si>
+    <t>CoLV</t>
+  </si>
+  <si>
+    <t>Puma concolor</t>
+  </si>
+  <si>
+    <t>domestic goat</t>
+  </si>
+  <si>
+    <t>domestic horse</t>
+  </si>
+  <si>
+    <t>domestic sheep</t>
+  </si>
+  <si>
+    <t>cougar</t>
   </si>
 </sst>
 </file>
@@ -1461,6 +1527,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1612,7 +1679,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="241">
+  <cellStyleXfs count="342">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1853,6 +1920,107 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
@@ -1933,7 +2101,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="241">
+  <cellStyles count="342">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2054,6 +2222,72 @@
     <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2174,6 +2408,41 @@
     <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2520,15 +2789,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T158"/>
+  <dimension ref="A1:S161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="G165" sqref="G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.1640625" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
@@ -2539,7 +2809,7 @@
     <col min="10" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:19">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2570,14 +2840,11 @@
       <c r="J1" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="K1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="K1" s="13" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="19" t="s">
         <v>324</v>
       </c>
@@ -2601,9 +2868,8 @@
         <v>433</v>
       </c>
       <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-    </row>
-    <row r="3" spans="1:20">
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="19" t="s">
         <v>336</v>
       </c>
@@ -2627,9 +2893,8 @@
         <v>430</v>
       </c>
       <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-    </row>
-    <row r="4" spans="1:20">
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="19" t="s">
         <v>328</v>
       </c>
@@ -2653,9 +2918,8 @@
         <v>431</v>
       </c>
       <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-    </row>
-    <row r="5" spans="1:20">
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="19" t="s">
         <v>334</v>
       </c>
@@ -2679,9 +2943,8 @@
         <v>388</v>
       </c>
       <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" spans="1:20">
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="19" t="s">
         <v>326</v>
       </c>
@@ -2705,9 +2968,8 @@
         <v>391</v>
       </c>
       <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="1:20">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="19" t="s">
         <v>323</v>
       </c>
@@ -2731,9 +2993,8 @@
         <v>451</v>
       </c>
       <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="1:20">
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="19" t="s">
         <v>322</v>
       </c>
@@ -2757,9 +3018,8 @@
         <v>453</v>
       </c>
       <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="1:20">
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="19" t="s">
         <v>340</v>
       </c>
@@ -2783,9 +3043,8 @@
         <v>429</v>
       </c>
       <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:20">
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="19" t="s">
         <v>342</v>
       </c>
@@ -2809,9 +3068,8 @@
         <v>429</v>
       </c>
       <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="1:20">
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="15" t="s">
         <v>119</v>
       </c>
@@ -2842,14 +3100,11 @@
       <c r="J11" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K11" s="16">
-        <v>9203</v>
-      </c>
-      <c r="L11" s="15">
+      <c r="K11" s="15">
         <v>8709215</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:19">
       <c r="A12" s="15" t="s">
         <v>122</v>
       </c>
@@ -2880,14 +3135,11 @@
       <c r="J12" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K12" s="16">
-        <v>9201</v>
-      </c>
-      <c r="L12" s="15">
+      <c r="K12" s="15">
         <v>7888238</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:19">
       <c r="A13" s="15" t="s">
         <v>125</v>
       </c>
@@ -2918,14 +3170,11 @@
       <c r="J13" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K13" s="16">
-        <v>9775</v>
-      </c>
-      <c r="L13" s="15">
+      <c r="K13" s="15">
         <v>9824329</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:19">
       <c r="A14" s="15" t="s">
         <v>129</v>
       </c>
@@ -2956,10 +3205,8 @@
       <c r="J14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K14" s="16">
-        <v>9078</v>
-      </c>
-      <c r="L14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -2967,9 +3214,8 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-    </row>
-    <row r="15" spans="1:20">
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="16" t="s">
         <v>27</v>
       </c>
@@ -3000,12 +3246,10 @@
       <c r="J15" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K15" s="16">
-        <v>8999</v>
-      </c>
-      <c r="L15" s="15">
+      <c r="K15" s="15">
         <v>8794346</v>
       </c>
+      <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -3013,9 +3257,8 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-    </row>
-    <row r="16" spans="1:20">
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="16" t="s">
         <v>31</v>
       </c>
@@ -3046,22 +3289,19 @@
       <c r="J16" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K16" s="16">
-        <v>9160</v>
-      </c>
-      <c r="L16" s="15">
+      <c r="K16" s="15">
         <v>10364271</v>
       </c>
+      <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="10"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
+      <c r="R16" s="9"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-    </row>
-    <row r="17" spans="1:20">
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="16" t="s">
         <v>34</v>
       </c>
@@ -3092,12 +3332,10 @@
       <c r="J17" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K17" s="16">
-        <v>8813</v>
-      </c>
-      <c r="L17" s="15">
+      <c r="K17" s="15">
         <v>10513639</v>
       </c>
+      <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -3105,9 +3343,8 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-    </row>
-    <row r="18" spans="1:20">
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="16" t="s">
         <v>37</v>
       </c>
@@ -3138,12 +3375,10 @@
       <c r="J18" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K18" s="16">
-        <v>8807</v>
-      </c>
-      <c r="L18" s="15">
+      <c r="K18" s="15">
         <v>12487816</v>
       </c>
+      <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -3151,9 +3386,8 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-    </row>
-    <row r="19" spans="1:20">
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="16" t="s">
         <v>39</v>
       </c>
@@ -3184,12 +3418,10 @@
       <c r="J19" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K19" s="16">
-        <v>8972</v>
-      </c>
-      <c r="L19" s="15">
+      <c r="K19" s="15">
         <v>11429108</v>
       </c>
+      <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -3197,9 +3429,8 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-    </row>
-    <row r="20" spans="1:20">
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="16" t="s">
         <v>43</v>
       </c>
@@ -3230,12 +3461,10 @@
       <c r="J20" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K20" s="16">
-        <v>9060</v>
-      </c>
-      <c r="L20" s="15">
+      <c r="K20" s="15">
         <v>11429108</v>
       </c>
+      <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -3243,9 +3472,8 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-    </row>
-    <row r="21" spans="1:20">
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="16" t="s">
         <v>7</v>
       </c>
@@ -3276,12 +3504,10 @@
       <c r="J21" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K21" s="16">
-        <v>9181</v>
-      </c>
-      <c r="L21" s="15">
+      <c r="K21" s="15">
         <v>9362478</v>
       </c>
+      <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -3289,9 +3515,8 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-    </row>
-    <row r="22" spans="1:20">
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="16" t="s">
         <v>12</v>
       </c>
@@ -3322,12 +3547,10 @@
       <c r="J22" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K22" s="16">
-        <v>9000</v>
-      </c>
-      <c r="L22" s="15">
+      <c r="K22" s="15">
         <v>7483282</v>
       </c>
+      <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -3335,9 +3558,8 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-    </row>
-    <row r="23" spans="1:20">
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="16" t="s">
         <v>15</v>
       </c>
@@ -3368,12 +3590,10 @@
       <c r="J23" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K23" s="16">
-        <v>14825</v>
-      </c>
-      <c r="L23" s="15">
+      <c r="K23" s="15">
         <v>3016298</v>
       </c>
+      <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -3381,9 +3601,8 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-    </row>
-    <row r="24" spans="1:20">
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="16" t="s">
         <v>17</v>
       </c>
@@ -3414,12 +3633,10 @@
       <c r="J24" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K24" s="16">
-        <v>9709</v>
-      </c>
-      <c r="L24" s="15" t="s">
+      <c r="K24" s="15" t="s">
         <v>20</v>
       </c>
+      <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -3427,9 +3644,8 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-    </row>
-    <row r="25" spans="1:20">
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="16" t="s">
         <v>21</v>
       </c>
@@ -3460,45 +3676,34 @@
       <c r="J25" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K25" s="16">
-        <v>8996</v>
-      </c>
-      <c r="L25" s="15">
+      <c r="K25" s="15">
         <v>12487805</v>
       </c>
+      <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="10"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="R25" s="9"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="15" t="s">
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="15">
-        <v>671</v>
-      </c>
-      <c r="G26" s="15">
-        <v>2000</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="F26"/>
       <c r="H26" s="16" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>435</v>
@@ -3506,26 +3711,15 @@
       <c r="J26" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K26" s="16">
-        <v>9359</v>
-      </c>
-      <c r="L26" s="15">
-        <v>14610167</v>
-      </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="15" t="s">
+      <c r="K26" s="1">
+        <v>8107220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -3537,39 +3731,23 @@
       <c r="E27" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="15">
-        <v>1058</v>
-      </c>
-      <c r="G27" s="15">
-        <v>1998</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>19</v>
-      </c>
+      <c r="F27" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="16"/>
       <c r="I27" s="16" t="s">
         <v>435</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K27" s="16">
-        <v>8834</v>
-      </c>
-      <c r="L27" s="15">
-        <v>16103205</v>
-      </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="K27" s="1">
+        <v>2578615</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28" s="16" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>446</v>
@@ -3581,16 +3759,16 @@
         <v>374</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="F28" s="15">
+        <v>671</v>
       </c>
       <c r="G28" s="15">
-        <v>1986</v>
+        <v>2000</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I28" s="16" t="s">
         <v>435</v>
@@ -3598,16 +3776,21 @@
       <c r="J28" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K28" s="16">
-        <v>9031</v>
-      </c>
-      <c r="L28" s="15">
-        <v>8891112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="K28" s="15">
+        <v>14610167</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29" s="16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>446</v>
@@ -3619,16 +3802,16 @@
         <v>374</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>51</v>
+        <v>8</v>
+      </c>
+      <c r="F29" s="15">
+        <v>1058</v>
       </c>
       <c r="G29" s="15">
-        <v>1992</v>
+        <v>1998</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>435</v>
@@ -3636,16 +3819,21 @@
       <c r="J29" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K29" s="16">
-        <v>8959</v>
-      </c>
-      <c r="L29" s="15">
-        <v>8627686</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="K29" s="15">
+        <v>16103205</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30" s="16" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>446</v>
@@ -3660,13 +3848,13 @@
         <v>47</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G30" s="15">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I30" s="16" t="s">
         <v>435</v>
@@ -3674,16 +3862,13 @@
       <c r="J30" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K30" s="16">
-        <v>9002</v>
-      </c>
-      <c r="L30" s="15">
-        <v>9847317</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="K30" s="15">
+        <v>8891112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31" s="16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>446</v>
@@ -3698,13 +3883,13 @@
         <v>47</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G31" s="15">
-        <v>2004</v>
+        <v>1992</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>435</v>
@@ -3712,16 +3897,13 @@
       <c r="J31" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K31" s="16">
-        <v>9011</v>
-      </c>
-      <c r="L31" s="15">
-        <v>15592417</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="15" t="s">
-        <v>133</v>
+      <c r="K31" s="15">
+        <v>8627686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="16" t="s">
+        <v>53</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>446</v>
@@ -3732,17 +3914,17 @@
       <c r="D32" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>134</v>
+      <c r="F32" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="G32" s="15">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="I32" s="16" t="s">
         <v>435</v>
@@ -3750,16 +3932,13 @@
       <c r="J32" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K32" s="16">
-        <v>8802</v>
-      </c>
-      <c r="L32" s="15">
-        <v>11070028</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="K32" s="15">
+        <v>9847317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>446</v>
@@ -3771,16 +3950,16 @@
         <v>374</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G33" s="15">
-        <v>1983</v>
+        <v>2004</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I33" s="16" t="s">
         <v>435</v>
@@ -3788,16 +3967,13 @@
       <c r="J33" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K33" s="16">
-        <v>9176</v>
-      </c>
-      <c r="L33" s="15">
-        <v>2424612</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="16" t="s">
-        <v>62</v>
+      <c r="K33" s="15">
+        <v>15592417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>446</v>
@@ -3808,17 +3984,17 @@
       <c r="D34" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>63</v>
+      <c r="E34" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="G34" s="15">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>435</v>
@@ -3826,16 +4002,13 @@
       <c r="J34" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K34" s="16">
-        <v>8952</v>
-      </c>
-      <c r="L34" s="15">
-        <v>9621027</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="K34" s="15">
+        <v>11070028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>446</v>
@@ -3850,13 +4023,13 @@
         <v>60</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G35" s="15">
-        <v>2001</v>
+        <v>1983</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I35" s="16" t="s">
         <v>435</v>
@@ -3864,16 +4037,13 @@
       <c r="J35" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K35" s="16">
-        <v>8379</v>
-      </c>
-      <c r="L35" s="15">
-        <v>15186527</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="K35" s="15">
+        <v>2424612</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>446</v>
@@ -3888,13 +4058,13 @@
         <v>60</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G36" s="15">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>435</v>
@@ -3902,16 +4072,13 @@
       <c r="J36" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K36" s="16">
-        <v>8775</v>
-      </c>
-      <c r="L36" s="15">
-        <v>15320994</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="K36" s="15">
+        <v>9621027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>446</v>
@@ -3923,16 +4090,16 @@
         <v>374</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G37" s="15">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="I37" s="16" t="s">
         <v>435</v>
@@ -3940,16 +4107,13 @@
       <c r="J37" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K37" s="16">
-        <v>8968</v>
-      </c>
-      <c r="L37" s="15">
-        <v>9621027</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="K37" s="15">
+        <v>15186527</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>446</v>
@@ -3961,16 +4125,16 @@
         <v>374</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G38" s="15">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>435</v>
@@ -3978,16 +4142,13 @@
       <c r="J38" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K38" s="16">
-        <v>8903</v>
-      </c>
-      <c r="L38" s="15">
-        <v>10725202</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="K38" s="15">
+        <v>15320994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>446</v>
@@ -4002,13 +4163,13 @@
         <v>71</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G39" s="15">
         <v>1993</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>435</v>
@@ -4016,16 +4177,13 @@
       <c r="J39" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K39" s="16">
-        <v>8925</v>
-      </c>
-      <c r="L39" s="15">
-        <v>10725203</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="K39" s="15">
+        <v>9621027</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>446</v>
@@ -4040,13 +4198,13 @@
         <v>71</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G40" s="15">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="I40" s="16" t="s">
         <v>435</v>
@@ -4054,16 +4212,13 @@
       <c r="J40" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K40" s="16">
-        <v>8614</v>
-      </c>
-      <c r="L40" s="15">
-        <v>10659053</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="K40" s="15">
+        <v>10725202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>446</v>
@@ -4078,13 +4233,13 @@
         <v>71</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G41" s="15">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I41" s="16" t="s">
         <v>435</v>
@@ -4092,16 +4247,13 @@
       <c r="J41" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K41" s="16">
-        <v>8555</v>
-      </c>
-      <c r="L41" s="15">
-        <v>10659054</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="K41" s="15">
+        <v>10725203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>446</v>
@@ -4116,13 +4268,13 @@
         <v>71</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G42" s="15">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="I42" s="16" t="s">
         <v>435</v>
@@ -4130,16 +4282,13 @@
       <c r="J42" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K42" s="16">
-        <v>8589</v>
-      </c>
-      <c r="L42" s="15">
-        <v>10659055</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="K42" s="15">
+        <v>10659053</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>446</v>
@@ -4154,10 +4303,10 @@
         <v>71</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G43" s="15">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="H43" s="16" t="s">
         <v>66</v>
@@ -4168,16 +4317,13 @@
       <c r="J43" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K43" s="16">
-        <v>8349</v>
-      </c>
-      <c r="L43" s="15">
-        <v>15186527</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="K43" s="15">
+        <v>10659054</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>446</v>
@@ -4192,10 +4338,10 @@
         <v>71</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G44" s="15">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="H44" s="16" t="s">
         <v>66</v>
@@ -4206,16 +4352,13 @@
       <c r="J44" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K44" s="16">
-        <v>8782</v>
-      </c>
-      <c r="L44" s="15">
-        <v>11448170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="15" t="s">
-        <v>135</v>
+      <c r="K44" s="15">
+        <v>10659055</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>446</v>
@@ -4226,17 +4369,17 @@
       <c r="D45" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="15" t="s">
-        <v>136</v>
+      <c r="F45" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="G45" s="15">
-        <v>1991</v>
+        <v>2002</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="I45" s="16" t="s">
         <v>435</v>
@@ -4244,16 +4387,13 @@
       <c r="J45" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K45" s="16">
-        <v>9704</v>
-      </c>
-      <c r="L45" s="15">
-        <v>11600844</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="K45" s="15">
+        <v>15186527</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>446</v>
@@ -4265,16 +4405,16 @@
         <v>374</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G46" s="15">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="I46" s="16" t="s">
         <v>435</v>
@@ -4282,16 +4422,13 @@
       <c r="J46" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K46" s="16">
-        <v>9074</v>
-      </c>
-      <c r="L46" s="15">
-        <v>9683568</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="16" t="s">
-        <v>92</v>
+      <c r="K46" s="15">
+        <v>11448170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>446</v>
@@ -4302,17 +4439,17 @@
       <c r="D47" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E47" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="16" t="s">
-        <v>93</v>
+      <c r="E47" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="G47" s="15">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="I47" s="16" t="s">
         <v>435</v>
@@ -4320,16 +4457,13 @@
       <c r="J47" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K47" s="16">
-        <v>9048</v>
-      </c>
-      <c r="L47" s="15">
-        <v>9683569</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="K47" s="15">
+        <v>11600844</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>446</v>
@@ -4344,13 +4478,13 @@
         <v>89</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G48" s="15">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="I48" s="16" t="s">
         <v>435</v>
@@ -4358,16 +4492,13 @@
       <c r="J48" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K48" s="16">
-        <v>9707</v>
-      </c>
-      <c r="L48" s="15">
-        <v>10221535</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="K48" s="15">
+        <v>9683568</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="16" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>446</v>
@@ -4382,13 +4513,13 @@
         <v>89</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G49" s="15">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I49" s="16" t="s">
         <v>435</v>
@@ -4396,16 +4527,13 @@
       <c r="J49" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K49" s="16">
-        <v>8987</v>
-      </c>
-      <c r="L49" s="15">
-        <v>9621027</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="K49" s="15">
+        <v>9683569</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>446</v>
@@ -4417,16 +4545,16 @@
         <v>374</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G50" s="15">
-        <v>1990</v>
+        <v>1996</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="I50" s="16" t="s">
         <v>435</v>
@@ -4434,16 +4562,13 @@
       <c r="J50" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K50" s="16">
-        <v>8953</v>
-      </c>
-      <c r="L50" s="15">
-        <v>9621028</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="K50" s="15">
+        <v>10221535</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>446</v>
@@ -4455,16 +4580,16 @@
         <v>374</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G51" s="15">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I51" s="16" t="s">
         <v>435</v>
@@ -4472,16 +4597,13 @@
       <c r="J51" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K51" s="16">
-        <v>9056</v>
-      </c>
-      <c r="L51" s="15">
-        <v>10983640</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="K51" s="15">
+        <v>9621027</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>446</v>
@@ -4496,13 +4618,13 @@
         <v>101</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G52" s="15">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I52" s="16" t="s">
         <v>435</v>
@@ -4510,16 +4632,13 @@
       <c r="J52" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K52" s="16">
-        <v>8955</v>
-      </c>
-      <c r="L52" s="15">
-        <v>10983641</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="K52" s="15">
+        <v>9621028</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>446</v>
@@ -4531,16 +4650,16 @@
         <v>374</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G53" s="15">
         <v>1994</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="I53" s="16" t="s">
         <v>435</v>
@@ -4548,16 +4667,13 @@
       <c r="J53" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K53" s="16">
-        <v>8943</v>
-      </c>
-      <c r="L53" s="15">
-        <v>10052760</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="K53" s="15">
+        <v>10983640</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>446</v>
@@ -4569,16 +4685,16 @@
         <v>374</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G54" s="15">
         <v>1993</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="I54" s="16" t="s">
         <v>435</v>
@@ -4586,16 +4702,13 @@
       <c r="J54" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K54" s="16">
-        <v>8953</v>
-      </c>
-      <c r="L54" s="15">
-        <v>10052761</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="K54" s="15">
+        <v>10983641</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>446</v>
@@ -4607,16 +4720,16 @@
         <v>374</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G55" s="15">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="I55" s="16" t="s">
         <v>435</v>
@@ -4624,16 +4737,13 @@
       <c r="J55" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K55" s="16">
-        <v>8600</v>
-      </c>
-      <c r="L55" s="15">
-        <v>10659053</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="K55" s="15">
+        <v>10052760</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="16" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>446</v>
@@ -4645,16 +4755,16 @@
         <v>374</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G56" s="15">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="I56" s="16" t="s">
         <v>435</v>
@@ -4662,16 +4772,13 @@
       <c r="J56" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K56" s="16">
-        <v>8604</v>
-      </c>
-      <c r="L56" s="15">
-        <v>10659054</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="15" t="s">
-        <v>173</v>
+      <c r="K56" s="15">
+        <v>10052761</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>446</v>
@@ -4680,17 +4787,19 @@
         <v>348</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15" t="s">
-        <v>264</v>
+        <v>374</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>116</v>
       </c>
       <c r="G57" s="15">
-        <v>2002</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>66</v>
+        <v>1997</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>42</v>
       </c>
       <c r="I57" s="16" t="s">
         <v>435</v>
@@ -4698,12 +4807,13 @@
       <c r="J57" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K57" s="16"/>
-      <c r="L57" s="15"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="15" t="s">
-        <v>174</v>
+      <c r="K57" s="15">
+        <v>10659053</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>446</v>
@@ -4712,16 +4822,18 @@
         <v>348</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15" t="s">
-        <v>265</v>
+        <v>374</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="G58" s="15">
-        <v>2004</v>
-      </c>
-      <c r="H58" s="15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="H58" s="16" t="s">
         <v>66</v>
       </c>
       <c r="I58" s="16" t="s">
@@ -4730,12 +4842,13 @@
       <c r="J58" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K58" s="16"/>
-      <c r="L58" s="15"/>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="K58" s="15">
+        <v>10659054</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>446</v>
@@ -4748,10 +4861,10 @@
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G59" s="15">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="H59" s="15" t="s">
         <v>66</v>
@@ -4762,12 +4875,11 @@
       <c r="J59" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K59" s="16"/>
-      <c r="L59" s="15"/>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="K59" s="15"/>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>446</v>
@@ -4780,10 +4892,10 @@
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G60" s="15">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="H60" s="15" t="s">
         <v>66</v>
@@ -4794,12 +4906,11 @@
       <c r="J60" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K60" s="16"/>
-      <c r="L60" s="15"/>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="K60" s="15"/>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>446</v>
@@ -4808,14 +4919,14 @@
         <v>348</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G61" s="15">
-        <v>1991</v>
+        <v>2004</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>66</v>
@@ -4826,12 +4937,11 @@
       <c r="J61" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K61" s="16"/>
-      <c r="L61" s="15"/>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="K61" s="15"/>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>446</v>
@@ -4840,14 +4950,14 @@
         <v>348</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E62" s="15"/>
       <c r="F62" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G62" s="15">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>66</v>
@@ -4858,12 +4968,11 @@
       <c r="J62" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K62" s="16"/>
-      <c r="L62" s="15"/>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="K62" s="15"/>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>446</v>
@@ -4876,10 +4985,10 @@
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G63" s="15">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>66</v>
@@ -4890,12 +4999,11 @@
       <c r="J63" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K63" s="16"/>
-      <c r="L63" s="15"/>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="K63" s="15"/>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>446</v>
@@ -4908,13 +5016,13 @@
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G64" s="15">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>317</v>
+        <v>66</v>
       </c>
       <c r="I64" s="16" t="s">
         <v>435</v>
@@ -4922,12 +5030,11 @@
       <c r="J64" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K64" s="16"/>
-      <c r="L64" s="15"/>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="K64" s="15"/>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>446</v>
@@ -4940,13 +5047,13 @@
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G65" s="15">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="I65" s="16" t="s">
         <v>435</v>
@@ -4954,31 +5061,30 @@
       <c r="J65" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K65" s="16"/>
-      <c r="L65" s="15"/>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="K65" s="15"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G66" s="15">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>66</v>
+        <v>317</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>435</v>
@@ -4986,31 +5092,30 @@
       <c r="J66" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K66" s="16"/>
-      <c r="L66" s="15"/>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="K66" s="15"/>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="15" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="C67" s="15" t="s">
-        <v>379</v>
+      <c r="C67" s="16" t="s">
+        <v>348</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>14</v>
+        <v>377</v>
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="15" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="G67" s="15">
-        <v>2007</v>
+        <v>1999</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>321</v>
+        <v>19</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>435</v>
@@ -5018,31 +5123,30 @@
       <c r="J67" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K67" s="16"/>
-      <c r="L67" s="15"/>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="K67" s="15"/>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>446</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>454</v>
+        <v>380</v>
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>14</v>
+        <v>274</v>
+      </c>
+      <c r="G68" s="15">
+        <v>2006</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>318</v>
+        <v>66</v>
       </c>
       <c r="I68" s="16" t="s">
         <v>435</v>
@@ -5050,12 +5154,11 @@
       <c r="J68" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K68" s="16"/>
-      <c r="L68" s="15"/>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="K68" s="15"/>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="15" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>446</v>
@@ -5064,17 +5167,17 @@
         <v>379</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>454</v>
+        <v>14</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>14</v>
+        <v>281</v>
+      </c>
+      <c r="G69" s="15">
+        <v>2007</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="I69" s="16" t="s">
         <v>435</v>
@@ -5082,12 +5185,11 @@
       <c r="J69" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K69" s="16"/>
-      <c r="L69" s="15"/>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="K69" s="15"/>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>446</v>
@@ -5100,13 +5202,13 @@
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="G70" s="15">
-        <v>1986</v>
+        <v>275</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>435</v>
@@ -5114,12 +5216,11 @@
       <c r="J70" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K70" s="16"/>
-      <c r="L70" s="15"/>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="K70" s="15"/>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>446</v>
@@ -5128,17 +5229,17 @@
         <v>379</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>8</v>
+        <v>454</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>435</v>
@@ -5146,12 +5247,11 @@
       <c r="J71" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K71" s="16"/>
-      <c r="L71" s="15"/>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="K71" s="15"/>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>446</v>
@@ -5160,17 +5260,17 @@
         <v>379</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>8</v>
+        <v>454</v>
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G72" s="15">
         <v>1986</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I72" s="16" t="s">
         <v>435</v>
@@ -5178,12 +5278,11 @@
       <c r="J72" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K72" s="16"/>
-      <c r="L72" s="15"/>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="K72" s="15"/>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>446</v>
@@ -5192,14 +5291,14 @@
         <v>379</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="G73" s="15">
-        <v>1992</v>
+        <v>278</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H73" s="15" t="s">
         <v>321</v>
@@ -5210,12 +5309,11 @@
       <c r="J73" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K73" s="16"/>
-      <c r="L73" s="15"/>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="K73" s="15"/>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>446</v>
@@ -5224,17 +5322,17 @@
         <v>379</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="E74" s="15"/>
-      <c r="F74" s="15">
-        <v>12034</v>
+      <c r="F74" s="15" t="s">
+        <v>279</v>
       </c>
       <c r="G74" s="15">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>10</v>
+        <v>320</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>435</v>
@@ -5242,72 +5340,73 @@
       <c r="J74" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K74" s="16"/>
-      <c r="L74" s="15"/>
-    </row>
-    <row r="75" spans="1:12">
-      <c r="A75" s="17" t="s">
+      <c r="K74" s="15"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="G75" s="15">
+        <v>1992</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="J75" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="K75" s="15"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15">
+        <v>12034</v>
+      </c>
+      <c r="G76" s="15">
+        <v>1996</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="J76" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="K76" s="15"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="B75" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="G75" s="15">
-        <v>1999</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I75" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="J75" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-    </row>
-    <row r="76" spans="1:12">
-      <c r="A76" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I76" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="J76" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="17" t="s">
-        <v>225</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>446</v>
@@ -5318,26 +5417,25 @@
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
       <c r="F77" s="15" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="G77" s="15">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>362</v>
+        <v>66</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-    </row>
-    <row r="78" spans="1:12">
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="17" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>446</v>
@@ -5348,13 +5446,13 @@
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
       <c r="F78" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="G78" s="15">
-        <v>2010</v>
+        <v>310</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>362</v>
+        <v>33</v>
       </c>
       <c r="I78" s="16" t="s">
         <v>375</v>
@@ -5363,11 +5461,10 @@
         <v>425</v>
       </c>
       <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-    </row>
-    <row r="79" spans="1:12">
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>446</v>
@@ -5378,7 +5475,7 @@
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
       <c r="F79" s="15" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G79" s="15">
         <v>2010</v>
@@ -5393,11 +5490,10 @@
         <v>425</v>
       </c>
       <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-    </row>
-    <row r="80" spans="1:12">
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="17" t="s">
-        <v>351</v>
+        <v>226</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>446</v>
@@ -5407,173 +5503,167 @@
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
-      <c r="F80" s="16" t="s">
+      <c r="F80" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="G80" s="15">
+        <v>2010</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="K80" s="16"/>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>352</v>
-      </c>
-      <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="J80" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>469</v>
       </c>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
       <c r="F81" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>14</v>
+        <v>313</v>
+      </c>
+      <c r="G81" s="15">
+        <v>2010</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>49</v>
+        <v>362</v>
       </c>
       <c r="I81" s="16" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-    </row>
-    <row r="82" spans="1:12">
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="17" t="s">
-        <v>196</v>
+        <v>351</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>470</v>
+        <v>352</v>
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
-      <c r="F82" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="G82" s="15">
-        <v>2009</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="F82" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="G82" s="15"/>
+      <c r="H82" s="16"/>
       <c r="I82" s="16" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-    </row>
-    <row r="83" spans="1:12">
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="17" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
       <c r="F83" s="15" t="s">
-        <v>309</v>
+        <v>260</v>
       </c>
       <c r="G83" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>368</v>
+        <v>416</v>
       </c>
       <c r="J83" s="16" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-    </row>
-    <row r="84" spans="1:12">
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="17" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
       <c r="F84" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>14</v>
+        <v>285</v>
+      </c>
+      <c r="G84" s="15">
+        <v>2009</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>66</v>
+        <v>362</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="J84" s="16" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-    </row>
-    <row r="85" spans="1:12" ht="13" customHeight="1">
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="17" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
       <c r="F85" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="G85" s="15">
-        <v>2010</v>
+        <v>309</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H85" s="15" t="s">
         <v>30</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="K85" s="16"/>
-      <c r="L85" s="16"/>
-    </row>
-    <row r="86" spans="1:12">
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>446</v>
@@ -5584,13 +5674,13 @@
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
       <c r="F86" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="G86" s="15">
-        <v>2010</v>
+        <v>234</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I86" s="16" t="s">
         <v>412</v>
@@ -5599,71 +5689,68 @@
         <v>393</v>
       </c>
       <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-    </row>
-    <row r="87" spans="1:12">
+    </row>
+    <row r="87" spans="1:11" ht="13" customHeight="1">
       <c r="A87" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B87" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>354</v>
+        <v>455</v>
       </c>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
       <c r="F87" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G87" s="15">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>440</v>
+        <v>30</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J87" s="16" t="s">
-        <v>465</v>
+        <v>393</v>
       </c>
       <c r="K87" s="16"/>
-      <c r="L87" s="16"/>
-    </row>
-    <row r="88" spans="1:12">
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>354</v>
+        <v>455</v>
       </c>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
       <c r="F88" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G88" s="15">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>440</v>
+        <v>30</v>
       </c>
       <c r="I88" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J88" s="16" t="s">
-        <v>465</v>
+        <v>393</v>
       </c>
       <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-    </row>
-    <row r="89" spans="1:12">
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>446</v>
@@ -5674,13 +5761,13 @@
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
       <c r="F89" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G89" s="15">
-        <v>2001</v>
+        <v>2006</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>66</v>
+        <v>440</v>
       </c>
       <c r="I89" s="16" t="s">
         <v>413</v>
@@ -5689,11 +5776,10 @@
         <v>465</v>
       </c>
       <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
-    </row>
-    <row r="90" spans="1:12">
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>446</v>
@@ -5704,13 +5790,13 @@
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
       <c r="F90" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G90" s="15">
-        <v>2005</v>
+        <v>1990</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>66</v>
+        <v>440</v>
       </c>
       <c r="I90" s="16" t="s">
         <v>413</v>
@@ -5719,11 +5805,10 @@
         <v>465</v>
       </c>
       <c r="K90" s="16"/>
-      <c r="L90" s="16"/>
-    </row>
-    <row r="91" spans="1:12">
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>446</v>
@@ -5734,10 +5819,10 @@
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
       <c r="F91" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G91" s="15">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="H91" s="15" t="s">
         <v>66</v>
@@ -5749,11 +5834,10 @@
         <v>465</v>
       </c>
       <c r="K91" s="16"/>
-      <c r="L91" s="16"/>
-    </row>
-    <row r="92" spans="1:12">
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>446</v>
@@ -5764,7 +5848,7 @@
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
       <c r="F92" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G92" s="15">
         <v>2005</v>
@@ -5779,11 +5863,10 @@
         <v>465</v>
       </c>
       <c r="K92" s="16"/>
-      <c r="L92" s="16"/>
-    </row>
-    <row r="93" spans="1:12">
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>446</v>
@@ -5794,7 +5877,7 @@
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
       <c r="F93" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G93" s="15">
         <v>2005</v>
@@ -5809,11 +5892,10 @@
         <v>465</v>
       </c>
       <c r="K93" s="16"/>
-      <c r="L93" s="16"/>
-    </row>
-    <row r="94" spans="1:12">
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>446</v>
@@ -5824,7 +5906,7 @@
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
       <c r="F94" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G94" s="15">
         <v>2005</v>
@@ -5839,11 +5921,10 @@
         <v>465</v>
       </c>
       <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
-    </row>
-    <row r="95" spans="1:12">
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="17" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>446</v>
@@ -5854,7 +5935,7 @@
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
       <c r="F95" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G95" s="15">
         <v>2005</v>
@@ -5869,11 +5950,10 @@
         <v>465</v>
       </c>
       <c r="K95" s="16"/>
-      <c r="L95" s="16"/>
-    </row>
-    <row r="96" spans="1:12">
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>446</v>
@@ -5884,13 +5964,13 @@
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
       <c r="F96" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G96" s="15">
-        <v>1988</v>
+        <v>2005</v>
       </c>
       <c r="H96" s="15" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="I96" s="16" t="s">
         <v>413</v>
@@ -5899,11 +5979,10 @@
         <v>465</v>
       </c>
       <c r="K96" s="16"/>
-      <c r="L96" s="16"/>
-    </row>
-    <row r="97" spans="1:12">
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>446</v>
@@ -5914,13 +5993,13 @@
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
       <c r="F97" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G97" s="15">
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I97" s="16" t="s">
         <v>413</v>
@@ -5929,11 +6008,10 @@
         <v>465</v>
       </c>
       <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
-    </row>
-    <row r="98" spans="1:12">
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>446</v>
@@ -5944,13 +6022,13 @@
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
       <c r="F98" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G98" s="15">
-        <v>2006</v>
+        <v>1988</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>69</v>
+        <v>361</v>
       </c>
       <c r="I98" s="16" t="s">
         <v>413</v>
@@ -5959,11 +6037,10 @@
         <v>465</v>
       </c>
       <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-    </row>
-    <row r="99" spans="1:12">
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>446</v>
@@ -5974,10 +6051,10 @@
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
       <c r="F99" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G99" s="15">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="H99" s="15" t="s">
         <v>69</v>
@@ -5989,11 +6066,10 @@
         <v>465</v>
       </c>
       <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-    </row>
-    <row r="100" spans="1:12">
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>446</v>
@@ -6004,13 +6080,13 @@
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
       <c r="F100" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G100" s="15">
-        <v>1985</v>
+        <v>2006</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>441</v>
+        <v>69</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>413</v>
@@ -6019,11 +6095,10 @@
         <v>465</v>
       </c>
       <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-    </row>
-    <row r="101" spans="1:12">
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="17" t="s">
-        <v>353</v>
+        <v>158</v>
       </c>
       <c r="B101" s="18" t="s">
         <v>446</v>
@@ -6033,23 +6108,26 @@
       </c>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
-      <c r="F101" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="G101" s="15"/>
-      <c r="H101" s="16"/>
+      <c r="F101" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="G101" s="15">
+        <v>2009</v>
+      </c>
+      <c r="H101" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="I101" s="16" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="J101" s="16" t="s">
         <v>465</v>
       </c>
       <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-    </row>
-    <row r="102" spans="1:12">
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="17" t="s">
-        <v>355</v>
+        <v>159</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>446</v>
@@ -6059,83 +6137,76 @@
       </c>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
-      <c r="F102" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="G102" s="15"/>
-      <c r="H102" s="16"/>
+      <c r="F102" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G102" s="15">
+        <v>1985</v>
+      </c>
+      <c r="H102" s="15" t="s">
+        <v>441</v>
+      </c>
       <c r="I102" s="16" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="J102" s="16" t="s">
         <v>465</v>
       </c>
       <c r="K102" s="16"/>
-      <c r="L102" s="16"/>
-    </row>
-    <row r="103" spans="1:12">
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="17" t="s">
-        <v>160</v>
+        <v>353</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>464</v>
+        <v>354</v>
       </c>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
-      <c r="F103" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="G103" s="15">
-        <v>2004</v>
-      </c>
-      <c r="H103" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="F103" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="G103" s="15"/>
+      <c r="H103" s="16"/>
       <c r="I103" s="16" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="J103" s="16" t="s">
-        <v>394</v>
+        <v>465</v>
       </c>
       <c r="K103" s="16"/>
-      <c r="L103" s="16"/>
-    </row>
-    <row r="104" spans="1:12">
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="17" t="s">
-        <v>161</v>
+        <v>355</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>464</v>
+        <v>354</v>
       </c>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
-      <c r="F104" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="G104" s="15">
-        <v>1999</v>
-      </c>
-      <c r="H104" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="F104" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="G104" s="15"/>
+      <c r="H104" s="16"/>
       <c r="I104" s="16" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="J104" s="16" t="s">
-        <v>394</v>
+        <v>465</v>
       </c>
       <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-    </row>
-    <row r="105" spans="1:12">
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>446</v>
@@ -6146,10 +6217,10 @@
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
       <c r="F105" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G105" s="15">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="H105" s="15" t="s">
         <v>66</v>
@@ -6161,123 +6232,118 @@
         <v>394</v>
       </c>
       <c r="K105" s="16"/>
-      <c r="L105" s="16"/>
-    </row>
-    <row r="106" spans="1:12">
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="17" t="s">
-        <v>357</v>
+        <v>161</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>358</v>
+        <v>464</v>
       </c>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
-      <c r="F106" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="G106" s="15"/>
-      <c r="H106" s="16"/>
+      <c r="F106" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="G106" s="15">
+        <v>1999</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="I106" s="16" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="J106" s="16" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
-    </row>
-    <row r="107" spans="1:12">
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="17" t="s">
-        <v>349</v>
+        <v>162</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>350</v>
+        <v>464</v>
       </c>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
-      <c r="F107" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G107" s="15"/>
-      <c r="H107" s="16"/>
+      <c r="F107" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G107" s="15">
+        <v>1999</v>
+      </c>
+      <c r="H107" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="I107" s="16" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="J107" s="16" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
       <c r="K107" s="16"/>
-      <c r="L107" s="16"/>
-    </row>
-    <row r="108" spans="1:12">
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="17" t="s">
-        <v>163</v>
+        <v>357</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>456</v>
+        <v>358</v>
       </c>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
-      <c r="F108" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="G108" s="15">
-        <v>2004</v>
-      </c>
-      <c r="H108" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="F108" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="G108" s="15"/>
+      <c r="H108" s="16"/>
       <c r="I108" s="16" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="J108" s="16" t="s">
-        <v>395</v>
+        <v>428</v>
       </c>
       <c r="K108" s="16"/>
-      <c r="L108" s="16"/>
-    </row>
-    <row r="109" spans="1:12">
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="17" t="s">
-        <v>164</v>
+        <v>349</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>456</v>
+        <v>350</v>
       </c>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
-      <c r="F109" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="G109" s="15">
-        <v>2007</v>
-      </c>
-      <c r="H109" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="F109" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G109" s="15"/>
+      <c r="H109" s="16"/>
       <c r="I109" s="16" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="J109" s="16" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="K109" s="16"/>
-      <c r="L109" s="16"/>
-    </row>
-    <row r="110" spans="1:12">
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>446</v>
@@ -6288,10 +6354,10 @@
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
       <c r="F110" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G110" s="15">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="H110" s="15" t="s">
         <v>66</v>
@@ -6303,11 +6369,10 @@
         <v>395</v>
       </c>
       <c r="K110" s="16"/>
-      <c r="L110" s="16"/>
-    </row>
-    <row r="111" spans="1:12">
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="17" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>446</v>
@@ -6318,10 +6383,10 @@
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
       <c r="F111" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G111" s="15">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="H111" s="15" t="s">
         <v>66</v>
@@ -6333,11 +6398,10 @@
         <v>395</v>
       </c>
       <c r="K111" s="16"/>
-      <c r="L111" s="16"/>
-    </row>
-    <row r="112" spans="1:12">
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>446</v>
@@ -6348,10 +6412,10 @@
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
       <c r="F112" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G112" s="15">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="H112" s="15" t="s">
         <v>66</v>
@@ -6363,11 +6427,10 @@
         <v>395</v>
       </c>
       <c r="K112" s="16"/>
-      <c r="L112" s="16"/>
-    </row>
-    <row r="113" spans="1:12">
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>446</v>
@@ -6378,10 +6441,10 @@
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
       <c r="F113" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G113" s="15">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H113" s="15" t="s">
         <v>66</v>
@@ -6393,131 +6456,126 @@
         <v>395</v>
       </c>
       <c r="K113" s="16"/>
-      <c r="L113" s="16"/>
-    </row>
-    <row r="114" spans="1:12">
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
       <c r="F114" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G114" s="15">
-        <v>1999</v>
+        <v>2012</v>
       </c>
       <c r="H114" s="15" t="s">
         <v>66</v>
       </c>
       <c r="I114" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J114" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K114" s="16"/>
-      <c r="L114" s="16"/>
-    </row>
-    <row r="115" spans="1:12">
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
       <c r="F115" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G115" s="15">
-        <v>1999</v>
+        <v>2013</v>
       </c>
       <c r="H115" s="15" t="s">
         <v>66</v>
       </c>
       <c r="I115" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J115" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K115" s="16"/>
-      <c r="L115" s="16"/>
-    </row>
-    <row r="116" spans="1:12">
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="17" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="C116" s="15" t="s">
-        <v>462</v>
+      <c r="C116" s="17" t="s">
+        <v>468</v>
       </c>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
       <c r="F116" s="15" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="G116" s="15">
-        <v>1988</v>
+        <v>1999</v>
       </c>
       <c r="H116" s="15" t="s">
-        <v>440</v>
+        <v>66</v>
       </c>
       <c r="I116" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J116" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K116" s="16"/>
-      <c r="L116" s="16"/>
-    </row>
-    <row r="117" spans="1:12">
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="17" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="C117" s="15" t="s">
-        <v>462</v>
+      <c r="C117" s="17" t="s">
+        <v>468</v>
       </c>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
       <c r="F117" s="15" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="G117" s="15">
-        <v>1988</v>
+        <v>1999</v>
       </c>
       <c r="H117" s="15" t="s">
-        <v>440</v>
+        <v>66</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J117" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K117" s="16"/>
-      <c r="L117" s="16"/>
-    </row>
-    <row r="118" spans="1:12">
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>446</v>
@@ -6528,13 +6586,13 @@
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
       <c r="F118" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G118" s="15" t="s">
-        <v>14</v>
+        <v>282</v>
+      </c>
+      <c r="G118" s="15">
+        <v>1988</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>33</v>
+        <v>440</v>
       </c>
       <c r="I118" s="16" t="s">
         <v>418</v>
@@ -6543,131 +6601,126 @@
         <v>398</v>
       </c>
       <c r="K118" s="16"/>
-      <c r="L118" s="16"/>
-    </row>
-    <row r="119" spans="1:12">
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="17" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="C119" s="17" t="s">
-        <v>463</v>
+      <c r="C119" s="15" t="s">
+        <v>462</v>
       </c>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
       <c r="F119" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="G119" s="15" t="s">
-        <v>14</v>
+        <v>283</v>
+      </c>
+      <c r="G119" s="15">
+        <v>1988</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I119" s="16" t="s">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="J119" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K119" s="16"/>
-      <c r="L119" s="16"/>
-    </row>
-    <row r="120" spans="1:12">
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="C120" s="17" t="s">
-        <v>463</v>
+      <c r="C120" s="15" t="s">
+        <v>462</v>
       </c>
       <c r="D120" s="16"/>
       <c r="E120" s="16"/>
-      <c r="F120" s="15">
-        <v>239</v>
+      <c r="F120" s="15" t="s">
+        <v>284</v>
       </c>
       <c r="G120" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>441</v>
+        <v>33</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J120" s="16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K120" s="16"/>
-      <c r="L120" s="16"/>
-    </row>
-    <row r="121" spans="1:12">
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="17" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D121" s="16"/>
       <c r="E121" s="16"/>
       <c r="F121" s="15" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G121" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>361</v>
+        <v>441</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="J121" s="16" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K121" s="16"/>
-      <c r="L121" s="16"/>
-    </row>
-    <row r="122" spans="1:12">
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="17" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
-      <c r="F122" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="G122" s="15">
-        <v>1998</v>
+      <c r="F122" s="15">
+        <v>239</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>66</v>
+        <v>441</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J122" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K122" s="16"/>
-      <c r="L122" s="16"/>
-    </row>
-    <row r="123" spans="1:12">
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>446</v>
@@ -6678,7 +6731,7 @@
       <c r="D123" s="16"/>
       <c r="E123" s="16"/>
       <c r="F123" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G123" s="15" t="s">
         <v>14</v>
@@ -6693,11 +6746,10 @@
         <v>401</v>
       </c>
       <c r="K123" s="16"/>
-      <c r="L123" s="16"/>
-    </row>
-    <row r="124" spans="1:12">
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>446</v>
@@ -6707,14 +6759,14 @@
       </c>
       <c r="D124" s="16"/>
       <c r="E124" s="16"/>
-      <c r="F124" s="15">
-        <v>5440</v>
-      </c>
-      <c r="G124" s="15" t="s">
-        <v>14</v>
+      <c r="F124" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="G124" s="15">
+        <v>1998</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="I124" s="16" t="s">
         <v>421</v>
@@ -6723,71 +6775,68 @@
         <v>401</v>
       </c>
       <c r="K124" s="16"/>
-      <c r="L124" s="16"/>
-    </row>
-    <row r="125" spans="1:12">
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D125" s="16"/>
       <c r="E125" s="16"/>
       <c r="F125" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="G125" s="15">
-        <v>2001</v>
+        <v>288</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>66</v>
+        <v>361</v>
       </c>
       <c r="I125" s="16" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="J125" s="16" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K125" s="16"/>
-      <c r="L125" s="16"/>
-    </row>
-    <row r="126" spans="1:12">
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D126" s="16"/>
       <c r="E126" s="16"/>
-      <c r="F126" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="G126" s="15">
-        <v>2001</v>
+      <c r="F126" s="15">
+        <v>5440</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="I126" s="16" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="J126" s="16" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K126" s="16"/>
-      <c r="L126" s="16"/>
-    </row>
-    <row r="127" spans="1:12">
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="17" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>446</v>
@@ -6798,13 +6847,13 @@
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
       <c r="F127" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G127" s="15">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="I127" s="16" t="s">
         <v>372</v>
@@ -6813,101 +6862,97 @@
         <v>406</v>
       </c>
       <c r="K127" s="16"/>
-      <c r="L127" s="16"/>
-    </row>
-    <row r="128" spans="1:12">
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B128" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D128" s="16"/>
       <c r="E128" s="16"/>
       <c r="F128" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G128" s="15">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>442</v>
+        <v>66</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="J128" s="16" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K128" s="16"/>
-      <c r="L128" s="16"/>
-    </row>
-    <row r="129" spans="1:12">
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="D129" s="16"/>
       <c r="E129" s="16"/>
       <c r="F129" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G129" s="15">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>66</v>
+        <v>361</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J129" s="16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K129" s="16"/>
-      <c r="L129" s="16"/>
-    </row>
-    <row r="130" spans="1:12">
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="D130" s="16"/>
       <c r="E130" s="16"/>
       <c r="F130" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G130" s="15">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>66</v>
+        <v>442</v>
       </c>
       <c r="I130" s="16" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="J130" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K130" s="16"/>
-      <c r="L130" s="16"/>
-    </row>
-    <row r="131" spans="1:12">
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>446</v>
@@ -6918,13 +6963,13 @@
       <c r="D131" s="16"/>
       <c r="E131" s="16"/>
       <c r="F131" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="G131" s="15" t="s">
-        <v>14</v>
+        <v>295</v>
+      </c>
+      <c r="G131" s="15">
+        <v>2000</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="I131" s="16" t="s">
         <v>371</v>
@@ -6933,11 +6978,10 @@
         <v>405</v>
       </c>
       <c r="K131" s="16"/>
-      <c r="L131" s="16"/>
-    </row>
-    <row r="132" spans="1:12">
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="17" t="s">
-        <v>359</v>
+        <v>208</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>446</v>
@@ -6947,11 +6991,15 @@
       </c>
       <c r="D132" s="16"/>
       <c r="E132" s="16"/>
-      <c r="F132" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="G132" s="15"/>
-      <c r="H132" s="16"/>
+      <c r="F132" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="G132" s="15">
+        <v>2002</v>
+      </c>
+      <c r="H132" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="I132" s="16" t="s">
         <v>371</v>
       </c>
@@ -6959,71 +7007,64 @@
         <v>405</v>
       </c>
       <c r="K132" s="16"/>
-      <c r="L132" s="16"/>
-    </row>
-    <row r="133" spans="1:12">
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="17" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>467</v>
-      </c>
-      <c r="D133" s="15"/>
+        <v>457</v>
+      </c>
+      <c r="D133" s="16"/>
       <c r="E133" s="16"/>
       <c r="F133" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="G133" s="15">
-        <v>2013</v>
+        <v>297</v>
+      </c>
+      <c r="G133" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>440</v>
+        <v>361</v>
       </c>
       <c r="I133" s="16" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="J133" s="16" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="K133" s="16"/>
-      <c r="L133" s="16"/>
-    </row>
-    <row r="134" spans="1:12">
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="17" t="s">
-        <v>140</v>
+        <v>359</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D134" s="16"/>
       <c r="E134" s="16"/>
-      <c r="F134" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="G134" s="15">
-        <v>2010</v>
-      </c>
-      <c r="H134" s="15" t="s">
-        <v>30</v>
-      </c>
+      <c r="F134" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G134" s="15"/>
+      <c r="H134" s="16"/>
       <c r="I134" s="16" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="J134" s="16" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="K134" s="16"/>
-      <c r="L134" s="16"/>
-    </row>
-    <row r="135" spans="1:12">
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B135" s="18" t="s">
         <v>446</v>
@@ -7031,16 +7072,16 @@
       <c r="C135" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="D135" s="16"/>
+      <c r="D135" s="15"/>
       <c r="E135" s="16"/>
       <c r="F135" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G135" s="15">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="H135" s="15" t="s">
-        <v>30</v>
+        <v>440</v>
       </c>
       <c r="I135" s="16" t="s">
         <v>411</v>
@@ -7049,11 +7090,10 @@
         <v>392</v>
       </c>
       <c r="K135" s="16"/>
-      <c r="L135" s="16"/>
-    </row>
-    <row r="136" spans="1:12">
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>446</v>
@@ -7064,7 +7104,7 @@
       <c r="D136" s="16"/>
       <c r="E136" s="16"/>
       <c r="F136" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G136" s="15">
         <v>2010</v>
@@ -7079,101 +7119,97 @@
         <v>392</v>
       </c>
       <c r="K136" s="16"/>
-      <c r="L136" s="16"/>
-    </row>
-    <row r="137" spans="1:12">
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="17" t="s">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
       <c r="F137" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G137" s="15" t="s">
-        <v>14</v>
+        <v>232</v>
+      </c>
+      <c r="G137" s="15">
+        <v>2010</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>317</v>
+        <v>30</v>
       </c>
       <c r="I137" s="16" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="J137" s="16" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K137" s="16"/>
-      <c r="L137" s="16"/>
-    </row>
-    <row r="138" spans="1:12">
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="17" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>347</v>
+        <v>467</v>
       </c>
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
       <c r="F138" s="15" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="G138" s="15">
-        <v>1979</v>
+        <v>2010</v>
       </c>
       <c r="H138" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="I138" s="15" t="s">
-        <v>427</v>
+        <v>30</v>
+      </c>
+      <c r="I138" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="J138" s="16" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="K138" s="16"/>
-      <c r="L138" s="16"/>
-    </row>
-    <row r="139" spans="1:12">
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>347</v>
+        <v>460</v>
       </c>
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
       <c r="F139" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="G139" s="15">
-        <v>1992</v>
+        <v>298</v>
+      </c>
+      <c r="G139" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H139" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="I139" s="15" t="s">
-        <v>427</v>
+        <v>317</v>
+      </c>
+      <c r="I139" s="16" t="s">
+        <v>370</v>
       </c>
       <c r="J139" s="16" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K139" s="16"/>
-      <c r="L139" s="16"/>
-    </row>
-    <row r="140" spans="1:12">
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B140" s="18" t="s">
         <v>446</v>
@@ -7184,13 +7220,13 @@
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
       <c r="F140" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G140" s="15">
-        <v>1992</v>
+        <v>1979</v>
       </c>
       <c r="H140" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I140" s="15" t="s">
         <v>427</v>
@@ -7199,11 +7235,10 @@
         <v>407</v>
       </c>
       <c r="K140" s="16"/>
-      <c r="L140" s="16"/>
-    </row>
-    <row r="141" spans="1:12">
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B141" s="18" t="s">
         <v>446</v>
@@ -7214,13 +7249,13 @@
       <c r="D141" s="16"/>
       <c r="E141" s="16"/>
       <c r="F141" s="15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G141" s="15">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="H141" s="15" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I141" s="15" t="s">
         <v>427</v>
@@ -7229,11 +7264,10 @@
         <v>407</v>
       </c>
       <c r="K141" s="16"/>
-      <c r="L141" s="16"/>
-    </row>
-    <row r="142" spans="1:12">
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>446</v>
@@ -7244,13 +7278,13 @@
       <c r="D142" s="16"/>
       <c r="E142" s="16"/>
       <c r="F142" s="15" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G142" s="15">
-        <v>2011</v>
+        <v>1992</v>
       </c>
       <c r="H142" s="15" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I142" s="15" t="s">
         <v>427</v>
@@ -7259,11 +7293,10 @@
         <v>407</v>
       </c>
       <c r="K142" s="16"/>
-      <c r="L142" s="16"/>
-    </row>
-    <row r="143" spans="1:12">
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="17" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B143" s="18" t="s">
         <v>446</v>
@@ -7274,10 +7307,10 @@
       <c r="D143" s="16"/>
       <c r="E143" s="16"/>
       <c r="F143" s="15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G143" s="15">
-        <v>1986</v>
+        <v>2006</v>
       </c>
       <c r="H143" s="15" t="s">
         <v>441</v>
@@ -7289,11 +7322,10 @@
         <v>407</v>
       </c>
       <c r="K143" s="16"/>
-      <c r="L143" s="16"/>
-    </row>
-    <row r="144" spans="1:12">
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B144" s="18" t="s">
         <v>446</v>
@@ -7304,10 +7336,10 @@
       <c r="D144" s="16"/>
       <c r="E144" s="16"/>
       <c r="F144" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="G144" s="15" t="s">
-        <v>14</v>
+        <v>303</v>
+      </c>
+      <c r="G144" s="15">
+        <v>2011</v>
       </c>
       <c r="H144" s="15" t="s">
         <v>441</v>
@@ -7319,11 +7351,10 @@
         <v>407</v>
       </c>
       <c r="K144" s="16"/>
-      <c r="L144" s="16"/>
-    </row>
-    <row r="145" spans="1:12">
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="17" t="s">
-        <v>346</v>
+        <v>216</v>
       </c>
       <c r="B145" s="18" t="s">
         <v>446</v>
@@ -7333,253 +7364,441 @@
       </c>
       <c r="D145" s="16"/>
       <c r="E145" s="16"/>
-      <c r="F145" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="G145" s="15"/>
-      <c r="H145" s="16"/>
-      <c r="I145" s="16" t="s">
+      <c r="F145" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="G145" s="15">
+        <v>1986</v>
+      </c>
+      <c r="H145" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="I145" s="15" t="s">
         <v>427</v>
       </c>
       <c r="J145" s="16" t="s">
         <v>407</v>
       </c>
       <c r="K145" s="16"/>
-      <c r="L145" s="16"/>
-    </row>
-    <row r="146" spans="1:12">
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B146" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>473</v>
+        <v>347</v>
       </c>
       <c r="D146" s="16"/>
       <c r="E146" s="16"/>
       <c r="F146" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="G146" s="15">
-        <v>1998</v>
+        <v>305</v>
+      </c>
+      <c r="G146" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H146" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="I146" s="16" t="s">
-        <v>365</v>
+        <v>441</v>
+      </c>
+      <c r="I146" s="15" t="s">
+        <v>427</v>
       </c>
       <c r="J146" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K146" s="16"/>
-      <c r="L146" s="16"/>
-    </row>
-    <row r="147" spans="1:12">
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="17" t="s">
-        <v>219</v>
+        <v>346</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>474</v>
+        <v>347</v>
       </c>
       <c r="D147" s="16"/>
       <c r="E147" s="16"/>
-      <c r="F147" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="G147" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H147" s="15" t="s">
-        <v>33</v>
-      </c>
+      <c r="F147" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="G147" s="15"/>
+      <c r="H147" s="16"/>
       <c r="I147" s="16" t="s">
-        <v>366</v>
+        <v>427</v>
       </c>
       <c r="J147" s="16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K147" s="16"/>
-      <c r="L147" s="16"/>
-    </row>
-    <row r="148" spans="1:12">
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="17" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D148" s="16"/>
       <c r="E148" s="16"/>
       <c r="F148" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="G148" s="15" t="s">
-        <v>14</v>
+        <v>306</v>
+      </c>
+      <c r="G148" s="15">
+        <v>1998</v>
       </c>
       <c r="H148" s="15" t="s">
-        <v>33</v>
+        <v>361</v>
       </c>
       <c r="I148" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J148" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K148" s="16"/>
-      <c r="L148" s="16"/>
-    </row>
-    <row r="149" spans="1:12">
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D149" s="16"/>
       <c r="E149" s="16"/>
-      <c r="F149" s="15">
-        <v>266</v>
-      </c>
-      <c r="G149" s="15">
-        <v>2000</v>
+      <c r="F149" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="G149" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I149" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J149" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K149" s="16"/>
-      <c r="L149" s="16"/>
-    </row>
-    <row r="150" spans="1:12">
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D150" s="16"/>
       <c r="E150" s="16"/>
-      <c r="F150" s="15">
-        <v>8023</v>
-      </c>
-      <c r="G150" s="15">
-        <v>2001</v>
+      <c r="F150" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="G150" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J150" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K150" s="16"/>
-      <c r="L150" s="16"/>
-    </row>
-    <row r="151" spans="1:12">
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="17" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D151" s="16"/>
       <c r="E151" s="16"/>
-      <c r="F151" s="15" t="s">
-        <v>314</v>
+      <c r="F151" s="15">
+        <v>266</v>
       </c>
       <c r="G151" s="15">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="H151" s="15" t="s">
-        <v>442</v>
+        <v>66</v>
       </c>
       <c r="I151" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J151" s="16" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="K151" s="16"/>
-      <c r="L151" s="16"/>
-    </row>
-    <row r="152" spans="1:12">
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="17" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D152" s="16"/>
       <c r="E152" s="16"/>
-      <c r="F152" s="15" t="s">
+      <c r="F152" s="15">
+        <v>8023</v>
+      </c>
+      <c r="G152" s="15">
+        <v>2001</v>
+      </c>
+      <c r="H152" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I152" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="J152" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="K152" s="16"/>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C153" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="G153" s="15">
+        <v>1998</v>
+      </c>
+      <c r="H153" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="I153" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="J153" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="K153" s="16"/>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="B154" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C154" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="G152" s="15">
+      <c r="G154" s="15">
         <v>2005</v>
       </c>
-      <c r="H152" s="15" t="s">
+      <c r="H154" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="I152" s="16" t="s">
+      <c r="I154" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="J152" s="16" t="s">
+      <c r="J154" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="K152" s="16"/>
-      <c r="L152" s="16"/>
-    </row>
-    <row r="153" spans="1:12">
-      <c r="F153"/>
-      <c r="L153" s="9"/>
-    </row>
-    <row r="154" spans="1:12">
-      <c r="F154"/>
-      <c r="L154" s="9"/>
-    </row>
-    <row r="155" spans="1:12">
-      <c r="F155"/>
-      <c r="L155" s="9"/>
-    </row>
-    <row r="156" spans="1:12">
-      <c r="F156"/>
-      <c r="L156" s="9"/>
-    </row>
-    <row r="157" spans="1:12">
-      <c r="F157"/>
-      <c r="L157" s="9"/>
-    </row>
-    <row r="158" spans="1:12">
-      <c r="F158"/>
-      <c r="L158" s="9"/>
+      <c r="K154" s="16"/>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C155" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="J155" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="K155" s="9"/>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B156" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C156" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="J156" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="K156" s="9"/>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="F157" t="s">
+        <v>333</v>
+      </c>
+      <c r="I157" t="s">
+        <v>481</v>
+      </c>
+      <c r="K157" s="9"/>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C158" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D158" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="E158" s="16"/>
+      <c r="F158" t="s">
+        <v>486</v>
+      </c>
+      <c r="H158" t="s">
+        <v>485</v>
+      </c>
+      <c r="I158" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="J158" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="K158" s="9"/>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B159" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="C159" s="18"/>
+      <c r="F159" t="s">
+        <v>482</v>
+      </c>
+      <c r="I159" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="J159" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="K159" s="9"/>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C160" s="18"/>
+      <c r="F160" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="H160" t="s">
+        <v>19</v>
+      </c>
+      <c r="I160" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="J160" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C161" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="H161" t="s">
+        <v>19</v>
+      </c>
+      <c r="I161" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="J161" s="16" t="s">
+        <v>491</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:L152">

--- a/tabular/hiv-reference-data.xlsx
+++ b/tabular/hiv-reference-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7600" yWindow="700" windowWidth="25460" windowHeight="25220" tabRatio="500"/>
+    <workbookView xWindow="20260" yWindow="100" windowWidth="25460" windowHeight="25220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="edited down" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2467" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="526">
   <si>
     <t>Accession</t>
   </si>
@@ -1515,6 +1515,90 @@
   </si>
   <si>
     <t>cougar</t>
+  </si>
+  <si>
+    <t>agm</t>
+  </si>
+  <si>
+    <t>agm-gri</t>
+  </si>
+  <si>
+    <t>agm-mal</t>
+  </si>
+  <si>
+    <t>agm-tan1</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>cpz</t>
+  </si>
+  <si>
+    <t>deb</t>
+  </si>
+  <si>
+    <t>den</t>
+  </si>
+  <si>
+    <t>drl1</t>
+  </si>
+  <si>
+    <t>gor</t>
+  </si>
+  <si>
+    <t>gsn</t>
+  </si>
+  <si>
+    <t>lhoest</t>
+  </si>
+  <si>
+    <t>mac</t>
+  </si>
+  <si>
+    <t>mnd</t>
+  </si>
+  <si>
+    <t>mus</t>
+  </si>
+  <si>
+    <t>ocm</t>
+  </si>
+  <si>
+    <t>rcm</t>
+  </si>
+  <si>
+    <t>rtg</t>
+  </si>
+  <si>
+    <t>sab</t>
+  </si>
+  <si>
+    <t>smm</t>
+  </si>
+  <si>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>syk</t>
+  </si>
+  <si>
+    <t>tal</t>
+  </si>
+  <si>
+    <t>wrc</t>
+  </si>
+  <si>
+    <t>ver</t>
+  </si>
+  <si>
+    <t>MELVmpf</t>
+  </si>
+  <si>
+    <t>Mustela potorius furo</t>
+  </si>
+  <si>
+    <t>Ferret</t>
   </si>
 </sst>
 </file>
@@ -1679,7 +1763,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="342">
+  <cellStyleXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2021,6 +2105,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="36">
@@ -2101,7 +2213,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="342">
+  <cellStyles count="370">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2288,6 +2400,20 @@
     <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2443,6 +2569,20 @@
     <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2789,10 +2929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S161"/>
+  <dimension ref="A1:S162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="G165" sqref="G165"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="A1:K162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3021,32 +3161,34 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="19" t="s">
-        <v>340</v>
+        <v>523</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>448</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>385</v>
+        <v>523</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19" t="s">
-        <v>345</v>
+        <v>523</v>
       </c>
       <c r="G9" s="34"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19" t="s">
-        <v>437</v>
+        <v>524</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="K9" s="19"/>
+        <v>525</v>
+      </c>
+      <c r="K9" s="19">
+        <v>22522310</v>
+      </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>448</v>
@@ -3057,7 +3199,7 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="19"/>
@@ -3070,43 +3212,33 @@
       <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1990</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="K11" s="15">
-        <v>8709215</v>
-      </c>
+      <c r="A11" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="G11" s="34"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>446</v>
@@ -3118,16 +3250,16 @@
         <v>374</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>14</v>
+        <v>121</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1990</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>435</v>
@@ -3136,12 +3268,12 @@
         <v>316</v>
       </c>
       <c r="K12" s="15">
-        <v>7888238</v>
+        <v>8709215</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>446</v>
@@ -3153,16 +3285,16 @@
         <v>374</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="15">
-        <v>1996</v>
+        <v>124</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>435</v>
@@ -3171,12 +3303,12 @@
         <v>316</v>
       </c>
       <c r="K13" s="15">
-        <v>9824329</v>
+        <v>7888238</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>446</v>
@@ -3188,16 +3320,16 @@
         <v>374</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G14" s="15">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>435</v>
@@ -3205,19 +3337,13 @@
       <c r="J14" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-      <c r="S14" s="9"/>
+      <c r="K14" s="15">
+        <v>9824329</v>
+      </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="16" t="s">
-        <v>27</v>
+      <c r="A15" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>446</v>
@@ -3228,17 +3354,17 @@
       <c r="D15" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>29</v>
+      <c r="E15" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="G15" s="15">
-        <v>1992</v>
+        <v>1997</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>435</v>
@@ -3246,9 +3372,7 @@
       <c r="J15" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K15" s="15">
-        <v>8794346</v>
-      </c>
+      <c r="K15" s="15"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -3260,7 +3384,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>446</v>
@@ -3275,13 +3399,13 @@
         <v>28</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G16" s="15">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>435</v>
@@ -3290,20 +3414,20 @@
         <v>316</v>
       </c>
       <c r="K16" s="15">
-        <v>10364271</v>
+        <v>8794346</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>446</v>
@@ -3318,13 +3442,13 @@
         <v>28</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G17" s="15">
         <v>1994</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>435</v>
@@ -3333,20 +3457,20 @@
         <v>316</v>
       </c>
       <c r="K17" s="15">
-        <v>10513639</v>
+        <v>10364271</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>446</v>
@@ -3361,13 +3485,13 @@
         <v>28</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G18" s="15">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>435</v>
@@ -3376,7 +3500,7 @@
         <v>316</v>
       </c>
       <c r="K18" s="15">
-        <v>12487816</v>
+        <v>10513639</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -3389,7 +3513,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>446</v>
@@ -3401,16 +3525,16 @@
         <v>374</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G19" s="15">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>435</v>
@@ -3419,7 +3543,7 @@
         <v>316</v>
       </c>
       <c r="K19" s="15">
-        <v>11429108</v>
+        <v>12487816</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3432,7 +3556,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>446</v>
@@ -3447,13 +3571,13 @@
         <v>40</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G20" s="15">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>435</v>
@@ -3475,7 +3599,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="16" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>446</v>
@@ -3487,16 +3611,16 @@
         <v>374</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G21" s="15">
-        <v>1983</v>
+        <v>1994</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>435</v>
@@ -3505,7 +3629,7 @@
         <v>316</v>
       </c>
       <c r="K21" s="15">
-        <v>9362478</v>
+        <v>11429108</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -3518,7 +3642,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>446</v>
@@ -3533,13 +3657,13 @@
         <v>8</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1983</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>435</v>
@@ -3548,7 +3672,7 @@
         <v>316</v>
       </c>
       <c r="K22" s="15">
-        <v>7483282</v>
+        <v>9362478</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -3561,7 +3685,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>446</v>
@@ -3576,7 +3700,7 @@
         <v>8</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G23" s="15" t="s">
         <v>14</v>
@@ -3591,7 +3715,7 @@
         <v>316</v>
       </c>
       <c r="K23" s="15">
-        <v>3016298</v>
+        <v>7483282</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -3604,7 +3728,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>446</v>
@@ -3619,13 +3743,13 @@
         <v>8</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="15">
-        <v>2014</v>
+        <v>16</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>435</v>
@@ -3633,8 +3757,8 @@
       <c r="J24" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K24" s="15" t="s">
-        <v>20</v>
+      <c r="K24" s="15">
+        <v>3016298</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -3647,7 +3771,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>446</v>
@@ -3662,13 +3786,13 @@
         <v>8</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G25" s="15">
-        <v>1990</v>
+        <v>2014</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>435</v>
@@ -3676,34 +3800,42 @@
       <c r="J25" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K25" s="15">
-        <v>12487805</v>
+      <c r="K25" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" t="s">
-        <v>177</v>
-      </c>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>446</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="F26"/>
+        <v>374</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="15">
+        <v>1990</v>
+      </c>
       <c r="H26" s="16" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>435</v>
@@ -3711,13 +3843,21 @@
       <c r="J26" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K26" s="1">
-        <v>8107220</v>
-      </c>
+      <c r="K26" s="15">
+        <v>12487805</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>446</v>
@@ -3726,15 +3866,12 @@
         <v>348</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="16"/>
+        <v>377</v>
+      </c>
+      <c r="F27"/>
+      <c r="H27" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="I27" s="16" t="s">
         <v>435</v>
       </c>
@@ -3742,14 +3879,14 @@
         <v>316</v>
       </c>
       <c r="K27" s="1">
-        <v>2578615</v>
+        <v>8107220</v>
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="15" t="s">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C28" s="16" t="s">
@@ -3761,36 +3898,23 @@
       <c r="E28" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="15">
-        <v>671</v>
-      </c>
-      <c r="G28" s="15">
-        <v>2000</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="F28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="16"/>
       <c r="I28" s="16" t="s">
         <v>435</v>
       </c>
       <c r="J28" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K28" s="15">
-        <v>14610167</v>
-      </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
+      <c r="K28" s="1">
+        <v>2578615</v>
+      </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>446</v>
@@ -3805,13 +3929,13 @@
         <v>8</v>
       </c>
       <c r="F29" s="15">
-        <v>1058</v>
+        <v>671</v>
       </c>
       <c r="G29" s="15">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I29" s="16" t="s">
         <v>435</v>
@@ -3820,7 +3944,7 @@
         <v>316</v>
       </c>
       <c r="K29" s="15">
-        <v>16103205</v>
+        <v>14610167</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
@@ -3833,7 +3957,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>446</v>
@@ -3845,16 +3969,16 @@
         <v>374</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="F30" s="15">
+        <v>1058</v>
       </c>
       <c r="G30" s="15">
-        <v>1986</v>
+        <v>1998</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="I30" s="16" t="s">
         <v>435</v>
@@ -3863,12 +3987,20 @@
         <v>316</v>
       </c>
       <c r="K30" s="15">
-        <v>8891112</v>
-      </c>
+        <v>16103205</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>446</v>
@@ -3883,13 +4015,13 @@
         <v>47</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G31" s="15">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>435</v>
@@ -3898,12 +4030,12 @@
         <v>316</v>
       </c>
       <c r="K31" s="15">
-        <v>8627686</v>
+        <v>8891112</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>446</v>
@@ -3918,13 +4050,13 @@
         <v>47</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G32" s="15">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I32" s="16" t="s">
         <v>435</v>
@@ -3933,12 +4065,12 @@
         <v>316</v>
       </c>
       <c r="K32" s="15">
-        <v>9847317</v>
+        <v>8627686</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>446</v>
@@ -3953,13 +4085,13 @@
         <v>47</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G33" s="15">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I33" s="16" t="s">
         <v>435</v>
@@ -3968,12 +4100,12 @@
         <v>316</v>
       </c>
       <c r="K33" s="15">
-        <v>15592417</v>
+        <v>9847317</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="15" t="s">
-        <v>133</v>
+      <c r="A34" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>446</v>
@@ -3984,17 +4116,17 @@
       <c r="D34" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>134</v>
+      <c r="F34" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G34" s="15">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>435</v>
@@ -4003,12 +4135,12 @@
         <v>316</v>
       </c>
       <c r="K34" s="15">
-        <v>11070028</v>
+        <v>15592417</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="16" t="s">
-        <v>59</v>
+      <c r="A35" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>446</v>
@@ -4019,17 +4151,17 @@
       <c r="D35" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>61</v>
+      <c r="E35" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="G35" s="15">
-        <v>1983</v>
+        <v>1997</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="I35" s="16" t="s">
         <v>435</v>
@@ -4038,12 +4170,12 @@
         <v>316</v>
       </c>
       <c r="K35" s="15">
-        <v>2424612</v>
+        <v>11070028</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>446</v>
@@ -4058,13 +4190,13 @@
         <v>60</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G36" s="15">
-        <v>1994</v>
+        <v>1983</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>435</v>
@@ -4073,12 +4205,12 @@
         <v>316</v>
       </c>
       <c r="K36" s="15">
-        <v>9621027</v>
+        <v>2424612</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>446</v>
@@ -4093,13 +4225,13 @@
         <v>60</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G37" s="15">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I37" s="16" t="s">
         <v>435</v>
@@ -4108,12 +4240,12 @@
         <v>316</v>
       </c>
       <c r="K37" s="15">
-        <v>15186527</v>
+        <v>9621027</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>446</v>
@@ -4128,13 +4260,13 @@
         <v>60</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G38" s="15">
         <v>2001</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>435</v>
@@ -4143,12 +4275,12 @@
         <v>316</v>
       </c>
       <c r="K38" s="15">
-        <v>15320994</v>
+        <v>15186527</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>446</v>
@@ -4160,16 +4292,16 @@
         <v>374</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G39" s="15">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>435</v>
@@ -4178,12 +4310,12 @@
         <v>316</v>
       </c>
       <c r="K39" s="15">
-        <v>9621027</v>
+        <v>15320994</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>446</v>
@@ -4198,13 +4330,13 @@
         <v>71</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G40" s="15">
         <v>1993</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I40" s="16" t="s">
         <v>435</v>
@@ -4213,12 +4345,12 @@
         <v>316</v>
       </c>
       <c r="K40" s="15">
-        <v>10725202</v>
+        <v>9621027</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>446</v>
@@ -4233,13 +4365,13 @@
         <v>71</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G41" s="15">
         <v>1993</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="I41" s="16" t="s">
         <v>435</v>
@@ -4248,12 +4380,12 @@
         <v>316</v>
       </c>
       <c r="K41" s="15">
-        <v>10725203</v>
+        <v>10725202</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>446</v>
@@ -4268,13 +4400,13 @@
         <v>71</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G42" s="15">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="I42" s="16" t="s">
         <v>435</v>
@@ -4283,12 +4415,12 @@
         <v>316</v>
       </c>
       <c r="K42" s="15">
-        <v>10659053</v>
+        <v>10725203</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>446</v>
@@ -4303,13 +4435,13 @@
         <v>71</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G43" s="15">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>435</v>
@@ -4318,12 +4450,12 @@
         <v>316</v>
       </c>
       <c r="K43" s="15">
-        <v>10659054</v>
+        <v>10659053</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>446</v>
@@ -4338,7 +4470,7 @@
         <v>71</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G44" s="15">
         <v>1995</v>
@@ -4353,12 +4485,12 @@
         <v>316</v>
       </c>
       <c r="K44" s="15">
-        <v>10659055</v>
+        <v>10659054</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>446</v>
@@ -4373,10 +4505,10 @@
         <v>71</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G45" s="15">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="H45" s="16" t="s">
         <v>66</v>
@@ -4388,12 +4520,12 @@
         <v>316</v>
       </c>
       <c r="K45" s="15">
-        <v>15186527</v>
+        <v>10659055</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>446</v>
@@ -4408,10 +4540,10 @@
         <v>71</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G46" s="15">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="H46" s="16" t="s">
         <v>66</v>
@@ -4423,12 +4555,12 @@
         <v>316</v>
       </c>
       <c r="K46" s="15">
-        <v>11448170</v>
+        <v>15186527</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="15" t="s">
-        <v>135</v>
+      <c r="A47" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>446</v>
@@ -4439,17 +4571,17 @@
       <c r="D47" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E47" s="15" t="s">
+      <c r="E47" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="15" t="s">
-        <v>136</v>
+      <c r="F47" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="G47" s="15">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="H47" s="16" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="I47" s="16" t="s">
         <v>435</v>
@@ -4458,12 +4590,12 @@
         <v>316</v>
       </c>
       <c r="K47" s="15">
-        <v>11600844</v>
+        <v>11448170</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="16" t="s">
-        <v>88</v>
+      <c r="A48" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>446</v>
@@ -4474,17 +4606,17 @@
       <c r="D48" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48" s="16" t="s">
-        <v>90</v>
+      <c r="E48" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="G48" s="15">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="I48" s="16" t="s">
         <v>435</v>
@@ -4493,12 +4625,12 @@
         <v>316</v>
       </c>
       <c r="K48" s="15">
-        <v>9683568</v>
+        <v>11600844</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>446</v>
@@ -4513,13 +4645,13 @@
         <v>89</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G49" s="15">
         <v>1993</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I49" s="16" t="s">
         <v>435</v>
@@ -4528,12 +4660,12 @@
         <v>316</v>
       </c>
       <c r="K49" s="15">
-        <v>9683569</v>
+        <v>9683568</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>446</v>
@@ -4548,13 +4680,13 @@
         <v>89</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G50" s="15">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="I50" s="16" t="s">
         <v>435</v>
@@ -4563,12 +4695,12 @@
         <v>316</v>
       </c>
       <c r="K50" s="15">
-        <v>10221535</v>
+        <v>9683569</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>446</v>
@@ -4583,13 +4715,13 @@
         <v>89</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G51" s="15">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="I51" s="16" t="s">
         <v>435</v>
@@ -4598,12 +4730,12 @@
         <v>316</v>
       </c>
       <c r="K51" s="15">
-        <v>9621027</v>
+        <v>10221535</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>446</v>
@@ -4615,16 +4747,16 @@
         <v>374</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G52" s="15">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I52" s="16" t="s">
         <v>435</v>
@@ -4633,12 +4765,12 @@
         <v>316</v>
       </c>
       <c r="K52" s="15">
-        <v>9621028</v>
+        <v>9621027</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>446</v>
@@ -4653,13 +4785,13 @@
         <v>101</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G53" s="15">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I53" s="16" t="s">
         <v>435</v>
@@ -4668,12 +4800,12 @@
         <v>316</v>
       </c>
       <c r="K53" s="15">
-        <v>10983640</v>
+        <v>9621028</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>446</v>
@@ -4688,10 +4820,10 @@
         <v>101</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G54" s="15">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="H54" s="16" t="s">
         <v>106</v>
@@ -4703,12 +4835,12 @@
         <v>316</v>
       </c>
       <c r="K54" s="15">
-        <v>10983641</v>
+        <v>10983640</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>446</v>
@@ -4720,16 +4852,16 @@
         <v>374</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G55" s="15">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="I55" s="16" t="s">
         <v>435</v>
@@ -4738,12 +4870,12 @@
         <v>316</v>
       </c>
       <c r="K55" s="15">
-        <v>10052760</v>
+        <v>10983641</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>446</v>
@@ -4758,10 +4890,10 @@
         <v>110</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G56" s="15">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="H56" s="16" t="s">
         <v>91</v>
@@ -4773,12 +4905,12 @@
         <v>316</v>
       </c>
       <c r="K56" s="15">
-        <v>10052761</v>
+        <v>10052760</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>446</v>
@@ -4790,16 +4922,16 @@
         <v>374</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G57" s="15">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="I57" s="16" t="s">
         <v>435</v>
@@ -4808,12 +4940,12 @@
         <v>316</v>
       </c>
       <c r="K57" s="15">
-        <v>10659053</v>
+        <v>10052761</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>446</v>
@@ -4828,13 +4960,13 @@
         <v>115</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G58" s="15">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I58" s="16" t="s">
         <v>435</v>
@@ -4843,12 +4975,12 @@
         <v>316</v>
       </c>
       <c r="K58" s="15">
-        <v>10659054</v>
+        <v>10659053</v>
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="15" t="s">
-        <v>173</v>
+      <c r="A59" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>446</v>
@@ -4857,16 +4989,18 @@
         <v>348</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15" t="s">
-        <v>264</v>
+        <v>374</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="G59" s="15">
-        <v>2002</v>
-      </c>
-      <c r="H59" s="15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="H59" s="16" t="s">
         <v>66</v>
       </c>
       <c r="I59" s="16" t="s">
@@ -4875,11 +5009,13 @@
       <c r="J59" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K59" s="15"/>
+      <c r="K59" s="15">
+        <v>10659054</v>
+      </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>446</v>
@@ -4892,10 +5028,10 @@
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G60" s="15">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="H60" s="15" t="s">
         <v>66</v>
@@ -4910,7 +5046,7 @@
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>446</v>
@@ -4923,7 +5059,7 @@
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G61" s="15">
         <v>2004</v>
@@ -4941,7 +5077,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>446</v>
@@ -4954,10 +5090,10 @@
       </c>
       <c r="E62" s="15"/>
       <c r="F62" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G62" s="15">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="H62" s="15" t="s">
         <v>66</v>
@@ -4972,7 +5108,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>446</v>
@@ -4981,14 +5117,14 @@
         <v>348</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G63" s="15">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>66</v>
@@ -5003,7 +5139,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>446</v>
@@ -5016,10 +5152,10 @@
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G64" s="15">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="H64" s="15" t="s">
         <v>66</v>
@@ -5034,7 +5170,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>446</v>
@@ -5047,7 +5183,7 @@
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G65" s="15">
         <v>1998</v>
@@ -5065,7 +5201,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>446</v>
@@ -5078,13 +5214,13 @@
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G66" s="15">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>317</v>
+        <v>66</v>
       </c>
       <c r="I66" s="16" t="s">
         <v>435</v>
@@ -5096,7 +5232,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>446</v>
@@ -5109,13 +5245,13 @@
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G67" s="15">
         <v>1999</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>435</v>
@@ -5127,26 +5263,26 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G68" s="15">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="I68" s="16" t="s">
         <v>435</v>
@@ -5158,26 +5294,26 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>446</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="15" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G69" s="15">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>321</v>
+        <v>66</v>
       </c>
       <c r="I69" s="16" t="s">
         <v>435</v>
@@ -5189,7 +5325,7 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="15" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>446</v>
@@ -5198,17 +5334,17 @@
         <v>379</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>454</v>
+        <v>14</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>14</v>
+        <v>281</v>
+      </c>
+      <c r="G70" s="15">
+        <v>2007</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>435</v>
@@ -5220,7 +5356,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>446</v>
@@ -5233,13 +5369,13 @@
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G71" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>435</v>
@@ -5251,7 +5387,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>446</v>
@@ -5264,13 +5400,13 @@
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="G72" s="15">
-        <v>1986</v>
+        <v>276</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I72" s="16" t="s">
         <v>435</v>
@@ -5282,7 +5418,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>446</v>
@@ -5291,17 +5427,17 @@
         <v>379</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>8</v>
+        <v>454</v>
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>14</v>
+        <v>277</v>
+      </c>
+      <c r="G73" s="15">
+        <v>1986</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I73" s="16" t="s">
         <v>435</v>
@@ -5313,7 +5449,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>446</v>
@@ -5326,13 +5462,13 @@
       </c>
       <c r="E74" s="15"/>
       <c r="F74" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="G74" s="15">
-        <v>1986</v>
+        <v>278</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>435</v>
@@ -5344,7 +5480,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>446</v>
@@ -5353,17 +5489,17 @@
         <v>379</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="E75" s="15"/>
       <c r="F75" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G75" s="15">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I75" s="16" t="s">
         <v>435</v>
@@ -5375,7 +5511,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>446</v>
@@ -5384,17 +5520,17 @@
         <v>379</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E76" s="15"/>
-      <c r="F76" s="15">
-        <v>12034</v>
+      <c r="F76" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="G76" s="15">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>10</v>
+        <v>321</v>
       </c>
       <c r="I76" s="16" t="s">
         <v>435</v>
@@ -5405,37 +5541,39 @@
       <c r="K76" s="15"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C77" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="15" t="s">
-        <v>290</v>
+      <c r="A77" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15">
+        <v>12034</v>
       </c>
       <c r="G77" s="15">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="K77" s="16"/>
+        <v>316</v>
+      </c>
+      <c r="K77" s="15"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="17" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>446</v>
@@ -5443,28 +5581,30 @@
       <c r="C78" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="17" t="s">
+        <v>498</v>
+      </c>
       <c r="F78" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>14</v>
+        <v>290</v>
+      </c>
+      <c r="G78" s="15">
+        <v>1999</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="J78" s="16" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="K78" s="16"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>446</v>
@@ -5472,16 +5612,18 @@
       <c r="C79" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="17" t="s">
+        <v>498</v>
+      </c>
       <c r="F79" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="G79" s="15">
-        <v>2010</v>
+        <v>310</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>362</v>
+        <v>33</v>
       </c>
       <c r="I79" s="16" t="s">
         <v>375</v>
@@ -5493,7 +5635,7 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>446</v>
@@ -5501,10 +5643,12 @@
       <c r="C80" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="17" t="s">
+        <v>498</v>
+      </c>
       <c r="F80" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G80" s="15">
         <v>2010</v>
@@ -5522,7 +5666,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>446</v>
@@ -5530,10 +5674,12 @@
       <c r="C81" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="17" t="s">
+        <v>498</v>
+      </c>
       <c r="F81" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G81" s="15">
         <v>2010</v>
@@ -5551,7 +5697,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="17" t="s">
-        <v>351</v>
+        <v>227</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>446</v>
@@ -5559,140 +5705,150 @@
       <c r="C82" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="G82" s="15">
+        <v>2010</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="I82" s="16" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="K82" s="16"/>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="17" t="s">
-        <v>169</v>
+        <v>351</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>49</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="D83" s="15"/>
+      <c r="E83" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="G83" s="15"/>
+      <c r="H83" s="16"/>
       <c r="I83" s="16" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="J83" s="16" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K83" s="16"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="17" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
+        <v>469</v>
+      </c>
+      <c r="D84" s="15"/>
+      <c r="E84" s="17" t="s">
+        <v>499</v>
+      </c>
       <c r="F84" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="G84" s="15">
-        <v>2009</v>
+        <v>260</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>362</v>
+        <v>49</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J84" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K84" s="16"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="17" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>459</v>
-      </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
+        <v>470</v>
+      </c>
+      <c r="D85" s="15"/>
+      <c r="E85" s="17" t="s">
+        <v>500</v>
+      </c>
       <c r="F85" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>14</v>
+        <v>285</v>
+      </c>
+      <c r="G85" s="15">
+        <v>2009</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>30</v>
+        <v>362</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="K85" s="16"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="17" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
+        <v>459</v>
+      </c>
+      <c r="D86" s="15"/>
+      <c r="E86" s="17" t="s">
+        <v>501</v>
+      </c>
       <c r="F86" s="15" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="G86" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="J86" s="16" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="K86" s="16"/>
     </row>
-    <row r="87" spans="1:11" ht="13" customHeight="1">
+    <row r="87" spans="1:11">
       <c r="A87" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B87" s="18" t="s">
         <v>446</v>
@@ -5700,16 +5856,18 @@
       <c r="C87" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="17" t="s">
+        <v>502</v>
+      </c>
       <c r="F87" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="G87" s="15">
-        <v>2010</v>
+        <v>234</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I87" s="16" t="s">
         <v>412</v>
@@ -5719,9 +5877,9 @@
       </c>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" ht="13" customHeight="1">
       <c r="A88" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>446</v>
@@ -5729,10 +5887,12 @@
       <c r="C88" s="17" t="s">
         <v>455</v>
       </c>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="17" t="s">
+        <v>502</v>
+      </c>
       <c r="F88" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G88" s="15">
         <v>2010</v>
@@ -5750,36 +5910,38 @@
     </row>
     <row r="89" spans="1:11">
       <c r="A89" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
+        <v>455</v>
+      </c>
+      <c r="D89" s="15"/>
+      <c r="E89" s="17" t="s">
+        <v>502</v>
+      </c>
       <c r="F89" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G89" s="15">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="H89" s="15" t="s">
-        <v>440</v>
+        <v>30</v>
       </c>
       <c r="I89" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J89" s="16" t="s">
-        <v>465</v>
+        <v>393</v>
       </c>
       <c r="K89" s="16"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>446</v>
@@ -5787,13 +5949,15 @@
       <c r="C90" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="17" t="s">
+        <v>503</v>
+      </c>
       <c r="F90" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G90" s="15">
-        <v>1990</v>
+        <v>2006</v>
       </c>
       <c r="H90" s="15" t="s">
         <v>440</v>
@@ -5808,7 +5972,7 @@
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>446</v>
@@ -5816,16 +5980,18 @@
       <c r="C91" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="17" t="s">
+        <v>503</v>
+      </c>
       <c r="F91" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G91" s="15">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="H91" s="15" t="s">
-        <v>66</v>
+        <v>440</v>
       </c>
       <c r="I91" s="16" t="s">
         <v>413</v>
@@ -5837,7 +6003,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>446</v>
@@ -5845,13 +6011,15 @@
       <c r="C92" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="17" t="s">
+        <v>503</v>
+      </c>
       <c r="F92" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G92" s="15">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="H92" s="15" t="s">
         <v>66</v>
@@ -5866,7 +6034,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>446</v>
@@ -5874,10 +6042,12 @@
       <c r="C93" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="17" t="s">
+        <v>503</v>
+      </c>
       <c r="F93" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G93" s="15">
         <v>2005</v>
@@ -5895,7 +6065,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>446</v>
@@ -5903,10 +6073,12 @@
       <c r="C94" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="17" t="s">
+        <v>503</v>
+      </c>
       <c r="F94" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G94" s="15">
         <v>2005</v>
@@ -5924,7 +6096,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>446</v>
@@ -5932,10 +6104,12 @@
       <c r="C95" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="17" t="s">
+        <v>503</v>
+      </c>
       <c r="F95" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G95" s="15">
         <v>2005</v>
@@ -5953,7 +6127,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>446</v>
@@ -5961,10 +6135,12 @@
       <c r="C96" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="17" t="s">
+        <v>503</v>
+      </c>
       <c r="F96" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G96" s="15">
         <v>2005</v>
@@ -5982,7 +6158,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>446</v>
@@ -5990,10 +6166,12 @@
       <c r="C97" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="17" t="s">
+        <v>503</v>
+      </c>
       <c r="F97" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G97" s="15">
         <v>2005</v>
@@ -6011,7 +6189,7 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>446</v>
@@ -6019,16 +6197,18 @@
       <c r="C98" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="17" t="s">
+        <v>503</v>
+      </c>
       <c r="F98" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G98" s="15">
-        <v>1988</v>
+        <v>2005</v>
       </c>
       <c r="H98" s="15" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="I98" s="16" t="s">
         <v>413</v>
@@ -6040,7 +6220,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>446</v>
@@ -6048,16 +6228,18 @@
       <c r="C99" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="17" t="s">
+        <v>503</v>
+      </c>
       <c r="F99" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G99" s="15">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>69</v>
+        <v>361</v>
       </c>
       <c r="I99" s="16" t="s">
         <v>413</v>
@@ -6069,7 +6251,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>446</v>
@@ -6077,13 +6259,15 @@
       <c r="C100" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="17" t="s">
+        <v>503</v>
+      </c>
       <c r="F100" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G100" s="15">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="H100" s="15" t="s">
         <v>69</v>
@@ -6098,7 +6282,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B101" s="18" t="s">
         <v>446</v>
@@ -6106,13 +6290,15 @@
       <c r="C101" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="17" t="s">
+        <v>503</v>
+      </c>
       <c r="F101" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G101" s="15">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="H101" s="15" t="s">
         <v>69</v>
@@ -6127,7 +6313,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>446</v>
@@ -6135,16 +6321,18 @@
       <c r="C102" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="17" t="s">
+        <v>503</v>
+      </c>
       <c r="F102" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G102" s="15">
-        <v>1985</v>
+        <v>2009</v>
       </c>
       <c r="H102" s="15" t="s">
-        <v>441</v>
+        <v>69</v>
       </c>
       <c r="I102" s="16" t="s">
         <v>413</v>
@@ -6156,7 +6344,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="17" t="s">
-        <v>353</v>
+        <v>159</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>446</v>
@@ -6164,15 +6352,21 @@
       <c r="C103" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="G103" s="15"/>
-      <c r="H103" s="16"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G103" s="15">
+        <v>1985</v>
+      </c>
+      <c r="H103" s="15" t="s">
+        <v>441</v>
+      </c>
       <c r="I103" s="16" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="J103" s="16" t="s">
         <v>465</v>
@@ -6181,7 +6375,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>446</v>
@@ -6189,10 +6383,12 @@
       <c r="C104" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="17" t="s">
+        <v>503</v>
+      </c>
       <c r="F104" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G104" s="15"/>
       <c r="H104" s="16"/>
@@ -6206,36 +6402,34 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="17" t="s">
-        <v>160</v>
+        <v>355</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
-      <c r="F105" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="G105" s="15">
-        <v>2004</v>
-      </c>
-      <c r="H105" s="15" t="s">
-        <v>66</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="D105" s="15"/>
+      <c r="E105" s="17" t="s">
+        <v>503</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="G105" s="15"/>
+      <c r="H105" s="16"/>
       <c r="I105" s="16" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="J105" s="16" t="s">
-        <v>394</v>
+        <v>465</v>
       </c>
       <c r="K105" s="16"/>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>446</v>
@@ -6243,13 +6437,15 @@
       <c r="C106" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="17" t="s">
+        <v>504</v>
+      </c>
       <c r="F106" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G106" s="15">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="H106" s="15" t="s">
         <v>66</v>
@@ -6264,7 +6460,7 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>446</v>
@@ -6272,10 +6468,12 @@
       <c r="C107" s="17" t="s">
         <v>464</v>
       </c>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="17" t="s">
+        <v>504</v>
+      </c>
       <c r="F107" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G107" s="15">
         <v>1999</v>
@@ -6293,86 +6491,92 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="17" t="s">
-        <v>357</v>
+        <v>162</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="D108" s="16"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="G108" s="15"/>
-      <c r="H108" s="16"/>
+        <v>464</v>
+      </c>
+      <c r="D108" s="15"/>
+      <c r="E108" s="17" t="s">
+        <v>504</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G108" s="15">
+        <v>1999</v>
+      </c>
+      <c r="H108" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="I108" s="16" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="J108" s="16" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="K108" s="16"/>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="17" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>350</v>
-      </c>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16"/>
+        <v>358</v>
+      </c>
+      <c r="D109" s="15"/>
+      <c r="E109" s="17" t="s">
+        <v>505</v>
+      </c>
       <c r="F109" s="16" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G109" s="15"/>
       <c r="H109" s="16"/>
       <c r="I109" s="16" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="J109" s="16" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="K109" s="16"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="17" t="s">
-        <v>163</v>
+        <v>349</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="G110" s="15">
-        <v>2004</v>
-      </c>
-      <c r="H110" s="15" t="s">
-        <v>66</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="D110" s="15"/>
+      <c r="E110" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G110" s="15"/>
+      <c r="H110" s="16"/>
       <c r="I110" s="16" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="K110" s="16"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>446</v>
@@ -6380,13 +6584,15 @@
       <c r="C111" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="17" t="s">
+        <v>507</v>
+      </c>
       <c r="F111" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G111" s="15">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="H111" s="15" t="s">
         <v>66</v>
@@ -6401,7 +6607,7 @@
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>446</v>
@@ -6409,10 +6615,12 @@
       <c r="C112" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="17" t="s">
+        <v>507</v>
+      </c>
       <c r="F112" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G112" s="15">
         <v>2007</v>
@@ -6430,7 +6638,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>446</v>
@@ -6438,13 +6646,15 @@
       <c r="C113" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="17" t="s">
+        <v>507</v>
+      </c>
       <c r="F113" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G113" s="15">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="H113" s="15" t="s">
         <v>66</v>
@@ -6459,7 +6669,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>446</v>
@@ -6467,10 +6677,12 @@
       <c r="C114" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="17" t="s">
+        <v>507</v>
+      </c>
       <c r="F114" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G114" s="15">
         <v>2012</v>
@@ -6488,7 +6700,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>446</v>
@@ -6496,13 +6708,15 @@
       <c r="C115" s="17" t="s">
         <v>456</v>
       </c>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="17" t="s">
+        <v>507</v>
+      </c>
       <c r="F115" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G115" s="15">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H115" s="15" t="s">
         <v>66</v>
@@ -6517,36 +6731,38 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
+        <v>456</v>
+      </c>
+      <c r="D116" s="15"/>
+      <c r="E116" s="17" t="s">
+        <v>507</v>
+      </c>
       <c r="F116" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G116" s="15">
-        <v>1999</v>
+        <v>2013</v>
       </c>
       <c r="H116" s="15" t="s">
         <v>66</v>
       </c>
       <c r="I116" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J116" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K116" s="16"/>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>446</v>
@@ -6554,10 +6770,12 @@
       <c r="C117" s="17" t="s">
         <v>468</v>
       </c>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="17" t="s">
+        <v>508</v>
+      </c>
       <c r="F117" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G117" s="15">
         <v>1999</v>
@@ -6575,36 +6793,38 @@
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="17" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="C118" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
+      <c r="C118" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="D118" s="15"/>
+      <c r="E118" s="17" t="s">
+        <v>508</v>
+      </c>
       <c r="F118" s="15" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="G118" s="15">
-        <v>1988</v>
+        <v>1999</v>
       </c>
       <c r="H118" s="15" t="s">
-        <v>440</v>
+        <v>66</v>
       </c>
       <c r="I118" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J118" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K118" s="16"/>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>446</v>
@@ -6612,10 +6832,12 @@
       <c r="C119" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15" t="s">
+        <v>509</v>
+      </c>
       <c r="F119" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G119" s="15">
         <v>1988</v>
@@ -6633,7 +6855,7 @@
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>446</v>
@@ -6641,16 +6863,18 @@
       <c r="C120" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="D120" s="16"/>
-      <c r="E120" s="16"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15" t="s">
+        <v>509</v>
+      </c>
       <c r="F120" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G120" s="15" t="s">
-        <v>14</v>
+        <v>283</v>
+      </c>
+      <c r="G120" s="15">
+        <v>1988</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>33</v>
+        <v>440</v>
       </c>
       <c r="I120" s="16" t="s">
         <v>418</v>
@@ -6662,36 +6886,38 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="17" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="C121" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="D121" s="16"/>
-      <c r="E121" s="16"/>
+      <c r="C121" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15" t="s">
+        <v>509</v>
+      </c>
       <c r="F121" s="15" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G121" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>441</v>
+        <v>33</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="J121" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K121" s="16"/>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="17" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>446</v>
@@ -6699,10 +6925,12 @@
       <c r="C122" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="15">
-        <v>239</v>
+      <c r="D122" s="15"/>
+      <c r="E122" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="F122" s="15" t="s">
+        <v>289</v>
       </c>
       <c r="G122" s="15" t="s">
         <v>14</v>
@@ -6711,45 +6939,47 @@
         <v>441</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="J122" s="16" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K122" s="16"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>458</v>
-      </c>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="15" t="s">
-        <v>286</v>
+        <v>463</v>
+      </c>
+      <c r="D123" s="15"/>
+      <c r="E123" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="F123" s="15">
+        <v>239</v>
       </c>
       <c r="G123" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>361</v>
+        <v>441</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J123" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K123" s="16"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>446</v>
@@ -6757,16 +6987,18 @@
       <c r="C124" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="17" t="s">
+        <v>511</v>
+      </c>
       <c r="F124" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="G124" s="15">
-        <v>1998</v>
+        <v>286</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>66</v>
+        <v>361</v>
       </c>
       <c r="I124" s="16" t="s">
         <v>421</v>
@@ -6778,7 +7010,7 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>446</v>
@@ -6786,16 +7018,18 @@
       <c r="C125" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="17" t="s">
+        <v>511</v>
+      </c>
       <c r="F125" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>14</v>
+        <v>287</v>
+      </c>
+      <c r="G125" s="15">
+        <v>1998</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="I125" s="16" t="s">
         <v>421</v>
@@ -6807,7 +7041,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>446</v>
@@ -6815,16 +7049,18 @@
       <c r="C126" s="17" t="s">
         <v>458</v>
       </c>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
-      <c r="F126" s="15">
-        <v>5440</v>
+      <c r="D126" s="15"/>
+      <c r="E126" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="F126" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="G126" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>14</v>
+        <v>361</v>
       </c>
       <c r="I126" s="16" t="s">
         <v>421</v>
@@ -6836,36 +7072,38 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>471</v>
-      </c>
-      <c r="D127" s="16"/>
-      <c r="E127" s="16"/>
-      <c r="F127" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="G127" s="15">
-        <v>2001</v>
+        <v>458</v>
+      </c>
+      <c r="D127" s="15"/>
+      <c r="E127" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="F127" s="15">
+        <v>5440</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="I127" s="16" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="J127" s="16" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K127" s="16"/>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B128" s="18" t="s">
         <v>446</v>
@@ -6873,10 +7111,12 @@
       <c r="C128" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="D128" s="16"/>
-      <c r="E128" s="16"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="17" t="s">
+        <v>512</v>
+      </c>
       <c r="F128" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G128" s="15">
         <v>2001</v>
@@ -6894,7 +7134,7 @@
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>446</v>
@@ -6902,16 +7142,18 @@
       <c r="C129" s="17" t="s">
         <v>471</v>
       </c>
-      <c r="D129" s="16"/>
-      <c r="E129" s="16"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="17" t="s">
+        <v>512</v>
+      </c>
       <c r="F129" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G129" s="15">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="H129" s="15" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="I129" s="16" t="s">
         <v>372</v>
@@ -6923,65 +7165,69 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>472</v>
-      </c>
-      <c r="D130" s="16"/>
-      <c r="E130" s="16"/>
+        <v>471</v>
+      </c>
+      <c r="D130" s="15"/>
+      <c r="E130" s="17" t="s">
+        <v>512</v>
+      </c>
       <c r="F130" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G130" s="15">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>442</v>
+        <v>361</v>
       </c>
       <c r="I130" s="16" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="J130" s="16" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K130" s="16"/>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
+        <v>472</v>
+      </c>
+      <c r="D131" s="15"/>
+      <c r="E131" s="17" t="s">
+        <v>513</v>
+      </c>
       <c r="F131" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G131" s="15">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>66</v>
+        <v>442</v>
       </c>
       <c r="I131" s="16" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="J131" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K131" s="16"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>446</v>
@@ -6989,13 +7235,15 @@
       <c r="C132" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="17" t="s">
+        <v>514</v>
+      </c>
       <c r="F132" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G132" s="15">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="H132" s="15" t="s">
         <v>66</v>
@@ -7010,7 +7258,7 @@
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>446</v>
@@ -7018,16 +7266,18 @@
       <c r="C133" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="D133" s="16"/>
-      <c r="E133" s="16"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="17" t="s">
+        <v>514</v>
+      </c>
       <c r="F133" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="G133" s="15" t="s">
-        <v>14</v>
+        <v>296</v>
+      </c>
+      <c r="G133" s="15">
+        <v>2002</v>
       </c>
       <c r="H133" s="15" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="I133" s="16" t="s">
         <v>371</v>
@@ -7039,7 +7289,7 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="17" t="s">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>446</v>
@@ -7047,13 +7297,19 @@
       <c r="C134" s="17" t="s">
         <v>457</v>
       </c>
-      <c r="D134" s="16"/>
-      <c r="E134" s="16"/>
-      <c r="F134" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="G134" s="15"/>
-      <c r="H134" s="16"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="F134" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="I134" s="16" t="s">
         <v>371</v>
       </c>
@@ -7064,36 +7320,34 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="17" t="s">
-        <v>139</v>
+        <v>359</v>
       </c>
       <c r="B135" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D135" s="15"/>
-      <c r="E135" s="16"/>
-      <c r="F135" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="G135" s="15">
-        <v>2013</v>
-      </c>
-      <c r="H135" s="15" t="s">
-        <v>440</v>
-      </c>
+      <c r="E135" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="F135" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G135" s="15"/>
+      <c r="H135" s="16"/>
       <c r="I135" s="16" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="J135" s="16" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="K135" s="16"/>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>446</v>
@@ -7101,16 +7355,18 @@
       <c r="C136" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="D136" s="16"/>
-      <c r="E136" s="16"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="17" t="s">
+        <v>515</v>
+      </c>
       <c r="F136" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G136" s="15">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="H136" s="15" t="s">
-        <v>30</v>
+        <v>440</v>
       </c>
       <c r="I136" s="16" t="s">
         <v>411</v>
@@ -7122,7 +7378,7 @@
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>446</v>
@@ -7130,10 +7386,12 @@
       <c r="C137" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="D137" s="16"/>
-      <c r="E137" s="16"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="17" t="s">
+        <v>515</v>
+      </c>
       <c r="F137" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G137" s="15">
         <v>2010</v>
@@ -7151,7 +7409,7 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>446</v>
@@ -7159,10 +7417,12 @@
       <c r="C138" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="D138" s="16"/>
-      <c r="E138" s="16"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="17" t="s">
+        <v>515</v>
+      </c>
       <c r="F138" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G138" s="15">
         <v>2010</v>
@@ -7180,65 +7440,69 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="17" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="D139" s="16"/>
-      <c r="E139" s="16"/>
+        <v>467</v>
+      </c>
+      <c r="D139" s="15"/>
+      <c r="E139" s="17" t="s">
+        <v>515</v>
+      </c>
       <c r="F139" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G139" s="15" t="s">
-        <v>14</v>
+        <v>233</v>
+      </c>
+      <c r="G139" s="15">
+        <v>2010</v>
       </c>
       <c r="H139" s="15" t="s">
-        <v>317</v>
+        <v>30</v>
       </c>
       <c r="I139" s="16" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="J139" s="16" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K139" s="16"/>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B140" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="D140" s="16"/>
-      <c r="E140" s="16"/>
+        <v>460</v>
+      </c>
+      <c r="D140" s="15"/>
+      <c r="E140" s="17" t="s">
+        <v>516</v>
+      </c>
       <c r="F140" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="G140" s="15">
-        <v>1979</v>
+        <v>298</v>
+      </c>
+      <c r="G140" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H140" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="I140" s="15" t="s">
-        <v>427</v>
+        <v>317</v>
+      </c>
+      <c r="I140" s="16" t="s">
+        <v>370</v>
       </c>
       <c r="J140" s="16" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K140" s="16"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B141" s="18" t="s">
         <v>446</v>
@@ -7246,16 +7510,18 @@
       <c r="C141" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="17" t="s">
+        <v>517</v>
+      </c>
       <c r="F141" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G141" s="15">
-        <v>1992</v>
+        <v>1979</v>
       </c>
       <c r="H141" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I141" s="15" t="s">
         <v>427</v>
@@ -7267,7 +7533,7 @@
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>446</v>
@@ -7275,10 +7541,12 @@
       <c r="C142" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D142" s="16"/>
-      <c r="E142" s="16"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="17" t="s">
+        <v>517</v>
+      </c>
       <c r="F142" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G142" s="15">
         <v>1992</v>
@@ -7296,7 +7564,7 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B143" s="18" t="s">
         <v>446</v>
@@ -7304,16 +7572,18 @@
       <c r="C143" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="17" t="s">
+        <v>517</v>
+      </c>
       <c r="F143" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G143" s="15">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="H143" s="15" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I143" s="15" t="s">
         <v>427</v>
@@ -7325,7 +7595,7 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B144" s="18" t="s">
         <v>446</v>
@@ -7333,13 +7603,15 @@
       <c r="C144" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="17" t="s">
+        <v>517</v>
+      </c>
       <c r="F144" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G144" s="15">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="H144" s="15" t="s">
         <v>441</v>
@@ -7354,7 +7626,7 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B145" s="18" t="s">
         <v>446</v>
@@ -7362,13 +7634,15 @@
       <c r="C145" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="17" t="s">
+        <v>517</v>
+      </c>
       <c r="F145" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G145" s="15">
-        <v>1986</v>
+        <v>2011</v>
       </c>
       <c r="H145" s="15" t="s">
         <v>441</v>
@@ -7383,7 +7657,7 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B146" s="18" t="s">
         <v>446</v>
@@ -7391,13 +7665,15 @@
       <c r="C146" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="17" t="s">
+        <v>517</v>
+      </c>
       <c r="F146" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="G146" s="15" t="s">
-        <v>14</v>
+        <v>304</v>
+      </c>
+      <c r="G146" s="15">
+        <v>1986</v>
       </c>
       <c r="H146" s="15" t="s">
         <v>441</v>
@@ -7412,7 +7688,7 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="17" t="s">
-        <v>346</v>
+        <v>217</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>446</v>
@@ -7420,14 +7696,20 @@
       <c r="C147" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="D147" s="16"/>
-      <c r="E147" s="16"/>
-      <c r="F147" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="G147" s="15"/>
-      <c r="H147" s="16"/>
-      <c r="I147" s="16" t="s">
+      <c r="D147" s="15"/>
+      <c r="E147" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="F147" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="G147" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="I147" s="15" t="s">
         <v>427</v>
       </c>
       <c r="J147" s="16" t="s">
@@ -7437,65 +7719,65 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="17" t="s">
-        <v>218</v>
+        <v>346</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>473</v>
-      </c>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="G148" s="15">
-        <v>1998</v>
-      </c>
-      <c r="H148" s="15" t="s">
-        <v>361</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="D148" s="15"/>
+      <c r="E148" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="F148" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="G148" s="15"/>
+      <c r="H148" s="16"/>
       <c r="I148" s="16" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="J148" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K148" s="16"/>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
+        <v>473</v>
+      </c>
+      <c r="D149" s="15"/>
+      <c r="E149" s="17" t="s">
+        <v>518</v>
+      </c>
       <c r="F149" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="G149" s="15" t="s">
-        <v>14</v>
+        <v>306</v>
+      </c>
+      <c r="G149" s="15">
+        <v>1998</v>
       </c>
       <c r="H149" s="15" t="s">
-        <v>33</v>
+        <v>361</v>
       </c>
       <c r="I149" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J149" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K149" s="16"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>446</v>
@@ -7503,10 +7785,12 @@
       <c r="C150" s="17" t="s">
         <v>474</v>
       </c>
-      <c r="D150" s="16"/>
-      <c r="E150" s="16"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="17" t="s">
+        <v>519</v>
+      </c>
       <c r="F150" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G150" s="15" t="s">
         <v>14</v>
@@ -7524,36 +7808,38 @@
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="D151" s="16"/>
-      <c r="E151" s="16"/>
-      <c r="F151" s="15">
-        <v>266</v>
-      </c>
-      <c r="G151" s="15">
-        <v>2000</v>
+        <v>474</v>
+      </c>
+      <c r="D151" s="15"/>
+      <c r="E151" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H151" s="15" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I151" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J151" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K151" s="16"/>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>446</v>
@@ -7561,13 +7847,15 @@
       <c r="C152" s="17" t="s">
         <v>475</v>
       </c>
-      <c r="D152" s="16"/>
-      <c r="E152" s="16"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="17" t="s">
+        <v>520</v>
+      </c>
       <c r="F152" s="15">
-        <v>8023</v>
+        <v>266</v>
       </c>
       <c r="G152" s="15">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="H152" s="15" t="s">
         <v>66</v>
@@ -7582,36 +7870,38 @@
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="17" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B153" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="D153" s="16"/>
-      <c r="E153" s="16"/>
-      <c r="F153" s="15" t="s">
-        <v>314</v>
+        <v>475</v>
+      </c>
+      <c r="D153" s="15"/>
+      <c r="E153" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="F153" s="15">
+        <v>8023</v>
       </c>
       <c r="G153" s="15">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="H153" s="15" t="s">
-        <v>442</v>
+        <v>66</v>
       </c>
       <c r="I153" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J153" s="16" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="K153" s="16"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B154" s="18" t="s">
         <v>446</v>
@@ -7619,16 +7909,18 @@
       <c r="C154" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="D154" s="16"/>
-      <c r="E154" s="16"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="17" t="s">
+        <v>521</v>
+      </c>
       <c r="F154" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G154" s="15">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="H154" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I154" s="16" t="s">
         <v>369</v>
@@ -7640,163 +7932,201 @@
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="17" t="s">
-        <v>477</v>
+        <v>229</v>
       </c>
       <c r="B155" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="D155" s="16"/>
-      <c r="E155" s="16"/>
-      <c r="F155" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="G155" s="16"/>
-      <c r="H155" s="16"/>
+        <v>466</v>
+      </c>
+      <c r="D155" s="15"/>
+      <c r="E155" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G155" s="15">
+        <v>2005</v>
+      </c>
+      <c r="H155" s="15" t="s">
+        <v>444</v>
+      </c>
       <c r="I155" s="16" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="J155" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="K155" s="9"/>
+        <v>426</v>
+      </c>
+      <c r="K155" s="16"/>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="17" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B156" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="D156" s="16"/>
-      <c r="E156" s="16"/>
+        <v>462</v>
+      </c>
+      <c r="D156" s="15"/>
+      <c r="E156" s="17" t="s">
+        <v>509</v>
+      </c>
       <c r="F156" s="16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G156" s="16"/>
       <c r="H156" s="16"/>
       <c r="I156" s="16" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="J156" s="16" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="K156" s="9"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="17" t="s">
-        <v>332</v>
+        <v>476</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="F157" t="s">
-        <v>333</v>
-      </c>
-      <c r="I157" t="s">
-        <v>481</v>
+        <v>479</v>
+      </c>
+      <c r="D157" s="15"/>
+      <c r="E157" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="F157" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="G157" s="16"/>
+      <c r="H157" s="16"/>
+      <c r="I157" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="J157" s="16" t="s">
+        <v>425</v>
       </c>
       <c r="K157" s="9"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="17" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="D158" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="E158" s="16"/>
+        <v>383</v>
+      </c>
+      <c r="D158" s="15"/>
       <c r="F158" t="s">
-        <v>486</v>
-      </c>
-      <c r="H158" t="s">
-        <v>485</v>
-      </c>
-      <c r="I158" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="J158" s="16" t="s">
-        <v>484</v>
+        <v>333</v>
+      </c>
+      <c r="I158" t="s">
+        <v>481</v>
       </c>
       <c r="K158" s="9"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="17" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="C159" s="18"/>
+        <v>488</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="E159" s="16"/>
       <c r="F159" t="s">
-        <v>482</v>
+        <v>486</v>
+      </c>
+      <c r="H159" t="s">
+        <v>485</v>
       </c>
       <c r="I159" s="16" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="J159" s="16" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K159" s="9"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="17" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B160" s="18" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C160" s="18"/>
-      <c r="F160" s="35" t="s">
-        <v>492</v>
-      </c>
-      <c r="H160" t="s">
-        <v>19</v>
+      <c r="D160" s="15"/>
+      <c r="F160" t="s">
+        <v>482</v>
       </c>
       <c r="I160" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="J160" t="s">
-        <v>493</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="J160" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="K160" s="9"/>
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="17" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="B161" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D161" t="s">
-        <v>8</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="C161" s="18"/>
+      <c r="D161" s="15"/>
       <c r="F161" s="35" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H161" t="s">
         <v>19</v>
       </c>
       <c r="I161" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="J161" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="H162" t="s">
+        <v>19</v>
+      </c>
+      <c r="I162" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="J161" s="16" t="s">
+      <c r="J162" s="16" t="s">
         <v>491</v>
       </c>
     </row>

--- a/tabular/hiv-reference-data.xlsx
+++ b/tabular/hiv-reference-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20260" yWindow="100" windowWidth="25460" windowHeight="25220" tabRatio="500"/>
+    <workbookView xWindow="9640" yWindow="340" windowWidth="25460" windowHeight="25220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="edited down" sheetId="1" r:id="rId1"/>
@@ -2932,7 +2932,7 @@
   <dimension ref="A1:S162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="A1:K162"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/tabular/hiv-reference-data.xlsx
+++ b/tabular/hiv-reference-data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="527">
   <si>
     <t>Accession</t>
   </si>
@@ -1599,6 +1599,9 @@
   </si>
   <si>
     <t>Ferret</t>
+  </si>
+  <si>
+    <t>AM279354</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1766,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="370">
+  <cellStyleXfs count="376">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2105,6 +2108,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2213,7 +2222,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="370">
+  <cellStyles count="376">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2414,6 +2423,9 @@
     <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2583,6 +2595,9 @@
     <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -2929,10 +2944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S162"/>
+  <dimension ref="A1:S163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3383,8 +3398,8 @@
       <c r="S15" s="9"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="16" t="s">
-        <v>27</v>
+      <c r="A16" s="15" t="s">
+        <v>526</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>446</v>
@@ -3395,17 +3410,13 @@
       <c r="D16" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E16" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="15">
-        <v>1992</v>
-      </c>
+      <c r="E16" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="16" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>435</v>
@@ -3414,7 +3425,7 @@
         <v>316</v>
       </c>
       <c r="K16" s="15">
-        <v>8794346</v>
+        <v>16817969</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -3427,7 +3438,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>446</v>
@@ -3442,13 +3453,13 @@
         <v>28</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G17" s="15">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>435</v>
@@ -3457,20 +3468,20 @@
         <v>316</v>
       </c>
       <c r="K17" s="15">
-        <v>10364271</v>
+        <v>8794346</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>446</v>
@@ -3485,13 +3496,13 @@
         <v>28</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G18" s="15">
         <v>1994</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>435</v>
@@ -3500,20 +3511,20 @@
         <v>316</v>
       </c>
       <c r="K18" s="15">
-        <v>10513639</v>
+        <v>10364271</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>446</v>
@@ -3528,13 +3539,13 @@
         <v>28</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19" s="15">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>435</v>
@@ -3543,7 +3554,7 @@
         <v>316</v>
       </c>
       <c r="K19" s="15">
-        <v>12487816</v>
+        <v>10513639</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3556,7 +3567,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>446</v>
@@ -3568,16 +3579,16 @@
         <v>374</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G20" s="15">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>435</v>
@@ -3586,7 +3597,7 @@
         <v>316</v>
       </c>
       <c r="K20" s="15">
-        <v>11429108</v>
+        <v>12487816</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
@@ -3599,7 +3610,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>446</v>
@@ -3614,13 +3625,13 @@
         <v>40</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G21" s="15">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>435</v>
@@ -3642,7 +3653,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="16" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>446</v>
@@ -3654,16 +3665,16 @@
         <v>374</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="G22" s="15">
-        <v>1983</v>
+        <v>1994</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>435</v>
@@ -3672,7 +3683,7 @@
         <v>316</v>
       </c>
       <c r="K22" s="15">
-        <v>9362478</v>
+        <v>11429108</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -3685,7 +3696,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>446</v>
@@ -3700,13 +3711,13 @@
         <v>8</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1983</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>435</v>
@@ -3715,7 +3726,7 @@
         <v>316</v>
       </c>
       <c r="K23" s="15">
-        <v>7483282</v>
+        <v>9362478</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -3728,7 +3739,7 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>446</v>
@@ -3743,7 +3754,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>14</v>
@@ -3758,7 +3769,7 @@
         <v>316</v>
       </c>
       <c r="K24" s="15">
-        <v>3016298</v>
+        <v>7483282</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -3771,7 +3782,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>446</v>
@@ -3786,13 +3797,13 @@
         <v>8</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="15">
-        <v>2014</v>
+        <v>16</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>435</v>
@@ -3800,8 +3811,8 @@
       <c r="J25" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K25" s="15" t="s">
-        <v>20</v>
+      <c r="K25" s="15">
+        <v>3016298</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -3814,7 +3825,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>446</v>
@@ -3829,13 +3840,13 @@
         <v>8</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G26" s="15">
-        <v>1990</v>
+        <v>2014</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>435</v>
@@ -3843,34 +3854,42 @@
       <c r="J26" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K26" s="15">
-        <v>12487805</v>
+      <c r="K26" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>446</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="F27"/>
+        <v>374</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1990</v>
+      </c>
       <c r="H27" s="16" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>435</v>
@@ -3878,13 +3897,21 @@
       <c r="J27" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K27" s="1">
-        <v>8107220</v>
-      </c>
+      <c r="K27" s="15">
+        <v>12487805</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>446</v>
@@ -3893,15 +3920,12 @@
         <v>348</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="16"/>
+        <v>377</v>
+      </c>
+      <c r="F28"/>
+      <c r="H28" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="I28" s="16" t="s">
         <v>435</v>
       </c>
@@ -3909,14 +3933,14 @@
         <v>316</v>
       </c>
       <c r="K28" s="1">
-        <v>2578615</v>
+        <v>8107220</v>
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -3928,36 +3952,23 @@
       <c r="E29" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="15">
-        <v>671</v>
-      </c>
-      <c r="G29" s="15">
-        <v>2000</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="F29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="16"/>
       <c r="I29" s="16" t="s">
         <v>435</v>
       </c>
       <c r="J29" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K29" s="15">
-        <v>14610167</v>
-      </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
+      <c r="K29" s="1">
+        <v>2578615</v>
+      </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>446</v>
@@ -3972,13 +3983,13 @@
         <v>8</v>
       </c>
       <c r="F30" s="15">
-        <v>1058</v>
+        <v>671</v>
       </c>
       <c r="G30" s="15">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I30" s="16" t="s">
         <v>435</v>
@@ -3987,7 +3998,7 @@
         <v>316</v>
       </c>
       <c r="K30" s="15">
-        <v>16103205</v>
+        <v>14610167</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -4000,7 +4011,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>446</v>
@@ -4012,16 +4023,16 @@
         <v>374</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="F31" s="15">
+        <v>1058</v>
       </c>
       <c r="G31" s="15">
-        <v>1986</v>
+        <v>1998</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>435</v>
@@ -4030,12 +4041,20 @@
         <v>316</v>
       </c>
       <c r="K31" s="15">
-        <v>8891112</v>
-      </c>
+        <v>16103205</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>446</v>
@@ -4050,13 +4069,13 @@
         <v>47</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G32" s="15">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I32" s="16" t="s">
         <v>435</v>
@@ -4065,12 +4084,12 @@
         <v>316</v>
       </c>
       <c r="K32" s="15">
-        <v>8627686</v>
+        <v>8891112</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>446</v>
@@ -4085,13 +4104,13 @@
         <v>47</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G33" s="15">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I33" s="16" t="s">
         <v>435</v>
@@ -4100,12 +4119,12 @@
         <v>316</v>
       </c>
       <c r="K33" s="15">
-        <v>9847317</v>
+        <v>8627686</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>446</v>
@@ -4120,13 +4139,13 @@
         <v>47</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G34" s="15">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>435</v>
@@ -4135,12 +4154,12 @@
         <v>316</v>
       </c>
       <c r="K34" s="15">
-        <v>15592417</v>
+        <v>9847317</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="15" t="s">
-        <v>133</v>
+      <c r="A35" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>446</v>
@@ -4151,17 +4170,17 @@
       <c r="D35" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>134</v>
+      <c r="F35" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G35" s="15">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="I35" s="16" t="s">
         <v>435</v>
@@ -4170,12 +4189,12 @@
         <v>316</v>
       </c>
       <c r="K35" s="15">
-        <v>11070028</v>
+        <v>15592417</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="16" t="s">
-        <v>59</v>
+      <c r="A36" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>446</v>
@@ -4186,17 +4205,17 @@
       <c r="D36" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>61</v>
+      <c r="E36" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="G36" s="15">
-        <v>1983</v>
+        <v>1997</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>435</v>
@@ -4205,12 +4224,12 @@
         <v>316</v>
       </c>
       <c r="K36" s="15">
-        <v>2424612</v>
+        <v>11070028</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>446</v>
@@ -4225,13 +4244,13 @@
         <v>60</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G37" s="15">
-        <v>1994</v>
+        <v>1983</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I37" s="16" t="s">
         <v>435</v>
@@ -4240,12 +4259,12 @@
         <v>316</v>
       </c>
       <c r="K37" s="15">
-        <v>9621027</v>
+        <v>2424612</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>446</v>
@@ -4260,13 +4279,13 @@
         <v>60</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G38" s="15">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>435</v>
@@ -4275,12 +4294,12 @@
         <v>316</v>
       </c>
       <c r="K38" s="15">
-        <v>15186527</v>
+        <v>9621027</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>446</v>
@@ -4295,13 +4314,13 @@
         <v>60</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G39" s="15">
         <v>2001</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>435</v>
@@ -4310,12 +4329,12 @@
         <v>316</v>
       </c>
       <c r="K39" s="15">
-        <v>15320994</v>
+        <v>15186527</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>446</v>
@@ -4327,16 +4346,16 @@
         <v>374</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G40" s="15">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I40" s="16" t="s">
         <v>435</v>
@@ -4345,12 +4364,12 @@
         <v>316</v>
       </c>
       <c r="K40" s="15">
-        <v>9621027</v>
+        <v>15320994</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>446</v>
@@ -4365,13 +4384,13 @@
         <v>71</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G41" s="15">
         <v>1993</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I41" s="16" t="s">
         <v>435</v>
@@ -4380,12 +4399,12 @@
         <v>316</v>
       </c>
       <c r="K41" s="15">
-        <v>10725202</v>
+        <v>9621027</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>446</v>
@@ -4400,13 +4419,13 @@
         <v>71</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G42" s="15">
         <v>1993</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="I42" s="16" t="s">
         <v>435</v>
@@ -4415,12 +4434,12 @@
         <v>316</v>
       </c>
       <c r="K42" s="15">
-        <v>10725203</v>
+        <v>10725202</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>446</v>
@@ -4435,13 +4454,13 @@
         <v>71</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G43" s="15">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>435</v>
@@ -4450,12 +4469,12 @@
         <v>316</v>
       </c>
       <c r="K43" s="15">
-        <v>10659053</v>
+        <v>10725203</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>446</v>
@@ -4470,13 +4489,13 @@
         <v>71</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G44" s="15">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="I44" s="16" t="s">
         <v>435</v>
@@ -4485,12 +4504,12 @@
         <v>316</v>
       </c>
       <c r="K44" s="15">
-        <v>10659054</v>
+        <v>10659053</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>446</v>
@@ -4505,7 +4524,7 @@
         <v>71</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G45" s="15">
         <v>1995</v>
@@ -4520,12 +4539,12 @@
         <v>316</v>
       </c>
       <c r="K45" s="15">
-        <v>10659055</v>
+        <v>10659054</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>446</v>
@@ -4540,10 +4559,10 @@
         <v>71</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G46" s="15">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="H46" s="16" t="s">
         <v>66</v>
@@ -4555,12 +4574,12 @@
         <v>316</v>
       </c>
       <c r="K46" s="15">
-        <v>15186527</v>
+        <v>10659055</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>446</v>
@@ -4575,10 +4594,10 @@
         <v>71</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G47" s="15">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>66</v>
@@ -4590,12 +4609,12 @@
         <v>316</v>
       </c>
       <c r="K47" s="15">
-        <v>11448170</v>
+        <v>15186527</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="15" t="s">
-        <v>135</v>
+      <c r="A48" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>446</v>
@@ -4606,17 +4625,17 @@
       <c r="D48" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>136</v>
+      <c r="F48" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="G48" s="15">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="I48" s="16" t="s">
         <v>435</v>
@@ -4625,12 +4644,12 @@
         <v>316</v>
       </c>
       <c r="K48" s="15">
-        <v>11600844</v>
+        <v>11448170</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="16" t="s">
-        <v>88</v>
+      <c r="A49" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>446</v>
@@ -4641,17 +4660,17 @@
       <c r="D49" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>90</v>
+      <c r="E49" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="G49" s="15">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="I49" s="16" t="s">
         <v>435</v>
@@ -4660,12 +4679,12 @@
         <v>316</v>
       </c>
       <c r="K49" s="15">
-        <v>9683568</v>
+        <v>11600844</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>446</v>
@@ -4680,13 +4699,13 @@
         <v>89</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G50" s="15">
         <v>1993</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I50" s="16" t="s">
         <v>435</v>
@@ -4695,12 +4714,12 @@
         <v>316</v>
       </c>
       <c r="K50" s="15">
-        <v>9683569</v>
+        <v>9683568</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>446</v>
@@ -4715,13 +4734,13 @@
         <v>89</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G51" s="15">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="I51" s="16" t="s">
         <v>435</v>
@@ -4730,12 +4749,12 @@
         <v>316</v>
       </c>
       <c r="K51" s="15">
-        <v>10221535</v>
+        <v>9683569</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>446</v>
@@ -4750,13 +4769,13 @@
         <v>89</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G52" s="15">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="I52" s="16" t="s">
         <v>435</v>
@@ -4765,12 +4784,12 @@
         <v>316</v>
       </c>
       <c r="K52" s="15">
-        <v>9621027</v>
+        <v>10221535</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>446</v>
@@ -4782,16 +4801,16 @@
         <v>374</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G53" s="15">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I53" s="16" t="s">
         <v>435</v>
@@ -4800,12 +4819,12 @@
         <v>316</v>
       </c>
       <c r="K53" s="15">
-        <v>9621028</v>
+        <v>9621027</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>446</v>
@@ -4820,13 +4839,13 @@
         <v>101</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G54" s="15">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I54" s="16" t="s">
         <v>435</v>
@@ -4835,12 +4854,12 @@
         <v>316</v>
       </c>
       <c r="K54" s="15">
-        <v>10983640</v>
+        <v>9621028</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>446</v>
@@ -4855,10 +4874,10 @@
         <v>101</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G55" s="15">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="H55" s="16" t="s">
         <v>106</v>
@@ -4870,12 +4889,12 @@
         <v>316</v>
       </c>
       <c r="K55" s="15">
-        <v>10983641</v>
+        <v>10983640</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>446</v>
@@ -4887,16 +4906,16 @@
         <v>374</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G56" s="15">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="I56" s="16" t="s">
         <v>435</v>
@@ -4905,12 +4924,12 @@
         <v>316</v>
       </c>
       <c r="K56" s="15">
-        <v>10052760</v>
+        <v>10983641</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>446</v>
@@ -4925,10 +4944,10 @@
         <v>110</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G57" s="15">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="H57" s="16" t="s">
         <v>91</v>
@@ -4940,12 +4959,12 @@
         <v>316</v>
       </c>
       <c r="K57" s="15">
-        <v>10052761</v>
+        <v>10052760</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>446</v>
@@ -4957,16 +4976,16 @@
         <v>374</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" s="15">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="I58" s="16" t="s">
         <v>435</v>
@@ -4975,12 +4994,12 @@
         <v>316</v>
       </c>
       <c r="K58" s="15">
-        <v>10659053</v>
+        <v>10052761</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>446</v>
@@ -4995,13 +5014,13 @@
         <v>115</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" s="15">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>435</v>
@@ -5010,12 +5029,12 @@
         <v>316</v>
       </c>
       <c r="K59" s="15">
-        <v>10659054</v>
+        <v>10659053</v>
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="15" t="s">
-        <v>173</v>
+      <c r="A60" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>446</v>
@@ -5024,16 +5043,18 @@
         <v>348</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15" t="s">
-        <v>264</v>
+        <v>374</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="G60" s="15">
-        <v>2002</v>
-      </c>
-      <c r="H60" s="15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="H60" s="16" t="s">
         <v>66</v>
       </c>
       <c r="I60" s="16" t="s">
@@ -5042,11 +5063,13 @@
       <c r="J60" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K60" s="15"/>
+      <c r="K60" s="15">
+        <v>10659054</v>
+      </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>446</v>
@@ -5059,10 +5082,10 @@
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G61" s="15">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>66</v>
@@ -5077,7 +5100,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>446</v>
@@ -5090,7 +5113,7 @@
       </c>
       <c r="E62" s="15"/>
       <c r="F62" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G62" s="15">
         <v>2004</v>
@@ -5108,7 +5131,7 @@
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>446</v>
@@ -5121,10 +5144,10 @@
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G63" s="15">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>66</v>
@@ -5139,7 +5162,7 @@
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>446</v>
@@ -5148,14 +5171,14 @@
         <v>348</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G64" s="15">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="H64" s="15" t="s">
         <v>66</v>
@@ -5170,7 +5193,7 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>446</v>
@@ -5183,10 +5206,10 @@
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G65" s="15">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="H65" s="15" t="s">
         <v>66</v>
@@ -5201,7 +5224,7 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>446</v>
@@ -5214,7 +5237,7 @@
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G66" s="15">
         <v>1998</v>
@@ -5232,7 +5255,7 @@
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>446</v>
@@ -5245,13 +5268,13 @@
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G67" s="15">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>317</v>
+        <v>66</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>435</v>
@@ -5263,7 +5286,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>446</v>
@@ -5276,13 +5299,13 @@
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G68" s="15">
         <v>1999</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="I68" s="16" t="s">
         <v>435</v>
@@ -5294,26 +5317,26 @@
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G69" s="15">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="I69" s="16" t="s">
         <v>435</v>
@@ -5325,26 +5348,26 @@
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>446</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G70" s="15">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>321</v>
+        <v>66</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>435</v>
@@ -5356,7 +5379,7 @@
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="15" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>446</v>
@@ -5365,17 +5388,17 @@
         <v>379</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>454</v>
+        <v>14</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>14</v>
+        <v>281</v>
+      </c>
+      <c r="G71" s="15">
+        <v>2007</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>435</v>
@@ -5387,7 +5410,7 @@
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>446</v>
@@ -5400,13 +5423,13 @@
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I72" s="16" t="s">
         <v>435</v>
@@ -5418,7 +5441,7 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>446</v>
@@ -5431,13 +5454,13 @@
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="G73" s="15">
-        <v>1986</v>
+        <v>276</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I73" s="16" t="s">
         <v>435</v>
@@ -5449,7 +5472,7 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>446</v>
@@ -5458,17 +5481,17 @@
         <v>379</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>8</v>
+        <v>454</v>
       </c>
       <c r="E74" s="15"/>
       <c r="F74" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>14</v>
+        <v>277</v>
+      </c>
+      <c r="G74" s="15">
+        <v>1986</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>435</v>
@@ -5480,7 +5503,7 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>446</v>
@@ -5493,13 +5516,13 @@
       </c>
       <c r="E75" s="15"/>
       <c r="F75" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="G75" s="15">
-        <v>1986</v>
+        <v>278</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I75" s="16" t="s">
         <v>435</v>
@@ -5511,7 +5534,7 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>446</v>
@@ -5520,17 +5543,17 @@
         <v>379</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="E76" s="15"/>
       <c r="F76" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G76" s="15">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I76" s="16" t="s">
         <v>435</v>
@@ -5542,7 +5565,7 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>446</v>
@@ -5551,17 +5574,17 @@
         <v>379</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E77" s="15"/>
-      <c r="F77" s="15">
-        <v>12034</v>
+      <c r="F77" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="G77" s="15">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>10</v>
+        <v>321</v>
       </c>
       <c r="I77" s="16" t="s">
         <v>435</v>
@@ -5572,39 +5595,39 @@
       <c r="K77" s="15"/>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="D78" s="15"/>
-      <c r="E78" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>290</v>
+      <c r="A78" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15">
+        <v>12034</v>
       </c>
       <c r="G78" s="15">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="J78" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="K78" s="16"/>
+        <v>316</v>
+      </c>
+      <c r="K78" s="15"/>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="17" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>446</v>
@@ -5617,25 +5640,25 @@
         <v>498</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>14</v>
+        <v>290</v>
+      </c>
+      <c r="G79" s="15">
+        <v>1999</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="J79" s="16" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="K79" s="16"/>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>446</v>
@@ -5648,13 +5671,13 @@
         <v>498</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="G80" s="15">
-        <v>2010</v>
+        <v>310</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>362</v>
+        <v>33</v>
       </c>
       <c r="I80" s="16" t="s">
         <v>375</v>
@@ -5666,7 +5689,7 @@
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>446</v>
@@ -5679,7 +5702,7 @@
         <v>498</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G81" s="15">
         <v>2010</v>
@@ -5697,7 +5720,7 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>446</v>
@@ -5710,7 +5733,7 @@
         <v>498</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G82" s="15">
         <v>2010</v>
@@ -5728,7 +5751,7 @@
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="17" t="s">
-        <v>351</v>
+        <v>227</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>446</v>
@@ -5740,146 +5763,146 @@
       <c r="E83" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="F83" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="F83" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="G83" s="15">
+        <v>2010</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="I83" s="16" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="J83" s="16" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="K83" s="16"/>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="17" t="s">
-        <v>169</v>
+        <v>351</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>469</v>
+        <v>352</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>49</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="G84" s="15"/>
+      <c r="H84" s="16"/>
       <c r="I84" s="16" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="J84" s="16" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K84" s="16"/>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" s="17" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="G85" s="15">
-        <v>2009</v>
+        <v>260</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>362</v>
+        <v>49</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K85" s="16"/>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" s="17" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>14</v>
+        <v>285</v>
+      </c>
+      <c r="G86" s="15">
+        <v>2009</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>30</v>
+        <v>362</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="J86" s="16" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="K86" s="16"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="17" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="B87" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="G87" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="J87" s="16" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="1:11" ht="13" customHeight="1">
+    <row r="88" spans="1:11">
       <c r="A88" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>446</v>
@@ -5892,13 +5915,13 @@
         <v>502</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="G88" s="15">
-        <v>2010</v>
+        <v>234</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I88" s="16" t="s">
         <v>412</v>
@@ -5908,9 +5931,9 @@
       </c>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" ht="13" customHeight="1">
       <c r="A89" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>446</v>
@@ -5923,7 +5946,7 @@
         <v>502</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G89" s="15">
         <v>2010</v>
@@ -5941,38 +5964,38 @@
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>354</v>
+        <v>455</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G90" s="15">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>440</v>
+        <v>30</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J90" s="16" t="s">
-        <v>465</v>
+        <v>393</v>
       </c>
       <c r="K90" s="16"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>446</v>
@@ -5985,10 +6008,10 @@
         <v>503</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G91" s="15">
-        <v>1990</v>
+        <v>2006</v>
       </c>
       <c r="H91" s="15" t="s">
         <v>440</v>
@@ -6003,7 +6026,7 @@
     </row>
     <row r="92" spans="1:11">
       <c r="A92" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>446</v>
@@ -6016,13 +6039,13 @@
         <v>503</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G92" s="15">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>66</v>
+        <v>440</v>
       </c>
       <c r="I92" s="16" t="s">
         <v>413</v>
@@ -6034,7 +6057,7 @@
     </row>
     <row r="93" spans="1:11">
       <c r="A93" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>446</v>
@@ -6047,10 +6070,10 @@
         <v>503</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G93" s="15">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="H93" s="15" t="s">
         <v>66</v>
@@ -6065,7 +6088,7 @@
     </row>
     <row r="94" spans="1:11">
       <c r="A94" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>446</v>
@@ -6078,7 +6101,7 @@
         <v>503</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G94" s="15">
         <v>2005</v>
@@ -6096,7 +6119,7 @@
     </row>
     <row r="95" spans="1:11">
       <c r="A95" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>446</v>
@@ -6109,7 +6132,7 @@
         <v>503</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G95" s="15">
         <v>2005</v>
@@ -6127,7 +6150,7 @@
     </row>
     <row r="96" spans="1:11">
       <c r="A96" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>446</v>
@@ -6140,7 +6163,7 @@
         <v>503</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G96" s="15">
         <v>2005</v>
@@ -6158,7 +6181,7 @@
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>446</v>
@@ -6171,7 +6194,7 @@
         <v>503</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G97" s="15">
         <v>2005</v>
@@ -6189,7 +6212,7 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>446</v>
@@ -6202,7 +6225,7 @@
         <v>503</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G98" s="15">
         <v>2005</v>
@@ -6220,7 +6243,7 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>446</v>
@@ -6233,13 +6256,13 @@
         <v>503</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G99" s="15">
-        <v>1988</v>
+        <v>2005</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="I99" s="16" t="s">
         <v>413</v>
@@ -6251,7 +6274,7 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>446</v>
@@ -6264,13 +6287,13 @@
         <v>503</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G100" s="15">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>69</v>
+        <v>361</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>413</v>
@@ -6282,7 +6305,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B101" s="18" t="s">
         <v>446</v>
@@ -6295,10 +6318,10 @@
         <v>503</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G101" s="15">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="H101" s="15" t="s">
         <v>69</v>
@@ -6313,7 +6336,7 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>446</v>
@@ -6326,10 +6349,10 @@
         <v>503</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G102" s="15">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="H102" s="15" t="s">
         <v>69</v>
@@ -6344,7 +6367,7 @@
     </row>
     <row r="103" spans="1:11">
       <c r="A103" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>446</v>
@@ -6357,13 +6380,13 @@
         <v>503</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G103" s="15">
-        <v>1985</v>
+        <v>2009</v>
       </c>
       <c r="H103" s="15" t="s">
-        <v>441</v>
+        <v>69</v>
       </c>
       <c r="I103" s="16" t="s">
         <v>413</v>
@@ -6375,7 +6398,7 @@
     </row>
     <row r="104" spans="1:11">
       <c r="A104" s="17" t="s">
-        <v>353</v>
+        <v>159</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>446</v>
@@ -6387,13 +6410,17 @@
       <c r="E104" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="F104" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="G104" s="15"/>
-      <c r="H104" s="16"/>
+      <c r="F104" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G104" s="15">
+        <v>1985</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>441</v>
+      </c>
       <c r="I104" s="16" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="J104" s="16" t="s">
         <v>465</v>
@@ -6402,7 +6429,7 @@
     </row>
     <row r="105" spans="1:11">
       <c r="A105" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>446</v>
@@ -6415,7 +6442,7 @@
         <v>503</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G105" s="15"/>
       <c r="H105" s="16"/>
@@ -6429,38 +6456,34 @@
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="17" t="s">
-        <v>160</v>
+        <v>355</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>464</v>
+        <v>354</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="F106" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="G106" s="15">
-        <v>2004</v>
-      </c>
-      <c r="H106" s="15" t="s">
-        <v>66</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="G106" s="15"/>
+      <c r="H106" s="16"/>
       <c r="I106" s="16" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="J106" s="16" t="s">
-        <v>394</v>
+        <v>465</v>
       </c>
       <c r="K106" s="16"/>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>446</v>
@@ -6473,10 +6496,10 @@
         <v>504</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G107" s="15">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="H107" s="15" t="s">
         <v>66</v>
@@ -6491,7 +6514,7 @@
     </row>
     <row r="108" spans="1:11">
       <c r="A108" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>446</v>
@@ -6504,7 +6527,7 @@
         <v>504</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G108" s="15">
         <v>1999</v>
@@ -6522,92 +6545,92 @@
     </row>
     <row r="109" spans="1:11">
       <c r="A109" s="17" t="s">
-        <v>357</v>
+        <v>162</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>358</v>
+        <v>464</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="F109" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="G109" s="15"/>
-      <c r="H109" s="16"/>
+        <v>504</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G109" s="15">
+        <v>1999</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="I109" s="16" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="J109" s="16" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="K109" s="16"/>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" s="17" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G110" s="15"/>
       <c r="H110" s="16"/>
       <c r="I110" s="16" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="K110" s="16"/>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" s="17" t="s">
-        <v>163</v>
+        <v>349</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>456</v>
+        <v>350</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="17" t="s">
-        <v>507</v>
-      </c>
-      <c r="F111" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="G111" s="15">
-        <v>2004</v>
-      </c>
-      <c r="H111" s="15" t="s">
-        <v>66</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G111" s="15"/>
+      <c r="H111" s="16"/>
       <c r="I111" s="16" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="J111" s="16" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="K111" s="16"/>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>446</v>
@@ -6620,10 +6643,10 @@
         <v>507</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G112" s="15">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="H112" s="15" t="s">
         <v>66</v>
@@ -6638,7 +6661,7 @@
     </row>
     <row r="113" spans="1:11">
       <c r="A113" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>446</v>
@@ -6651,7 +6674,7 @@
         <v>507</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G113" s="15">
         <v>2007</v>
@@ -6669,7 +6692,7 @@
     </row>
     <row r="114" spans="1:11">
       <c r="A114" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>446</v>
@@ -6682,10 +6705,10 @@
         <v>507</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G114" s="15">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="H114" s="15" t="s">
         <v>66</v>
@@ -6700,7 +6723,7 @@
     </row>
     <row r="115" spans="1:11">
       <c r="A115" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>446</v>
@@ -6713,7 +6736,7 @@
         <v>507</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G115" s="15">
         <v>2012</v>
@@ -6731,7 +6754,7 @@
     </row>
     <row r="116" spans="1:11">
       <c r="A116" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>446</v>
@@ -6744,10 +6767,10 @@
         <v>507</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G116" s="15">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H116" s="15" t="s">
         <v>66</v>
@@ -6762,38 +6785,38 @@
     </row>
     <row r="117" spans="1:11">
       <c r="A117" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G117" s="15">
-        <v>1999</v>
+        <v>2013</v>
       </c>
       <c r="H117" s="15" t="s">
         <v>66</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J117" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K117" s="16"/>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>446</v>
@@ -6806,7 +6829,7 @@
         <v>508</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G118" s="15">
         <v>1999</v>
@@ -6824,38 +6847,38 @@
     </row>
     <row r="119" spans="1:11">
       <c r="A119" s="17" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="C119" s="15" t="s">
-        <v>462</v>
+      <c r="C119" s="17" t="s">
+        <v>468</v>
       </c>
       <c r="D119" s="15"/>
-      <c r="E119" s="15" t="s">
-        <v>509</v>
+      <c r="E119" s="17" t="s">
+        <v>508</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="G119" s="15">
-        <v>1988</v>
+        <v>1999</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>440</v>
+        <v>66</v>
       </c>
       <c r="I119" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J119" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K119" s="16"/>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>446</v>
@@ -6868,7 +6891,7 @@
         <v>509</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G120" s="15">
         <v>1988</v>
@@ -6886,7 +6909,7 @@
     </row>
     <row r="121" spans="1:11">
       <c r="A121" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>446</v>
@@ -6899,13 +6922,13 @@
         <v>509</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G121" s="15" t="s">
-        <v>14</v>
+        <v>283</v>
+      </c>
+      <c r="G121" s="15">
+        <v>1988</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>33</v>
+        <v>440</v>
       </c>
       <c r="I121" s="16" t="s">
         <v>418</v>
@@ -6917,38 +6940,38 @@
     </row>
     <row r="122" spans="1:11">
       <c r="A122" s="17" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="C122" s="17" t="s">
-        <v>463</v>
+      <c r="C122" s="15" t="s">
+        <v>462</v>
       </c>
       <c r="D122" s="15"/>
-      <c r="E122" s="17" t="s">
-        <v>510</v>
+      <c r="E122" s="15" t="s">
+        <v>509</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G122" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>441</v>
+        <v>33</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="J122" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K122" s="16"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="17" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>446</v>
@@ -6960,8 +6983,8 @@
       <c r="E123" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="F123" s="15">
-        <v>239</v>
+      <c r="F123" s="15" t="s">
+        <v>289</v>
       </c>
       <c r="G123" s="15" t="s">
         <v>14</v>
@@ -6970,47 +6993,47 @@
         <v>441</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="J123" s="16" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K123" s="16"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="F124" s="15" t="s">
-        <v>286</v>
+        <v>510</v>
+      </c>
+      <c r="F124" s="15">
+        <v>239</v>
       </c>
       <c r="G124" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>361</v>
+        <v>441</v>
       </c>
       <c r="I124" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J124" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K124" s="16"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>446</v>
@@ -7023,13 +7046,13 @@
         <v>511</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="G125" s="15">
-        <v>1998</v>
+        <v>286</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>66</v>
+        <v>361</v>
       </c>
       <c r="I125" s="16" t="s">
         <v>421</v>
@@ -7041,7 +7064,7 @@
     </row>
     <row r="126" spans="1:11">
       <c r="A126" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>446</v>
@@ -7054,13 +7077,13 @@
         <v>511</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G126" s="15" t="s">
-        <v>14</v>
+        <v>287</v>
+      </c>
+      <c r="G126" s="15">
+        <v>1998</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="I126" s="16" t="s">
         <v>421</v>
@@ -7072,7 +7095,7 @@
     </row>
     <row r="127" spans="1:11">
       <c r="A127" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>446</v>
@@ -7084,14 +7107,14 @@
       <c r="E127" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="F127" s="15">
-        <v>5440</v>
+      <c r="F127" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="G127" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>14</v>
+        <v>361</v>
       </c>
       <c r="I127" s="16" t="s">
         <v>421</v>
@@ -7103,38 +7126,38 @@
     </row>
     <row r="128" spans="1:11">
       <c r="A128" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B128" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="F128" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="G128" s="15">
-        <v>2001</v>
+        <v>511</v>
+      </c>
+      <c r="F128" s="15">
+        <v>5440</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="J128" s="16" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K128" s="16"/>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>446</v>
@@ -7147,7 +7170,7 @@
         <v>512</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G129" s="15">
         <v>2001</v>
@@ -7165,7 +7188,7 @@
     </row>
     <row r="130" spans="1:11">
       <c r="A130" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>446</v>
@@ -7178,13 +7201,13 @@
         <v>512</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G130" s="15">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="I130" s="16" t="s">
         <v>372</v>
@@ -7196,69 +7219,69 @@
     </row>
     <row r="131" spans="1:11">
       <c r="A131" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G131" s="15">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>442</v>
+        <v>361</v>
       </c>
       <c r="I131" s="16" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="J131" s="16" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K131" s="16"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G132" s="15">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>66</v>
+        <v>442</v>
       </c>
       <c r="I132" s="16" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="J132" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K132" s="16"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>446</v>
@@ -7271,10 +7294,10 @@
         <v>514</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G133" s="15">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="H133" s="15" t="s">
         <v>66</v>
@@ -7289,7 +7312,7 @@
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>446</v>
@@ -7302,13 +7325,13 @@
         <v>514</v>
       </c>
       <c r="F134" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="G134" s="15" t="s">
-        <v>14</v>
+        <v>296</v>
+      </c>
+      <c r="G134" s="15">
+        <v>2002</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="I134" s="16" t="s">
         <v>371</v>
@@ -7320,7 +7343,7 @@
     </row>
     <row r="135" spans="1:11">
       <c r="A135" s="17" t="s">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="B135" s="18" t="s">
         <v>446</v>
@@ -7332,11 +7355,15 @@
       <c r="E135" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="F135" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="G135" s="15"/>
-      <c r="H135" s="16"/>
+      <c r="F135" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="G135" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="I135" s="16" t="s">
         <v>371</v>
       </c>
@@ -7347,38 +7374,34 @@
     </row>
     <row r="136" spans="1:11">
       <c r="A136" s="17" t="s">
-        <v>139</v>
+        <v>359</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="G136" s="15">
-        <v>2013</v>
-      </c>
-      <c r="H136" s="15" t="s">
-        <v>440</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G136" s="15"/>
+      <c r="H136" s="16"/>
       <c r="I136" s="16" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="J136" s="16" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="K136" s="16"/>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>446</v>
@@ -7391,13 +7414,13 @@
         <v>515</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G137" s="15">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>30</v>
+        <v>440</v>
       </c>
       <c r="I137" s="16" t="s">
         <v>411</v>
@@ -7409,7 +7432,7 @@
     </row>
     <row r="138" spans="1:11">
       <c r="A138" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>446</v>
@@ -7422,7 +7445,7 @@
         <v>515</v>
       </c>
       <c r="F138" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G138" s="15">
         <v>2010</v>
@@ -7440,7 +7463,7 @@
     </row>
     <row r="139" spans="1:11">
       <c r="A139" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>446</v>
@@ -7453,7 +7476,7 @@
         <v>515</v>
       </c>
       <c r="F139" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G139" s="15">
         <v>2010</v>
@@ -7471,69 +7494,69 @@
     </row>
     <row r="140" spans="1:11">
       <c r="A140" s="17" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="B140" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F140" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G140" s="15" t="s">
-        <v>14</v>
+        <v>233</v>
+      </c>
+      <c r="G140" s="15">
+        <v>2010</v>
       </c>
       <c r="H140" s="15" t="s">
-        <v>317</v>
+        <v>30</v>
       </c>
       <c r="I140" s="16" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="J140" s="16" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K140" s="16"/>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B141" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>347</v>
+        <v>460</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="G141" s="15">
-        <v>1979</v>
+        <v>298</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H141" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="I141" s="15" t="s">
-        <v>427</v>
+        <v>317</v>
+      </c>
+      <c r="I141" s="16" t="s">
+        <v>370</v>
       </c>
       <c r="J141" s="16" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K141" s="16"/>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>446</v>
@@ -7546,13 +7569,13 @@
         <v>517</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G142" s="15">
-        <v>1992</v>
+        <v>1979</v>
       </c>
       <c r="H142" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I142" s="15" t="s">
         <v>427</v>
@@ -7564,7 +7587,7 @@
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B143" s="18" t="s">
         <v>446</v>
@@ -7577,7 +7600,7 @@
         <v>517</v>
       </c>
       <c r="F143" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G143" s="15">
         <v>1992</v>
@@ -7595,7 +7618,7 @@
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B144" s="18" t="s">
         <v>446</v>
@@ -7608,13 +7631,13 @@
         <v>517</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G144" s="15">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I144" s="15" t="s">
         <v>427</v>
@@ -7626,7 +7649,7 @@
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B145" s="18" t="s">
         <v>446</v>
@@ -7639,10 +7662,10 @@
         <v>517</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G145" s="15">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="H145" s="15" t="s">
         <v>441</v>
@@ -7657,7 +7680,7 @@
     </row>
     <row r="146" spans="1:11">
       <c r="A146" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B146" s="18" t="s">
         <v>446</v>
@@ -7670,10 +7693,10 @@
         <v>517</v>
       </c>
       <c r="F146" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G146" s="15">
-        <v>1986</v>
+        <v>2011</v>
       </c>
       <c r="H146" s="15" t="s">
         <v>441</v>
@@ -7688,7 +7711,7 @@
     </row>
     <row r="147" spans="1:11">
       <c r="A147" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>446</v>
@@ -7701,10 +7724,10 @@
         <v>517</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="G147" s="15" t="s">
-        <v>14</v>
+        <v>304</v>
+      </c>
+      <c r="G147" s="15">
+        <v>1986</v>
       </c>
       <c r="H147" s="15" t="s">
         <v>441</v>
@@ -7719,7 +7742,7 @@
     </row>
     <row r="148" spans="1:11">
       <c r="A148" s="17" t="s">
-        <v>346</v>
+        <v>217</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>446</v>
@@ -7731,12 +7754,16 @@
       <c r="E148" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="F148" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="G148" s="15"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="16" t="s">
+      <c r="F148" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="G148" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="I148" s="15" t="s">
         <v>427</v>
       </c>
       <c r="J148" s="16" t="s">
@@ -7746,69 +7773,65 @@
     </row>
     <row r="149" spans="1:11">
       <c r="A149" s="17" t="s">
-        <v>218</v>
+        <v>346</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>473</v>
+        <v>347</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="F149" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="G149" s="15">
-        <v>1998</v>
-      </c>
-      <c r="H149" s="15" t="s">
-        <v>361</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="F149" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="G149" s="15"/>
+      <c r="H149" s="16"/>
       <c r="I149" s="16" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="J149" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K149" s="16"/>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="G150" s="15" t="s">
-        <v>14</v>
+        <v>306</v>
+      </c>
+      <c r="G150" s="15">
+        <v>1998</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>33</v>
+        <v>361</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J150" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K150" s="16"/>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>446</v>
@@ -7821,7 +7844,7 @@
         <v>519</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G151" s="15" t="s">
         <v>14</v>
@@ -7839,38 +7862,38 @@
     </row>
     <row r="152" spans="1:11">
       <c r="A152" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="F152" s="15">
-        <v>266</v>
-      </c>
-      <c r="G152" s="15">
-        <v>2000</v>
+        <v>519</v>
+      </c>
+      <c r="F152" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="G152" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H152" s="15" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I152" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J152" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K152" s="16"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B153" s="18" t="s">
         <v>446</v>
@@ -7883,10 +7906,10 @@
         <v>520</v>
       </c>
       <c r="F153" s="15">
-        <v>8023</v>
+        <v>266</v>
       </c>
       <c r="G153" s="15">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="H153" s="15" t="s">
         <v>66</v>
@@ -7901,38 +7924,38 @@
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="17" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B154" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="F154" s="15" t="s">
-        <v>314</v>
+        <v>520</v>
+      </c>
+      <c r="F154" s="15">
+        <v>8023</v>
       </c>
       <c r="G154" s="15">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="H154" s="15" t="s">
-        <v>442</v>
+        <v>66</v>
       </c>
       <c r="I154" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J154" s="16" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="K154" s="16"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B155" s="18" t="s">
         <v>446</v>
@@ -7945,13 +7968,13 @@
         <v>521</v>
       </c>
       <c r="F155" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G155" s="15">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="H155" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I155" s="16" t="s">
         <v>369</v>
@@ -7963,170 +7986,201 @@
     </row>
     <row r="156" spans="1:11">
       <c r="A156" s="17" t="s">
-        <v>477</v>
+        <v>229</v>
       </c>
       <c r="B156" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="F156" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="G156" s="16"/>
-      <c r="H156" s="16"/>
+        <v>521</v>
+      </c>
+      <c r="F156" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G156" s="15">
+        <v>2005</v>
+      </c>
+      <c r="H156" s="15" t="s">
+        <v>444</v>
+      </c>
       <c r="I156" s="16" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="J156" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="K156" s="9"/>
+        <v>426</v>
+      </c>
+      <c r="K156" s="16"/>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" s="17" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B157" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="17" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G157" s="16"/>
       <c r="H157" s="16"/>
       <c r="I157" s="16" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="J157" s="16" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="K157" s="9"/>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" s="17" t="s">
-        <v>332</v>
+        <v>476</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>383</v>
+        <v>479</v>
       </c>
       <c r="D158" s="15"/>
-      <c r="F158" t="s">
-        <v>333</v>
-      </c>
-      <c r="I158" t="s">
-        <v>481</v>
+      <c r="E158" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="F158" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
+      <c r="I158" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="J158" s="16" t="s">
+        <v>425</v>
       </c>
       <c r="K158" s="9"/>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" s="17" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="D159" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="E159" s="16"/>
+        <v>383</v>
+      </c>
+      <c r="D159" s="15"/>
       <c r="F159" t="s">
-        <v>486</v>
-      </c>
-      <c r="H159" t="s">
-        <v>485</v>
-      </c>
-      <c r="I159" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="J159" s="16" t="s">
-        <v>484</v>
+        <v>333</v>
+      </c>
+      <c r="I159" t="s">
+        <v>481</v>
       </c>
       <c r="K159" s="9"/>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="E160" s="16"/>
+      <c r="F160" t="s">
+        <v>486</v>
+      </c>
+      <c r="H160" t="s">
+        <v>485</v>
+      </c>
+      <c r="I160" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="J160" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="K160" s="9"/>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="B160" s="18" t="s">
+      <c r="B161" s="18" t="s">
         <v>489</v>
-      </c>
-      <c r="C160" s="18"/>
-      <c r="D160" s="15"/>
-      <c r="F160" t="s">
-        <v>482</v>
-      </c>
-      <c r="I160" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="J160" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="K160" s="9"/>
-    </row>
-    <row r="161" spans="1:10">
-      <c r="A161" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="B161" s="18" t="s">
-        <v>487</v>
       </c>
       <c r="C161" s="18"/>
       <c r="D161" s="15"/>
-      <c r="F161" s="35" t="s">
+      <c r="F161" t="s">
+        <v>482</v>
+      </c>
+      <c r="I161" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="J161" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="K161" s="9"/>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C162" s="18"/>
+      <c r="D162" s="15"/>
+      <c r="F162" s="35" t="s">
         <v>492</v>
-      </c>
-      <c r="H161" t="s">
-        <v>19</v>
-      </c>
-      <c r="I161" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="J161" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
-      <c r="A162" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="B162" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D162" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F162" s="35" t="s">
-        <v>490</v>
       </c>
       <c r="H162" t="s">
         <v>19</v>
       </c>
       <c r="I162" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="J162" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="H163" t="s">
+        <v>19</v>
+      </c>
+      <c r="I163" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="J162" s="16" t="s">
+      <c r="J163" s="16" t="s">
         <v>491</v>
       </c>
     </row>

--- a/tabular/hiv-reference-data.xlsx
+++ b/tabular/hiv-reference-data.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/Ortervirales/HIV-GLUE/tabular/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AECDEBD-7886-1444-9016-727559567D5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="340" windowWidth="25460" windowHeight="25220" tabRatio="500"/>
+    <workbookView xWindow="9640" yWindow="460" windowWidth="25460" windowHeight="25220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edited down" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
     <sheet name="unclassified" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="526">
   <si>
     <t>Accession</t>
   </si>
@@ -1599,15 +1605,12 @@
   </si>
   <si>
     <t>Ferret</t>
-  </si>
-  <si>
-    <t>AM279354</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2600,7 +2603,15 @@
     <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2943,14 +2954,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S163"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
@@ -2964,7 +2975,7 @@
     <col min="10" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2999,7 +3010,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
         <v>324</v>
       </c>
@@ -3024,7 +3035,7 @@
       </c>
       <c r="K2" s="19"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>336</v>
       </c>
@@ -3049,7 +3060,7 @@
       </c>
       <c r="K3" s="19"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>328</v>
       </c>
@@ -3074,7 +3085,7 @@
       </c>
       <c r="K4" s="19"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>334</v>
       </c>
@@ -3099,7 +3110,7 @@
       </c>
       <c r="K5" s="19"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>326</v>
       </c>
@@ -3124,7 +3135,7 @@
       </c>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>323</v>
       </c>
@@ -3149,7 +3160,7 @@
       </c>
       <c r="K7" s="19"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>322</v>
       </c>
@@ -3174,7 +3185,7 @@
       </c>
       <c r="K8" s="19"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>523</v>
       </c>
@@ -3201,7 +3212,7 @@
         <v>22522310</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>340</v>
       </c>
@@ -3226,7 +3237,7 @@
       </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>342</v>
       </c>
@@ -3251,7 +3262,7 @@
       </c>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>119</v>
       </c>
@@ -3286,7 +3297,7 @@
         <v>8709215</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>122</v>
       </c>
@@ -3321,7 +3332,7 @@
         <v>7888238</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>125</v>
       </c>
@@ -3356,7 +3367,7 @@
         <v>9824329</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>129</v>
       </c>
@@ -3397,9 +3408,9 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="15" t="s">
-        <v>526</v>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>446</v>
@@ -3410,13 +3421,17 @@
       <c r="D16" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="E16" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1992</v>
+      </c>
       <c r="H16" s="16" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>435</v>
@@ -3425,7 +3440,7 @@
         <v>316</v>
       </c>
       <c r="K16" s="15">
-        <v>16817969</v>
+        <v>8794346</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -3436,9 +3451,9 @@
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>446</v>
@@ -3453,13 +3468,13 @@
         <v>28</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G17" s="15">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>435</v>
@@ -3468,20 +3483,20 @@
         <v>316</v>
       </c>
       <c r="K17" s="15">
-        <v>8794346</v>
+        <v>10364271</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>446</v>
@@ -3496,13 +3511,13 @@
         <v>28</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G18" s="15">
         <v>1994</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>435</v>
@@ -3511,20 +3526,20 @@
         <v>316</v>
       </c>
       <c r="K18" s="15">
-        <v>10364271</v>
+        <v>10513639</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>446</v>
@@ -3536,16 +3551,16 @@
         <v>374</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>28</v>
+        <v>454</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G19" s="15">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>435</v>
@@ -3554,7 +3569,7 @@
         <v>316</v>
       </c>
       <c r="K19" s="15">
-        <v>10513639</v>
+        <v>12487816</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -3565,9 +3580,9 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>446</v>
@@ -3579,16 +3594,16 @@
         <v>374</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G20" s="15">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>435</v>
@@ -3597,7 +3612,7 @@
         <v>316</v>
       </c>
       <c r="K20" s="15">
-        <v>12487816</v>
+        <v>11429108</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
@@ -3608,9 +3623,9 @@
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>446</v>
@@ -3625,13 +3640,13 @@
         <v>40</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G21" s="15">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>435</v>
@@ -3651,9 +3666,9 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>446</v>
@@ -3665,16 +3680,16 @@
         <v>374</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G22" s="15">
-        <v>1994</v>
+        <v>1983</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>435</v>
@@ -3683,7 +3698,7 @@
         <v>316</v>
       </c>
       <c r="K22" s="15">
-        <v>11429108</v>
+        <v>9362478</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -3694,9 +3709,9 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>446</v>
@@ -3711,13 +3726,13 @@
         <v>8</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="15">
-        <v>1983</v>
+        <v>13</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>435</v>
@@ -3726,7 +3741,7 @@
         <v>316</v>
       </c>
       <c r="K23" s="15">
-        <v>9362478</v>
+        <v>7483282</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -3737,9 +3752,9 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>446</v>
@@ -3754,7 +3769,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>14</v>
@@ -3769,7 +3784,7 @@
         <v>316</v>
       </c>
       <c r="K24" s="15">
-        <v>7483282</v>
+        <v>3016298</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -3780,9 +3795,9 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>446</v>
@@ -3797,13 +3812,13 @@
         <v>8</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="G25" s="15">
+        <v>2014</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>435</v>
@@ -3811,8 +3826,8 @@
       <c r="J25" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K25" s="15">
-        <v>3016298</v>
+      <c r="K25" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -3823,9 +3838,9 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>446</v>
@@ -3840,13 +3855,13 @@
         <v>8</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G26" s="15">
-        <v>2014</v>
+        <v>1990</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>435</v>
@@ -3854,42 +3869,34 @@
       <c r="J26" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K26" s="15" t="s">
-        <v>20</v>
+      <c r="K26" s="15">
+        <v>12487805</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="15" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="15">
-        <v>1990</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="F27"/>
       <c r="H27" s="16" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>435</v>
@@ -3897,21 +3904,13 @@
       <c r="J27" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K27" s="15">
-        <v>12487805</v>
-      </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="K27" s="1">
+        <v>8107220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>11</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>446</v>
@@ -3920,12 +3919,15 @@
         <v>348</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="F28"/>
-      <c r="H28" s="16" t="s">
-        <v>66</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="16"/>
       <c r="I28" s="16" t="s">
         <v>435</v>
       </c>
@@ -3933,14 +3935,14 @@
         <v>316</v>
       </c>
       <c r="K28" s="1">
-        <v>8107220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="18" t="s">
+        <v>2578615</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>446</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -3952,23 +3954,36 @@
       <c r="E29" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="16"/>
+      <c r="F29" s="15">
+        <v>671</v>
+      </c>
+      <c r="G29" s="15">
+        <v>2000</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="I29" s="16" t="s">
         <v>435</v>
       </c>
       <c r="J29" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K29" s="1">
-        <v>2578615</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="K29" s="15">
+        <v>14610167</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>446</v>
@@ -3983,13 +3998,13 @@
         <v>8</v>
       </c>
       <c r="F30" s="15">
-        <v>671</v>
+        <v>1058</v>
       </c>
       <c r="G30" s="15">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I30" s="16" t="s">
         <v>435</v>
@@ -3998,7 +4013,7 @@
         <v>316</v>
       </c>
       <c r="K30" s="15">
-        <v>14610167</v>
+        <v>16103205</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -4009,9 +4024,9 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>446</v>
@@ -4023,16 +4038,16 @@
         <v>374</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="15">
-        <v>1058</v>
+        <v>47</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>48</v>
       </c>
       <c r="G31" s="15">
-        <v>1998</v>
+        <v>1986</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>435</v>
@@ -4041,20 +4056,12 @@
         <v>316</v>
       </c>
       <c r="K31" s="15">
-        <v>16103205</v>
-      </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-    </row>
-    <row r="32" spans="1:19">
+        <v>8891112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>446</v>
@@ -4069,13 +4076,13 @@
         <v>47</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G32" s="15">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I32" s="16" t="s">
         <v>435</v>
@@ -4084,12 +4091,12 @@
         <v>316</v>
       </c>
       <c r="K32" s="15">
-        <v>8891112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>8627686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>446</v>
@@ -4104,13 +4111,13 @@
         <v>47</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G33" s="15">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I33" s="16" t="s">
         <v>435</v>
@@ -4119,12 +4126,12 @@
         <v>316</v>
       </c>
       <c r="K33" s="15">
-        <v>8627686</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>9847317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>446</v>
@@ -4139,13 +4146,13 @@
         <v>47</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G34" s="15">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>435</v>
@@ -4154,12 +4161,12 @@
         <v>316</v>
       </c>
       <c r="K34" s="15">
-        <v>9847317</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="16" t="s">
-        <v>56</v>
+        <v>15592417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>446</v>
@@ -4170,17 +4177,17 @@
       <c r="D35" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>57</v>
+      <c r="F35" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="G35" s="15">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="I35" s="16" t="s">
         <v>435</v>
@@ -4189,12 +4196,12 @@
         <v>316</v>
       </c>
       <c r="K35" s="15">
-        <v>15592417</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="15" t="s">
-        <v>133</v>
+        <v>11070028</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>446</v>
@@ -4205,17 +4212,17 @@
       <c r="D36" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>134</v>
+      <c r="E36" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>61</v>
       </c>
       <c r="G36" s="15">
-        <v>1997</v>
+        <v>1983</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>435</v>
@@ -4224,12 +4231,12 @@
         <v>316</v>
       </c>
       <c r="K36" s="15">
-        <v>11070028</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>2424612</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>446</v>
@@ -4244,13 +4251,13 @@
         <v>60</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G37" s="15">
-        <v>1983</v>
+        <v>1994</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I37" s="16" t="s">
         <v>435</v>
@@ -4259,12 +4266,12 @@
         <v>316</v>
       </c>
       <c r="K37" s="15">
-        <v>2424612</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>9621027</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>446</v>
@@ -4279,13 +4286,13 @@
         <v>60</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G38" s="15">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>435</v>
@@ -4294,12 +4301,12 @@
         <v>316</v>
       </c>
       <c r="K38" s="15">
-        <v>9621027</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>15186527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>446</v>
@@ -4314,13 +4321,13 @@
         <v>60</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G39" s="15">
         <v>2001</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>435</v>
@@ -4329,12 +4336,12 @@
         <v>316</v>
       </c>
       <c r="K39" s="15">
-        <v>15186527</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>15320994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>446</v>
@@ -4346,16 +4353,16 @@
         <v>374</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G40" s="15">
-        <v>2001</v>
+        <v>1993</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I40" s="16" t="s">
         <v>435</v>
@@ -4364,12 +4371,12 @@
         <v>316</v>
       </c>
       <c r="K40" s="15">
-        <v>15320994</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>9621027</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>446</v>
@@ -4384,13 +4391,13 @@
         <v>71</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G41" s="15">
         <v>1993</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I41" s="16" t="s">
         <v>435</v>
@@ -4399,12 +4406,12 @@
         <v>316</v>
       </c>
       <c r="K41" s="15">
-        <v>9621027</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>10725202</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>446</v>
@@ -4419,13 +4426,13 @@
         <v>71</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G42" s="15">
         <v>1993</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="I42" s="16" t="s">
         <v>435</v>
@@ -4434,12 +4441,12 @@
         <v>316</v>
       </c>
       <c r="K42" s="15">
-        <v>10725202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>10725203</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>446</v>
@@ -4454,13 +4461,13 @@
         <v>71</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G43" s="15">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>435</v>
@@ -4469,12 +4476,12 @@
         <v>316</v>
       </c>
       <c r="K43" s="15">
-        <v>10725203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>10659053</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>446</v>
@@ -4489,13 +4496,13 @@
         <v>71</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G44" s="15">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="I44" s="16" t="s">
         <v>435</v>
@@ -4504,12 +4511,12 @@
         <v>316</v>
       </c>
       <c r="K44" s="15">
-        <v>10659053</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>10659054</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>446</v>
@@ -4524,7 +4531,7 @@
         <v>71</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G45" s="15">
         <v>1995</v>
@@ -4539,12 +4546,12 @@
         <v>316</v>
       </c>
       <c r="K45" s="15">
-        <v>10659054</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>10659055</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>446</v>
@@ -4559,10 +4566,10 @@
         <v>71</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G46" s="15">
-        <v>1995</v>
+        <v>2002</v>
       </c>
       <c r="H46" s="16" t="s">
         <v>66</v>
@@ -4574,12 +4581,12 @@
         <v>316</v>
       </c>
       <c r="K46" s="15">
-        <v>10659055</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>15186527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>446</v>
@@ -4594,10 +4601,10 @@
         <v>71</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G47" s="15">
-        <v>2002</v>
+        <v>1997</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>66</v>
@@ -4609,12 +4616,12 @@
         <v>316</v>
       </c>
       <c r="K47" s="15">
-        <v>15186527</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="16" t="s">
-        <v>86</v>
+        <v>11448170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>446</v>
@@ -4625,17 +4632,17 @@
       <c r="D48" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="16" t="s">
-        <v>87</v>
+      <c r="F48" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="G48" s="15">
-        <v>1997</v>
+        <v>1991</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
       <c r="I48" s="16" t="s">
         <v>435</v>
@@ -4644,12 +4651,12 @@
         <v>316</v>
       </c>
       <c r="K48" s="15">
-        <v>11448170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="15" t="s">
-        <v>135</v>
+        <v>11600844</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>446</v>
@@ -4660,17 +4667,17 @@
       <c r="D49" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>136</v>
+      <c r="E49" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="G49" s="15">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="I49" s="16" t="s">
         <v>435</v>
@@ -4679,12 +4686,12 @@
         <v>316</v>
       </c>
       <c r="K49" s="15">
-        <v>11600844</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>9683568</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>446</v>
@@ -4699,13 +4706,13 @@
         <v>89</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G50" s="15">
         <v>1993</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I50" s="16" t="s">
         <v>435</v>
@@ -4714,12 +4721,12 @@
         <v>316</v>
       </c>
       <c r="K50" s="15">
-        <v>9683568</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>9683569</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>446</v>
@@ -4734,13 +4741,13 @@
         <v>89</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G51" s="15">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="I51" s="16" t="s">
         <v>435</v>
@@ -4749,12 +4756,12 @@
         <v>316</v>
       </c>
       <c r="K51" s="15">
-        <v>9683569</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>10221535</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>446</v>
@@ -4769,13 +4776,13 @@
         <v>89</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G52" s="15">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="I52" s="16" t="s">
         <v>435</v>
@@ -4784,12 +4791,12 @@
         <v>316</v>
       </c>
       <c r="K52" s="15">
-        <v>10221535</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>9621027</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>446</v>
@@ -4801,16 +4808,16 @@
         <v>374</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G53" s="15">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I53" s="16" t="s">
         <v>435</v>
@@ -4819,12 +4826,12 @@
         <v>316</v>
       </c>
       <c r="K53" s="15">
-        <v>9621027</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>9621028</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>446</v>
@@ -4839,13 +4846,13 @@
         <v>101</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G54" s="15">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I54" s="16" t="s">
         <v>435</v>
@@ -4854,12 +4861,12 @@
         <v>316</v>
       </c>
       <c r="K54" s="15">
-        <v>9621028</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>10983640</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>446</v>
@@ -4874,10 +4881,10 @@
         <v>101</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G55" s="15">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H55" s="16" t="s">
         <v>106</v>
@@ -4889,12 +4896,12 @@
         <v>316</v>
       </c>
       <c r="K55" s="15">
-        <v>10983640</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>10983641</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>446</v>
@@ -4906,16 +4913,16 @@
         <v>374</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G56" s="15">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="I56" s="16" t="s">
         <v>435</v>
@@ -4924,12 +4931,12 @@
         <v>316</v>
       </c>
       <c r="K56" s="15">
-        <v>10983641</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>10052760</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>446</v>
@@ -4944,10 +4951,10 @@
         <v>110</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G57" s="15">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H57" s="16" t="s">
         <v>91</v>
@@ -4959,12 +4966,12 @@
         <v>316</v>
       </c>
       <c r="K57" s="15">
-        <v>10052760</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>10052761</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>446</v>
@@ -4976,16 +4983,16 @@
         <v>374</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G58" s="15">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="I58" s="16" t="s">
         <v>435</v>
@@ -4994,12 +5001,12 @@
         <v>316</v>
       </c>
       <c r="K58" s="15">
-        <v>10052761</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>10659053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>446</v>
@@ -5014,13 +5021,13 @@
         <v>115</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G59" s="15">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>435</v>
@@ -5029,12 +5036,12 @@
         <v>316</v>
       </c>
       <c r="K59" s="15">
-        <v>10659053</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="16" t="s">
-        <v>117</v>
+        <v>10659054</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
+        <v>173</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>446</v>
@@ -5043,18 +5050,16 @@
         <v>348</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F60" s="16" t="s">
-        <v>118</v>
+        <v>376</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15" t="s">
+        <v>264</v>
       </c>
       <c r="G60" s="15">
-        <v>1996</v>
-      </c>
-      <c r="H60" s="16" t="s">
+        <v>2002</v>
+      </c>
+      <c r="H60" s="15" t="s">
         <v>66</v>
       </c>
       <c r="I60" s="16" t="s">
@@ -5063,13 +5068,11 @@
       <c r="J60" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K60" s="15">
-        <v>10659054</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="K60" s="15"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>446</v>
@@ -5082,10 +5085,10 @@
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G61" s="15">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>66</v>
@@ -5098,9 +5101,9 @@
       </c>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>446</v>
@@ -5113,7 +5116,7 @@
       </c>
       <c r="E62" s="15"/>
       <c r="F62" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G62" s="15">
         <v>2004</v>
@@ -5129,9 +5132,9 @@
       </c>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>446</v>
@@ -5144,10 +5147,10 @@
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G63" s="15">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>66</v>
@@ -5160,9 +5163,9 @@
       </c>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>446</v>
@@ -5171,14 +5174,14 @@
         <v>348</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G64" s="15">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="H64" s="15" t="s">
         <v>66</v>
@@ -5191,9 +5194,9 @@
       </c>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>446</v>
@@ -5206,10 +5209,10 @@
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G65" s="15">
-        <v>1991</v>
+        <v>1998</v>
       </c>
       <c r="H65" s="15" t="s">
         <v>66</v>
@@ -5222,9 +5225,9 @@
       </c>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>446</v>
@@ -5237,7 +5240,7 @@
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G66" s="15">
         <v>1998</v>
@@ -5253,9 +5256,9 @@
       </c>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>446</v>
@@ -5268,13 +5271,13 @@
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G67" s="15">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>66</v>
+        <v>317</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>435</v>
@@ -5284,9 +5287,9 @@
       </c>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>446</v>
@@ -5299,13 +5302,13 @@
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G68" s="15">
         <v>1999</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>317</v>
+        <v>19</v>
       </c>
       <c r="I68" s="16" t="s">
         <v>435</v>
@@ -5315,28 +5318,28 @@
       </c>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="15" t="s">
         <v>348</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G69" s="15">
-        <v>1999</v>
+        <v>2006</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="I69" s="16" t="s">
         <v>435</v>
@@ -5346,28 +5349,28 @@
       </c>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>446</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>380</v>
+        <v>14</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G70" s="15">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>66</v>
+        <v>321</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>435</v>
@@ -5377,9 +5380,9 @@
       </c>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>446</v>
@@ -5388,17 +5391,17 @@
         <v>379</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>14</v>
+        <v>454</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="G71" s="15">
-        <v>2007</v>
+        <v>275</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>435</v>
@@ -5408,9 +5411,9 @@
       </c>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>446</v>
@@ -5423,13 +5426,13 @@
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I72" s="16" t="s">
         <v>435</v>
@@ -5439,9 +5442,9 @@
       </c>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>446</v>
@@ -5454,13 +5457,13 @@
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>14</v>
+        <v>277</v>
+      </c>
+      <c r="G73" s="15">
+        <v>1986</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I73" s="16" t="s">
         <v>435</v>
@@ -5470,9 +5473,9 @@
       </c>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>446</v>
@@ -5481,17 +5484,17 @@
         <v>379</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>454</v>
+        <v>8</v>
       </c>
       <c r="E74" s="15"/>
       <c r="F74" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="G74" s="15">
-        <v>1986</v>
+        <v>278</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>435</v>
@@ -5501,9 +5504,9 @@
       </c>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>446</v>
@@ -5516,13 +5519,13 @@
       </c>
       <c r="E75" s="15"/>
       <c r="F75" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>14</v>
+        <v>279</v>
+      </c>
+      <c r="G75" s="15">
+        <v>1986</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I75" s="16" t="s">
         <v>435</v>
@@ -5532,9 +5535,9 @@
       </c>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>446</v>
@@ -5543,17 +5546,17 @@
         <v>379</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="E76" s="15"/>
       <c r="F76" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G76" s="15">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I76" s="16" t="s">
         <v>435</v>
@@ -5563,9 +5566,9 @@
       </c>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>446</v>
@@ -5574,17 +5577,17 @@
         <v>379</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E77" s="15"/>
-      <c r="F77" s="15" t="s">
-        <v>280</v>
+      <c r="F77" s="15">
+        <v>12034</v>
       </c>
       <c r="G77" s="15">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>321</v>
+        <v>10</v>
       </c>
       <c r="I77" s="16" t="s">
         <v>435</v>
@@ -5594,40 +5597,40 @@
       </c>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15">
-        <v>12034</v>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>290</v>
       </c>
       <c r="G78" s="15">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="J78" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="K78" s="15"/>
-    </row>
-    <row r="79" spans="1:11">
+        <v>403</v>
+      </c>
+      <c r="K78" s="16"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>446</v>
@@ -5640,25 +5643,25 @@
         <v>498</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="G79" s="15">
-        <v>1999</v>
+        <v>310</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="J79" s="16" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="K79" s="16"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>446</v>
@@ -5671,13 +5674,13 @@
         <v>498</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>14</v>
+        <v>311</v>
+      </c>
+      <c r="G80" s="15">
+        <v>2010</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>33</v>
+        <v>362</v>
       </c>
       <c r="I80" s="16" t="s">
         <v>375</v>
@@ -5687,9 +5690,9 @@
       </c>
       <c r="K80" s="16"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>446</v>
@@ -5702,7 +5705,7 @@
         <v>498</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G81" s="15">
         <v>2010</v>
@@ -5718,9 +5721,9 @@
       </c>
       <c r="K81" s="16"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>446</v>
@@ -5733,7 +5736,7 @@
         <v>498</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G82" s="15">
         <v>2010</v>
@@ -5749,9 +5752,9 @@
       </c>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
-        <v>227</v>
+        <v>351</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>446</v>
@@ -5763,146 +5766,146 @@
       <c r="E83" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="F83" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="G83" s="15">
-        <v>2010</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>362</v>
-      </c>
+      <c r="F83" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="G83" s="15"/>
+      <c r="H83" s="16"/>
       <c r="I83" s="16" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="J83" s="16" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="K83" s="16"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
-        <v>351</v>
+        <v>169</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>352</v>
+        <v>469</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="F84" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="G84" s="15"/>
-      <c r="H84" s="16"/>
+        <v>499</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="I84" s="16" t="s">
-        <v>363</v>
+        <v>416</v>
       </c>
       <c r="J84" s="16" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="K84" s="16"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="17" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="17" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>14</v>
+        <v>285</v>
+      </c>
+      <c r="G85" s="15">
+        <v>2009</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>49</v>
+        <v>362</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K85" s="16"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="17" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="17" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="G86" s="15">
-        <v>2009</v>
+        <v>309</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>362</v>
+        <v>30</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
       <c r="J86" s="16" t="s">
-        <v>400</v>
+        <v>424</v>
       </c>
       <c r="K86" s="16"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="B87" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="17" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="G87" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="J87" s="16" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>446</v>
@@ -5915,13 +5918,13 @@
         <v>502</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>14</v>
+        <v>235</v>
+      </c>
+      <c r="G88" s="15">
+        <v>2010</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I88" s="16" t="s">
         <v>412</v>
@@ -5931,9 +5934,9 @@
       </c>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:11" ht="13" customHeight="1">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>446</v>
@@ -5946,7 +5949,7 @@
         <v>502</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G89" s="15">
         <v>2010</v>
@@ -5962,40 +5965,40 @@
       </c>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>455</v>
+        <v>354</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="17" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G90" s="15">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>30</v>
+        <v>440</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="J90" s="16" t="s">
-        <v>393</v>
+        <v>465</v>
       </c>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>446</v>
@@ -6008,10 +6011,10 @@
         <v>503</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G91" s="15">
-        <v>2006</v>
+        <v>1990</v>
       </c>
       <c r="H91" s="15" t="s">
         <v>440</v>
@@ -6024,9 +6027,9 @@
       </c>
       <c r="K91" s="16"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>446</v>
@@ -6039,13 +6042,13 @@
         <v>503</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G92" s="15">
-        <v>1990</v>
+        <v>2001</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>440</v>
+        <v>66</v>
       </c>
       <c r="I92" s="16" t="s">
         <v>413</v>
@@ -6055,9 +6058,9 @@
       </c>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>446</v>
@@ -6070,10 +6073,10 @@
         <v>503</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G93" s="15">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="H93" s="15" t="s">
         <v>66</v>
@@ -6086,9 +6089,9 @@
       </c>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>446</v>
@@ -6101,7 +6104,7 @@
         <v>503</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G94" s="15">
         <v>2005</v>
@@ -6117,9 +6120,9 @@
       </c>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>446</v>
@@ -6132,7 +6135,7 @@
         <v>503</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G95" s="15">
         <v>2005</v>
@@ -6148,9 +6151,9 @@
       </c>
       <c r="K95" s="16"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>446</v>
@@ -6163,7 +6166,7 @@
         <v>503</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G96" s="15">
         <v>2005</v>
@@ -6179,9 +6182,9 @@
       </c>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>446</v>
@@ -6194,7 +6197,7 @@
         <v>503</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G97" s="15">
         <v>2005</v>
@@ -6210,9 +6213,9 @@
       </c>
       <c r="K97" s="16"/>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>446</v>
@@ -6225,7 +6228,7 @@
         <v>503</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G98" s="15">
         <v>2005</v>
@@ -6241,9 +6244,9 @@
       </c>
       <c r="K98" s="16"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>446</v>
@@ -6256,13 +6259,13 @@
         <v>503</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G99" s="15">
-        <v>2005</v>
+        <v>1988</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>66</v>
+        <v>361</v>
       </c>
       <c r="I99" s="16" t="s">
         <v>413</v>
@@ -6272,9 +6275,9 @@
       </c>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>446</v>
@@ -6287,13 +6290,13 @@
         <v>503</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G100" s="15">
-        <v>1988</v>
+        <v>2000</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>361</v>
+        <v>69</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>413</v>
@@ -6303,9 +6306,9 @@
       </c>
       <c r="K100" s="16"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B101" s="18" t="s">
         <v>446</v>
@@ -6318,10 +6321,10 @@
         <v>503</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G101" s="15">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="H101" s="15" t="s">
         <v>69</v>
@@ -6334,9 +6337,9 @@
       </c>
       <c r="K101" s="16"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>446</v>
@@ -6349,10 +6352,10 @@
         <v>503</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G102" s="15">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="H102" s="15" t="s">
         <v>69</v>
@@ -6365,9 +6368,9 @@
       </c>
       <c r="K102" s="16"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>446</v>
@@ -6380,13 +6383,13 @@
         <v>503</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G103" s="15">
-        <v>2009</v>
+        <v>1985</v>
       </c>
       <c r="H103" s="15" t="s">
-        <v>69</v>
+        <v>441</v>
       </c>
       <c r="I103" s="16" t="s">
         <v>413</v>
@@ -6396,9 +6399,9 @@
       </c>
       <c r="K103" s="16"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>159</v>
+        <v>353</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>446</v>
@@ -6410,26 +6413,22 @@
       <c r="E104" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="F104" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="G104" s="15">
-        <v>1985</v>
-      </c>
-      <c r="H104" s="15" t="s">
-        <v>441</v>
-      </c>
+      <c r="F104" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="G104" s="15"/>
+      <c r="H104" s="16"/>
       <c r="I104" s="16" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="J104" s="16" t="s">
         <v>465</v>
       </c>
       <c r="K104" s="16"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>446</v>
@@ -6442,7 +6441,7 @@
         <v>503</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G105" s="15"/>
       <c r="H105" s="16"/>
@@ -6454,36 +6453,40 @@
       </c>
       <c r="K105" s="16"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>355</v>
+        <v>160</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>354</v>
+        <v>464</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="17" t="s">
-        <v>503</v>
-      </c>
-      <c r="F106" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="G106" s="15"/>
-      <c r="H106" s="16"/>
+        <v>504</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="G106" s="15">
+        <v>2004</v>
+      </c>
+      <c r="H106" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="I106" s="16" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="J106" s="16" t="s">
-        <v>465</v>
+        <v>394</v>
       </c>
       <c r="K106" s="16"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>446</v>
@@ -6496,10 +6499,10 @@
         <v>504</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G107" s="15">
-        <v>2004</v>
+        <v>1999</v>
       </c>
       <c r="H107" s="15" t="s">
         <v>66</v>
@@ -6512,9 +6515,9 @@
       </c>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>446</v>
@@ -6527,7 +6530,7 @@
         <v>504</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G108" s="15">
         <v>1999</v>
@@ -6543,94 +6546,94 @@
       </c>
       <c r="K108" s="16"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>162</v>
+        <v>357</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>464</v>
+        <v>358</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="F109" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="G109" s="15">
-        <v>1999</v>
-      </c>
-      <c r="H109" s="15" t="s">
-        <v>66</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="G109" s="15"/>
+      <c r="H109" s="16"/>
       <c r="I109" s="16" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="J109" s="16" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="K109" s="16"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="17" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G110" s="15"/>
       <c r="H110" s="16"/>
       <c r="I110" s="16" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>428</v>
+        <v>461</v>
       </c>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>349</v>
+        <v>163</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>350</v>
+        <v>456</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="F111" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="G111" s="15"/>
-      <c r="H111" s="16"/>
+        <v>507</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G111" s="15">
+        <v>2004</v>
+      </c>
+      <c r="H111" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="I111" s="16" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="J111" s="16" t="s">
-        <v>461</v>
+        <v>395</v>
       </c>
       <c r="K111" s="16"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>446</v>
@@ -6643,10 +6646,10 @@
         <v>507</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G112" s="15">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="H112" s="15" t="s">
         <v>66</v>
@@ -6659,9 +6662,9 @@
       </c>
       <c r="K112" s="16"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>446</v>
@@ -6674,7 +6677,7 @@
         <v>507</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G113" s="15">
         <v>2007</v>
@@ -6690,9 +6693,9 @@
       </c>
       <c r="K113" s="16"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>446</v>
@@ -6705,10 +6708,10 @@
         <v>507</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G114" s="15">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="H114" s="15" t="s">
         <v>66</v>
@@ -6721,9 +6724,9 @@
       </c>
       <c r="K114" s="16"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>446</v>
@@ -6736,7 +6739,7 @@
         <v>507</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G115" s="15">
         <v>2012</v>
@@ -6752,9 +6755,9 @@
       </c>
       <c r="K115" s="16"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>446</v>
@@ -6767,10 +6770,10 @@
         <v>507</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G116" s="15">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="H116" s="15" t="s">
         <v>66</v>
@@ -6783,40 +6786,40 @@
       </c>
       <c r="K116" s="16"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G117" s="15">
-        <v>2013</v>
+        <v>1999</v>
       </c>
       <c r="H117" s="15" t="s">
         <v>66</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="J117" s="16" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K117" s="16"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>446</v>
@@ -6829,7 +6832,7 @@
         <v>508</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G118" s="15">
         <v>1999</v>
@@ -6845,40 +6848,40 @@
       </c>
       <c r="K118" s="16"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="C119" s="17" t="s">
-        <v>468</v>
+      <c r="C119" s="15" t="s">
+        <v>462</v>
       </c>
       <c r="D119" s="15"/>
-      <c r="E119" s="17" t="s">
-        <v>508</v>
+      <c r="E119" s="15" t="s">
+        <v>509</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="G119" s="15">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>66</v>
+        <v>440</v>
       </c>
       <c r="I119" s="16" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J119" s="16" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K119" s="16"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>446</v>
@@ -6891,7 +6894,7 @@
         <v>509</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G120" s="15">
         <v>1988</v>
@@ -6907,9 +6910,9 @@
       </c>
       <c r="K120" s="16"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>446</v>
@@ -6922,13 +6925,13 @@
         <v>509</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="G121" s="15">
-        <v>1988</v>
+        <v>284</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>440</v>
+        <v>33</v>
       </c>
       <c r="I121" s="16" t="s">
         <v>418</v>
@@ -6938,40 +6941,40 @@
       </c>
       <c r="K121" s="16"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="C122" s="15" t="s">
-        <v>462</v>
+      <c r="C122" s="17" t="s">
+        <v>463</v>
       </c>
       <c r="D122" s="15"/>
-      <c r="E122" s="15" t="s">
-        <v>509</v>
+      <c r="E122" s="17" t="s">
+        <v>510</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G122" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>33</v>
+        <v>441</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>418</v>
+        <v>363</v>
       </c>
       <c r="J122" s="16" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K122" s="16"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>446</v>
@@ -6983,8 +6986,8 @@
       <c r="E123" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="F123" s="15" t="s">
-        <v>289</v>
+      <c r="F123" s="15">
+        <v>239</v>
       </c>
       <c r="G123" s="15" t="s">
         <v>14</v>
@@ -6993,47 +6996,47 @@
         <v>441</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>363</v>
+        <v>419</v>
       </c>
       <c r="J123" s="16" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K123" s="16"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="17" t="s">
-        <v>510</v>
-      </c>
-      <c r="F124" s="15">
-        <v>239</v>
+        <v>511</v>
+      </c>
+      <c r="F124" s="15" t="s">
+        <v>286</v>
       </c>
       <c r="G124" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>441</v>
+        <v>361</v>
       </c>
       <c r="I124" s="16" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="J124" s="16" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="K124" s="16"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>446</v>
@@ -7046,13 +7049,13 @@
         <v>511</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>14</v>
+        <v>287</v>
+      </c>
+      <c r="G125" s="15">
+        <v>1998</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="I125" s="16" t="s">
         <v>421</v>
@@ -7062,9 +7065,9 @@
       </c>
       <c r="K125" s="16"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>446</v>
@@ -7077,13 +7080,13 @@
         <v>511</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="G126" s="15">
-        <v>1998</v>
+        <v>288</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>66</v>
+        <v>361</v>
       </c>
       <c r="I126" s="16" t="s">
         <v>421</v>
@@ -7093,9 +7096,9 @@
       </c>
       <c r="K126" s="16"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>446</v>
@@ -7107,14 +7110,14 @@
       <c r="E127" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="F127" s="15" t="s">
-        <v>288</v>
+      <c r="F127" s="15">
+        <v>5440</v>
       </c>
       <c r="G127" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>361</v>
+        <v>14</v>
       </c>
       <c r="I127" s="16" t="s">
         <v>421</v>
@@ -7124,40 +7127,40 @@
       </c>
       <c r="K127" s="16"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B128" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="F128" s="15">
-        <v>5440</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>14</v>
+        <v>512</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="G128" s="15">
+        <v>2001</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="J128" s="16" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K128" s="16"/>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>446</v>
@@ -7170,7 +7173,7 @@
         <v>512</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G129" s="15">
         <v>2001</v>
@@ -7186,9 +7189,9 @@
       </c>
       <c r="K129" s="16"/>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>446</v>
@@ -7201,13 +7204,13 @@
         <v>512</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G130" s="15">
-        <v>2001</v>
+        <v>2009</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>66</v>
+        <v>361</v>
       </c>
       <c r="I130" s="16" t="s">
         <v>372</v>
@@ -7217,71 +7220,71 @@
       </c>
       <c r="K130" s="16"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="17" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G131" s="15">
-        <v>2009</v>
+        <v>1997</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>361</v>
+        <v>442</v>
       </c>
       <c r="I131" s="16" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="J131" s="16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K131" s="16"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="17" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G132" s="15">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>442</v>
+        <v>66</v>
       </c>
       <c r="I132" s="16" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="J132" s="16" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K132" s="16"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>446</v>
@@ -7294,10 +7297,10 @@
         <v>514</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G133" s="15">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="H133" s="15" t="s">
         <v>66</v>
@@ -7310,9 +7313,9 @@
       </c>
       <c r="K133" s="16"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>446</v>
@@ -7325,13 +7328,13 @@
         <v>514</v>
       </c>
       <c r="F134" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="G134" s="15">
-        <v>2002</v>
+        <v>297</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>66</v>
+        <v>361</v>
       </c>
       <c r="I134" s="16" t="s">
         <v>371</v>
@@ -7341,9 +7344,9 @@
       </c>
       <c r="K134" s="16"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
-        <v>209</v>
+        <v>359</v>
       </c>
       <c r="B135" s="18" t="s">
         <v>446</v>
@@ -7355,15 +7358,11 @@
       <c r="E135" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="F135" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="G135" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H135" s="15" t="s">
-        <v>361</v>
-      </c>
+      <c r="F135" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G135" s="15"/>
+      <c r="H135" s="16"/>
       <c r="I135" s="16" t="s">
         <v>371</v>
       </c>
@@ -7372,36 +7371,40 @@
       </c>
       <c r="K135" s="16"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
-        <v>359</v>
+        <v>139</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="17" t="s">
-        <v>514</v>
-      </c>
-      <c r="F136" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="G136" s="15"/>
-      <c r="H136" s="16"/>
+        <v>515</v>
+      </c>
+      <c r="F136" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="G136" s="15">
+        <v>2013</v>
+      </c>
+      <c r="H136" s="15" t="s">
+        <v>440</v>
+      </c>
       <c r="I136" s="16" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="J136" s="16" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="K136" s="16"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>446</v>
@@ -7414,13 +7417,13 @@
         <v>515</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G137" s="15">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>440</v>
+        <v>30</v>
       </c>
       <c r="I137" s="16" t="s">
         <v>411</v>
@@ -7430,9 +7433,9 @@
       </c>
       <c r="K137" s="16"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>446</v>
@@ -7445,7 +7448,7 @@
         <v>515</v>
       </c>
       <c r="F138" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G138" s="15">
         <v>2010</v>
@@ -7461,9 +7464,9 @@
       </c>
       <c r="K138" s="16"/>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>446</v>
@@ -7476,7 +7479,7 @@
         <v>515</v>
       </c>
       <c r="F139" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G139" s="15">
         <v>2010</v>
@@ -7492,71 +7495,71 @@
       </c>
       <c r="K139" s="16"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="B140" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="17" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F140" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="G140" s="15">
-        <v>2010</v>
+        <v>298</v>
+      </c>
+      <c r="G140" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H140" s="15" t="s">
-        <v>30</v>
+        <v>317</v>
       </c>
       <c r="I140" s="16" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="J140" s="16" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="K140" s="16"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B141" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>460</v>
+        <v>347</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="17" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G141" s="15" t="s">
-        <v>14</v>
+        <v>299</v>
+      </c>
+      <c r="G141" s="15">
+        <v>1979</v>
       </c>
       <c r="H141" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="I141" s="16" t="s">
-        <v>370</v>
+        <v>442</v>
+      </c>
+      <c r="I141" s="15" t="s">
+        <v>427</v>
       </c>
       <c r="J141" s="16" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K141" s="16"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>446</v>
@@ -7569,13 +7572,13 @@
         <v>517</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G142" s="15">
-        <v>1979</v>
+        <v>1992</v>
       </c>
       <c r="H142" s="15" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I142" s="15" t="s">
         <v>427</v>
@@ -7585,9 +7588,9 @@
       </c>
       <c r="K142" s="16"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B143" s="18" t="s">
         <v>446</v>
@@ -7600,7 +7603,7 @@
         <v>517</v>
       </c>
       <c r="F143" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G143" s="15">
         <v>1992</v>
@@ -7616,9 +7619,9 @@
       </c>
       <c r="K143" s="16"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B144" s="18" t="s">
         <v>446</v>
@@ -7631,13 +7634,13 @@
         <v>517</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G144" s="15">
-        <v>1992</v>
+        <v>2006</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I144" s="15" t="s">
         <v>427</v>
@@ -7647,9 +7650,9 @@
       </c>
       <c r="K144" s="16"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B145" s="18" t="s">
         <v>446</v>
@@ -7662,10 +7665,10 @@
         <v>517</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G145" s="15">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="H145" s="15" t="s">
         <v>441</v>
@@ -7678,9 +7681,9 @@
       </c>
       <c r="K145" s="16"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B146" s="18" t="s">
         <v>446</v>
@@ -7693,10 +7696,10 @@
         <v>517</v>
       </c>
       <c r="F146" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G146" s="15">
-        <v>2011</v>
+        <v>1986</v>
       </c>
       <c r="H146" s="15" t="s">
         <v>441</v>
@@ -7709,9 +7712,9 @@
       </c>
       <c r="K146" s="16"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>446</v>
@@ -7724,10 +7727,10 @@
         <v>517</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G147" s="15">
-        <v>1986</v>
+        <v>305</v>
+      </c>
+      <c r="G147" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H147" s="15" t="s">
         <v>441</v>
@@ -7740,9 +7743,9 @@
       </c>
       <c r="K147" s="16"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>217</v>
+        <v>346</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>446</v>
@@ -7754,16 +7757,12 @@
       <c r="E148" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="F148" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="G148" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H148" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="I148" s="15" t="s">
+      <c r="F148" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="G148" s="15"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="16" t="s">
         <v>427</v>
       </c>
       <c r="J148" s="16" t="s">
@@ -7771,67 +7770,71 @@
       </c>
       <c r="K148" s="16"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>346</v>
+        <v>218</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>347</v>
+        <v>473</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="17" t="s">
-        <v>517</v>
-      </c>
-      <c r="F149" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="G149" s="15"/>
-      <c r="H149" s="16"/>
+        <v>518</v>
+      </c>
+      <c r="F149" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="G149" s="15">
+        <v>1998</v>
+      </c>
+      <c r="H149" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="I149" s="16" t="s">
-        <v>427</v>
+        <v>365</v>
       </c>
       <c r="J149" s="16" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K149" s="16"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="G150" s="15">
-        <v>1998</v>
+        <v>307</v>
+      </c>
+      <c r="G150" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>361</v>
+        <v>33</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="J150" s="16" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K150" s="16"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>446</v>
@@ -7844,7 +7847,7 @@
         <v>519</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G151" s="15" t="s">
         <v>14</v>
@@ -7860,40 +7863,40 @@
       </c>
       <c r="K151" s="16"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="17" t="s">
-        <v>519</v>
-      </c>
-      <c r="F152" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="G152" s="15" t="s">
-        <v>14</v>
+        <v>520</v>
+      </c>
+      <c r="F152" s="15">
+        <v>266</v>
+      </c>
+      <c r="G152" s="15">
+        <v>2000</v>
       </c>
       <c r="H152" s="15" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I152" s="16" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="J152" s="16" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K152" s="16"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B153" s="18" t="s">
         <v>446</v>
@@ -7906,10 +7909,10 @@
         <v>520</v>
       </c>
       <c r="F153" s="15">
-        <v>266</v>
+        <v>8023</v>
       </c>
       <c r="G153" s="15">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="H153" s="15" t="s">
         <v>66</v>
@@ -7922,40 +7925,40 @@
       </c>
       <c r="K153" s="16"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B154" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="F154" s="15">
-        <v>8023</v>
+        <v>521</v>
+      </c>
+      <c r="F154" s="15" t="s">
+        <v>314</v>
       </c>
       <c r="G154" s="15">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="H154" s="15" t="s">
-        <v>66</v>
+        <v>442</v>
       </c>
       <c r="I154" s="16" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J154" s="16" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="K154" s="16"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B155" s="18" t="s">
         <v>446</v>
@@ -7968,13 +7971,13 @@
         <v>521</v>
       </c>
       <c r="F155" s="15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G155" s="15">
-        <v>1998</v>
+        <v>2005</v>
       </c>
       <c r="H155" s="15" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="I155" s="16" t="s">
         <v>369</v>
@@ -7984,212 +7987,181 @@
       </c>
       <c r="K155" s="16"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>229</v>
+        <v>477</v>
       </c>
       <c r="B156" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="F156" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="G156" s="15">
-        <v>2005</v>
-      </c>
-      <c r="H156" s="15" t="s">
-        <v>444</v>
-      </c>
+        <v>509</v>
+      </c>
+      <c r="F156" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
       <c r="I156" s="16" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="J156" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="K156" s="16"/>
-    </row>
-    <row r="157" spans="1:11">
+        <v>398</v>
+      </c>
+      <c r="K156" s="9"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B157" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="17" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G157" s="16"/>
       <c r="H157" s="16"/>
       <c r="I157" s="16" t="s">
-        <v>418</v>
+        <v>375</v>
       </c>
       <c r="J157" s="16" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="K157" s="9"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>476</v>
+        <v>332</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>479</v>
+        <v>383</v>
       </c>
       <c r="D158" s="15"/>
-      <c r="E158" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="F158" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="G158" s="16"/>
-      <c r="H158" s="16"/>
-      <c r="I158" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="J158" s="16" t="s">
-        <v>425</v>
+      <c r="F158" t="s">
+        <v>333</v>
+      </c>
+      <c r="I158" t="s">
+        <v>481</v>
       </c>
       <c r="K158" s="9"/>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="B159" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="E159" s="16"/>
+      <c r="F159" t="s">
+        <v>486</v>
+      </c>
+      <c r="H159" t="s">
+        <v>485</v>
+      </c>
+      <c r="I159" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="J159" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="K159" s="9"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="C160" s="18"/>
+      <c r="D160" s="15"/>
+      <c r="F160" t="s">
+        <v>482</v>
+      </c>
+      <c r="I160" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="J160" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="K160" s="9"/>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A161" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="B161" s="18" t="s">
         <v>487</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="D159" s="15"/>
-      <c r="F159" t="s">
-        <v>333</v>
-      </c>
-      <c r="I159" t="s">
-        <v>481</v>
-      </c>
-      <c r="K159" s="9"/>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="B160" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="C160" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="D160" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="E160" s="16"/>
-      <c r="F160" t="s">
-        <v>486</v>
-      </c>
-      <c r="H160" t="s">
-        <v>485</v>
-      </c>
-      <c r="I160" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="J160" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="K160" s="9"/>
-    </row>
-    <row r="161" spans="1:11">
-      <c r="A161" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="B161" s="18" t="s">
-        <v>489</v>
       </c>
       <c r="C161" s="18"/>
       <c r="D161" s="15"/>
-      <c r="F161" t="s">
-        <v>482</v>
+      <c r="F161" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="H161" t="s">
+        <v>19</v>
       </c>
       <c r="I161" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="J161" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="K161" s="9"/>
-    </row>
-    <row r="162" spans="1:11">
+        <v>497</v>
+      </c>
+      <c r="J161" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" s="17" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="B162" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="C162" s="18"/>
-      <c r="D162" s="15"/>
+        <v>488</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D162" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="F162" s="35" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H162" t="s">
         <v>19</v>
       </c>
       <c r="I162" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="J162" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11">
-      <c r="A163" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="B163" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="C163" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D163" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F163" s="35" t="s">
-        <v>490</v>
-      </c>
-      <c r="H163" t="s">
-        <v>19</v>
-      </c>
-      <c r="I163" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="J163" s="16" t="s">
+      <c r="J162" s="16" t="s">
         <v>491</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L152">
-    <sortCondition sortBy="cellColor" ref="C2:C152" dxfId="0"/>
-    <sortCondition ref="C2:C152"/>
-    <sortCondition ref="D2:D152"/>
-    <sortCondition ref="E2:E152"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L151">
+    <sortCondition sortBy="cellColor" ref="C2:C151" dxfId="1"/>
+    <sortCondition ref="C2:C151"/>
+    <sortCondition ref="D2:D151"/>
+    <sortCondition ref="E2:E151"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8202,14 +8174,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U158"/>
   <sheetViews>
     <sheetView topLeftCell="A142" workbookViewId="0">
       <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" customWidth="1"/>
@@ -8221,7 +8193,7 @@
     <col min="11" max="11" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -8259,7 +8231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>119</v>
       </c>
@@ -8297,7 +8269,7 @@
         <v>8709215</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>122</v>
       </c>
@@ -8335,7 +8307,7 @@
         <v>7888238</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>125</v>
       </c>
@@ -8373,7 +8345,7 @@
         <v>9824329</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
         <v>129</v>
       </c>
@@ -8409,7 +8381,7 @@
       </c>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
         <v>27</v>
       </c>
@@ -8447,7 +8419,7 @@
         <v>8794346</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>31</v>
       </c>
@@ -8485,7 +8457,7 @@
         <v>10364271</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>34</v>
       </c>
@@ -8523,7 +8495,7 @@
         <v>10513639</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
         <v>37</v>
       </c>
@@ -8561,7 +8533,7 @@
         <v>12487816</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
         <v>39</v>
       </c>
@@ -8599,7 +8571,7 @@
         <v>11429108</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>43</v>
       </c>
@@ -8637,7 +8609,7 @@
         <v>11429108</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>7</v>
       </c>
@@ -8675,7 +8647,7 @@
         <v>9362478</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
         <v>11</v>
       </c>
@@ -8713,7 +8685,7 @@
         <v>2578615</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>12</v>
       </c>
@@ -8760,7 +8732,7 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>15</v>
       </c>
@@ -8807,7 +8779,7 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>17</v>
       </c>
@@ -8854,7 +8826,7 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
         <v>21</v>
       </c>
@@ -8901,7 +8873,7 @@
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
         <v>24</v>
       </c>
@@ -8948,7 +8920,7 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
         <v>26</v>
       </c>
@@ -8995,7 +8967,7 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
         <v>46</v>
       </c>
@@ -9042,7 +9014,7 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>50</v>
       </c>
@@ -9089,7 +9061,7 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>53</v>
       </c>
@@ -9136,7 +9108,7 @@
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>56</v>
       </c>
@@ -9183,7 +9155,7 @@
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="23" t="s">
         <v>133</v>
       </c>
@@ -9230,7 +9202,7 @@
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>59</v>
       </c>
@@ -9277,7 +9249,7 @@
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>62</v>
       </c>
@@ -9324,7 +9296,7 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
         <v>64</v>
       </c>
@@ -9371,7 +9343,7 @@
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
         <v>67</v>
       </c>
@@ -9409,7 +9381,7 @@
         <v>15320994</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
         <v>70</v>
       </c>
@@ -9447,7 +9419,7 @@
         <v>9621027</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
         <v>73</v>
       </c>
@@ -9485,7 +9457,7 @@
         <v>10725202</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="24" t="s">
         <v>75</v>
       </c>
@@ -9523,7 +9495,7 @@
         <v>10725203</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
         <v>78</v>
       </c>
@@ -9561,7 +9533,7 @@
         <v>10659053</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="24" t="s">
         <v>80</v>
       </c>
@@ -9599,7 +9571,7 @@
         <v>10659054</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="24" t="s">
         <v>82</v>
       </c>
@@ -9637,7 +9609,7 @@
         <v>10659055</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="24" t="s">
         <v>84</v>
       </c>
@@ -9675,7 +9647,7 @@
         <v>15186527</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="24" t="s">
         <v>86</v>
       </c>
@@ -9713,7 +9685,7 @@
         <v>11448170</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="23" t="s">
         <v>135</v>
       </c>
@@ -9751,7 +9723,7 @@
         <v>11600844</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="24" t="s">
         <v>88</v>
       </c>
@@ -9789,7 +9761,7 @@
         <v>9683568</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="24" t="s">
         <v>92</v>
       </c>
@@ -9827,7 +9799,7 @@
         <v>9683569</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="24" t="s">
         <v>95</v>
       </c>
@@ -9865,7 +9837,7 @@
         <v>10221535</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="24" t="s">
         <v>97</v>
       </c>
@@ -9903,7 +9875,7 @@
         <v>9621027</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="24" t="s">
         <v>100</v>
       </c>
@@ -9941,7 +9913,7 @@
         <v>9621028</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="24" t="s">
         <v>104</v>
       </c>
@@ -9979,7 +9951,7 @@
         <v>10983640</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="24" t="s">
         <v>107</v>
       </c>
@@ -10017,7 +9989,7 @@
         <v>10983641</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="24" t="s">
         <v>109</v>
       </c>
@@ -10055,7 +10027,7 @@
         <v>10052760</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="24" t="s">
         <v>112</v>
       </c>
@@ -10093,7 +10065,7 @@
         <v>10052761</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="24" t="s">
         <v>114</v>
       </c>
@@ -10131,7 +10103,7 @@
         <v>10659053</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="24" t="s">
         <v>117</v>
       </c>
@@ -10169,7 +10141,7 @@
         <v>10659054</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
         <v>173</v>
       </c>
@@ -10201,7 +10173,7 @@
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
         <v>174</v>
       </c>
@@ -10233,7 +10205,7 @@
       <c r="K50" s="23"/>
       <c r="L50" s="23"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="23" t="s">
         <v>175</v>
       </c>
@@ -10265,7 +10237,7 @@
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="23" t="s">
         <v>176</v>
       </c>
@@ -10297,7 +10269,7 @@
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
         <v>178</v>
       </c>
@@ -10329,7 +10301,7 @@
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">
         <v>179</v>
       </c>
@@ -10361,7 +10333,7 @@
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
         <v>180</v>
       </c>
@@ -10393,7 +10365,7 @@
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
         <v>181</v>
       </c>
@@ -10425,7 +10397,7 @@
       <c r="K56" s="23"/>
       <c r="L56" s="23"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="23" t="s">
         <v>182</v>
       </c>
@@ -10457,7 +10429,7 @@
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="23" t="s">
         <v>183</v>
       </c>
@@ -10489,7 +10461,7 @@
       <c r="K58" s="23"/>
       <c r="L58" s="23"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="23" t="s">
         <v>191</v>
       </c>
@@ -10519,7 +10491,7 @@
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
         <v>184</v>
       </c>
@@ -10549,7 +10521,7 @@
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="23" t="s">
         <v>185</v>
       </c>
@@ -10579,7 +10551,7 @@
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="23" t="s">
         <v>186</v>
       </c>
@@ -10609,7 +10581,7 @@
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="23" t="s">
         <v>187</v>
       </c>
@@ -10639,7 +10611,7 @@
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="23" t="s">
         <v>188</v>
       </c>
@@ -10669,7 +10641,7 @@
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="23" t="s">
         <v>189</v>
       </c>
@@ -10699,7 +10671,7 @@
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="23" t="s">
         <v>190</v>
       </c>
@@ -10729,7 +10701,7 @@
       <c r="K66" s="23"/>
       <c r="L66" s="23"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="27" t="s">
         <v>139</v>
       </c>
@@ -10760,7 +10732,7 @@
       <c r="L67" s="29"/>
       <c r="M67" s="9"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="27" t="s">
         <v>140</v>
       </c>
@@ -10791,7 +10763,7 @@
       <c r="L68" s="29"/>
       <c r="M68" s="9"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="27" t="s">
         <v>141</v>
       </c>
@@ -10822,7 +10794,7 @@
       <c r="L69" s="29"/>
       <c r="M69" s="9"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="27" t="s">
         <v>142</v>
       </c>
@@ -10853,7 +10825,7 @@
       <c r="L70" s="29"/>
       <c r="M70" s="9"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="27" t="s">
         <v>143</v>
       </c>
@@ -10884,7 +10856,7 @@
       <c r="L71" s="29"/>
       <c r="M71" s="9"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="27" t="s">
         <v>144</v>
       </c>
@@ -10915,7 +10887,7 @@
       <c r="L72" s="29"/>
       <c r="M72" s="9"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="27" t="s">
         <v>145</v>
       </c>
@@ -10946,7 +10918,7 @@
       <c r="L73" s="29"/>
       <c r="M73" s="9"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="27" t="s">
         <v>146</v>
       </c>
@@ -10977,7 +10949,7 @@
       <c r="L74" s="29"/>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="27" t="s">
         <v>147</v>
       </c>
@@ -11008,7 +10980,7 @@
       <c r="L75" s="29"/>
       <c r="M75" s="9"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">
         <v>148</v>
       </c>
@@ -11039,7 +11011,7 @@
       <c r="L76" s="29"/>
       <c r="M76" s="9"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="27" t="s">
         <v>149</v>
       </c>
@@ -11070,7 +11042,7 @@
       <c r="L77" s="29"/>
       <c r="M77" s="9"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="27" t="s">
         <v>150</v>
       </c>
@@ -11101,7 +11073,7 @@
       <c r="L78" s="29"/>
       <c r="M78" s="9"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="27" t="s">
         <v>151</v>
       </c>
@@ -11132,7 +11104,7 @@
       <c r="L79" s="29"/>
       <c r="M79" s="9"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="27" t="s">
         <v>152</v>
       </c>
@@ -11163,7 +11135,7 @@
       <c r="L80" s="29"/>
       <c r="M80" s="9"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="27" t="s">
         <v>153</v>
       </c>
@@ -11194,7 +11166,7 @@
       <c r="L81" s="29"/>
       <c r="M81" s="9"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="27" t="s">
         <v>154</v>
       </c>
@@ -11225,7 +11197,7 @@
       <c r="L82" s="29"/>
       <c r="M82" s="9"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="27" t="s">
         <v>155</v>
       </c>
@@ -11256,7 +11228,7 @@
       <c r="L83" s="29"/>
       <c r="M83" s="9"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="27" t="s">
         <v>156</v>
       </c>
@@ -11287,7 +11259,7 @@
       <c r="L84" s="29"/>
       <c r="M84" s="9"/>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="27" t="s">
         <v>157</v>
       </c>
@@ -11318,7 +11290,7 @@
       <c r="L85" s="29"/>
       <c r="M85" s="9"/>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="27" t="s">
         <v>158</v>
       </c>
@@ -11349,7 +11321,7 @@
       <c r="L86" s="29"/>
       <c r="M86" s="9"/>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="27" t="s">
         <v>159</v>
       </c>
@@ -11380,7 +11352,7 @@
       <c r="L87" s="29"/>
       <c r="M87" s="9"/>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="27" t="s">
         <v>160</v>
       </c>
@@ -11411,7 +11383,7 @@
       <c r="L88" s="29"/>
       <c r="M88" s="9"/>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="27" t="s">
         <v>161</v>
       </c>
@@ -11442,7 +11414,7 @@
       <c r="L89" s="29"/>
       <c r="M89" s="9"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="27" t="s">
         <v>162</v>
       </c>
@@ -11473,7 +11445,7 @@
       <c r="L90" s="29"/>
       <c r="M90" s="9"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="27" t="s">
         <v>163</v>
       </c>
@@ -11504,7 +11476,7 @@
       <c r="L91" s="29"/>
       <c r="M91" s="9"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="27" t="s">
         <v>164</v>
       </c>
@@ -11535,7 +11507,7 @@
       <c r="L92" s="29"/>
       <c r="M92" s="9"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="27" t="s">
         <v>165</v>
       </c>
@@ -11566,7 +11538,7 @@
       <c r="L93" s="29"/>
       <c r="M93" s="9"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="27" t="s">
         <v>166</v>
       </c>
@@ -11597,7 +11569,7 @@
       <c r="L94" s="29"/>
       <c r="M94" s="9"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="27" t="s">
         <v>167</v>
       </c>
@@ -11628,7 +11600,7 @@
       <c r="L95" s="29"/>
       <c r="M95" s="9"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="27" t="s">
         <v>168</v>
       </c>
@@ -11659,7 +11631,7 @@
       <c r="L96" s="29"/>
       <c r="M96" s="9"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="27" t="s">
         <v>169</v>
       </c>
@@ -11690,7 +11662,7 @@
       <c r="L97" s="29"/>
       <c r="M97" s="9"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="27" t="s">
         <v>170</v>
       </c>
@@ -11721,7 +11693,7 @@
       <c r="L98" s="29"/>
       <c r="M98" s="9"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="27" t="s">
         <v>171</v>
       </c>
@@ -11752,7 +11724,7 @@
       <c r="L99" s="29"/>
       <c r="M99" s="9"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="27" t="s">
         <v>192</v>
       </c>
@@ -11783,7 +11755,7 @@
       <c r="L100" s="29"/>
       <c r="M100" s="9"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="27" t="s">
         <v>193</v>
       </c>
@@ -11814,7 +11786,7 @@
       <c r="L101" s="29"/>
       <c r="M101" s="9"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="27" t="s">
         <v>194</v>
       </c>
@@ -11845,7 +11817,7 @@
       <c r="L102" s="29"/>
       <c r="M102" s="9"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="27" t="s">
         <v>195</v>
       </c>
@@ -11876,7 +11848,7 @@
       <c r="L103" s="29"/>
       <c r="M103" s="9"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="27" t="s">
         <v>196</v>
       </c>
@@ -11907,7 +11879,7 @@
       <c r="L104" s="29"/>
       <c r="M104" s="9"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="27" t="s">
         <v>197</v>
       </c>
@@ -11938,7 +11910,7 @@
       <c r="L105" s="29"/>
       <c r="M105" s="9"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="27" t="s">
         <v>198</v>
       </c>
@@ -11969,7 +11941,7 @@
       <c r="L106" s="29"/>
       <c r="M106" s="9"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="27" t="s">
         <v>199</v>
       </c>
@@ -12000,7 +11972,7 @@
       <c r="L107" s="29"/>
       <c r="M107" s="9"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="27" t="s">
         <v>200</v>
       </c>
@@ -12031,7 +12003,7 @@
       <c r="L108" s="29"/>
       <c r="M108" s="9"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="27" t="s">
         <v>201</v>
       </c>
@@ -12062,7 +12034,7 @@
       <c r="L109" s="29"/>
       <c r="M109" s="9"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="27" t="s">
         <v>202</v>
       </c>
@@ -12093,7 +12065,7 @@
       <c r="L110" s="29"/>
       <c r="M110" s="9"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="27" t="s">
         <v>203</v>
       </c>
@@ -12124,7 +12096,7 @@
       <c r="L111" s="29"/>
       <c r="M111" s="9"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="27" t="s">
         <v>204</v>
       </c>
@@ -12155,7 +12127,7 @@
       <c r="L112" s="29"/>
       <c r="M112" s="9"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="27" t="s">
         <v>205</v>
       </c>
@@ -12186,7 +12158,7 @@
       <c r="L113" s="29"/>
       <c r="M113" s="9"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="27" t="s">
         <v>206</v>
       </c>
@@ -12217,7 +12189,7 @@
       <c r="L114" s="29"/>
       <c r="M114" s="9"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="27" t="s">
         <v>207</v>
       </c>
@@ -12248,7 +12220,7 @@
       <c r="L115" s="29"/>
       <c r="M115" s="9"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="27" t="s">
         <v>208</v>
       </c>
@@ -12279,7 +12251,7 @@
       <c r="L116" s="29"/>
       <c r="M116" s="9"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="27" t="s">
         <v>209</v>
       </c>
@@ -12310,7 +12282,7 @@
       <c r="L117" s="29"/>
       <c r="M117" s="9"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="27" t="s">
         <v>210</v>
       </c>
@@ -12341,7 +12313,7 @@
       <c r="L118" s="29"/>
       <c r="M118" s="9"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="27" t="s">
         <v>211</v>
       </c>
@@ -12372,7 +12344,7 @@
       <c r="L119" s="29"/>
       <c r="M119" s="9"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="27" t="s">
         <v>212</v>
       </c>
@@ -12403,7 +12375,7 @@
       <c r="L120" s="29"/>
       <c r="M120" s="9"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="27" t="s">
         <v>213</v>
       </c>
@@ -12434,7 +12406,7 @@
       <c r="L121" s="29"/>
       <c r="M121" s="9"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="27" t="s">
         <v>214</v>
       </c>
@@ -12465,7 +12437,7 @@
       <c r="L122" s="29"/>
       <c r="M122" s="9"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="27" t="s">
         <v>215</v>
       </c>
@@ -12496,7 +12468,7 @@
       <c r="L123" s="29"/>
       <c r="M123" s="9"/>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="27" t="s">
         <v>216</v>
       </c>
@@ -12527,7 +12499,7 @@
       <c r="L124" s="29"/>
       <c r="M124" s="9"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="27" t="s">
         <v>217</v>
       </c>
@@ -12558,7 +12530,7 @@
       <c r="L125" s="29"/>
       <c r="M125" s="9"/>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="27" t="s">
         <v>218</v>
       </c>
@@ -12589,7 +12561,7 @@
       <c r="L126" s="29"/>
       <c r="M126" s="9"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="27" t="s">
         <v>219</v>
       </c>
@@ -12620,7 +12592,7 @@
       <c r="L127" s="29"/>
       <c r="M127" s="9"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="27" t="s">
         <v>220</v>
       </c>
@@ -12651,7 +12623,7 @@
       <c r="L128" s="29"/>
       <c r="M128" s="9"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="27" t="s">
         <v>221</v>
       </c>
@@ -12682,7 +12654,7 @@
       <c r="L129" s="29"/>
       <c r="M129" s="9"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
         <v>222</v>
       </c>
@@ -12713,7 +12685,7 @@
       <c r="L130" s="29"/>
       <c r="M130" s="9"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="27" t="s">
         <v>223</v>
       </c>
@@ -12744,7 +12716,7 @@
       <c r="L131" s="29"/>
       <c r="M131" s="9"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="27" t="s">
         <v>224</v>
       </c>
@@ -12775,7 +12747,7 @@
       <c r="L132" s="29"/>
       <c r="M132" s="9"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="27" t="s">
         <v>225</v>
       </c>
@@ -12806,7 +12778,7 @@
       <c r="L133" s="29"/>
       <c r="M133" s="9"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="27" t="s">
         <v>226</v>
       </c>
@@ -12837,7 +12809,7 @@
       <c r="L134" s="29"/>
       <c r="M134" s="9"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="27" t="s">
         <v>227</v>
       </c>
@@ -12868,7 +12840,7 @@
       <c r="L135" s="29"/>
       <c r="M135" s="9"/>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="27" t="s">
         <v>228</v>
       </c>
@@ -12899,7 +12871,7 @@
       <c r="L136" s="29"/>
       <c r="M136" s="9"/>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="27" t="s">
         <v>229</v>
       </c>
@@ -12930,7 +12902,7 @@
       <c r="L137" s="29"/>
       <c r="M137" s="9"/>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="27" t="s">
         <v>346</v>
       </c>
@@ -12957,7 +12929,7 @@
       <c r="L138" s="29"/>
       <c r="M138" s="9"/>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="27" t="s">
         <v>349</v>
       </c>
@@ -12984,7 +12956,7 @@
       <c r="L139" s="29"/>
       <c r="M139" s="9"/>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="27" t="s">
         <v>351</v>
       </c>
@@ -13011,7 +12983,7 @@
       <c r="L140" s="29"/>
       <c r="M140" s="9"/>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="27" t="s">
         <v>353</v>
       </c>
@@ -13038,7 +13010,7 @@
       <c r="L141" s="29"/>
       <c r="M141" s="9"/>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="27" t="s">
         <v>355</v>
       </c>
@@ -13065,7 +13037,7 @@
       <c r="L142" s="29"/>
       <c r="M142" s="9"/>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="27" t="s">
         <v>357</v>
       </c>
@@ -13092,7 +13064,7 @@
       <c r="L143" s="29"/>
       <c r="M143" s="9"/>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="27" t="s">
         <v>359</v>
       </c>
@@ -13119,7 +13091,7 @@
       <c r="L144" s="29"/>
       <c r="M144" s="9"/>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="33" t="s">
         <v>324</v>
       </c>
@@ -13146,7 +13118,7 @@
       <c r="L145" s="33"/>
       <c r="M145" s="9"/>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="33" t="s">
         <v>336</v>
       </c>
@@ -13173,7 +13145,7 @@
       <c r="L146" s="33"/>
       <c r="M146" s="9"/>
     </row>
-    <row r="147" spans="1:13">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="33" t="s">
         <v>338</v>
       </c>
@@ -13200,7 +13172,7 @@
       <c r="L147" s="33"/>
       <c r="M147" s="9"/>
     </row>
-    <row r="148" spans="1:13">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="33" t="s">
         <v>328</v>
       </c>
@@ -13227,7 +13199,7 @@
       <c r="L148" s="33"/>
       <c r="M148" s="9"/>
     </row>
-    <row r="149" spans="1:13">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="33" t="s">
         <v>330</v>
       </c>
@@ -13254,7 +13226,7 @@
       <c r="L149" s="33"/>
       <c r="M149" s="9"/>
     </row>
-    <row r="150" spans="1:13">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="33" t="s">
         <v>332</v>
       </c>
@@ -13281,7 +13253,7 @@
       <c r="L150" s="33"/>
       <c r="M150" s="9"/>
     </row>
-    <row r="151" spans="1:13">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="33" t="s">
         <v>334</v>
       </c>
@@ -13308,7 +13280,7 @@
       <c r="L151" s="33"/>
       <c r="M151" s="9"/>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="33" t="s">
         <v>326</v>
       </c>
@@ -13335,7 +13307,7 @@
       <c r="L152" s="33"/>
       <c r="M152" s="9"/>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="33" t="s">
         <v>323</v>
       </c>
@@ -13362,7 +13334,7 @@
       <c r="L153" s="33"/>
       <c r="M153" s="9"/>
     </row>
-    <row r="154" spans="1:13">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="33" t="s">
         <v>322</v>
       </c>
@@ -13389,7 +13361,7 @@
       <c r="L154" s="33"/>
       <c r="M154" s="9"/>
     </row>
-    <row r="155" spans="1:13">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="33" t="s">
         <v>340</v>
       </c>
@@ -13416,7 +13388,7 @@
       <c r="L155" s="33"/>
       <c r="M155" s="9"/>
     </row>
-    <row r="156" spans="1:13">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="33" t="s">
         <v>342</v>
       </c>
@@ -13443,7 +13415,7 @@
       <c r="L156" s="33"/>
       <c r="M156" s="9"/>
     </row>
-    <row r="157" spans="1:13">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="33" t="s">
         <v>344</v>
       </c>
@@ -13470,7 +13442,7 @@
       <c r="L157" s="33"/>
       <c r="M157" s="9"/>
     </row>
-    <row r="158" spans="1:13">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="33" t="s">
         <v>384</v>
       </c>
@@ -13508,16 +13480,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13549,7 +13521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>177</v>
       </c>
@@ -13575,7 +13547,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>172</v>
       </c>

--- a/tabular/hiv-reference-data.xlsx
+++ b/tabular/hiv-reference-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/Ortervirales/HIV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AECDEBD-7886-1444-9016-727559567D5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C93BFD7-AC5A-0944-9A8F-EC9E59CF75D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9640" yWindow="460" windowWidth="25460" windowHeight="25220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2553" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="535">
   <si>
     <t>Accession</t>
   </si>
@@ -1605,13 +1605,40 @@
   </si>
   <si>
     <t>Ferret</t>
+  </si>
+  <si>
+    <t>AY618998</t>
+  </si>
+  <si>
+    <t>JN091691</t>
+  </si>
+  <si>
+    <t>M76764</t>
+  </si>
+  <si>
+    <t>M19499</t>
+  </si>
+  <si>
+    <t>JQ864084</t>
+  </si>
+  <si>
+    <t>JX648292</t>
+  </si>
+  <si>
+    <t>JX648291</t>
+  </si>
+  <si>
+    <t>MF370842</t>
+  </si>
+  <si>
+    <t>SIVtan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1666,6 +1693,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2147,7 +2180,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2224,6 +2257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="376">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2603,15 +2637,7 @@
     <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2955,10 +2981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S162"/>
+  <dimension ref="A1:S170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8156,9 +8182,88 @@
         <v>491</v>
       </c>
     </row>
+    <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>526</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C163" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="D163" s="36" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>527</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C164" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>528</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C165" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>529</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C166" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>530</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>531</v>
+      </c>
+      <c r="B168" s="18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>532</v>
+      </c>
+      <c r="B169" s="18" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>533</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L151">
-    <sortCondition sortBy="cellColor" ref="C2:C151" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="C2:C151" dxfId="0"/>
     <sortCondition ref="C2:C151"/>
     <sortCondition ref="D2:D151"/>
     <sortCondition ref="E2:E151"/>

--- a/tabular/hiv-reference-data.xlsx
+++ b/tabular/hiv-reference-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/Ortervirales/HIV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C93BFD7-AC5A-0944-9A8F-EC9E59CF75D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B560EDE-D00E-DD40-A900-367390E3D38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="460" windowWidth="25460" windowHeight="25220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23620" yWindow="460" windowWidth="25460" windowHeight="25220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edited down" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="536">
   <si>
     <t>Accession</t>
   </si>
@@ -1632,6 +1632,9 @@
   </si>
   <si>
     <t>SIVtan</t>
+  </si>
+  <si>
+    <t>SIVsm</t>
   </si>
 </sst>
 </file>
@@ -2983,8 +2986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B169" sqref="A1:K170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8236,6 +8239,9 @@
       <c r="B167" s="18" t="s">
         <v>446</v>
       </c>
+      <c r="C167" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
@@ -8244,6 +8250,9 @@
       <c r="B168" s="18" t="s">
         <v>446</v>
       </c>
+      <c r="C168" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
@@ -8252,6 +8261,9 @@
       <c r="B169" s="18" t="s">
         <v>446</v>
       </c>
+      <c r="C169" t="s">
+        <v>535</v>
+      </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
@@ -8259,6 +8271,9 @@
       </c>
       <c r="B170" s="18" t="s">
         <v>446</v>
+      </c>
+      <c r="C170" t="s">
+        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/hiv-reference-data.xlsx
+++ b/tabular/hiv-reference-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/Ortervirales/HIV-GLUE/tabular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Ortervirales/HIV-GLUE/tabular/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B560EDE-D00E-DD40-A900-367390E3D38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538B70E8-4DEB-1143-84EE-1B8B426C5906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23620" yWindow="460" windowWidth="25460" windowHeight="25220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="537">
   <si>
     <t>Accession</t>
   </si>
@@ -1635,6 +1635,9 @@
   </si>
   <si>
     <t>SIVsm</t>
+  </si>
+  <si>
+    <t>AF033819</t>
   </si>
 </sst>
 </file>
@@ -2640,7 +2643,31 @@
     <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9D9D9"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2984,10 +3011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S170"/>
+  <dimension ref="A1:S171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B169" sqref="A1:K170"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3292,8 +3319,8 @@
       <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>119</v>
+      <c r="A12" s="16" t="s">
+        <v>536</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>446</v>
@@ -3304,17 +3331,17 @@
       <c r="D12" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>121</v>
+      <c r="E12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="G12" s="15">
-        <v>1990</v>
+        <v>1983</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I12" s="16" t="s">
         <v>435</v>
@@ -3322,13 +3349,19 @@
       <c r="J12" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K12" s="15">
-        <v>8709215</v>
-      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>122</v>
+      <c r="A13" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>446</v>
@@ -3339,17 +3372,17 @@
       <c r="D13" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>14</v>
+      <c r="E13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1983</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="I13" s="16" t="s">
         <v>435</v>
@@ -3358,12 +3391,20 @@
         <v>316</v>
       </c>
       <c r="K13" s="15">
-        <v>7888238</v>
-      </c>
+        <v>9362478</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>125</v>
+      <c r="A14" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>446</v>
@@ -3374,17 +3415,17 @@
       <c r="D14" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="G14" s="15">
-        <v>1996</v>
+      <c r="E14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="I14" s="16" t="s">
         <v>435</v>
@@ -3393,12 +3434,20 @@
         <v>316</v>
       </c>
       <c r="K14" s="15">
-        <v>9824329</v>
-      </c>
+        <v>7483282</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>129</v>
+      <c r="A15" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="B15" s="15" t="s">
         <v>446</v>
@@ -3409,17 +3458,17 @@
       <c r="D15" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G15" s="15">
-        <v>1997</v>
+      <c r="E15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="I15" s="16" t="s">
         <v>435</v>
@@ -3427,7 +3476,9 @@
       <c r="J15" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K15" s="15"/>
+      <c r="K15" s="15">
+        <v>3016298</v>
+      </c>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -3439,7 +3490,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B16" s="15" t="s">
         <v>446</v>
@@ -3451,16 +3502,16 @@
         <v>374</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G16" s="15">
-        <v>1992</v>
+        <v>2014</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>435</v>
@@ -3468,8 +3519,8 @@
       <c r="J16" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K16" s="15">
-        <v>8794346</v>
+      <c r="K16" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
@@ -3482,7 +3533,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>446</v>
@@ -3494,16 +3545,16 @@
         <v>374</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G17" s="15">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>435</v>
@@ -3512,7 +3563,7 @@
         <v>316</v>
       </c>
       <c r="K17" s="15">
-        <v>10364271</v>
+        <v>12487805</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -3524,8 +3575,8 @@
       <c r="S17" s="9"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>34</v>
+      <c r="A18" s="15" t="s">
+        <v>119</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>446</v>
@@ -3536,17 +3587,17 @@
       <c r="D18" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>35</v>
+      <c r="E18" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="G18" s="15">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>435</v>
@@ -3555,20 +3606,12 @@
         <v>316</v>
       </c>
       <c r="K18" s="15">
-        <v>10513639</v>
-      </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
+        <v>8709215</v>
+      </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>37</v>
+      <c r="A19" s="15" t="s">
+        <v>122</v>
       </c>
       <c r="B19" s="15" t="s">
         <v>446</v>
@@ -3579,17 +3622,17 @@
       <c r="D19" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="15">
-        <v>1998</v>
+      <c r="E19" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>435</v>
@@ -3598,20 +3641,12 @@
         <v>316</v>
       </c>
       <c r="K19" s="15">
-        <v>12487816</v>
-      </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
+        <v>7888238</v>
+      </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>39</v>
+      <c r="A20" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>446</v>
@@ -3622,17 +3657,17 @@
       <c r="D20" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>41</v>
+      <c r="E20" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="G20" s="15">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>435</v>
@@ -3641,20 +3676,12 @@
         <v>316</v>
       </c>
       <c r="K20" s="15">
-        <v>11429108</v>
-      </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
+        <v>9824329</v>
+      </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>43</v>
+      <c r="A21" s="15" t="s">
+        <v>129</v>
       </c>
       <c r="B21" s="15" t="s">
         <v>446</v>
@@ -3665,17 +3692,17 @@
       <c r="D21" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>44</v>
+      <c r="E21" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="G21" s="15">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>435</v>
@@ -3683,9 +3710,7 @@
       <c r="J21" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K21" s="15">
-        <v>11429108</v>
-      </c>
+      <c r="K21" s="15"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
@@ -3697,7 +3722,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B22" s="15" t="s">
         <v>446</v>
@@ -3709,16 +3734,16 @@
         <v>374</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="G22" s="15">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I22" s="16" t="s">
         <v>435</v>
@@ -3727,7 +3752,7 @@
         <v>316</v>
       </c>
       <c r="K22" s="15">
-        <v>9362478</v>
+        <v>8794346</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -3740,7 +3765,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>446</v>
@@ -3752,16 +3777,16 @@
         <v>374</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F23" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1994</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="I23" s="16" t="s">
         <v>435</v>
@@ -3770,20 +3795,20 @@
         <v>316</v>
       </c>
       <c r="K23" s="15">
-        <v>7483282</v>
+        <v>10364271</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>446</v>
@@ -3795,16 +3820,16 @@
         <v>374</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>14</v>
+        <v>35</v>
+      </c>
+      <c r="G24" s="15">
+        <v>1994</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="I24" s="16" t="s">
         <v>435</v>
@@ -3813,7 +3838,7 @@
         <v>316</v>
       </c>
       <c r="K24" s="15">
-        <v>3016298</v>
+        <v>10513639</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
@@ -3826,7 +3851,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>446</v>
@@ -3838,16 +3863,16 @@
         <v>374</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>8</v>
+        <v>454</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G25" s="15">
-        <v>2014</v>
+        <v>1998</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I25" s="16" t="s">
         <v>435</v>
@@ -3855,8 +3880,8 @@
       <c r="J25" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K25" s="15" t="s">
-        <v>20</v>
+      <c r="K25" s="15">
+        <v>12487816</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
@@ -3869,7 +3894,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>446</v>
@@ -3881,16 +3906,16 @@
         <v>374</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G26" s="15">
-        <v>1990</v>
+        <v>1997</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="I26" s="16" t="s">
         <v>435</v>
@@ -3899,33 +3924,41 @@
         <v>316</v>
       </c>
       <c r="K26" s="15">
-        <v>12487805</v>
+        <v>11429108</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="9"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>446</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="F27"/>
+        <v>374</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1994</v>
+      </c>
       <c r="H27" s="16" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="I27" s="16" t="s">
         <v>435</v>
@@ -3933,13 +3966,21 @@
       <c r="J27" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K27" s="1">
-        <v>8107220</v>
-      </c>
+      <c r="K27" s="15">
+        <v>11429108</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="B28" s="18" t="s">
         <v>446</v>
@@ -3948,15 +3989,12 @@
         <v>348</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="16"/>
+        <v>377</v>
+      </c>
+      <c r="F28"/>
+      <c r="H28" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="I28" s="16" t="s">
         <v>435</v>
       </c>
@@ -3964,14 +4002,14 @@
         <v>316</v>
       </c>
       <c r="K28" s="1">
-        <v>2578615</v>
+        <v>8107220</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="15" t="s">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -3983,36 +4021,23 @@
       <c r="E29" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="15">
-        <v>671</v>
-      </c>
-      <c r="G29" s="15">
-        <v>2000</v>
-      </c>
-      <c r="H29" s="16" t="s">
-        <v>25</v>
-      </c>
+      <c r="F29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="16"/>
       <c r="I29" s="16" t="s">
         <v>435</v>
       </c>
       <c r="J29" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K29" s="15">
-        <v>14610167</v>
-      </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
+      <c r="K29" s="1">
+        <v>2578615</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>446</v>
@@ -4027,13 +4052,13 @@
         <v>8</v>
       </c>
       <c r="F30" s="15">
-        <v>1058</v>
+        <v>671</v>
       </c>
       <c r="G30" s="15">
-        <v>1998</v>
+        <v>2000</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I30" s="16" t="s">
         <v>435</v>
@@ -4042,7 +4067,7 @@
         <v>316</v>
       </c>
       <c r="K30" s="15">
-        <v>16103205</v>
+        <v>14610167</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="9"/>
@@ -4055,7 +4080,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>446</v>
@@ -4067,16 +4092,16 @@
         <v>374</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>48</v>
+        <v>8</v>
+      </c>
+      <c r="F31" s="15">
+        <v>1058</v>
       </c>
       <c r="G31" s="15">
-        <v>1986</v>
+        <v>1998</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="I31" s="16" t="s">
         <v>435</v>
@@ -4085,12 +4110,20 @@
         <v>316</v>
       </c>
       <c r="K31" s="15">
-        <v>8891112</v>
-      </c>
+        <v>16103205</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B32" s="15" t="s">
         <v>446</v>
@@ -4105,13 +4138,13 @@
         <v>47</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G32" s="15">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I32" s="16" t="s">
         <v>435</v>
@@ -4120,12 +4153,12 @@
         <v>316</v>
       </c>
       <c r="K32" s="15">
-        <v>8627686</v>
+        <v>8891112</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>446</v>
@@ -4140,13 +4173,13 @@
         <v>47</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G33" s="15">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I33" s="16" t="s">
         <v>435</v>
@@ -4155,12 +4188,12 @@
         <v>316</v>
       </c>
       <c r="K33" s="15">
-        <v>9847317</v>
+        <v>8627686</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>446</v>
@@ -4175,13 +4208,13 @@
         <v>47</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G34" s="15">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>435</v>
@@ -4190,12 +4223,12 @@
         <v>316</v>
       </c>
       <c r="K34" s="15">
-        <v>15592417</v>
+        <v>9847317</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>133</v>
+      <c r="A35" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>446</v>
@@ -4206,17 +4239,17 @@
       <c r="D35" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="15" t="s">
-        <v>134</v>
+      <c r="F35" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G35" s="15">
-        <v>1997</v>
+        <v>2004</v>
       </c>
       <c r="H35" s="16" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="I35" s="16" t="s">
         <v>435</v>
@@ -4225,12 +4258,12 @@
         <v>316</v>
       </c>
       <c r="K35" s="15">
-        <v>11070028</v>
+        <v>15592417</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
-        <v>59</v>
+      <c r="A36" s="15" t="s">
+        <v>133</v>
       </c>
       <c r="B36" s="15" t="s">
         <v>446</v>
@@ -4241,17 +4274,17 @@
       <c r="D36" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>61</v>
+      <c r="E36" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>134</v>
       </c>
       <c r="G36" s="15">
-        <v>1983</v>
+        <v>1997</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="I36" s="16" t="s">
         <v>435</v>
@@ -4260,12 +4293,12 @@
         <v>316</v>
       </c>
       <c r="K36" s="15">
-        <v>2424612</v>
+        <v>11070028</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>446</v>
@@ -4280,13 +4313,13 @@
         <v>60</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G37" s="15">
-        <v>1994</v>
+        <v>1983</v>
       </c>
       <c r="H37" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I37" s="16" t="s">
         <v>435</v>
@@ -4295,12 +4328,12 @@
         <v>316</v>
       </c>
       <c r="K37" s="15">
-        <v>9621027</v>
+        <v>2424612</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>446</v>
@@ -4315,13 +4348,13 @@
         <v>60</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G38" s="15">
-        <v>2001</v>
+        <v>1994</v>
       </c>
       <c r="H38" s="16" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I38" s="16" t="s">
         <v>435</v>
@@ -4330,12 +4363,12 @@
         <v>316</v>
       </c>
       <c r="K38" s="15">
-        <v>15186527</v>
+        <v>9621027</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>446</v>
@@ -4350,13 +4383,13 @@
         <v>60</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G39" s="15">
         <v>2001</v>
       </c>
       <c r="H39" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I39" s="16" t="s">
         <v>435</v>
@@ -4365,12 +4398,12 @@
         <v>316</v>
       </c>
       <c r="K39" s="15">
-        <v>15320994</v>
+        <v>15186527</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>446</v>
@@ -4382,16 +4415,16 @@
         <v>374</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G40" s="15">
-        <v>1993</v>
+        <v>2001</v>
       </c>
       <c r="H40" s="16" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I40" s="16" t="s">
         <v>435</v>
@@ -4400,12 +4433,12 @@
         <v>316</v>
       </c>
       <c r="K40" s="15">
-        <v>9621027</v>
+        <v>15320994</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>446</v>
@@ -4420,13 +4453,13 @@
         <v>71</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G41" s="15">
         <v>1993</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I41" s="16" t="s">
         <v>435</v>
@@ -4435,12 +4468,12 @@
         <v>316</v>
       </c>
       <c r="K41" s="15">
-        <v>10725202</v>
+        <v>9621027</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B42" s="15" t="s">
         <v>446</v>
@@ -4455,13 +4488,13 @@
         <v>71</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G42" s="15">
         <v>1993</v>
       </c>
       <c r="H42" s="16" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="I42" s="16" t="s">
         <v>435</v>
@@ -4470,12 +4503,12 @@
         <v>316</v>
       </c>
       <c r="K42" s="15">
-        <v>10725203</v>
+        <v>10725202</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B43" s="15" t="s">
         <v>446</v>
@@ -4490,13 +4523,13 @@
         <v>71</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G43" s="15">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="H43" s="16" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="I43" s="16" t="s">
         <v>435</v>
@@ -4505,12 +4538,12 @@
         <v>316</v>
       </c>
       <c r="K43" s="15">
-        <v>10659053</v>
+        <v>10725203</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B44" s="15" t="s">
         <v>446</v>
@@ -4525,13 +4558,13 @@
         <v>71</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G44" s="15">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="I44" s="16" t="s">
         <v>435</v>
@@ -4540,12 +4573,12 @@
         <v>316</v>
       </c>
       <c r="K44" s="15">
-        <v>10659054</v>
+        <v>10659053</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B45" s="15" t="s">
         <v>446</v>
@@ -4560,7 +4593,7 @@
         <v>71</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G45" s="15">
         <v>1995</v>
@@ -4575,12 +4608,12 @@
         <v>316</v>
       </c>
       <c r="K45" s="15">
-        <v>10659055</v>
+        <v>10659054</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" s="15" t="s">
         <v>446</v>
@@ -4595,10 +4628,10 @@
         <v>71</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G46" s="15">
-        <v>2002</v>
+        <v>1995</v>
       </c>
       <c r="H46" s="16" t="s">
         <v>66</v>
@@ -4610,12 +4643,12 @@
         <v>316</v>
       </c>
       <c r="K46" s="15">
-        <v>15186527</v>
+        <v>10659055</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B47" s="15" t="s">
         <v>446</v>
@@ -4630,10 +4663,10 @@
         <v>71</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G47" s="15">
-        <v>1997</v>
+        <v>2002</v>
       </c>
       <c r="H47" s="16" t="s">
         <v>66</v>
@@ -4645,12 +4678,12 @@
         <v>316</v>
       </c>
       <c r="K47" s="15">
-        <v>11448170</v>
+        <v>15186527</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
-        <v>135</v>
+      <c r="A48" s="16" t="s">
+        <v>86</v>
       </c>
       <c r="B48" s="15" t="s">
         <v>446</v>
@@ -4661,17 +4694,17 @@
       <c r="D48" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E48" s="15" t="s">
+      <c r="E48" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>136</v>
+      <c r="F48" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="G48" s="15">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="I48" s="16" t="s">
         <v>435</v>
@@ -4680,12 +4713,12 @@
         <v>316</v>
       </c>
       <c r="K48" s="15">
-        <v>11600844</v>
+        <v>11448170</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
-        <v>88</v>
+      <c r="A49" s="15" t="s">
+        <v>135</v>
       </c>
       <c r="B49" s="15" t="s">
         <v>446</v>
@@ -4696,17 +4729,17 @@
       <c r="D49" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E49" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F49" s="16" t="s">
-        <v>90</v>
+      <c r="E49" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="G49" s="15">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="H49" s="16" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="I49" s="16" t="s">
         <v>435</v>
@@ -4715,12 +4748,12 @@
         <v>316</v>
       </c>
       <c r="K49" s="15">
-        <v>9683568</v>
+        <v>11600844</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>446</v>
@@ -4735,13 +4768,13 @@
         <v>89</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G50" s="15">
         <v>1993</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I50" s="16" t="s">
         <v>435</v>
@@ -4750,12 +4783,12 @@
         <v>316</v>
       </c>
       <c r="K50" s="15">
-        <v>9683569</v>
+        <v>9683568</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B51" s="15" t="s">
         <v>446</v>
@@ -4770,13 +4803,13 @@
         <v>89</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G51" s="15">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="I51" s="16" t="s">
         <v>435</v>
@@ -4785,12 +4818,12 @@
         <v>316</v>
       </c>
       <c r="K51" s="15">
-        <v>10221535</v>
+        <v>9683569</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>446</v>
@@ -4805,13 +4838,13 @@
         <v>89</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G52" s="15">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="H52" s="16" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="I52" s="16" t="s">
         <v>435</v>
@@ -4820,12 +4853,12 @@
         <v>316</v>
       </c>
       <c r="K52" s="15">
-        <v>9621027</v>
+        <v>10221535</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B53" s="15" t="s">
         <v>446</v>
@@ -4837,16 +4870,16 @@
         <v>374</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G53" s="15">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I53" s="16" t="s">
         <v>435</v>
@@ -4855,12 +4888,12 @@
         <v>316</v>
       </c>
       <c r="K53" s="15">
-        <v>9621028</v>
+        <v>9621027</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B54" s="15" t="s">
         <v>446</v>
@@ -4875,13 +4908,13 @@
         <v>101</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G54" s="15">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I54" s="16" t="s">
         <v>435</v>
@@ -4890,12 +4923,12 @@
         <v>316</v>
       </c>
       <c r="K54" s="15">
-        <v>10983640</v>
+        <v>9621028</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>446</v>
@@ -4910,10 +4943,10 @@
         <v>101</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G55" s="15">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="H55" s="16" t="s">
         <v>106</v>
@@ -4925,12 +4958,12 @@
         <v>316</v>
       </c>
       <c r="K55" s="15">
-        <v>10983641</v>
+        <v>10983640</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56" s="15" t="s">
         <v>446</v>
@@ -4942,16 +4975,16 @@
         <v>374</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G56" s="15">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="H56" s="16" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="I56" s="16" t="s">
         <v>435</v>
@@ -4960,12 +4993,12 @@
         <v>316</v>
       </c>
       <c r="K56" s="15">
-        <v>10052760</v>
+        <v>10983641</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>446</v>
@@ -4980,10 +5013,10 @@
         <v>110</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G57" s="15">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="H57" s="16" t="s">
         <v>91</v>
@@ -4995,12 +5028,12 @@
         <v>316</v>
       </c>
       <c r="K57" s="15">
-        <v>10052761</v>
+        <v>10052760</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>446</v>
@@ -5012,16 +5045,16 @@
         <v>374</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G58" s="15">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="H58" s="16" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="I58" s="16" t="s">
         <v>435</v>
@@ -5030,12 +5063,12 @@
         <v>316</v>
       </c>
       <c r="K58" s="15">
-        <v>10659053</v>
+        <v>10052761</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B59" s="15" t="s">
         <v>446</v>
@@ -5050,13 +5083,13 @@
         <v>115</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G59" s="15">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="H59" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I59" s="16" t="s">
         <v>435</v>
@@ -5065,12 +5098,12 @@
         <v>316</v>
       </c>
       <c r="K59" s="15">
-        <v>10659054</v>
+        <v>10659053</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="s">
-        <v>173</v>
+      <c r="A60" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>446</v>
@@ -5079,16 +5112,18 @@
         <v>348</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15" t="s">
-        <v>264</v>
+        <v>374</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>118</v>
       </c>
       <c r="G60" s="15">
-        <v>2002</v>
-      </c>
-      <c r="H60" s="15" t="s">
+        <v>1996</v>
+      </c>
+      <c r="H60" s="16" t="s">
         <v>66</v>
       </c>
       <c r="I60" s="16" t="s">
@@ -5097,11 +5132,13 @@
       <c r="J60" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="K60" s="15"/>
+      <c r="K60" s="15">
+        <v>10659054</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B61" s="15" t="s">
         <v>446</v>
@@ -5114,10 +5151,10 @@
       </c>
       <c r="E61" s="15"/>
       <c r="F61" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G61" s="15">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="H61" s="15" t="s">
         <v>66</v>
@@ -5132,7 +5169,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>446</v>
@@ -5145,7 +5182,7 @@
       </c>
       <c r="E62" s="15"/>
       <c r="F62" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G62" s="15">
         <v>2004</v>
@@ -5163,7 +5200,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B63" s="15" t="s">
         <v>446</v>
@@ -5176,10 +5213,10 @@
       </c>
       <c r="E63" s="15"/>
       <c r="F63" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G63" s="15">
-        <v>1995</v>
+        <v>2004</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>66</v>
@@ -5194,7 +5231,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>446</v>
@@ -5203,14 +5240,14 @@
         <v>348</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G64" s="15">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="H64" s="15" t="s">
         <v>66</v>
@@ -5225,7 +5262,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B65" s="15" t="s">
         <v>446</v>
@@ -5238,10 +5275,10 @@
       </c>
       <c r="E65" s="15"/>
       <c r="F65" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G65" s="15">
-        <v>1998</v>
+        <v>1991</v>
       </c>
       <c r="H65" s="15" t="s">
         <v>66</v>
@@ -5256,7 +5293,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>446</v>
@@ -5269,7 +5306,7 @@
       </c>
       <c r="E66" s="15"/>
       <c r="F66" s="15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G66" s="15">
         <v>1998</v>
@@ -5287,7 +5324,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B67" s="15" t="s">
         <v>446</v>
@@ -5300,13 +5337,13 @@
       </c>
       <c r="E67" s="15"/>
       <c r="F67" s="15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G67" s="15">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>317</v>
+        <v>66</v>
       </c>
       <c r="I67" s="16" t="s">
         <v>435</v>
@@ -5318,7 +5355,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B68" s="15" t="s">
         <v>446</v>
@@ -5331,13 +5368,13 @@
       </c>
       <c r="E68" s="15"/>
       <c r="F68" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G68" s="15">
         <v>1999</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>19</v>
+        <v>317</v>
       </c>
       <c r="I68" s="16" t="s">
         <v>435</v>
@@ -5349,26 +5386,26 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="16" t="s">
         <v>348</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E69" s="15"/>
       <c r="F69" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G69" s="15">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="I69" s="16" t="s">
         <v>435</v>
@@ -5380,26 +5417,26 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B70" s="15" t="s">
         <v>446</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>14</v>
+        <v>380</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G70" s="15">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>321</v>
+        <v>66</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>435</v>
@@ -5411,7 +5448,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B71" s="15" t="s">
         <v>446</v>
@@ -5420,17 +5457,17 @@
         <v>379</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>454</v>
+        <v>14</v>
       </c>
       <c r="E71" s="15"/>
       <c r="F71" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>14</v>
+        <v>281</v>
+      </c>
+      <c r="G71" s="15">
+        <v>2007</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="I71" s="16" t="s">
         <v>435</v>
@@ -5442,7 +5479,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B72" s="15" t="s">
         <v>446</v>
@@ -5455,13 +5492,13 @@
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G72" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I72" s="16" t="s">
         <v>435</v>
@@ -5473,7 +5510,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B73" s="15" t="s">
         <v>446</v>
@@ -5486,13 +5523,13 @@
       </c>
       <c r="E73" s="15"/>
       <c r="F73" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="G73" s="15">
-        <v>1986</v>
+        <v>276</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="I73" s="16" t="s">
         <v>435</v>
@@ -5504,7 +5541,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>446</v>
@@ -5513,17 +5550,17 @@
         <v>379</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>8</v>
+        <v>454</v>
       </c>
       <c r="E74" s="15"/>
       <c r="F74" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>14</v>
+        <v>277</v>
+      </c>
+      <c r="G74" s="15">
+        <v>1986</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I74" s="16" t="s">
         <v>435</v>
@@ -5535,7 +5572,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B75" s="15" t="s">
         <v>446</v>
@@ -5548,13 +5585,13 @@
       </c>
       <c r="E75" s="15"/>
       <c r="F75" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="G75" s="15">
-        <v>1986</v>
+        <v>278</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="I75" s="16" t="s">
         <v>435</v>
@@ -5566,7 +5603,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>446</v>
@@ -5575,17 +5612,17 @@
         <v>379</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="E76" s="15"/>
       <c r="F76" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G76" s="15">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I76" s="16" t="s">
         <v>435</v>
@@ -5597,7 +5634,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B77" s="15" t="s">
         <v>446</v>
@@ -5606,17 +5643,17 @@
         <v>379</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E77" s="15"/>
-      <c r="F77" s="15">
-        <v>12034</v>
+      <c r="F77" s="15" t="s">
+        <v>280</v>
       </c>
       <c r="G77" s="15">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>10</v>
+        <v>321</v>
       </c>
       <c r="I77" s="16" t="s">
         <v>435</v>
@@ -5627,39 +5664,39 @@
       <c r="K77" s="15"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A78" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="D78" s="15"/>
-      <c r="E78" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>290</v>
+      <c r="A78" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15">
+        <v>12034</v>
       </c>
       <c r="G78" s="15">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="J78" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="K78" s="16"/>
+        <v>316</v>
+      </c>
+      <c r="K78" s="15"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>446</v>
@@ -5672,25 +5709,25 @@
         <v>498</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>14</v>
+        <v>290</v>
+      </c>
+      <c r="G79" s="15">
+        <v>1999</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="I79" s="16" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="J79" s="16" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="K79" s="16"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>446</v>
@@ -5703,13 +5740,13 @@
         <v>498</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="G80" s="15">
-        <v>2010</v>
+        <v>310</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>362</v>
+        <v>33</v>
       </c>
       <c r="I80" s="16" t="s">
         <v>375</v>
@@ -5721,7 +5758,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>446</v>
@@ -5734,7 +5771,7 @@
         <v>498</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G81" s="15">
         <v>2010</v>
@@ -5752,7 +5789,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>446</v>
@@ -5765,7 +5802,7 @@
         <v>498</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G82" s="15">
         <v>2010</v>
@@ -5783,7 +5820,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
-        <v>351</v>
+        <v>227</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>446</v>
@@ -5795,146 +5832,146 @@
       <c r="E83" s="17" t="s">
         <v>498</v>
       </c>
-      <c r="F83" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="F83" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="G83" s="15">
+        <v>2010</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>362</v>
+      </c>
       <c r="I83" s="16" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="J83" s="16" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="K83" s="16"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
-        <v>169</v>
+        <v>351</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>469</v>
+        <v>352</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="15" t="s">
-        <v>49</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="G84" s="15"/>
+      <c r="H84" s="16"/>
       <c r="I84" s="16" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="J84" s="16" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="K84" s="16"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="17" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D85" s="15"/>
       <c r="E85" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="G85" s="15">
-        <v>2009</v>
+        <v>260</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H85" s="15" t="s">
-        <v>362</v>
+        <v>49</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K85" s="16"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="17" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="D86" s="15"/>
       <c r="E86" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>14</v>
+        <v>285</v>
+      </c>
+      <c r="G86" s="15">
+        <v>2009</v>
       </c>
       <c r="H86" s="15" t="s">
-        <v>30</v>
+        <v>362</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>368</v>
+        <v>420</v>
       </c>
       <c r="J86" s="16" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="K86" s="16"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="B87" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="G87" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H87" s="15" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="J87" s="16" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>446</v>
@@ -5947,13 +5984,13 @@
         <v>502</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="G88" s="15">
-        <v>2010</v>
+        <v>234</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I88" s="16" t="s">
         <v>412</v>
@@ -5963,9 +6000,9 @@
       </c>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>446</v>
@@ -5978,7 +6015,7 @@
         <v>502</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G89" s="15">
         <v>2010</v>
@@ -5996,38 +6033,38 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B90" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>354</v>
+        <v>455</v>
       </c>
       <c r="D90" s="15"/>
       <c r="E90" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G90" s="15">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="H90" s="15" t="s">
-        <v>440</v>
+        <v>30</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J90" s="16" t="s">
-        <v>465</v>
+        <v>393</v>
       </c>
       <c r="K90" s="16"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>446</v>
@@ -6040,10 +6077,10 @@
         <v>503</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G91" s="15">
-        <v>1990</v>
+        <v>2006</v>
       </c>
       <c r="H91" s="15" t="s">
         <v>440</v>
@@ -6058,7 +6095,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>446</v>
@@ -6071,13 +6108,13 @@
         <v>503</v>
       </c>
       <c r="F92" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G92" s="15">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="H92" s="15" t="s">
-        <v>66</v>
+        <v>440</v>
       </c>
       <c r="I92" s="16" t="s">
         <v>413</v>
@@ -6089,7 +6126,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>446</v>
@@ -6102,10 +6139,10 @@
         <v>503</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G93" s="15">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="H93" s="15" t="s">
         <v>66</v>
@@ -6120,7 +6157,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>446</v>
@@ -6133,7 +6170,7 @@
         <v>503</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G94" s="15">
         <v>2005</v>
@@ -6151,7 +6188,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>446</v>
@@ -6164,7 +6201,7 @@
         <v>503</v>
       </c>
       <c r="F95" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G95" s="15">
         <v>2005</v>
@@ -6182,7 +6219,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B96" s="18" t="s">
         <v>446</v>
@@ -6195,7 +6232,7 @@
         <v>503</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G96" s="15">
         <v>2005</v>
@@ -6213,7 +6250,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B97" s="18" t="s">
         <v>446</v>
@@ -6226,7 +6263,7 @@
         <v>503</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G97" s="15">
         <v>2005</v>
@@ -6244,7 +6281,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>446</v>
@@ -6257,7 +6294,7 @@
         <v>503</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G98" s="15">
         <v>2005</v>
@@ -6275,7 +6312,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B99" s="18" t="s">
         <v>446</v>
@@ -6288,13 +6325,13 @@
         <v>503</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G99" s="15">
-        <v>1988</v>
+        <v>2005</v>
       </c>
       <c r="H99" s="15" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="I99" s="16" t="s">
         <v>413</v>
@@ -6306,7 +6343,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B100" s="18" t="s">
         <v>446</v>
@@ -6319,13 +6356,13 @@
         <v>503</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G100" s="15">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="H100" s="15" t="s">
-        <v>69</v>
+        <v>361</v>
       </c>
       <c r="I100" s="16" t="s">
         <v>413</v>
@@ -6337,7 +6374,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B101" s="18" t="s">
         <v>446</v>
@@ -6350,10 +6387,10 @@
         <v>503</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G101" s="15">
-        <v>2006</v>
+        <v>2000</v>
       </c>
       <c r="H101" s="15" t="s">
         <v>69</v>
@@ -6368,7 +6405,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>446</v>
@@ -6381,10 +6418,10 @@
         <v>503</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G102" s="15">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="H102" s="15" t="s">
         <v>69</v>
@@ -6399,7 +6436,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B103" s="18" t="s">
         <v>446</v>
@@ -6412,13 +6449,13 @@
         <v>503</v>
       </c>
       <c r="F103" s="15" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G103" s="15">
-        <v>1985</v>
+        <v>2009</v>
       </c>
       <c r="H103" s="15" t="s">
-        <v>441</v>
+        <v>69</v>
       </c>
       <c r="I103" s="16" t="s">
         <v>413</v>
@@ -6430,7 +6467,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>353</v>
+        <v>159</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>446</v>
@@ -6442,13 +6479,17 @@
       <c r="E104" s="17" t="s">
         <v>503</v>
       </c>
-      <c r="F104" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="G104" s="15"/>
-      <c r="H104" s="16"/>
+      <c r="F104" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G104" s="15">
+        <v>1985</v>
+      </c>
+      <c r="H104" s="15" t="s">
+        <v>441</v>
+      </c>
       <c r="I104" s="16" t="s">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="J104" s="16" t="s">
         <v>465</v>
@@ -6457,7 +6498,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>446</v>
@@ -6470,7 +6511,7 @@
         <v>503</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G105" s="15"/>
       <c r="H105" s="16"/>
@@ -6484,38 +6525,34 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>160</v>
+        <v>355</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>464</v>
+        <v>354</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="F106" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="G106" s="15">
-        <v>2004</v>
-      </c>
-      <c r="H106" s="15" t="s">
-        <v>66</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="G106" s="15"/>
+      <c r="H106" s="16"/>
       <c r="I106" s="16" t="s">
-        <v>414</v>
+        <v>389</v>
       </c>
       <c r="J106" s="16" t="s">
-        <v>394</v>
+        <v>465</v>
       </c>
       <c r="K106" s="16"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>446</v>
@@ -6528,10 +6565,10 @@
         <v>504</v>
       </c>
       <c r="F107" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G107" s="15">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="H107" s="15" t="s">
         <v>66</v>
@@ -6546,7 +6583,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>446</v>
@@ -6559,7 +6596,7 @@
         <v>504</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G108" s="15">
         <v>1999</v>
@@ -6577,92 +6614,92 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>357</v>
+        <v>162</v>
       </c>
       <c r="B109" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>358</v>
+        <v>464</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="17" t="s">
-        <v>505</v>
-      </c>
-      <c r="F109" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="G109" s="15"/>
-      <c r="H109" s="16"/>
+        <v>504</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G109" s="15">
+        <v>1999</v>
+      </c>
+      <c r="H109" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="I109" s="16" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="J109" s="16" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="K109" s="16"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B110" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G110" s="15"/>
       <c r="H110" s="16"/>
       <c r="I110" s="16" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="K110" s="16"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>163</v>
+        <v>349</v>
       </c>
       <c r="B111" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>456</v>
+        <v>350</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="17" t="s">
-        <v>507</v>
-      </c>
-      <c r="F111" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="G111" s="15">
-        <v>2004</v>
-      </c>
-      <c r="H111" s="15" t="s">
-        <v>66</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G111" s="15"/>
+      <c r="H111" s="16"/>
       <c r="I111" s="16" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="J111" s="16" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="K111" s="16"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B112" s="18" t="s">
         <v>446</v>
@@ -6675,10 +6712,10 @@
         <v>507</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G112" s="15">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="H112" s="15" t="s">
         <v>66</v>
@@ -6693,7 +6730,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>446</v>
@@ -6706,7 +6743,7 @@
         <v>507</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G113" s="15">
         <v>2007</v>
@@ -6724,7 +6761,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B114" s="18" t="s">
         <v>446</v>
@@ -6737,10 +6774,10 @@
         <v>507</v>
       </c>
       <c r="F114" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G114" s="15">
-        <v>2012</v>
+        <v>2007</v>
       </c>
       <c r="H114" s="15" t="s">
         <v>66</v>
@@ -6755,7 +6792,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>446</v>
@@ -6768,7 +6805,7 @@
         <v>507</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G115" s="15">
         <v>2012</v>
@@ -6786,7 +6823,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>446</v>
@@ -6799,10 +6836,10 @@
         <v>507</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G116" s="15">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="H116" s="15" t="s">
         <v>66</v>
@@ -6817,38 +6854,38 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D117" s="15"/>
       <c r="E117" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F117" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G117" s="15">
-        <v>1999</v>
+        <v>2013</v>
       </c>
       <c r="H117" s="15" t="s">
         <v>66</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J117" s="16" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K117" s="16"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>446</v>
@@ -6861,7 +6898,7 @@
         <v>508</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G118" s="15">
         <v>1999</v>
@@ -6879,38 +6916,38 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="C119" s="15" t="s">
-        <v>462</v>
+      <c r="C119" s="17" t="s">
+        <v>468</v>
       </c>
       <c r="D119" s="15"/>
-      <c r="E119" s="15" t="s">
-        <v>509</v>
+      <c r="E119" s="17" t="s">
+        <v>508</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="G119" s="15">
-        <v>1988</v>
+        <v>1999</v>
       </c>
       <c r="H119" s="15" t="s">
-        <v>440</v>
+        <v>66</v>
       </c>
       <c r="I119" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J119" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K119" s="16"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>446</v>
@@ -6923,7 +6960,7 @@
         <v>509</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G120" s="15">
         <v>1988</v>
@@ -6941,7 +6978,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>446</v>
@@ -6954,13 +6991,13 @@
         <v>509</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="G121" s="15" t="s">
-        <v>14</v>
+        <v>283</v>
+      </c>
+      <c r="G121" s="15">
+        <v>1988</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>33</v>
+        <v>440</v>
       </c>
       <c r="I121" s="16" t="s">
         <v>418</v>
@@ -6972,38 +7009,38 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="C122" s="17" t="s">
-        <v>463</v>
+      <c r="C122" s="15" t="s">
+        <v>462</v>
       </c>
       <c r="D122" s="15"/>
-      <c r="E122" s="17" t="s">
-        <v>510</v>
+      <c r="E122" s="15" t="s">
+        <v>509</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G122" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H122" s="15" t="s">
-        <v>441</v>
+        <v>33</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="J122" s="16" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K122" s="16"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>446</v>
@@ -7015,8 +7052,8 @@
       <c r="E123" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="F123" s="15">
-        <v>239</v>
+      <c r="F123" s="15" t="s">
+        <v>289</v>
       </c>
       <c r="G123" s="15" t="s">
         <v>14</v>
@@ -7025,47 +7062,47 @@
         <v>441</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>419</v>
+        <v>363</v>
       </c>
       <c r="J123" s="16" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K123" s="16"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D124" s="15"/>
       <c r="E124" s="17" t="s">
-        <v>511</v>
-      </c>
-      <c r="F124" s="15" t="s">
-        <v>286</v>
+        <v>510</v>
+      </c>
+      <c r="F124" s="15">
+        <v>239</v>
       </c>
       <c r="G124" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>361</v>
+        <v>441</v>
       </c>
       <c r="I124" s="16" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J124" s="16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K124" s="16"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>446</v>
@@ -7078,13 +7115,13 @@
         <v>511</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="G125" s="15">
-        <v>1998</v>
+        <v>286</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H125" s="15" t="s">
-        <v>66</v>
+        <v>361</v>
       </c>
       <c r="I125" s="16" t="s">
         <v>421</v>
@@ -7096,7 +7133,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>446</v>
@@ -7109,13 +7146,13 @@
         <v>511</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="G126" s="15" t="s">
-        <v>14</v>
+        <v>287</v>
+      </c>
+      <c r="G126" s="15">
+        <v>1998</v>
       </c>
       <c r="H126" s="15" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="I126" s="16" t="s">
         <v>421</v>
@@ -7127,7 +7164,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>446</v>
@@ -7139,14 +7176,14 @@
       <c r="E127" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="F127" s="15">
-        <v>5440</v>
+      <c r="F127" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="G127" s="15" t="s">
         <v>14</v>
       </c>
       <c r="H127" s="15" t="s">
-        <v>14</v>
+        <v>361</v>
       </c>
       <c r="I127" s="16" t="s">
         <v>421</v>
@@ -7158,38 +7195,38 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B128" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="D128" s="15"/>
       <c r="E128" s="17" t="s">
-        <v>512</v>
-      </c>
-      <c r="F128" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="G128" s="15">
-        <v>2001</v>
+        <v>511</v>
+      </c>
+      <c r="F128" s="15">
+        <v>5440</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H128" s="15" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="J128" s="16" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K128" s="16"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B129" s="18" t="s">
         <v>446</v>
@@ -7202,7 +7239,7 @@
         <v>512</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G129" s="15">
         <v>2001</v>
@@ -7220,7 +7257,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B130" s="18" t="s">
         <v>446</v>
@@ -7233,13 +7270,13 @@
         <v>512</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G130" s="15">
-        <v>2009</v>
+        <v>2001</v>
       </c>
       <c r="H130" s="15" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="I130" s="16" t="s">
         <v>372</v>
@@ -7251,69 +7288,69 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D131" s="15"/>
       <c r="E131" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G131" s="15">
-        <v>1997</v>
+        <v>2009</v>
       </c>
       <c r="H131" s="15" t="s">
-        <v>442</v>
+        <v>361</v>
       </c>
       <c r="I131" s="16" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="J131" s="16" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K131" s="16"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G132" s="15">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="H132" s="15" t="s">
-        <v>66</v>
+        <v>442</v>
       </c>
       <c r="I132" s="16" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="J132" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K132" s="16"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>446</v>
@@ -7326,10 +7363,10 @@
         <v>514</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G133" s="15">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="H133" s="15" t="s">
         <v>66</v>
@@ -7344,7 +7381,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>446</v>
@@ -7357,13 +7394,13 @@
         <v>514</v>
       </c>
       <c r="F134" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="G134" s="15" t="s">
-        <v>14</v>
+        <v>296</v>
+      </c>
+      <c r="G134" s="15">
+        <v>2002</v>
       </c>
       <c r="H134" s="15" t="s">
-        <v>361</v>
+        <v>66</v>
       </c>
       <c r="I134" s="16" t="s">
         <v>371</v>
@@ -7375,7 +7412,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
-        <v>359</v>
+        <v>209</v>
       </c>
       <c r="B135" s="18" t="s">
         <v>446</v>
@@ -7387,11 +7424,15 @@
       <c r="E135" s="17" t="s">
         <v>514</v>
       </c>
-      <c r="F135" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="G135" s="15"/>
-      <c r="H135" s="16"/>
+      <c r="F135" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="G135" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" s="15" t="s">
+        <v>361</v>
+      </c>
       <c r="I135" s="16" t="s">
         <v>371</v>
       </c>
@@ -7402,38 +7443,34 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
-        <v>139</v>
+        <v>359</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="D136" s="15"/>
       <c r="E136" s="17" t="s">
-        <v>515</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="G136" s="15">
-        <v>2013</v>
-      </c>
-      <c r="H136" s="15" t="s">
-        <v>440</v>
-      </c>
+        <v>514</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="G136" s="15"/>
+      <c r="H136" s="16"/>
       <c r="I136" s="16" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
       <c r="J136" s="16" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="K136" s="16"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>446</v>
@@ -7446,13 +7483,13 @@
         <v>515</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G137" s="15">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="H137" s="15" t="s">
-        <v>30</v>
+        <v>440</v>
       </c>
       <c r="I137" s="16" t="s">
         <v>411</v>
@@ -7464,7 +7501,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B138" s="18" t="s">
         <v>446</v>
@@ -7477,7 +7514,7 @@
         <v>515</v>
       </c>
       <c r="F138" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G138" s="15">
         <v>2010</v>
@@ -7495,7 +7532,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>446</v>
@@ -7508,7 +7545,7 @@
         <v>515</v>
       </c>
       <c r="F139" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G139" s="15">
         <v>2010</v>
@@ -7526,69 +7563,69 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="B140" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="D140" s="15"/>
       <c r="E140" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F140" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="G140" s="15" t="s">
-        <v>14</v>
+        <v>233</v>
+      </c>
+      <c r="G140" s="15">
+        <v>2010</v>
       </c>
       <c r="H140" s="15" t="s">
-        <v>317</v>
+        <v>30</v>
       </c>
       <c r="I140" s="16" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="J140" s="16" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K140" s="16"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B141" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>347</v>
+        <v>460</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="G141" s="15">
-        <v>1979</v>
+        <v>298</v>
+      </c>
+      <c r="G141" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H141" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="I141" s="15" t="s">
-        <v>427</v>
+        <v>317</v>
+      </c>
+      <c r="I141" s="16" t="s">
+        <v>370</v>
       </c>
       <c r="J141" s="16" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K141" s="16"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>446</v>
@@ -7601,13 +7638,13 @@
         <v>517</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G142" s="15">
-        <v>1992</v>
+        <v>1979</v>
       </c>
       <c r="H142" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I142" s="15" t="s">
         <v>427</v>
@@ -7619,7 +7656,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B143" s="18" t="s">
         <v>446</v>
@@ -7632,7 +7669,7 @@
         <v>517</v>
       </c>
       <c r="F143" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G143" s="15">
         <v>1992</v>
@@ -7650,7 +7687,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B144" s="18" t="s">
         <v>446</v>
@@ -7663,13 +7700,13 @@
         <v>517</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G144" s="15">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="H144" s="15" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="I144" s="15" t="s">
         <v>427</v>
@@ -7681,7 +7718,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B145" s="18" t="s">
         <v>446</v>
@@ -7694,10 +7731,10 @@
         <v>517</v>
       </c>
       <c r="F145" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G145" s="15">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="H145" s="15" t="s">
         <v>441</v>
@@ -7712,7 +7749,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B146" s="18" t="s">
         <v>446</v>
@@ -7725,10 +7762,10 @@
         <v>517</v>
       </c>
       <c r="F146" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G146" s="15">
-        <v>1986</v>
+        <v>2011</v>
       </c>
       <c r="H146" s="15" t="s">
         <v>441</v>
@@ -7743,7 +7780,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>446</v>
@@ -7756,10 +7793,10 @@
         <v>517</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="G147" s="15" t="s">
-        <v>14</v>
+        <v>304</v>
+      </c>
+      <c r="G147" s="15">
+        <v>1986</v>
       </c>
       <c r="H147" s="15" t="s">
         <v>441</v>
@@ -7774,7 +7811,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="17" t="s">
-        <v>346</v>
+        <v>217</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>446</v>
@@ -7786,12 +7823,16 @@
       <c r="E148" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="F148" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="G148" s="15"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="16" t="s">
+      <c r="F148" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="G148" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="I148" s="15" t="s">
         <v>427</v>
       </c>
       <c r="J148" s="16" t="s">
@@ -7801,69 +7842,65 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="17" t="s">
-        <v>218</v>
+        <v>346</v>
       </c>
       <c r="B149" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>473</v>
+        <v>347</v>
       </c>
       <c r="D149" s="15"/>
       <c r="E149" s="17" t="s">
-        <v>518</v>
-      </c>
-      <c r="F149" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="G149" s="15">
-        <v>1998</v>
-      </c>
-      <c r="H149" s="15" t="s">
-        <v>361</v>
-      </c>
+        <v>517</v>
+      </c>
+      <c r="F149" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="G149" s="15"/>
+      <c r="H149" s="16"/>
       <c r="I149" s="16" t="s">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="J149" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K149" s="16"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B150" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D150" s="15"/>
       <c r="E150" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="G150" s="15" t="s">
-        <v>14</v>
+        <v>306</v>
+      </c>
+      <c r="G150" s="15">
+        <v>1998</v>
       </c>
       <c r="H150" s="15" t="s">
-        <v>33</v>
+        <v>361</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J150" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K150" s="16"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>446</v>
@@ -7876,7 +7913,7 @@
         <v>519</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G151" s="15" t="s">
         <v>14</v>
@@ -7894,38 +7931,38 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B152" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D152" s="15"/>
       <c r="E152" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="F152" s="15">
-        <v>266</v>
-      </c>
-      <c r="G152" s="15">
-        <v>2000</v>
+        <v>519</v>
+      </c>
+      <c r="F152" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="G152" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="H152" s="15" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="I152" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J152" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K152" s="16"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B153" s="18" t="s">
         <v>446</v>
@@ -7938,10 +7975,10 @@
         <v>520</v>
       </c>
       <c r="F153" s="15">
-        <v>8023</v>
+        <v>266</v>
       </c>
       <c r="G153" s="15">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="H153" s="15" t="s">
         <v>66</v>
@@ -7956,38 +7993,38 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="17" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B154" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D154" s="15"/>
       <c r="E154" s="17" t="s">
-        <v>521</v>
-      </c>
-      <c r="F154" s="15" t="s">
-        <v>314</v>
+        <v>520</v>
+      </c>
+      <c r="F154" s="15">
+        <v>8023</v>
       </c>
       <c r="G154" s="15">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="H154" s="15" t="s">
-        <v>442</v>
+        <v>66</v>
       </c>
       <c r="I154" s="16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J154" s="16" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="K154" s="16"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B155" s="18" t="s">
         <v>446</v>
@@ -8000,13 +8037,13 @@
         <v>521</v>
       </c>
       <c r="F155" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G155" s="15">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="H155" s="15" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I155" s="16" t="s">
         <v>369</v>
@@ -8018,212 +8055,232 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="17" t="s">
-        <v>477</v>
+        <v>229</v>
       </c>
       <c r="B156" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="F156" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="G156" s="16"/>
-      <c r="H156" s="16"/>
+        <v>521</v>
+      </c>
+      <c r="F156" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="G156" s="15">
+        <v>2005</v>
+      </c>
+      <c r="H156" s="15" t="s">
+        <v>444</v>
+      </c>
       <c r="I156" s="16" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="J156" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="K156" s="9"/>
+        <v>426</v>
+      </c>
+      <c r="K156" s="16"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="17" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B157" s="18" t="s">
         <v>446</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="17" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F157" s="16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G157" s="16"/>
       <c r="H157" s="16"/>
       <c r="I157" s="16" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="J157" s="16" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="K157" s="9"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="17" t="s">
-        <v>332</v>
+        <v>476</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>383</v>
+        <v>479</v>
       </c>
       <c r="D158" s="15"/>
-      <c r="F158" t="s">
-        <v>333</v>
-      </c>
-      <c r="I158" t="s">
-        <v>481</v>
+      <c r="E158" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="F158" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
+      <c r="I158" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="J158" s="16" t="s">
+        <v>425</v>
       </c>
       <c r="K158" s="9"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="17" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B159" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="D159" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="E159" s="16"/>
+        <v>383</v>
+      </c>
+      <c r="D159" s="15"/>
       <c r="F159" t="s">
-        <v>486</v>
-      </c>
-      <c r="H159" t="s">
-        <v>485</v>
-      </c>
-      <c r="I159" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="J159" s="16" t="s">
-        <v>484</v>
+        <v>333</v>
+      </c>
+      <c r="I159" t="s">
+        <v>481</v>
       </c>
       <c r="K159" s="9"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C160" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="E160" s="16"/>
+      <c r="F160" t="s">
+        <v>486</v>
+      </c>
+      <c r="H160" t="s">
+        <v>485</v>
+      </c>
+      <c r="I160" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="J160" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="K160" s="9"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="B160" s="18" t="s">
+      <c r="B161" s="18" t="s">
         <v>489</v>
-      </c>
-      <c r="C160" s="18"/>
-      <c r="D160" s="15"/>
-      <c r="F160" t="s">
-        <v>482</v>
-      </c>
-      <c r="I160" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="J160" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="K160" s="9"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A161" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="B161" s="18" t="s">
-        <v>487</v>
       </c>
       <c r="C161" s="18"/>
       <c r="D161" s="15"/>
-      <c r="F161" s="35" t="s">
+      <c r="F161" t="s">
+        <v>482</v>
+      </c>
+      <c r="I161" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="J161" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="K161" s="9"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C162" s="18"/>
+      <c r="D162" s="15"/>
+      <c r="F162" s="35" t="s">
         <v>492</v>
-      </c>
-      <c r="H161" t="s">
-        <v>19</v>
-      </c>
-      <c r="I161" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="J161" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A162" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="B162" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="C162" s="17" t="s">
-        <v>345</v>
-      </c>
-      <c r="D162" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F162" s="35" t="s">
-        <v>490</v>
       </c>
       <c r="H162" t="s">
         <v>19</v>
       </c>
       <c r="I162" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="J162" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="C163" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" s="35" t="s">
+        <v>490</v>
+      </c>
+      <c r="H163" t="s">
+        <v>19</v>
+      </c>
+      <c r="I163" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="J162" s="16" t="s">
+      <c r="J163" s="16" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="17" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="164" spans="1:11" ht="17" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>526</v>
       </c>
-      <c r="B163" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C163" s="36" t="s">
+      <c r="B164" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C164" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="D163" s="36" t="s">
+      <c r="D164" s="36" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>527</v>
       </c>
-      <c r="B164" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="B165" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C165" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>528</v>
-      </c>
-      <c r="B165" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C165" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>529</v>
       </c>
       <c r="B166" s="18" t="s">
         <v>446</v>
@@ -8232,42 +8289,42 @@
         <v>463</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>529</v>
+      </c>
+      <c r="B167" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C167" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>530</v>
       </c>
-      <c r="B167" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="B168" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C168" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>531</v>
       </c>
-      <c r="B168" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="B169" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C169" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>532</v>
-      </c>
-      <c r="B169" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="C169" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>533</v>
       </c>
       <c r="B170" s="18" t="s">
         <v>446</v>
@@ -8276,12 +8333,23 @@
         <v>535</v>
       </c>
     </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>533</v>
+      </c>
+      <c r="B171" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C171" t="s">
+        <v>535</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L151">
-    <sortCondition sortBy="cellColor" ref="C2:C151" dxfId="0"/>
-    <sortCondition ref="C2:C151"/>
-    <sortCondition ref="D2:D151"/>
-    <sortCondition ref="E2:E151"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L152">
+    <sortCondition sortBy="cellColor" ref="C2:C152" dxfId="3"/>
+    <sortCondition ref="C2:C152"/>
+    <sortCondition ref="D2:D152"/>
+    <sortCondition ref="E2:E152"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
